--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web3\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0D624-F12C-4514-959F-992143F46C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243BF90-10B2-48AB-B5CF-809E1DCA4F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
     <sheet name="WR-Youth" sheetId="2" r:id="rId2"/>
     <sheet name="WR-Open" sheetId="4" r:id="rId3"/>
-    <sheet name="2024" sheetId="6" r:id="rId4"/>
-    <sheet name="2025" sheetId="5" r:id="rId5"/>
-    <sheet name="2026" sheetId="8" r:id="rId6"/>
+    <sheet name="DP" sheetId="10" r:id="rId4"/>
+    <sheet name="2024" sheetId="6" r:id="rId5"/>
+    <sheet name="2025" sheetId="5" r:id="rId6"/>
+    <sheet name="2026" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="193">
   <si>
     <t>50m Retten</t>
   </si>
@@ -698,6 +699,102 @@
   </si>
   <si>
     <t>50m Retten - 17/18 - M</t>
+  </si>
+  <si>
+    <t>Tabellen Name</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>Mindest alter</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Qualizeitraum anfang</t>
+  </si>
+  <si>
+    <t>Qualizeitraum Ende</t>
+  </si>
+  <si>
+    <t>Letzter Wettkampf am</t>
+  </si>
+  <si>
+    <t>Landesverband</t>
+  </si>
+  <si>
+    <t>Pool-Länge</t>
+  </si>
+  <si>
+    <t>OMS</t>
+  </si>
+  <si>
+    <t>Regelwerk</t>
+  </si>
+  <si>
+    <t>Referenz</t>
+  </si>
+  <si>
+    <t>3-Kampf Regel</t>
+  </si>
+  <si>
+    <t>Anzahl Nominierte</t>
+  </si>
+  <si>
+    <t>Anzahl Nachrücker</t>
+  </si>
+  <si>
+    <t>Seiten Anzahl</t>
+  </si>
+  <si>
+    <t>4-Kampf</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>1.11.Jahr - 1</t>
+  </si>
+  <si>
+    <t>30.10.Jahr</t>
+  </si>
+  <si>
+    <t>1.1.Jahr</t>
+  </si>
+  <si>
+    <t>Absagen</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Daniel Bittighofer, Roland Konietzny</t>
+  </si>
+  <si>
+    <t>Regina Blonski</t>
+  </si>
+  <si>
+    <t>Referenz Jahr</t>
+  </si>
+  <si>
+    <t>Jahr + 1</t>
+  </si>
+  <si>
+    <t>Mindest Punktzahl</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1139,14 +1236,78 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="123">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
       </font>
     </dxf>
     <dxf>
@@ -1205,34 +1366,67 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3226,108 +3420,158 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="119">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="84"/>
+    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="111"/>
     <tableColumn id="10" xr3:uid="{598FC6AE-DEA2-4475-9A35-CDCB8C81496A}" name="100m Kombi - offen - M"/>
     <tableColumn id="11" xr3:uid="{9FC50B37-0D51-422E-A268-A6506D4F3854}" name="100m Lifesaver - offen - M"/>
     <tableColumn id="12" xr3:uid="{B8D2552B-5D82-442A-98F0-E47D5C5F6728}" name="200m Superlifesaver - offen - M"/>
-    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="80"/>
-    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="79"/>
-    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="78"/>
-    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="76"/>
-    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="73"/>
-    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="72"/>
-    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="71"/>
-    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="70"/>
-    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="69"/>
-    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="68"/>
-    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="67"/>
-    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="66"/>
-    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="64"/>
-    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="63"/>
-    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="62"/>
-    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="61"/>
-    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="60"/>
-    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="59"/>
-    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="56"/>
-    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="55"/>
-    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="54"/>
-    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="53"/>
-    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="52"/>
-    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="51"/>
-    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="50"/>
-    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="49"/>
-    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="48"/>
-    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="110"/>
+    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="109"/>
+    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="108"/>
+    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="107"/>
+    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="106"/>
+    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="105"/>
+    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="104"/>
+    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="103"/>
+    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="102"/>
+    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="101"/>
+    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="100"/>
+    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="99"/>
+    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="98"/>
+    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="97"/>
+    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="96"/>
+    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="95"/>
+    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="94"/>
+    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="93"/>
+    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="92"/>
+    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="91"/>
+    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="90"/>
+    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="89"/>
+    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="88"/>
+    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="87"/>
+    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="86"/>
+    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="85"/>
+    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="84"/>
+    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="83"/>
+    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="82"/>
+    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="81"/>
+    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="80"/>
+    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="79"/>
+    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="78"/>
+    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="77"/>
+    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="76"/>
+    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="75"/>
+    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M31" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
-  <autoFilter ref="A4:M31" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
+  <autoFilter ref="A4:M32" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M31" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
-  <autoFilter ref="A4:M31" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="A4:M32" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="53">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="45"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi2"/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver2"/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver2"/>
     <tableColumn id="13" xr3:uid="{18A5C8DC-8C8E-4F2D-BDD1-01D37942869A}" name="200m Hindernis2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:T3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+  <autoFilter ref="A1:T3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="31"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="30"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="29"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="28"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3650,7 +3894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519F5DB-31A0-4819-8E86-33B1F16466A6}">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
@@ -7269,52 +7513,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="21" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7330,10 +7574,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2B168-68B3-410F-B4A6-8D511F9C32E0}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7529,7 +7773,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A31" si="0">A5+1</f>
+        <f t="shared" ref="A6:A32" si="0">A5+1</f>
         <v>2001</v>
       </c>
       <c r="B6" s="10"/>
@@ -8283,25 +8527,77 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3.8287037037037033E-4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7.9976851851851845E-4</v>
+      </c>
+      <c r="E32" s="10">
+        <v>6.607638888888889E-4</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.6468749999999999E-3</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1.4339120370370371E-3</v>
+      </c>
+      <c r="H32" s="10">
+        <v>3.3425925925925924E-4</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5.2685185185185192E-4</v>
+      </c>
+      <c r="J32" s="10">
+        <v>6.9027777777777783E-4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>5.7881944444444441E-4</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1.4707175925925927E-3</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1.3511574074074075E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>B6&lt;&gt;B4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:G31">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H6:M6">
+    <cfRule type="expression" dxfId="11" priority="22">
+      <formula>H6&lt;&gt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H7:M31">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="1" priority="18">
-      <formula>B6&lt;&gt;B4</formula>
+  <conditionalFormatting sqref="B32:G32">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>B32&lt;&gt;B31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>H6&lt;&gt;H4</formula>
+  <conditionalFormatting sqref="H32:M32">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>H32&lt;&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8315,10 +8611,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FFB6C-7DEA-4C95-82B5-1769BD3934D8}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9592,25 +9888,77 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f>A31+1</f>
+        <v>2027</v>
+      </c>
+      <c r="B32" s="10">
+        <v>3.6435185185185187E-4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5.7060185185185187E-4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>7.3715277777777776E-4</v>
+      </c>
+      <c r="E32" s="10">
+        <v>6.2731481481481481E-4</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1.5748842592592594E-3</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1.4106481481481481E-3</v>
+      </c>
+      <c r="H32" s="10">
+        <v>3.1481481481481481E-4</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5.0104166666666667E-4</v>
+      </c>
+      <c r="J32" s="10">
+        <v>6.648148148148148E-4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>5.5185185185185187E-4</v>
+      </c>
+      <c r="L32" s="10">
+        <v>1.4233796296296295E-3</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1.2931712962962962E-3</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="expression" dxfId="7" priority="19">
+      <formula>B6&lt;&gt;B4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B7:G31">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H6:M6">
+    <cfRule type="expression" dxfId="5" priority="20">
+      <formula>H6&lt;&gt;H4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H7:M31">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>B6&lt;&gt;B4</formula>
+  <conditionalFormatting sqref="B32:G32">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>B32&lt;&gt;B31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>H6&lt;&gt;H4</formula>
+  <conditionalFormatting sqref="H32:M32">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>H32&lt;&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9622,9 +9970,229 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E427F-1458-41E5-8334-8536EBB7542D}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="62">
+        <v>15</v>
+      </c>
+      <c r="D2" s="62">
+        <v>50</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="62">
+        <v>0</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>6</v>
+      </c>
+      <c r="R2" s="62">
+        <v>2</v>
+      </c>
+      <c r="S2" s="62">
+        <v>10</v>
+      </c>
+      <c r="T2" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="62">
+        <v>15</v>
+      </c>
+      <c r="D3" s="62">
+        <v>50</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="62">
+        <v>0</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>6</v>
+      </c>
+      <c r="R3" s="62">
+        <v>2</v>
+      </c>
+      <c r="S3" s="62">
+        <v>10</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
   <sheetPr codeName="Tabelle3">
-    <tabColor theme="4"/>
+    <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -10382,7 +10950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
   <sheetPr codeName="Tabelle4">
     <tabColor theme="4"/>
@@ -11178,13 +11746,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
-  <sheetPr codeName="Tabelle5"/>
+  <sheetPr codeName="Tabelle5">
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243BF90-10B2-48AB-B5CF-809E1DCA4F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C1C67-14DC-4A9F-898B-2B09FDAA21C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="196">
   <si>
     <t>50m Retten</t>
   </si>
@@ -795,6 +795,15 @@
   </si>
   <si>
     <t>Mindest Punktzahl</t>
+  </si>
+  <si>
+    <t>1.11.Jahr - 2</t>
+  </si>
+  <si>
+    <t>30.10.Jahr - 1</t>
+  </si>
+  <si>
+    <t>1.1.Jahr - 1</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1236,12 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,35 +1251,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
+  <dxfs count="118">
     <dxf>
       <font>
         <color theme="6"/>
@@ -1278,16 +1269,6 @@
     <dxf>
       <font>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
       </font>
     </dxf>
     <dxf>
@@ -1372,7 +1353,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1427,6 +1408,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3420,102 +3404,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="122" headerRowBorderDxfId="121" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="119">
+    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="114">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="112"/>
-    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="106"/>
     <tableColumn id="10" xr3:uid="{598FC6AE-DEA2-4475-9A35-CDCB8C81496A}" name="100m Kombi - offen - M"/>
     <tableColumn id="11" xr3:uid="{9FC50B37-0D51-422E-A268-A6506D4F3854}" name="100m Lifesaver - offen - M"/>
     <tableColumn id="12" xr3:uid="{B8D2552B-5D82-442A-98F0-E47D5C5F6728}" name="200m Superlifesaver - offen - M"/>
-    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="110"/>
-    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="109"/>
-    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="108"/>
-    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="107"/>
-    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="106"/>
-    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="105"/>
-    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="104"/>
-    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="103"/>
-    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="102"/>
-    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="101"/>
-    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="100"/>
-    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="99"/>
-    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="98"/>
-    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="97"/>
-    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="96"/>
-    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="95"/>
-    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="94"/>
-    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="93"/>
-    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="92"/>
-    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="91"/>
-    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="90"/>
-    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="89"/>
-    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="88"/>
-    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="87"/>
-    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="86"/>
-    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="85"/>
-    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="84"/>
-    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="83"/>
-    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="82"/>
-    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="81"/>
-    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="80"/>
-    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="79"/>
-    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="78"/>
-    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="77"/>
-    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="76"/>
-    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="75"/>
-    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="74"/>
+    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="105"/>
+    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="104"/>
+    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="103"/>
+    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="102"/>
+    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="101"/>
+    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="100"/>
+    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="99"/>
+    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="98"/>
+    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="97"/>
+    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="96"/>
+    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="95"/>
+    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="94"/>
+    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="93"/>
+    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="92"/>
+    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="91"/>
+    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="90"/>
+    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="89"/>
+    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="88"/>
+    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="87"/>
+    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="86"/>
+    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="85"/>
+    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="84"/>
+    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="83"/>
+    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="82"/>
+    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="81"/>
+    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="80"/>
+    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="79"/>
+    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="78"/>
+    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="77"/>
+    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="76"/>
+    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="75"/>
+    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="74"/>
+    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="73"/>
+    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="72"/>
+    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="71"/>
+    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="70"/>
+    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
   <autoFilter ref="A4:M32" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="60"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="58"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="56" headerRowBorderDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A4:M32" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="48">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="40"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi2"/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver2"/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver2"/>
@@ -3526,7 +3510,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:T3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:T3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:T3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3550,26 +3534,26 @@
     <filterColumn colId="19" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="35"/>
-    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="33"/>
-    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="25"/>
     <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="31"/>
-    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="30"/>
-    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7513,52 +7497,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8571,33 +8555,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:G31">
-    <cfRule type="expression" dxfId="12" priority="3">
+  <conditionalFormatting sqref="B7:G32">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="11" priority="22">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:M31">
-    <cfRule type="expression" dxfId="10" priority="4">
+  <conditionalFormatting sqref="H7:M32">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H7&lt;&gt;H6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:G32">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>B32&lt;&gt;B31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:M32">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>H32&lt;&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9932,33 +9906,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:G31">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="B7:G32">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:M31">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="H7:M32">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H7&lt;&gt;H6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:G32">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>B32&lt;&gt;B31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:M32">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>H32&lt;&gt;H31</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9976,8 +9940,8 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10004,180 +9968,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="60" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="59">
         <v>15</v>
       </c>
-      <c r="D2" s="62">
+      <c r="D2" s="59">
         <v>50</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="O2" s="59">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="59">
+        <v>6</v>
+      </c>
+      <c r="R2" s="59">
+        <v>2</v>
+      </c>
+      <c r="S2" s="59">
+        <v>10</v>
+      </c>
+      <c r="T2" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59">
+        <v>50</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F3" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G3" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H3" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I3" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J3" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N3" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="62">
+      <c r="O3" s="59">
         <v>0</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P3" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="62">
+      <c r="Q3" s="59">
         <v>6</v>
       </c>
-      <c r="R2" s="62">
+      <c r="R3" s="59">
         <v>2</v>
       </c>
-      <c r="S2" s="62">
+      <c r="S3" s="59">
         <v>10</v>
       </c>
-      <c r="T2" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="62">
-        <v>15</v>
-      </c>
-      <c r="D3" s="62">
-        <v>50</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="O3" s="62">
-        <v>0</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q3" s="62">
-        <v>6</v>
-      </c>
-      <c r="R3" s="62">
-        <v>2</v>
-      </c>
-      <c r="S3" s="62">
-        <v>10</v>
-      </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="59" t="s">
         <v>188</v>
       </c>
     </row>
@@ -10421,38 +10385,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -10617,38 +10581,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14"/>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="L14" s="61" t="s">
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
       <c r="G15"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -11182,38 +11146,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -11378,35 +11342,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="H14" s="61" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="L14" s="61" t="s">
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -11978,38 +11942,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -12174,35 +12138,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="H14" s="61" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="L14" s="61" t="s">
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="L15" s="61"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C1C67-14DC-4A9F-898B-2B09FDAA21C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2E26E-B77A-482E-B7E2-33FE3BBD0935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -704,9 +704,6 @@
     <t>Tabellen Name</t>
   </si>
   <si>
-    <t>Weiblich</t>
-  </si>
-  <si>
     <t>Mindest alter</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>Absagen</t>
   </si>
   <si>
-    <t>Männlich</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -804,6 +798,12 @@
   </si>
   <si>
     <t>1.1.Jahr - 1</t>
+  </si>
+  <si>
+    <t>Weiblich 1</t>
+  </si>
+  <si>
+    <t>Männlich 2</t>
   </si>
 </sst>
 </file>
@@ -9941,7 +9941,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9972,69 +9972,69 @@
         <v>161</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>167</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>168</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="60" t="s">
+      <c r="M1" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="N1" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="P1" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" s="60" t="s">
+      <c r="Q1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="60" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="59">
         <v>15</v>
@@ -10043,22 +10043,22 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>195</v>
-      </c>
       <c r="H2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>179</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>180</v>
       </c>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -10066,13 +10066,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q2" s="59">
         <v>6</v>
@@ -10084,15 +10084,15 @@
         <v>10</v>
       </c>
       <c r="T2" s="59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="59">
         <v>15</v>
@@ -10101,22 +10101,22 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="59" t="s">
-        <v>184</v>
-      </c>
       <c r="H3" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="J3" s="59" t="s">
         <v>179</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>180</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
@@ -10124,13 +10124,13 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="59">
         <v>6</v>
@@ -10142,7 +10142,7 @@
         <v>10</v>
       </c>
       <c r="T3" s="59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2E26E-B77A-482E-B7E2-33FE3BBD0935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8D0D8-CF85-4A93-A718-ECD76B51D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="198">
   <si>
     <t>50m Retten</t>
   </si>
@@ -804,6 +804,12 @@
   </si>
   <si>
     <t>Männlich 2</t>
+  </si>
+  <si>
+    <t>Mindest Disziplinen</t>
+  </si>
+  <si>
+    <t>3-Kampf</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1261,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="118">
+  <dxfs count="119">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color theme="6"/>
@@ -3404,102 +3413,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="115">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="107"/>
     <tableColumn id="10" xr3:uid="{598FC6AE-DEA2-4475-9A35-CDCB8C81496A}" name="100m Kombi - offen - M"/>
     <tableColumn id="11" xr3:uid="{9FC50B37-0D51-422E-A268-A6506D4F3854}" name="100m Lifesaver - offen - M"/>
     <tableColumn id="12" xr3:uid="{B8D2552B-5D82-442A-98F0-E47D5C5F6728}" name="200m Superlifesaver - offen - M"/>
-    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="105"/>
-    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="104"/>
-    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="103"/>
-    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="102"/>
-    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="101"/>
-    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="100"/>
-    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="99"/>
-    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="98"/>
-    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="97"/>
-    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="96"/>
-    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="95"/>
-    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="94"/>
-    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="93"/>
-    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="92"/>
-    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="91"/>
-    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="90"/>
-    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="89"/>
-    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="88"/>
-    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="87"/>
-    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="86"/>
-    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="85"/>
-    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="84"/>
-    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="83"/>
-    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="82"/>
-    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="81"/>
-    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="80"/>
-    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="79"/>
-    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="78"/>
-    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="77"/>
-    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="76"/>
-    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="75"/>
-    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="74"/>
-    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="73"/>
-    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="72"/>
-    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="71"/>
-    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="70"/>
-    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="106"/>
+    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="105"/>
+    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="104"/>
+    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="103"/>
+    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="102"/>
+    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="101"/>
+    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="100"/>
+    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="99"/>
+    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="98"/>
+    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="97"/>
+    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="96"/>
+    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="95"/>
+    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="94"/>
+    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="93"/>
+    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="92"/>
+    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="91"/>
+    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="90"/>
+    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="89"/>
+    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="88"/>
+    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="87"/>
+    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="86"/>
+    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="85"/>
+    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="84"/>
+    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="83"/>
+    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="82"/>
+    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="81"/>
+    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="80"/>
+    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="79"/>
+    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="78"/>
+    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="77"/>
+    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="76"/>
+    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="75"/>
+    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="74"/>
+    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="73"/>
+    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="72"/>
+    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="71"/>
+    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A4:M32" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="59"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="56"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="A4:M32" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="49">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="41"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi2"/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver2"/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver2"/>
@@ -3510,8 +3519,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:T3" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:T3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:U3" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:U3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3532,28 +3541,30 @@
     <filterColumn colId="17" hiddenButton="1"/>
     <filterColumn colId="18" hiddenButton="1"/>
     <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="18"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7497,52 +7508,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8555,22 +8566,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9906,22 +9917,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="4" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="2" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9938,10 +9949,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9960,14 +9971,14 @@
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -10014,22 +10025,25 @@
         <v>190</v>
       </c>
       <c r="P1" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="T1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="U1" s="60" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>194</v>
       </c>
@@ -10052,7 +10066,7 @@
         <v>193</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="I2" s="59" t="s">
         <v>178</v>
@@ -10071,23 +10085,26 @@
       <c r="O2" s="59">
         <v>0</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="59">
+      <c r="R2" s="59">
         <v>6</v>
       </c>
-      <c r="R2" s="59">
+      <c r="S2" s="59">
         <v>2</v>
       </c>
-      <c r="S2" s="59">
+      <c r="T2" s="59">
         <v>10</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="U2" s="59" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>195</v>
       </c>
@@ -10129,19 +10146,22 @@
       <c r="O3" s="59">
         <v>0</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="Q3" s="59">
+      <c r="R3" s="59">
         <v>6</v>
       </c>
-      <c r="R3" s="59">
+      <c r="S3" s="59">
         <v>2</v>
       </c>
-      <c r="S3" s="59">
+      <c r="T3" s="59">
         <v>10</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="U3" s="59" t="s">
         <v>186</v>
       </c>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8D0D8-CF85-4A93-A718-ECD76B51D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F7FFA-11B2-473A-B89F-401C2BD4DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -1263,9 +1263,6 @@
   </cellStyles>
   <dxfs count="119">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color theme="6"/>
       </font>
@@ -1354,6 +1351,9 @@
       <font>
         <color theme="4"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3559,12 +3559,12 @@
     <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="26"/>
     <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="25"/>
     <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7508,52 +7508,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8566,22 +8566,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9917,22 +9917,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="4" priority="19">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9951,8 +9951,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07F7FFA-11B2-473A-B89F-401C2BD4DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932DC8A-2985-496E-9091-6397CA6397CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="194">
   <si>
     <t>50m Retten</t>
   </si>
@@ -761,15 +761,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>1.11.Jahr - 1</t>
-  </si>
-  <si>
-    <t>30.10.Jahr</t>
-  </si>
-  <si>
-    <t>1.1.Jahr</t>
-  </si>
-  <si>
     <t>Absagen</t>
   </si>
   <si>
@@ -807,9 +798,6 @@
   </si>
   <si>
     <t>Mindest Disziplinen</t>
-  </si>
-  <si>
-    <t>3-Kampf</t>
   </si>
 </sst>
 </file>
@@ -9951,8 +9939,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10019,13 +10007,13 @@
         <v>172</v>
       </c>
       <c r="N1" s="60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O1" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P1" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="60" t="s">
         <v>173</v>
@@ -10040,12 +10028,12 @@
         <v>176</v>
       </c>
       <c r="U1" s="60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -10057,16 +10045,16 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="I2" s="59" t="s">
         <v>178</v>
@@ -10080,7 +10068,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -10101,15 +10089,15 @@
         <v>10</v>
       </c>
       <c r="U2" s="59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C3" s="59">
         <v>15</v>
@@ -10118,13 +10106,13 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>177</v>
@@ -10141,7 +10129,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
@@ -10162,7 +10150,7 @@
         <v>10</v>
       </c>
       <c r="U3" s="59" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4932DC8A-2985-496E-9091-6397CA6397CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D29C18-13FD-416F-848E-1BDB665170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
     <sheet name="WR-Youth" sheetId="2" r:id="rId2"/>
     <sheet name="WR-Open" sheetId="4" r:id="rId3"/>
     <sheet name="DP" sheetId="10" r:id="rId4"/>
-    <sheet name="2024" sheetId="6" r:id="rId5"/>
-    <sheet name="2025" sheetId="5" r:id="rId6"/>
-    <sheet name="2026" sheetId="8" r:id="rId7"/>
+    <sheet name="BP" sheetId="11" r:id="rId5"/>
+    <sheet name="2024" sheetId="6" r:id="rId6"/>
+    <sheet name="2025" sheetId="5" r:id="rId7"/>
+    <sheet name="2026" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -216,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="203">
   <si>
     <t>50m Retten</t>
   </si>
@@ -798,6 +799,33 @@
   </si>
   <si>
     <t>Mindest Disziplinen</t>
+  </si>
+  <si>
+    <t>1.1.Jahr - 2</t>
+  </si>
+  <si>
+    <t>30.6.Jahr - 1</t>
+  </si>
+  <si>
+    <t>27.7.Jahr - 2</t>
+  </si>
+  <si>
+    <t>Weiblich Offen</t>
+  </si>
+  <si>
+    <t>Männlich Offen</t>
+  </si>
+  <si>
+    <t>Weiblich 17/18</t>
+  </si>
+  <si>
+    <t>Männlich 17/18</t>
+  </si>
+  <si>
+    <t>Weiblich 15/16</t>
+  </si>
+  <si>
+    <t>Männlich 15/16</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1277,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="142">
     <dxf>
       <font>
         <color theme="6"/>
@@ -1339,6 +1367,75 @@
       <font>
         <color theme="4"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3401,102 +3498,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="115">
+    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="138">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="131"/>
+    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="130"/>
     <tableColumn id="10" xr3:uid="{598FC6AE-DEA2-4475-9A35-CDCB8C81496A}" name="100m Kombi - offen - M"/>
     <tableColumn id="11" xr3:uid="{9FC50B37-0D51-422E-A268-A6506D4F3854}" name="100m Lifesaver - offen - M"/>
     <tableColumn id="12" xr3:uid="{B8D2552B-5D82-442A-98F0-E47D5C5F6728}" name="200m Superlifesaver - offen - M"/>
-    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="106"/>
-    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="105"/>
-    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="104"/>
-    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="103"/>
-    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="102"/>
-    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="101"/>
-    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="100"/>
-    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="99"/>
-    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="98"/>
-    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="97"/>
-    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="96"/>
-    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="95"/>
-    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="94"/>
-    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="93"/>
-    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="92"/>
-    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="91"/>
-    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="90"/>
-    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="89"/>
-    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="88"/>
-    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="87"/>
-    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="86"/>
-    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="85"/>
-    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="84"/>
-    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="83"/>
-    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="82"/>
-    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="81"/>
-    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="80"/>
-    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="79"/>
-    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="78"/>
-    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="77"/>
-    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="76"/>
-    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="75"/>
-    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="74"/>
-    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="73"/>
-    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="72"/>
-    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="71"/>
-    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="70"/>
+    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="129"/>
+    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="128"/>
+    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="127"/>
+    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="126"/>
+    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="125"/>
+    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="124"/>
+    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="123"/>
+    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="122"/>
+    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="121"/>
+    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="120"/>
+    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="119"/>
+    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="118"/>
+    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="117"/>
+    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="116"/>
+    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="115"/>
+    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="114"/>
+    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="113"/>
+    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="112"/>
+    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="111"/>
+    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="110"/>
+    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="109"/>
+    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="108"/>
+    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="107"/>
+    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="106"/>
+    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="105"/>
+    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="104"/>
+    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="103"/>
+    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="102"/>
+    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="101"/>
+    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="100"/>
+    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="99"/>
+    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="98"/>
+    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="97"/>
+    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="96"/>
+    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="95"/>
+    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="94"/>
+    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89">
   <autoFilter ref="A4:M32" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="56"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="79"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="78"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="77"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="A4:M32" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="72">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="64"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi2"/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver2"/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver2"/>
@@ -3507,7 +3604,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:U3" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:U3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A1:U3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3532,27 +3629,57 @@
     <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="48"/>
+    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="47"/>
+    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="44"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CDBF6724-48A1-41AB-94B5-CC35C54BB15C}" name="DP_konfig6" displayName="DP_konfig6" ref="A1:U7" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:U7" xr:uid="{CDBF6724-48A1-41AB-94B5-CC35C54BB15C}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{E1FB3D0C-B874-4874-BACC-6872CF171957}" name="Tabellen Name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{FFDD2777-2097-450C-B020-F133CF643855}" name="Geschlecht" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{8CF52BE2-8020-48BD-A36D-63F13A1878DE}" name="Mindest alter" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{FD3A030F-CD97-4B6F-8E8C-BC2E67D79F1D}" name="Maximales Alter" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{3E22B645-D77C-4509-B031-9914FCB91599}" name="Qualizeitraum anfang" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{AE299324-3C1C-4063-ADF9-54555A161734}" name="Qualizeitraum Ende" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DCC178B3-11FC-4C53-BBC6-C2FDA2C89857}" name="Letzter Wettkampf am" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{2811DB01-60A5-4BE4-B6F9-A806398A602A}" name="Wertung" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{0C16DAFE-847D-4E9E-9604-3A7D9FE924D0}" name="Landesverband" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{7A8A4101-A553-4BD5-9116-9AA5876B9401}" name="OMS" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{9807C9BD-6499-45F6-ACE0-4D13D64EF675}" name="Pool-Länge" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{13D336DD-650F-4F2C-836F-361CA1528F6D}" name="Regelwerk" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{66660E2D-ADF2-4FB5-8A13-004F826EE908}" name="Referenz" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{D72EDF8B-ECC3-4FF7-ABE6-B60BCE4A5E26}" name="Referenz Jahr" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{7B18E667-70F7-4BC1-AB1B-21C019F2AA89}" name="Mindest Punktzahl" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{FC185946-681B-42A6-AB1A-FC1EABB668C5}" name="Mindest Disziplinen" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{6A2676FD-2EC7-4C41-A35E-A1597A38F932}" name="3-Kampf Regel" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{718E0917-4F83-4A2B-832F-EBB16D5E21BF}" name="Anzahl Nominierte" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{5C66A461-D647-4E00-A81C-FD7AD44D7CC2}" name="Anzahl Nachrücker" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{D434BDEC-293B-4B4E-A5E9-479438960A03}" name="Seiten Anzahl" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{80908229-9247-473F-81C0-9C9D4C12FF06}" name="Absagen" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9939,8 +10066,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10162,6 +10289,471 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997671C-060D-4DE3-898D-CFDBFAA908F9}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="59">
+        <v>19</v>
+      </c>
+      <c r="D2" s="59">
+        <v>50</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="59">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="59">
+        <v>7</v>
+      </c>
+      <c r="S2" s="59">
+        <v>2</v>
+      </c>
+      <c r="T2" s="59">
+        <v>10</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="59">
+        <v>19</v>
+      </c>
+      <c r="D3" s="59">
+        <v>50</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="59">
+        <v>0</v>
+      </c>
+      <c r="P3" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="59">
+        <v>7</v>
+      </c>
+      <c r="S3" s="59">
+        <v>2</v>
+      </c>
+      <c r="T3" s="59">
+        <v>10</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="59">
+        <v>17</v>
+      </c>
+      <c r="D4" s="59">
+        <v>18</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O4" s="59">
+        <v>0</v>
+      </c>
+      <c r="P4" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="59">
+        <v>2</v>
+      </c>
+      <c r="S4" s="59">
+        <v>2</v>
+      </c>
+      <c r="T4" s="59">
+        <v>10</v>
+      </c>
+      <c r="U4" s="59"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="59">
+        <v>17</v>
+      </c>
+      <c r="D5" s="59">
+        <v>18</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0</v>
+      </c>
+      <c r="P5" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R5" s="59">
+        <v>2</v>
+      </c>
+      <c r="S5" s="59">
+        <v>2</v>
+      </c>
+      <c r="T5" s="59">
+        <v>10</v>
+      </c>
+      <c r="U5" s="59"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="59">
+        <v>15</v>
+      </c>
+      <c r="D6" s="59">
+        <v>16</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0</v>
+      </c>
+      <c r="P6" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="59">
+        <v>3</v>
+      </c>
+      <c r="S6" s="59">
+        <v>2</v>
+      </c>
+      <c r="T6" s="59">
+        <v>10</v>
+      </c>
+      <c r="U6" s="59"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="59">
+        <v>15</v>
+      </c>
+      <c r="D7" s="59">
+        <v>16</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0</v>
+      </c>
+      <c r="P7" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="59">
+        <v>3</v>
+      </c>
+      <c r="S7" s="59">
+        <v>2</v>
+      </c>
+      <c r="T7" s="59">
+        <v>10</v>
+      </c>
+      <c r="U7" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
   <sheetPr codeName="Tabelle3">
     <tabColor theme="1"/>
@@ -10922,7 +11514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
   <sheetPr codeName="Tabelle4">
     <tabColor theme="4"/>
@@ -11718,7 +12310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
   <sheetPr codeName="Tabelle5">
     <tabColor theme="4"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D29C18-13FD-416F-848E-1BDB665170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B059E8-E714-4033-97CF-98FB8809172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
   <si>
     <t>50m Retten</t>
   </si>
@@ -801,15 +801,6 @@
     <t>Mindest Disziplinen</t>
   </si>
   <si>
-    <t>1.1.Jahr - 2</t>
-  </si>
-  <si>
-    <t>30.6.Jahr - 1</t>
-  </si>
-  <si>
-    <t>27.7.Jahr - 2</t>
-  </si>
-  <si>
     <t>Weiblich Offen</t>
   </si>
   <si>
@@ -826,6 +817,12 @@
   </si>
   <si>
     <t>Männlich 15/16</t>
+  </si>
+  <si>
+    <t>30.6.Jahr</t>
+  </si>
+  <si>
+    <t>26.7.Jahr - 1</t>
   </si>
 </sst>
 </file>
@@ -10295,8 +10292,8 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10389,7 +10386,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -10401,13 +10398,13 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>177</v>
@@ -10450,7 +10447,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -10462,13 +10459,13 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>177</v>
@@ -10511,7 +10508,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>164</v>
@@ -10523,13 +10520,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>177</v>
@@ -10564,13 +10561,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U4" s="59"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -10582,13 +10579,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>177</v>
@@ -10623,13 +10620,13 @@
         <v>2</v>
       </c>
       <c r="T5" s="59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>164</v>
@@ -10641,13 +10638,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H6" s="59" t="s">
         <v>177</v>
@@ -10682,13 +10679,13 @@
         <v>2</v>
       </c>
       <c r="T6" s="59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U6" s="59"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>182</v>
@@ -10700,13 +10697,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>177</v>
@@ -10741,7 +10738,7 @@
         <v>2</v>
       </c>
       <c r="T7" s="59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U7" s="59"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B059E8-E714-4033-97CF-98FB8809172C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98109EB9-3F53-4BB6-92FB-DE50D767F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -10293,7 +10293,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,10 +10433,10 @@
         <v>179</v>
       </c>
       <c r="R2" s="59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S2" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="59">
         <v>10</v>
@@ -10494,10 +10494,10 @@
         <v>179</v>
       </c>
       <c r="R3" s="59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S3" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" s="59">
         <v>10</v>
@@ -10555,13 +10555,13 @@
         <v>179</v>
       </c>
       <c r="R4" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" s="59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U4" s="59"/>
     </row>
@@ -10614,13 +10614,13 @@
         <v>179</v>
       </c>
       <c r="R5" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U5" s="59"/>
     </row>
@@ -10673,13 +10673,13 @@
         <v>179</v>
       </c>
       <c r="R6" s="59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U6" s="59"/>
     </row>
@@ -10732,13 +10732,13 @@
         <v>179</v>
       </c>
       <c r="R7" s="59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="59">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U7" s="59"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98109EB9-3F53-4BB6-92FB-DE50D767F99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB4840-3AF7-4347-98F3-42A56E2F95FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="203">
   <si>
     <t>50m Retten</t>
   </si>
@@ -783,21 +783,9 @@
     <t>Mindest Punktzahl</t>
   </si>
   <si>
-    <t>1.11.Jahr - 2</t>
-  </si>
-  <si>
-    <t>30.10.Jahr - 1</t>
-  </si>
-  <si>
     <t>1.1.Jahr - 1</t>
   </si>
   <si>
-    <t>Weiblich 1</t>
-  </si>
-  <si>
-    <t>Männlich 2</t>
-  </si>
-  <si>
     <t>Mindest Disziplinen</t>
   </si>
   <si>
@@ -823,6 +811,21 @@
   </si>
   <si>
     <t>26.7.Jahr - 1</t>
+  </si>
+  <si>
+    <t>1.11.Jahr - 1</t>
+  </si>
+  <si>
+    <t>30.10.Jahr</t>
+  </si>
+  <si>
+    <t>1.1.Jahr</t>
+  </si>
+  <si>
+    <t>Weiblich (2026 findet kein DP statt)</t>
+  </si>
+  <si>
+    <t>Männlich (2026 findet kein DP statt)</t>
   </si>
 </sst>
 </file>
@@ -10063,8 +10066,237 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="59">
+        <v>15</v>
+      </c>
+      <c r="D2" s="59">
+        <v>50</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="59">
+        <v>0</v>
+      </c>
+      <c r="P2" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R2" s="59">
+        <v>6</v>
+      </c>
+      <c r="S2" s="59">
+        <v>2</v>
+      </c>
+      <c r="T2" s="59">
+        <v>10</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59">
+        <v>50</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="59">
+        <v>0</v>
+      </c>
+      <c r="P3" s="59">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R3" s="59">
+        <v>6</v>
+      </c>
+      <c r="S3" s="59">
+        <v>2</v>
+      </c>
+      <c r="T3" s="59">
+        <v>10</v>
+      </c>
+      <c r="U3" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997671C-060D-4DE3-898D-CFDBFAA908F9}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:U7"/>
+  <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K30" sqref="A1:XFD1048576"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,7 +10369,7 @@
         <v>187</v>
       </c>
       <c r="P1" s="60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="60" t="s">
         <v>173</v>
@@ -10157,13 +10389,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C2" s="59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="59">
         <v>50</v>
@@ -10172,10 +10404,10 @@
         <v>188</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>177</v>
@@ -10201,13 +10433,13 @@
         <v>3</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R2" s="59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S2" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="59">
         <v>10</v>
@@ -10218,13 +10450,13 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C3" s="59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" s="59">
         <v>50</v>
@@ -10233,10 +10465,10 @@
         <v>188</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>177</v>
@@ -10262,13 +10494,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S3" s="59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" s="59">
         <v>10</v>
@@ -10277,238 +10509,9 @@
         <v>183</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997671C-060D-4DE3-898D-CFDBFAA908F9}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:U7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="N1" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="T1" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="59">
-        <v>19</v>
-      </c>
-      <c r="D2" s="59">
-        <v>50</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="59">
-        <v>0</v>
-      </c>
-      <c r="P2" s="59">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="R2" s="59">
-        <v>0</v>
-      </c>
-      <c r="S2" s="59">
-        <v>0</v>
-      </c>
-      <c r="T2" s="59">
-        <v>10</v>
-      </c>
-      <c r="U2" s="59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="59">
-        <v>19</v>
-      </c>
-      <c r="D3" s="59">
-        <v>50</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="59">
-        <v>0</v>
-      </c>
-      <c r="P3" s="59">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="59">
-        <v>0</v>
-      </c>
-      <c r="S3" s="59">
-        <v>0</v>
-      </c>
-      <c r="T3" s="59">
-        <v>10</v>
-      </c>
-      <c r="U3" s="59" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>164</v>
@@ -10520,13 +10523,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>177</v>
@@ -10567,7 +10570,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -10579,13 +10582,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H5" s="59" t="s">
         <v>177</v>
@@ -10626,7 +10629,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>164</v>
@@ -10638,13 +10641,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H6" s="59" t="s">
         <v>177</v>
@@ -10685,7 +10688,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>182</v>
@@ -10697,13 +10700,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>177</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB4840-3AF7-4347-98F3-42A56E2F95FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB38C40-687F-4D08-A851-3DEA19BAA54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="204">
   <si>
     <t>50m Retten</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>Männlich (2026 findet kein DP statt)</t>
+  </si>
+  <si>
+    <t>Lara Ramackers</t>
   </si>
 </sst>
 </file>
@@ -4008,9 +4011,9 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -4079,7 +4082,7 @@
       <c r="AV1" s="44"/>
       <c r="AW1" s="44"/>
     </row>
-    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="AV2" s="45"/>
       <c r="AW2" s="45"/>
     </row>
-    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>101</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="AV3" s="45"/>
       <c r="AW3" s="45"/>
     </row>
-    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -4409,7 +4412,7 @@
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -4487,7 +4490,7 @@
       <c r="AV6" s="11"/>
       <c r="AW6" s="11"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -4565,7 +4568,7 @@
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -4643,7 +4646,7 @@
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -4721,7 +4724,7 @@
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -4799,7 +4802,7 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -4877,7 +4880,7 @@
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -4999,7 +5002,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -5121,7 +5124,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -5243,7 +5246,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5365,7 +5368,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5499,7 +5502,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -5633,7 +5636,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -5767,7 +5770,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -5901,7 +5904,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -6035,7 +6038,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -6169,7 +6172,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -6303,7 +6306,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -6437,7 +6440,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -6571,7 +6574,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -6721,7 +6724,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -6871,7 +6874,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -7021,7 +7024,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -7171,7 +7174,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -7321,7 +7324,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -7471,7 +7474,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -7690,17 +7693,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="21.1328125" customWidth="1"/>
+    <col min="7" max="11" width="18.73046875" customWidth="1"/>
+    <col min="12" max="12" width="22.1328125" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -7881,7 +7884,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A32" si="0">A5+1</f>
         <v>2001</v>
@@ -7899,7 +7902,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -7917,7 +7920,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -7935,7 +7938,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -7953,7 +7956,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -7971,7 +7974,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -7989,7 +7992,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -8007,7 +8010,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -8025,7 +8028,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -8043,7 +8046,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -8061,7 +8064,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -8079,7 +8082,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8097,7 +8100,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8115,7 +8118,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8133,7 +8136,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8175,7 +8178,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -8217,7 +8220,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -8259,7 +8262,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -8301,7 +8304,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -8343,7 +8346,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -8385,7 +8388,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -8427,7 +8430,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -8469,7 +8472,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -8511,7 +8514,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -8553,7 +8556,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -8595,7 +8598,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -8637,7 +8640,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
@@ -8717,17 +8720,17 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="2" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="21.1328125" customWidth="1"/>
+    <col min="7" max="11" width="18.73046875" customWidth="1"/>
+    <col min="12" max="12" width="22.1328125" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -8768,7 +8771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -8891,7 +8894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -8908,7 +8911,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -8938,7 +8941,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -8980,7 +8983,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -9022,7 +9025,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -9064,7 +9067,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -9106,7 +9109,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -9148,7 +9151,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -9190,7 +9193,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -9232,7 +9235,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -9274,7 +9277,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -9316,7 +9319,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -9358,7 +9361,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -9400,7 +9403,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -9442,7 +9445,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -9484,7 +9487,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -9526,7 +9529,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -9568,7 +9571,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -9610,7 +9613,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -9652,7 +9655,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -9694,7 +9697,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -9736,7 +9739,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -9778,7 +9781,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -9820,7 +9823,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -9862,7 +9865,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -9904,7 +9907,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -9946,7 +9949,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -9988,7 +9991,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <f>A31+1</f>
         <v>2027</v>
@@ -10066,34 +10069,34 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.73046875" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>201</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>202</v>
       </c>
@@ -10295,34 +10298,34 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.73046875" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>190</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>191</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
         <v>192</v>
       </c>
@@ -10566,9 +10569,11 @@
       <c r="T4" s="59">
         <v>10</v>
       </c>
-      <c r="U4" s="59"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U4" s="59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>193</v>
       </c>
@@ -10627,7 +10632,7 @@
       </c>
       <c r="U5" s="59"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
         <v>194</v>
       </c>
@@ -10686,7 +10691,7 @@
       </c>
       <c r="U6" s="59"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
         <v>195</v>
       </c>
@@ -10764,15 +10769,15 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18">
         <v>2024</v>
       </c>
@@ -10816,7 +10821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -10872,7 +10877,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -10928,7 +10933,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -10984,7 +10989,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -11002,7 +11007,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -11018,7 +11023,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -11072,7 +11077,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -11126,7 +11131,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -11180,7 +11185,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -11201,7 +11206,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -11216,7 +11221,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -11251,7 +11256,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -11286,7 +11291,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -11319,7 +11324,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -11352,7 +11357,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
@@ -11383,7 +11388,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -11410,7 +11415,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -11433,7 +11438,7 @@
       <c r="I22" s="33"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -11456,50 +11461,50 @@
       <c r="I23" s="33"/>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="L24" s="41"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L26" s="41"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L28" s="41"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L31" s="40"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L34" s="41"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L36" s="41"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L37" s="33"/>
     </row>
   </sheetData>
@@ -11525,15 +11530,15 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18">
         <v>2025</v>
       </c>
@@ -11577,7 +11582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -11633,7 +11638,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -11689,7 +11694,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -11745,7 +11750,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -11763,7 +11768,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -11779,7 +11784,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -11833,7 +11838,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -11887,7 +11892,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -11941,7 +11946,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -11960,7 +11965,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -11973,7 +11978,7 @@
       <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -12006,7 +12011,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -12039,7 +12044,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -12070,7 +12075,7 @@
       <c r="L18" s="38"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -12101,7 +12106,7 @@
       <c r="L19" s="36"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -12130,7 +12135,7 @@
       <c r="L20" s="38"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -12161,7 +12166,7 @@
       <c r="L21" s="36"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -12192,7 +12197,7 @@
       <c r="L22" s="39"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -12223,66 +12228,66 @@
       <c r="L23" s="37"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="L24" s="39"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="37"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L26" s="39"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L27" s="37"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L28" s="39"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L29" s="37"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L30" s="39"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L31" s="37"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L32" s="39"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L33" s="37"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L34" s="39"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M35"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L36" s="39"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M37"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -12290,7 +12295,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -12321,15 +12326,15 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18">
         <v>2026</v>
       </c>
@@ -12373,7 +12378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -12429,7 +12434,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -12485,7 +12490,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -12541,7 +12546,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -12559,7 +12564,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -12575,7 +12580,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -12629,7 +12634,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -12683,7 +12688,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -12737,7 +12742,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -12756,7 +12761,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -12769,7 +12774,7 @@
       <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -12802,7 +12807,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -12835,7 +12840,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -12866,7 +12871,7 @@
       <c r="L18" s="38"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -12897,7 +12902,7 @@
       <c r="L19" s="36"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -12926,7 +12931,7 @@
       <c r="L20" s="38"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -12957,7 +12962,7 @@
       <c r="L21" s="36"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -12988,7 +12993,7 @@
       <c r="L22" s="39"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -13019,66 +13024,66 @@
       <c r="L23" s="37"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="L24" s="39"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="37"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L26" s="39"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L27" s="37"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L28" s="39"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L29" s="37"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L30" s="39"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L31" s="37"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L32" s="39"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L33" s="37"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L34" s="39"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M35"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L36" s="39"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M37"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -13086,7 +13091,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB38C40-687F-4D08-A851-3DEA19BAA54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646EEA68-94AE-4513-BF57-D39B88D485D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -18,9 +18,11 @@
     <sheet name="WR-Open" sheetId="4" r:id="rId3"/>
     <sheet name="DP" sheetId="10" r:id="rId4"/>
     <sheet name="BP" sheetId="11" r:id="rId5"/>
-    <sheet name="2024" sheetId="6" r:id="rId6"/>
-    <sheet name="2025" sheetId="5" r:id="rId7"/>
-    <sheet name="2026" sheetId="8" r:id="rId8"/>
+    <sheet name="DEM" sheetId="12" r:id="rId6"/>
+    <sheet name="JRP" sheetId="13" r:id="rId7"/>
+    <sheet name="2024" sheetId="6" r:id="rId8"/>
+    <sheet name="2025" sheetId="5" r:id="rId9"/>
+    <sheet name="2026" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="225">
   <si>
     <t>50m Retten</t>
   </si>
@@ -829,6 +831,69 @@
   </si>
   <si>
     <t>Lara Ramackers</t>
+  </si>
+  <si>
+    <t>Mindest Alter</t>
+  </si>
+  <si>
+    <t>PZ1 - 50m Retten</t>
+  </si>
+  <si>
+    <t>PZ1 - 100m Retten</t>
+  </si>
+  <si>
+    <t>PZ1 - 100m Kombi</t>
+  </si>
+  <si>
+    <t>PZ1 - 200m Hindernis</t>
+  </si>
+  <si>
+    <t>PZ1 - 200m Super-Lifesaver</t>
+  </si>
+  <si>
+    <t>PZ1 - 100m Lifesaver</t>
+  </si>
+  <si>
+    <t>PZ2 - 50m Retten</t>
+  </si>
+  <si>
+    <t>PZ2 - 100m Retten</t>
+  </si>
+  <si>
+    <t>PZ2 - 100m Kombi</t>
+  </si>
+  <si>
+    <t>PZ2 - 100m Lifesaver</t>
+  </si>
+  <si>
+    <t>PZ2 - 200m Super-Lifesaver</t>
+  </si>
+  <si>
+    <t>PZ2 - 200m Hindernis</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>Weiblich U17</t>
+  </si>
+  <si>
+    <t>Männlich U17</t>
+  </si>
+  <si>
+    <t>Weiblich U19</t>
+  </si>
+  <si>
+    <t>Männlich U19</t>
+  </si>
+  <si>
+    <t>1.3.Jahr</t>
+  </si>
+  <si>
+    <t>1.6.Jahr</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1345,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="142">
+  <dxfs count="194">
     <dxf>
       <font>
         <color theme="6"/>
@@ -1370,6 +1435,162 @@
       <font>
         <color theme="4"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3501,102 +3722,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="193" headerRowBorderDxfId="192" tableBorderDxfId="191">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
   <tableColumns count="49">
-    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="138">
+    <tableColumn id="1" xr3:uid="{7C0C4105-A61A-4B8D-9129-EDC4F18765AF}" name="WR-Open" dataDxfId="190">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{516F5612-F85F-413F-9012-E235F415E34B}" name="50m Retten - offen - W" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{BC9ACAC9-0D45-42FD-B596-D19FBE3A4D83}" name="100m Retten - offen - W" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{CB6DBE59-EB65-43F0-93E7-0BDC3F82832B}" name="100m Kombi - offen - W" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{AA603C60-6831-4C14-A8CD-0AA050DA7551}" name="100m Lifesaver - offen - W" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{7920F147-7717-4582-940A-2610F7D310CA}" name="200m Superlifesaver - offen - W" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{04E21F1D-AC8D-4A1B-9B43-59B8F7901673}" name="200m Hindernis - offen - W" dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{40E8A083-653A-48A8-9B37-0A2D850B7829}" name="50m Retten - offen - M" dataDxfId="183"/>
+    <tableColumn id="9" xr3:uid="{863824A9-134F-4189-BB14-225AE224FC44}" name="100m Retten - offen - M" dataDxfId="182"/>
     <tableColumn id="10" xr3:uid="{598FC6AE-DEA2-4475-9A35-CDCB8C81496A}" name="100m Kombi - offen - M"/>
     <tableColumn id="11" xr3:uid="{9FC50B37-0D51-422E-A268-A6506D4F3854}" name="100m Lifesaver - offen - M"/>
     <tableColumn id="12" xr3:uid="{B8D2552B-5D82-442A-98F0-E47D5C5F6728}" name="200m Superlifesaver - offen - M"/>
-    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="129"/>
-    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="128"/>
-    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="127"/>
-    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="126"/>
-    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="125"/>
-    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="124"/>
-    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="123"/>
-    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="122"/>
-    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="121"/>
-    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="120"/>
-    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="119"/>
-    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="118"/>
-    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="117"/>
-    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="116"/>
-    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="115"/>
-    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="114"/>
-    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="113"/>
-    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="112"/>
-    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="111"/>
-    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="110"/>
-    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="109"/>
-    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="108"/>
-    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="107"/>
-    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="106"/>
-    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="105"/>
-    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="104"/>
-    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="103"/>
-    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="102"/>
-    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="101"/>
-    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="100"/>
-    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="99"/>
-    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="98"/>
-    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="97"/>
-    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="96"/>
-    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="95"/>
-    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="94"/>
-    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="93"/>
+    <tableColumn id="13" xr3:uid="{5A5E9873-0C5F-4508-AF6B-4974E0526D84}" name="200m Hindernis - offen - M" dataDxfId="181"/>
+    <tableColumn id="14" xr3:uid="{FA907992-7FCE-4CAD-8CF2-F5BEBC9B3756}" name="50m Retten - 17/18 - W" dataDxfId="180"/>
+    <tableColumn id="15" xr3:uid="{76B63DC0-CB67-48F4-9B5A-D22902F59334}" name="100m Retten - 17/18 - W" dataDxfId="179"/>
+    <tableColumn id="16" xr3:uid="{614A2419-51B1-44C0-8469-ADBFB078B81A}" name="100m Kombi -17/18 - W" dataDxfId="178"/>
+    <tableColumn id="17" xr3:uid="{2EC953EE-367D-4524-A25E-8DE3B8168E34}" name="100m Lifesaver - 17/18 - W" dataDxfId="177"/>
+    <tableColumn id="18" xr3:uid="{25711867-9BD7-4197-9094-A21392411249}" name="200m Superlifesaver - 17/18 - W" dataDxfId="176"/>
+    <tableColumn id="19" xr3:uid="{262DB142-CFB1-45C3-9332-7273CACD1B62}" name="200m Hindernis - 17/18 - W" dataDxfId="175"/>
+    <tableColumn id="20" xr3:uid="{938BA45A-8244-4637-8A14-DF49CD91A945}" name="50m Retten - 17/18 - M" dataDxfId="174"/>
+    <tableColumn id="21" xr3:uid="{737E28D8-900F-4A98-95FE-EE7B0AFDEE90}" name="100m Retten - 17/18 - M" dataDxfId="173"/>
+    <tableColumn id="22" xr3:uid="{330BD3A8-061C-45E2-ADDB-40C2F346772F}" name="100m Kombi - 17/18 - M" dataDxfId="172"/>
+    <tableColumn id="23" xr3:uid="{0CADDE90-A167-4E1D-8D33-8624E5E1A4E2}" name="100m Lifesaver - 17/18 - M" dataDxfId="171"/>
+    <tableColumn id="24" xr3:uid="{FCF9F42C-1291-4985-9D37-B9DE2DAA5DCB}" name="200m Superlifesaver - 17/18 - M" dataDxfId="170"/>
+    <tableColumn id="25" xr3:uid="{4E5397B2-F924-4F48-AE69-AF6D650AF88D}" name="200m Hindernis - 17/18 - M" dataDxfId="169"/>
+    <tableColumn id="26" xr3:uid="{0A78315A-BFDC-43EE-A66F-48B301F66508}" name="50m Retten - 15/16 - W" dataDxfId="168"/>
+    <tableColumn id="27" xr3:uid="{D3FCF8BD-6C76-450D-80C0-CC0519A79731}" name="100m Retten - 15/16 - W" dataDxfId="167"/>
+    <tableColumn id="28" xr3:uid="{6BE7937E-D62D-47CD-95DE-1730304B0DF3}" name="100m Kombi - 15/16 - W" dataDxfId="166"/>
+    <tableColumn id="29" xr3:uid="{098BA5BE-5AF6-4187-89B6-534498F24C51}" name="100m Lifesaver -  15/16 - W" dataDxfId="165"/>
+    <tableColumn id="30" xr3:uid="{2A6822CF-143C-4BF7-A440-5777527BE512}" name="200m Superlifesaver -  15/16 - W" dataDxfId="164"/>
+    <tableColumn id="31" xr3:uid="{541C7145-CDEA-4E4E-9E7A-A4F05BA6C3E5}" name="200m Hindernis -  15/16 - W" dataDxfId="163"/>
+    <tableColumn id="32" xr3:uid="{342C4488-8C61-42E6-87A9-C75BD8EB7452}" name="50m Retten - 15/16 - M" dataDxfId="162"/>
+    <tableColumn id="33" xr3:uid="{857B1D46-7D20-47F7-AB9B-732D50346E32}" name="100m Retten - 15/16 - M" dataDxfId="161"/>
+    <tableColumn id="34" xr3:uid="{4C8A2EB4-804B-45F1-A768-9A6958957F8B}" name="100m Kombi -15/16 - M" dataDxfId="160"/>
+    <tableColumn id="35" xr3:uid="{26C75B4F-21EC-4EB0-A9A9-54BC80140672}" name="100m Lifesaver - 15/16 - M" dataDxfId="159"/>
+    <tableColumn id="36" xr3:uid="{DBBB2A23-1A06-429A-A5D1-A547EF5EC16F}" name="200m Superlifesaver - 15/16 - M" dataDxfId="158"/>
+    <tableColumn id="37" xr3:uid="{84061231-CAE5-427A-87F5-6DDBA99F77D2}" name="200m Hindernis - 15/16 - M" dataDxfId="157"/>
+    <tableColumn id="38" xr3:uid="{878CCA80-A742-4B3C-90C9-E93BB814201B}" name="50m Retten - 13/14 - W" dataDxfId="156"/>
+    <tableColumn id="39" xr3:uid="{A1F57102-61CF-4784-8DE2-0B8F32D5D699}" name="50m Retten mit Flossen - 13/14 - W" dataDxfId="155"/>
+    <tableColumn id="40" xr3:uid="{0F6BAF78-3D79-42A9-9FED-E6D0E335A920}" name="100m Hindernis - 13/14 - W" dataDxfId="154"/>
+    <tableColumn id="41" xr3:uid="{EB748A68-E10D-4D76-B315-8FDB3AC33C8D}" name="50m Retten - 13/14 - M" dataDxfId="153"/>
+    <tableColumn id="42" xr3:uid="{C7B04167-6430-40F0-9A0F-D0D0BE2F9C77}" name="50m Retten mit Flossen - 13/14 - M" dataDxfId="152"/>
+    <tableColumn id="43" xr3:uid="{48704BB7-A853-445A-8CDC-8D8F86C2B66A}" name="100m Hindernis - 13/14 - M" dataDxfId="151"/>
+    <tableColumn id="44" xr3:uid="{9605FE9A-F41C-4A5F-A59C-B7A9D45C460F}" name="50m Flossen - 12 - W" dataDxfId="150"/>
+    <tableColumn id="45" xr3:uid="{4C9DBF61-35B1-4BC2-8272-526E0AFAAFFB}" name="50m komb. Schwimmen - 12 - W" dataDxfId="149"/>
+    <tableColumn id="46" xr3:uid="{CF433C95-C272-48F9-98CD-7E3C8DBB6F2C}" name="50m Hindernis - 12 - W" dataDxfId="148"/>
+    <tableColumn id="47" xr3:uid="{FADB7411-DB43-4B14-B9E8-D74CA1BA18B8}" name="50m Flossen - 12 - M" dataDxfId="147"/>
+    <tableColumn id="48" xr3:uid="{02936F84-1D82-48AC-8D7C-6D2954D68A06}" name="50m komb. Schwimmen - 12 - M" dataDxfId="146"/>
+    <tableColumn id="49" xr3:uid="{7FD9BD11-0597-4E07-8DA5-DB53384197F5}" name="50m Hindernis - 12 - M" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="92" dataDxfId="90" headerRowBorderDxfId="91" tableBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M32" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141">
   <autoFilter ref="A4:M32" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="77"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="135"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="134"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten2" dataDxfId="132"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi2" dataDxfId="131"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver2" dataDxfId="130"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver2" dataDxfId="129"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis2" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M32" totalsRowShown="0" headerRowDxfId="127" headerRowBorderDxfId="126" tableBorderDxfId="125">
   <autoFilter ref="A4:M32" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="124">
       <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="120"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="118"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten2" dataDxfId="117"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten2" dataDxfId="116"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi2"/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver2"/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver2"/>
@@ -3607,7 +3828,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:U3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}" name="DP_konfig" displayName="DP_konfig" ref="A1:U3" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="A1:U3" xr:uid="{CF3D303A-A04B-42DD-A44E-CEB6CECB77A4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3632,57 +3853,173 @@
     <filterColumn colId="20" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="49"/>
-    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="48"/>
-    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="47"/>
-    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="44"/>
-    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{58D628F0-061E-4A82-8362-CDB37A2E7C60}" name="Tabellen Name" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{2F302F6C-F8AF-4FDE-AB08-6F30F9671015}" name="Geschlecht" dataDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{4D91FBF9-386D-43DD-90D0-B49823FDB629}" name="Mindest alter" dataDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{4126AAC6-AF2F-446C-B4EA-D86ACFD9FAC2}" name="Maximales Alter" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{8A10890A-A299-4B09-AC72-0E9AE9238AF3}" name="Qualizeitraum anfang" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{FBCD1C13-FC82-429B-8DE1-0C5A455FDAB8}" name="Qualizeitraum Ende" dataDxfId="108"/>
+    <tableColumn id="7" xr3:uid="{1DCCAC9B-BC46-468E-A3CE-57576C2FF11D}" name="Letzter Wettkampf am" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{9A6E47EE-ABD8-4A1E-87D3-9D286E4C124F}" name="Wertung" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{09E848D2-ED17-49C7-9775-CBF17D20DFC0}" name="Landesverband" dataDxfId="105"/>
+    <tableColumn id="10" xr3:uid="{70ABB713-23F6-4FCF-920E-3CB0CD451446}" name="OMS" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{9C108A1C-E6AB-4C13-9C1D-0FA8944A39A3}" name="Pool-Länge" dataDxfId="103"/>
+    <tableColumn id="12" xr3:uid="{087948DD-430D-48F1-906D-4F4EF4B46053}" name="Regelwerk" dataDxfId="102"/>
+    <tableColumn id="13" xr3:uid="{BF42D9C0-F77D-4971-A67E-32B0246C72C3}" name="Referenz" dataDxfId="101"/>
+    <tableColumn id="19" xr3:uid="{AFFB84E8-B398-4E99-805B-9A247071A040}" name="Referenz Jahr" dataDxfId="100"/>
+    <tableColumn id="20" xr3:uid="{0A59A474-DFBB-4437-8EFF-70284AFD9934}" name="Mindest Punktzahl" dataDxfId="99"/>
+    <tableColumn id="21" xr3:uid="{198BD231-EEF3-43C9-AD9B-39B4B7E9B337}" name="Mindest Disziplinen" dataDxfId="98"/>
+    <tableColumn id="14" xr3:uid="{443CD4F6-A2B2-480B-BB35-DCEEBC531727}" name="3-Kampf Regel" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{70116160-7666-42B1-92AC-FAC2620E6A60}" name="Anzahl Nominierte" dataDxfId="96"/>
+    <tableColumn id="16" xr3:uid="{0EFD0A46-D12B-4AB0-907C-08E5D9F282E0}" name="Anzahl Nachrücker" dataDxfId="95"/>
+    <tableColumn id="17" xr3:uid="{AA5430A0-8ED8-40E8-B7F8-DA25E4E8790F}" name="Seiten Anzahl" dataDxfId="94"/>
+    <tableColumn id="18" xr3:uid="{16F699D9-2741-43F3-AD5F-826A568EFEAC}" name="Absagen" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CDBF6724-48A1-41AB-94B5-CC35C54BB15C}" name="DP_konfig6" displayName="DP_konfig6" ref="A1:U7" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CDBF6724-48A1-41AB-94B5-CC35C54BB15C}" name="BP_konfig" displayName="BP_konfig" ref="A1:U7" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:U7" xr:uid="{CDBF6724-48A1-41AB-94B5-CC35C54BB15C}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{E1FB3D0C-B874-4874-BACC-6872CF171957}" name="Tabellen Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{FFDD2777-2097-450C-B020-F133CF643855}" name="Geschlecht" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{8CF52BE2-8020-48BD-A36D-63F13A1878DE}" name="Mindest alter" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{FD3A030F-CD97-4B6F-8E8C-BC2E67D79F1D}" name="Maximales Alter" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{3E22B645-D77C-4509-B031-9914FCB91599}" name="Qualizeitraum anfang" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{AE299324-3C1C-4063-ADF9-54555A161734}" name="Qualizeitraum Ende" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{DCC178B3-11FC-4C53-BBC6-C2FDA2C89857}" name="Letzter Wettkampf am" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{2811DB01-60A5-4BE4-B6F9-A806398A602A}" name="Wertung" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{0C16DAFE-847D-4E9E-9604-3A7D9FE924D0}" name="Landesverband" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{7A8A4101-A553-4BD5-9116-9AA5876B9401}" name="OMS" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{9807C9BD-6499-45F6-ACE0-4D13D64EF675}" name="Pool-Länge" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{13D336DD-650F-4F2C-836F-361CA1528F6D}" name="Regelwerk" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{66660E2D-ADF2-4FB5-8A13-004F826EE908}" name="Referenz" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{D72EDF8B-ECC3-4FF7-ABE6-B60BCE4A5E26}" name="Referenz Jahr" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{7B18E667-70F7-4BC1-AB1B-21C019F2AA89}" name="Mindest Punktzahl" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{FC185946-681B-42A6-AB1A-FC1EABB668C5}" name="Mindest Disziplinen" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{6A2676FD-2EC7-4C41-A35E-A1597A38F932}" name="3-Kampf Regel" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{718E0917-4F83-4A2B-832F-EBB16D5E21BF}" name="Anzahl Nominierte" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{5C66A461-D647-4E00-A81C-FD7AD44D7CC2}" name="Anzahl Nachrücker" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{D434BDEC-293B-4B4E-A5E9-479438960A03}" name="Seiten Anzahl" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{80908229-9247-473F-81C0-9C9D4C12FF06}" name="Absagen" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E1FB3D0C-B874-4874-BACC-6872CF171957}" name="Tabellen Name" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{FFDD2777-2097-450C-B020-F133CF643855}" name="Geschlecht" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{8CF52BE2-8020-48BD-A36D-63F13A1878DE}" name="Mindest alter" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{FD3A030F-CD97-4B6F-8E8C-BC2E67D79F1D}" name="Maximales Alter" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{3E22B645-D77C-4509-B031-9914FCB91599}" name="Qualizeitraum anfang" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{AE299324-3C1C-4063-ADF9-54555A161734}" name="Qualizeitraum Ende" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{DCC178B3-11FC-4C53-BBC6-C2FDA2C89857}" name="Letzter Wettkampf am" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{2811DB01-60A5-4BE4-B6F9-A806398A602A}" name="Wertung" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{0C16DAFE-847D-4E9E-9604-3A7D9FE924D0}" name="Landesverband" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{7A8A4101-A553-4BD5-9116-9AA5876B9401}" name="OMS" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{9807C9BD-6499-45F6-ACE0-4D13D64EF675}" name="Pool-Länge" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{13D336DD-650F-4F2C-836F-361CA1528F6D}" name="Regelwerk" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{66660E2D-ADF2-4FB5-8A13-004F826EE908}" name="Referenz" dataDxfId="78"/>
+    <tableColumn id="19" xr3:uid="{D72EDF8B-ECC3-4FF7-ABE6-B60BCE4A5E26}" name="Referenz Jahr" dataDxfId="77"/>
+    <tableColumn id="20" xr3:uid="{7B18E667-70F7-4BC1-AB1B-21C019F2AA89}" name="Mindest Punktzahl" dataDxfId="76"/>
+    <tableColumn id="21" xr3:uid="{FC185946-681B-42A6-AB1A-FC1EABB668C5}" name="Mindest Disziplinen" dataDxfId="75"/>
+    <tableColumn id="14" xr3:uid="{6A2676FD-2EC7-4C41-A35E-A1597A38F932}" name="3-Kampf Regel" dataDxfId="74"/>
+    <tableColumn id="15" xr3:uid="{718E0917-4F83-4A2B-832F-EBB16D5E21BF}" name="Anzahl Nominierte" dataDxfId="73"/>
+    <tableColumn id="16" xr3:uid="{5C66A461-D647-4E00-A81C-FD7AD44D7CC2}" name="Anzahl Nachrücker" dataDxfId="72"/>
+    <tableColumn id="17" xr3:uid="{D434BDEC-293B-4B4E-A5E9-479438960A03}" name="Seiten Anzahl" dataDxfId="71"/>
+    <tableColumn id="18" xr3:uid="{80908229-9247-473F-81C0-9C9D4C12FF06}" name="Absagen" dataDxfId="70"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}" name="Tabelle6" displayName="Tabelle6" ref="A1:X7" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53">
+  <autoFilter ref="A1:X7" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{4847B567-64E1-4AC3-8C4B-EFCF3F00CC6C}" name="Tabellen Name" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{6346FF3B-B334-4CD8-8B23-F2347E29C536}" name="Geschlecht" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{E793B48A-BC8A-439F-8AAF-6FD08104A619}" name="Mindest Alter" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{01A62C29-2F75-4107-A431-F69230BCCD0C}" name="Maximales Alter" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="62"/>
+    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="61"/>
+    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="60"/>
+    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="59"/>
+    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="58"/>
+    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="57"/>
+    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="56"/>
+    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X3" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+    <filterColumn colId="22" hiddenButton="1"/>
+    <filterColumn colId="23" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7684,13 +8021,809 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
+  <sheetPr codeName="Tabelle5">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="18">
+        <v>2026</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
+        <v>44.41</v>
+      </c>
+      <c r="C2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
+        <v>65.53</v>
+      </c>
+      <c r="D2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
+        <v>91.79</v>
+      </c>
+      <c r="E2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
+        <v>75.84</v>
+      </c>
+      <c r="F2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
+        <v>189.05</v>
+      </c>
+      <c r="G2" s="27">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
+        <v>164.57</v>
+      </c>
+      <c r="H2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
+        <v>38.36</v>
+      </c>
+      <c r="I2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
+        <v>60.47</v>
+      </c>
+      <c r="J2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
+        <v>79.22</v>
+      </c>
+      <c r="K2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
+        <v>66.430000000000007</v>
+      </c>
+      <c r="L2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
+        <v>168.79</v>
+      </c>
+      <c r="M2" s="15">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
+        <v>155.07</v>
+      </c>
+      <c r="N2" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
+        <v>43.12</v>
+      </c>
+      <c r="C3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
+        <v>63.63</v>
+      </c>
+      <c r="D3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
+        <v>89.13</v>
+      </c>
+      <c r="E3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
+        <v>73.63</v>
+      </c>
+      <c r="F3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
+        <v>183.57</v>
+      </c>
+      <c r="G3" s="28">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
+        <v>159.79</v>
+      </c>
+      <c r="H3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
+        <v>37.25</v>
+      </c>
+      <c r="I3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
+        <v>58.71</v>
+      </c>
+      <c r="J3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
+        <v>76.92</v>
+      </c>
+      <c r="K3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
+        <v>64.5</v>
+      </c>
+      <c r="L3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
+        <v>163.9</v>
+      </c>
+      <c r="M3" s="17">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
+        <v>150.57</v>
+      </c>
+      <c r="N3" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(B$1))*86400,2)</f>
+        <v>41.13</v>
+      </c>
+      <c r="C4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(C$1))*86400,2)</f>
+        <v>62.97</v>
+      </c>
+      <c r="D4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(D$1))*86400,2)</f>
+        <v>83.98</v>
+      </c>
+      <c r="E4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="F4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
+        <v>173.81</v>
+      </c>
+      <c r="G4" s="27">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
+        <v>155.68</v>
+      </c>
+      <c r="H4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(H$1))*86400,2)</f>
+        <v>34.74</v>
+      </c>
+      <c r="I4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(I$1))*86400,2)</f>
+        <v>56.16</v>
+      </c>
+      <c r="J4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(J$1))*86400,2)</f>
+        <v>73.650000000000006</v>
+      </c>
+      <c r="K4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(K$1))*86400,2)</f>
+        <v>60.9</v>
+      </c>
+      <c r="L4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(L$1))*86400,2)</f>
+        <v>157.09</v>
+      </c>
+      <c r="M4" s="15">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(M$1))*86400,2)</f>
+        <v>142.72</v>
+      </c>
+      <c r="N4" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31" t="str">
+        <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
+        <v>0:44,41</v>
+      </c>
+      <c r="C9" s="31" t="str">
+        <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
+        <v>1:05,53</v>
+      </c>
+      <c r="D9" s="31" t="str">
+        <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
+        <v>1:31,79</v>
+      </c>
+      <c r="E9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:15,84</v>
+      </c>
+      <c r="F9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>3:09,05</v>
+      </c>
+      <c r="G9" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2:44,57</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>0:38,36</v>
+      </c>
+      <c r="I9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:00,47</v>
+      </c>
+      <c r="J9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:19,22</v>
+      </c>
+      <c r="K9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:06,43</v>
+      </c>
+      <c r="L9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>2:48,79</v>
+      </c>
+      <c r="M9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>2:35,07</v>
+      </c>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:43,12</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:03,63</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:29,13</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:13,63</v>
+      </c>
+      <c r="F10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3:03,57</v>
+      </c>
+      <c r="G10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>2:39,79</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:37,25</v>
+      </c>
+      <c r="I10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:58,71</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:16,92</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:04,50</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2:43,90</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2:30,57</v>
+      </c>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:41,13</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:02,97</v>
+      </c>
+      <c r="D11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:23,98</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:10,29</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:53,81</v>
+      </c>
+      <c r="G11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>2:35,68</v>
+      </c>
+      <c r="H11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:34,74</v>
+      </c>
+      <c r="I11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:56,16</v>
+      </c>
+      <c r="J11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:13,65</v>
+      </c>
+      <c r="K11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:00,90</v>
+      </c>
+      <c r="L11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:37,09</v>
+      </c>
+      <c r="M11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:22,72</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="L20" s="38"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="39"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>100</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="37"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="L24" s="39"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="L25" s="37"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L26" s="39"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L27" s="37"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L28" s="39"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L29" s="37"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L30" s="39"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L31" s="37"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L32" s="39"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L33" s="37"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L34" s="39"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L36" s="39"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2B168-68B3-410F-B4A6-8D511F9C32E0}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8716,8 +9849,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10070,7 +11203,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10298,8 +11431,8 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10759,6 +11892,616 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A97B8-4E61-4811-AFAC-69F978DDEBB3}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:X7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="59">
+        <v>15</v>
+      </c>
+      <c r="D2" s="59">
+        <v>16</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <v>200</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59">
+        <v>16</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59">
+        <v>200</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="59">
+        <v>17</v>
+      </c>
+      <c r="D4" s="59">
+        <v>18</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59">
+        <v>200</v>
+      </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="59">
+        <v>17</v>
+      </c>
+      <c r="D5" s="59">
+        <v>18</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59">
+        <v>200</v>
+      </c>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="59">
+        <v>19</v>
+      </c>
+      <c r="D6" s="59">
+        <v>100</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59">
+        <v>200</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="59">
+        <v>19</v>
+      </c>
+      <c r="D7" s="59">
+        <v>100</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <v>200</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B608451-5D1D-4665-BFE6-00A11E29A180}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A2" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="59">
+        <v>15</v>
+      </c>
+      <c r="D2" s="59">
+        <v>18</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <v>200</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59">
+        <v>18</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59">
+        <v>200</v>
+      </c>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
   <sheetPr codeName="Tabelle3">
     <tabColor theme="1"/>
@@ -11519,7 +13262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
   <sheetPr codeName="Tabelle4">
     <tabColor theme="4"/>
@@ -12313,800 +14056,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
-  <sheetPr codeName="Tabelle5">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18">
-        <v>2026</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>44.41</v>
-      </c>
-      <c r="C2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>65.53</v>
-      </c>
-      <c r="D2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>91.79</v>
-      </c>
-      <c r="E2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>75.84</v>
-      </c>
-      <c r="F2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>189.05</v>
-      </c>
-      <c r="G2" s="27">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>164.57</v>
-      </c>
-      <c r="H2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>38.36</v>
-      </c>
-      <c r="I2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>60.47</v>
-      </c>
-      <c r="J2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>79.22</v>
-      </c>
-      <c r="K2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>66.430000000000007</v>
-      </c>
-      <c r="L2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>168.79</v>
-      </c>
-      <c r="M2" s="15">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>155.07</v>
-      </c>
-      <c r="N2" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>43.12</v>
-      </c>
-      <c r="C3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.63</v>
-      </c>
-      <c r="D3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>89.13</v>
-      </c>
-      <c r="E3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>73.63</v>
-      </c>
-      <c r="F3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>183.57</v>
-      </c>
-      <c r="G3" s="28">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>159.79</v>
-      </c>
-      <c r="H3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.25</v>
-      </c>
-      <c r="I3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.71</v>
-      </c>
-      <c r="J3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.92</v>
-      </c>
-      <c r="K3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>64.5</v>
-      </c>
-      <c r="L3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>163.9</v>
-      </c>
-      <c r="M3" s="17">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>150.57</v>
-      </c>
-      <c r="N3" s="2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(B$1))*86400,2)</f>
-        <v>41.13</v>
-      </c>
-      <c r="C4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(C$1))*86400,2)</f>
-        <v>62.97</v>
-      </c>
-      <c r="D4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(D$1))*86400,2)</f>
-        <v>83.98</v>
-      </c>
-      <c r="E4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
-        <v>70.290000000000006</v>
-      </c>
-      <c r="F4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
-        <v>173.81</v>
-      </c>
-      <c r="G4" s="27">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
-        <v>155.68</v>
-      </c>
-      <c r="H4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(H$1))*86400,2)</f>
-        <v>34.74</v>
-      </c>
-      <c r="I4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(I$1))*86400,2)</f>
-        <v>56.16</v>
-      </c>
-      <c r="J4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(J$1))*86400,2)</f>
-        <v>73.650000000000006</v>
-      </c>
-      <c r="K4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(K$1))*86400,2)</f>
-        <v>60.9</v>
-      </c>
-      <c r="L4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(L$1))*86400,2)</f>
-        <v>157.09</v>
-      </c>
-      <c r="M4" s="15">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(M$1))*86400,2)</f>
-        <v>142.72</v>
-      </c>
-      <c r="N4" s="2">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="31" t="str">
-        <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:44,41</v>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
-        <v>1:05,53</v>
-      </c>
-      <c r="D9" s="31" t="str">
-        <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:31,79</v>
-      </c>
-      <c r="E9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:15,84</v>
-      </c>
-      <c r="F9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>3:09,05</v>
-      </c>
-      <c r="G9" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>2:44,57</v>
-      </c>
-      <c r="H9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>0:38,36</v>
-      </c>
-      <c r="I9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:00,47</v>
-      </c>
-      <c r="J9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:19,22</v>
-      </c>
-      <c r="K9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06,43</v>
-      </c>
-      <c r="L9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>2:48,79</v>
-      </c>
-      <c r="M9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>2:35,07</v>
-      </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0:43,12</v>
-      </c>
-      <c r="C10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:03,63</v>
-      </c>
-      <c r="D10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:29,13</v>
-      </c>
-      <c r="E10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:13,63</v>
-      </c>
-      <c r="F10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>3:03,57</v>
-      </c>
-      <c r="G10" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>2:39,79</v>
-      </c>
-      <c r="H10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0:37,25</v>
-      </c>
-      <c r="I10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0:58,71</v>
-      </c>
-      <c r="J10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:16,92</v>
-      </c>
-      <c r="K10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:04,50</v>
-      </c>
-      <c r="L10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>2:43,90</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>2:30,57</v>
-      </c>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:41,13</v>
-      </c>
-      <c r="C11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:02,97</v>
-      </c>
-      <c r="D11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:23,98</v>
-      </c>
-      <c r="E11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:10,29</v>
-      </c>
-      <c r="F11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>2:53,81</v>
-      </c>
-      <c r="G11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>2:35,68</v>
-      </c>
-      <c r="H11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:34,74</v>
-      </c>
-      <c r="I11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:56,16</v>
-      </c>
-      <c r="J11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:13,65</v>
-      </c>
-      <c r="K11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:00,90</v>
-      </c>
-      <c r="L11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>2:37,09</v>
-      </c>
-      <c r="M11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>2:22,72</v>
-      </c>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="L14" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="8">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="L20" s="38"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>100</v>
-      </c>
-      <c r="D21" s="8">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="9">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8">
-        <v>100</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="37"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="L24" s="39"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="L25" s="37"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L26" s="39"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L27" s="37"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L28" s="39"/>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L29" s="37"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L30" s="39"/>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L31" s="37"/>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="L32" s="39"/>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="L33" s="37"/>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="L34" s="39"/>
-      <c r="M34"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="M35"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="L36" s="39"/>
-      <c r="M36"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="M37"/>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:N8"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="L14:L15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646EEA68-94AE-4513-BF57-D39B88D485D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E024A340-E74C-46CD-9DF6-AE9652B2883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="226">
   <si>
     <t>50m Retten</t>
   </si>
@@ -815,12 +815,6 @@
     <t>26.7.Jahr - 1</t>
   </si>
   <si>
-    <t>1.11.Jahr - 1</t>
-  </si>
-  <si>
-    <t>30.10.Jahr</t>
-  </si>
-  <si>
     <t>1.1.Jahr</t>
   </si>
   <si>
@@ -894,6 +888,15 @@
   </si>
   <si>
     <t>1.6.Jahr</t>
+  </si>
+  <si>
+    <t>1.11.Jahr - 2</t>
+  </si>
+  <si>
+    <t>30.10.Jahr - 1</t>
+  </si>
+  <si>
+    <t>Jahr</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3913,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}" name="Tabelle6" displayName="Tabelle6" ref="A1:X7" totalsRowShown="0" headerRowDxfId="52" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}" name="Tabelle6" displayName="Tabelle6" ref="A1:X7" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:X7" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3938,30 +3941,30 @@
     <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{4847B567-64E1-4AC3-8C4B-EFCF3F00CC6C}" name="Tabellen Name" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{6346FF3B-B334-4CD8-8B23-F2347E29C536}" name="Geschlecht" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{E793B48A-BC8A-439F-8AAF-6FD08104A619}" name="Mindest Alter" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{01A62C29-2F75-4107-A431-F69230BCCD0C}" name="Maximales Alter" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="65"/>
-    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="64"/>
-    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="62"/>
-    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="61"/>
-    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="60"/>
-    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="59"/>
-    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="58"/>
-    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="57"/>
-    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="56"/>
-    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="55"/>
-    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{4847B567-64E1-4AC3-8C4B-EFCF3F00CC6C}" name="Tabellen Name" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{6346FF3B-B334-4CD8-8B23-F2347E29C536}" name="Geschlecht" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{E793B48A-BC8A-439F-8AAF-6FD08104A619}" name="Mindest Alter" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{01A62C29-2F75-4107-A431-F69230BCCD0C}" name="Maximales Alter" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11202,8 +11205,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11296,7 +11299,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -11308,13 +11311,13 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>177</v>
@@ -11331,7 +11334,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -11357,7 +11360,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -11369,13 +11372,13 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>177</v>
@@ -11392,7 +11395,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
@@ -11431,7 +11434,7 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -11703,7 +11706,7 @@
         <v>10</v>
       </c>
       <c r="U4" s="59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.45">
@@ -11938,7 +11941,7 @@
         <v>163</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>16</v>
@@ -11968,45 +11971,45 @@
         <v>176</v>
       </c>
       <c r="M1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="P1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="59" t="s">
+      <c r="S1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" s="59" t="s">
+      <c r="U1" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="V1" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="W1" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="X1" s="59" t="s">
         <v>214</v>
-      </c>
-      <c r="W1" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="X1" s="59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -12021,7 +12024,7 @@
         <v>188</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>188</v>
@@ -12052,7 +12055,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -12067,7 +12070,7 @@
         <v>188</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>188</v>
@@ -12098,7 +12101,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>164</v>
@@ -12113,7 +12116,7 @@
         <v>188</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="59" t="s">
         <v>188</v>
@@ -12144,7 +12147,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -12159,7 +12162,7 @@
         <v>188</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" s="59" t="s">
         <v>188</v>
@@ -12205,7 +12208,7 @@
         <v>188</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>188</v>
@@ -12251,7 +12254,7 @@
         <v>188</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>188</v>
@@ -12335,7 +12338,7 @@
         <v>163</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D1" s="59" t="s">
         <v>16</v>
@@ -12365,45 +12368,45 @@
         <v>176</v>
       </c>
       <c r="M1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="P1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="P1" s="59" t="s">
+      <c r="S1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="S1" s="59" t="s">
+      <c r="U1" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="V1" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="W1" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="59" t="s">
+      <c r="X1" s="59" t="s">
         <v>214</v>
-      </c>
-      <c r="W1" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="X1" s="59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -12418,10 +12421,10 @@
         <v>188</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>178</v>
@@ -12449,7 +12452,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -12464,10 +12467,10 @@
         <v>188</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>178</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E024A340-E74C-46CD-9DF6-AE9652B2883D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F30DC9-E692-442A-AD9F-176212713E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -11205,8 +11205,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11392,7 +11392,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" s="59" t="s">
         <v>225</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F30DC9-E692-442A-AD9F-176212713E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577A8A6-8575-462C-93E7-D6EFFCDC5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -890,13 +890,13 @@
     <t>1.6.Jahr</t>
   </si>
   <si>
-    <t>1.11.Jahr - 2</t>
-  </si>
-  <si>
-    <t>30.10.Jahr - 1</t>
-  </si>
-  <si>
     <t>Jahr</t>
+  </si>
+  <si>
+    <t>1.11.Jahr - 1</t>
+  </si>
+  <si>
+    <t>30.10.Jahr</t>
   </si>
 </sst>
 </file>
@@ -11205,7 +11205,7 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -11311,13 +11311,13 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>177</v>
@@ -11334,7 +11334,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>177</v>
@@ -11392,10 +11392,10 @@
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
       <c r="M3" s="59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7577A8A6-8575-462C-93E7-D6EFFCDC5329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D509DC-20C8-4725-96CA-B047B786CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="225">
   <si>
     <t>50m Retten</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>Männlich U19</t>
-  </si>
-  <si>
-    <t>1.3.Jahr</t>
   </si>
   <si>
     <t>1.6.Jahr</t>
@@ -1163,7 +1160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1344,12 +1341,78 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="194">
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="6"/>
       </font>
@@ -1438,51 +1501,6 @@
       <font>
         <color theme="4"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3913,7 +3931,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}" name="Tabelle6" displayName="Tabelle6" ref="A1:X7" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}" name="DEM_konfig" displayName="DEM_konfig" ref="A1:X7" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="A1:X7" xr:uid="{16F87202-5A6A-4E2F-B973-3CE7EC2566C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3945,33 +3963,33 @@
     <tableColumn id="2" xr3:uid="{6346FF3B-B334-4CD8-8B23-F2347E29C536}" name="Geschlecht" dataDxfId="66"/>
     <tableColumn id="3" xr3:uid="{E793B48A-BC8A-439F-8AAF-6FD08104A619}" name="Mindest Alter" dataDxfId="65"/>
     <tableColumn id="4" xr3:uid="{01A62C29-2F75-4107-A431-F69230BCCD0C}" name="Maximales Alter" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="61"/>
+    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:X3" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3999,30 +4017,30 @@
     <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4345,15 +4363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519F5DB-31A0-4819-8E86-33B1F16466A6}">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:AW31"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -4422,7 +4441,7 @@
       <c r="AV1" s="44"/>
       <c r="AW1" s="44"/>
     </row>
-    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -4489,7 +4508,7 @@
       <c r="AV2" s="45"/>
       <c r="AW2" s="45"/>
     </row>
-    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>101</v>
       </c>
@@ -4550,7 +4569,7 @@
       <c r="AV3" s="45"/>
       <c r="AW3" s="45"/>
     </row>
-    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -4699,7 +4718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -4752,7 +4771,7 @@
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -4830,7 +4849,7 @@
       <c r="AV6" s="11"/>
       <c r="AW6" s="11"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -4908,7 +4927,7 @@
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -4986,7 +5005,7 @@
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -5064,7 +5083,7 @@
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -5142,7 +5161,7 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -5220,7 +5239,7 @@
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -5342,7 +5361,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -5464,7 +5483,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -5586,7 +5605,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5708,7 +5727,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5842,7 +5861,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -5976,7 +5995,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -6110,7 +6129,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -6244,7 +6263,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -6378,7 +6397,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -6512,7 +6531,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -6646,7 +6665,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -6780,7 +6799,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -6914,7 +6933,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -7064,7 +7083,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -7214,7 +7233,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -7364,7 +7383,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -7514,7 +7533,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -7664,7 +7683,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -7814,7 +7833,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -7966,52 +7985,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="30" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="29" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,15 +8054,15 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18">
         <v>2026</v>
       </c>
@@ -8087,7 +8106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -8143,7 +8162,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8199,7 +8218,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -8255,7 +8274,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -8273,7 +8292,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -8289,7 +8308,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -8343,7 +8362,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -8397,7 +8416,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -8451,7 +8470,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -8470,7 +8489,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -8483,7 +8502,7 @@
       <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8516,7 +8535,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -8549,7 +8568,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -8580,7 +8599,7 @@
       <c r="L18" s="38"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -8611,7 +8630,7 @@
       <c r="L19" s="36"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -8640,7 +8659,7 @@
       <c r="L20" s="38"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -8671,7 +8690,7 @@
       <c r="L21" s="36"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -8702,7 +8721,7 @@
       <c r="L22" s="39"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -8733,66 +8752,66 @@
       <c r="L23" s="37"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="L24" s="39"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="37"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L26" s="39"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L27" s="37"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L29" s="37"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L30" s="39"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L31" s="37"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L32" s="39"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L33" s="37"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L34" s="39"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M35"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L36" s="39"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M37"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -8800,7 +8819,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -8829,17 +8848,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="5" width="18.73046875" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" customWidth="1"/>
-    <col min="7" max="11" width="18.73046875" customWidth="1"/>
-    <col min="12" max="12" width="22.1328125" customWidth="1"/>
-    <col min="13" max="13" width="18.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -8880,7 +8899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -8921,7 +8940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -8962,7 +8981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -9003,7 +9022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -9020,7 +9039,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A32" si="0">A5+1</f>
         <v>2001</v>
@@ -9038,7 +9057,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -9056,7 +9075,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -9074,7 +9093,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -9092,7 +9111,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -9110,7 +9129,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -9128,7 +9147,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -9146,7 +9165,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -9164,7 +9183,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -9182,7 +9201,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -9200,7 +9219,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -9218,7 +9237,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -9236,7 +9255,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -9254,7 +9273,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -9272,7 +9291,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -9314,7 +9333,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -9356,7 +9375,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -9398,7 +9417,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -9440,7 +9459,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -9482,7 +9501,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -9524,7 +9543,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -9566,7 +9585,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -9608,7 +9627,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -9650,7 +9669,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -9692,7 +9711,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -9734,7 +9753,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -9776,7 +9795,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
@@ -9820,22 +9839,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9856,17 +9875,17 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="2" max="5" width="18.73046875" customWidth="1"/>
-    <col min="6" max="6" width="21.1328125" customWidth="1"/>
-    <col min="7" max="11" width="18.73046875" customWidth="1"/>
-    <col min="12" max="12" width="22.1328125" customWidth="1"/>
-    <col min="13" max="13" width="18.73046875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -9907,7 +9926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9948,7 +9967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -9989,7 +10008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -10030,7 +10049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -10047,7 +10066,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -10077,7 +10096,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -10119,7 +10138,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -10161,7 +10180,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -10203,7 +10222,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -10245,7 +10264,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -10287,7 +10306,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -10329,7 +10348,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -10371,7 +10390,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -10413,7 +10432,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10455,7 +10474,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10497,7 +10516,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -10539,7 +10558,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -10581,7 +10600,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -10623,7 +10642,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -10665,7 +10684,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -10707,7 +10726,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -10749,7 +10768,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -10791,7 +10810,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -10833,7 +10852,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10875,7 +10894,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -10917,7 +10936,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10959,7 +10978,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -11001,7 +11020,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -11043,7 +11062,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -11085,7 +11104,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -11127,7 +11146,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>A31+1</f>
         <v>2027</v>
@@ -11171,22 +11190,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11200,39 +11219,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E427F-1458-41E5-8334-8536EBB7542D}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle7">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -11297,7 +11316,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>199</v>
       </c>
@@ -11311,10 +11330,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>225</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>198</v>
@@ -11334,7 +11353,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -11358,7 +11377,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>200</v>
       </c>
@@ -11372,10 +11391,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>224</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>225</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>198</v>
@@ -11395,7 +11414,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
@@ -11429,39 +11448,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3997671C-060D-4DE3-898D-CFDBFAA908F9}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle8">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -11526,7 +11545,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>190</v>
       </c>
@@ -11587,7 +11606,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>191</v>
       </c>
@@ -11648,7 +11667,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>192</v>
       </c>
@@ -11709,7 +11728,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>193</v>
       </c>
@@ -11768,7 +11787,7 @@
       </c>
       <c r="U5" s="59"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
         <v>194</v>
       </c>
@@ -11827,7 +11846,7 @@
       </c>
       <c r="U6" s="59"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
         <v>195</v>
       </c>
@@ -11896,44 +11915,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26A97B8-4E61-4811-AFAC-69F978DDEBB3}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle9">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>161</v>
       </c>
@@ -12007,7 +12026,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>217</v>
       </c>
@@ -12020,6 +12039,427 @@
       <c r="D2" s="59">
         <v>16</v>
       </c>
+      <c r="E2" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G2" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59">
+        <v>200</v>
+      </c>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="59">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59">
+        <v>16</v>
+      </c>
+      <c r="E3" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F3" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G3" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59">
+        <v>200</v>
+      </c>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="59">
+        <v>17</v>
+      </c>
+      <c r="D4" s="59">
+        <v>18</v>
+      </c>
+      <c r="E4" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F4" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59">
+        <v>200</v>
+      </c>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="59">
+        <v>17</v>
+      </c>
+      <c r="D5" s="59">
+        <v>18</v>
+      </c>
+      <c r="E5" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F5" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G5" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59">
+        <v>200</v>
+      </c>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="59">
+        <v>19</v>
+      </c>
+      <c r="D6" s="59">
+        <v>100</v>
+      </c>
+      <c r="E6" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F6" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G6" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59">
+        <v>200</v>
+      </c>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="59">
+        <v>19</v>
+      </c>
+      <c r="D7" s="59">
+        <v>100</v>
+      </c>
+      <c r="E7" s="64">
+        <v>45658</v>
+      </c>
+      <c r="F7" s="64">
+        <v>46113</v>
+      </c>
+      <c r="G7" s="64">
+        <v>45658</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <v>200</v>
+      </c>
+      <c r="M7" s="65">
+        <v>3.6493055555555557E-4</v>
+      </c>
+      <c r="N7" s="65">
+        <v>5.7962962962962959E-4</v>
+      </c>
+      <c r="O7" s="65">
+        <v>7.8923611111111111E-4</v>
+      </c>
+      <c r="P7" s="65">
+        <v>6.3819444444444449E-4</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>1.6078703703703706E-3</v>
+      </c>
+      <c r="R7" s="65">
+        <v>1.5675925925925926E-3</v>
+      </c>
+      <c r="S7" s="65">
+        <v>3.8645833333333333E-4</v>
+      </c>
+      <c r="T7" s="65">
+        <v>6.1435185185185182E-4</v>
+      </c>
+      <c r="U7" s="65">
+        <v>8.3657407407407411E-4</v>
+      </c>
+      <c r="V7" s="65">
+        <v>6.7650462962962966E-4</v>
+      </c>
+      <c r="W7" s="65">
+        <v>1.704398148148148E-3</v>
+      </c>
+      <c r="X7" s="65">
+        <v>1.6616898148148148E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B608451-5D1D-4665-BFE6-00A11E29A180}">
+  <sheetPr codeName="Tabelle10">
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="59">
+        <v>15</v>
+      </c>
+      <c r="D2" s="59">
+        <v>18</v>
+      </c>
       <c r="E2" s="59" t="s">
         <v>188</v>
       </c>
@@ -12027,13 +12467,13 @@
         <v>221</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>178</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
@@ -12053,9 +12493,9 @@
       <c r="W2" s="59"/>
       <c r="X2" s="59"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -12064,410 +12504,13 @@
         <v>15</v>
       </c>
       <c r="D3" s="59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>188</v>
       </c>
       <c r="F3" s="59" t="s">
         <v>221</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59">
-        <v>200</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="59">
-        <v>17</v>
-      </c>
-      <c r="D4" s="59">
-        <v>18</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59">
-        <v>200</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="59">
-        <v>17</v>
-      </c>
-      <c r="D5" s="59">
-        <v>18</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59">
-        <v>200</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="59">
-        <v>19</v>
-      </c>
-      <c r="D6" s="59">
-        <v>100</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59">
-        <v>200</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A7" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="59">
-        <v>19</v>
-      </c>
-      <c r="D7" s="59">
-        <v>100</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59">
-        <v>200</v>
-      </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B608451-5D1D-4665-BFE6-00A11E29A180}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:X3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.06640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A1" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>205</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="S1" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="T1" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="V1" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="W1" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="X1" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A2" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="59">
-        <v>15</v>
-      </c>
-      <c r="D2" s="59">
-        <v>18</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59">
-        <v>200</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="59">
-        <v>15</v>
-      </c>
-      <c r="D3" s="59">
-        <v>18</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>222</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>198</v>
@@ -12515,15 +12558,15 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18">
         <v>2024</v>
       </c>
@@ -12567,7 +12610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -12623,7 +12666,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -12679,7 +12722,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -12735,7 +12778,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -12753,7 +12796,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -12769,7 +12812,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -12823,7 +12866,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -12877,7 +12920,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -12931,7 +12974,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -12952,7 +12995,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -12967,7 +13010,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13002,7 +13045,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -13037,7 +13080,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -13070,7 +13113,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -13103,7 +13146,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
@@ -13134,7 +13177,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -13161,7 +13204,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -13184,7 +13227,7 @@
       <c r="I22" s="33"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -13207,50 +13250,50 @@
       <c r="I23" s="33"/>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="L24" s="41"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L26" s="41"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L28" s="41"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L31" s="40"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L34" s="41"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L36" s="41"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L37" s="33"/>
     </row>
   </sheetData>
@@ -13276,15 +13319,15 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.3984375" style="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18">
         <v>2025</v>
       </c>
@@ -13328,7 +13371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -13384,7 +13427,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -13440,7 +13483,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -13496,7 +13539,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
@@ -13514,7 +13557,7 @@
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
@@ -13530,7 +13573,7 @@
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -13584,7 +13627,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13681,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -13692,7 +13735,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>14</v>
       </c>
@@ -13711,7 +13754,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -13724,7 +13767,7 @@
       <c r="L15" s="63"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13757,7 +13800,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -13790,7 +13833,7 @@
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -13821,7 +13864,7 @@
       <c r="L18" s="38"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -13852,7 +13895,7 @@
       <c r="L19" s="36"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -13881,7 +13924,7 @@
       <c r="L20" s="38"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -13912,7 +13955,7 @@
       <c r="L21" s="36"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -13943,7 +13986,7 @@
       <c r="L22" s="39"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -13974,66 +14017,66 @@
       <c r="L23" s="37"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="L24" s="39"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="37"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L26" s="39"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L27" s="37"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L28" s="39"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L29" s="37"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L30" s="39"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L31" s="37"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L32" s="39"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L33" s="37"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L34" s="39"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M35"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L36" s="39"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M37"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -14041,7 +14084,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D509DC-20C8-4725-96CA-B047B786CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630187B-B96C-4675-A2D4-D95AD23C151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -1332,6 +1332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,78 +1347,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="194">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m:ss.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color theme="6"/>
       </font>
@@ -1581,18 +1521,78 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3963,33 +3963,33 @@
     <tableColumn id="2" xr3:uid="{6346FF3B-B334-4CD8-8B23-F2347E29C536}" name="Geschlecht" dataDxfId="66"/>
     <tableColumn id="3" xr3:uid="{E793B48A-BC8A-439F-8AAF-6FD08104A619}" name="Mindest Alter" dataDxfId="65"/>
     <tableColumn id="4" xr3:uid="{01A62C29-2F75-4107-A431-F69230BCCD0C}" name="Maximales Alter" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="62"/>
-    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="61"/>
-    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="59"/>
-    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{B7E4DE90-7856-4A0C-9063-61414D7F227C}" name="Qualizeitraum anfang" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{B00F7CD1-82CB-42B9-A396-89F79EF419CA}" name="Qualizeitraum Ende" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{9E50DDE5-12E3-4BCB-801C-FBABCE309F0E}" name="Letzter Wettkampf am" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{57E68247-0FF2-48D8-8ACD-AB057E576A21}" name="Landesverband" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{EBAA439D-F69A-4C2A-8193-9AE08F1E57B8}" name="OMS" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{BBD11E7F-3DDF-428A-B005-4A40E6FA78DC}" name="Pool-Länge" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{6AE38DCA-A084-4F3D-A6A4-4E76E3E2CBC6}" name="Regelwerk" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{7F7470AD-5502-4CEE-BB4C-44BA308E61D7}" name="Seiten Anzahl" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{F416CBFA-4C9D-45CD-9BA7-E4BC57A08BC2}" name="PZ1 - 50m Retten" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{7117DBCA-0DA7-462C-84FE-0DC7E33B124C}" name="PZ1 - 100m Retten" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{E8630E91-DC30-4822-9E53-6D65487C3670}" name="PZ1 - 100m Kombi" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{4B3AA225-E042-430F-8259-D176887B4528}" name="PZ1 - 100m Lifesaver" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{798674BD-98CE-4531-BDFF-6AB06253AD7C}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{8809BB71-D58B-4E8B-A442-D0EB9A65A25D}" name="PZ1 - 200m Hindernis" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{93DCF463-806B-4117-B4E3-1FFAE976B37C}" name="PZ2 - 50m Retten" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{A514C961-559E-462F-B143-BA30974C0129}" name="PZ2 - 100m Retten" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{F1CF6143-45FE-498D-93D6-36F26D2F3C0B}" name="PZ2 - 100m Kombi" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{E90962FC-C214-467F-841F-40DF60E41456}" name="PZ2 - 100m Lifesaver" dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{7FBC6334-C4C8-4B38-9F59-30ED95A44379}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{231BFF86-8F3A-4BA1-B25E-28175D9EDFA9}" name="PZ2 - 200m Hindernis" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A1:X3" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4017,30 +4017,30 @@
     <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7985,52 +7985,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="32" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="29" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="26" priority="6">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8275,38 +8275,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -8471,35 +8471,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="63" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="H14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="L14" s="63" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="L15" s="65"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -9839,22 +9839,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11190,22 +11190,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="3" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11920,8 +11920,8 @@
   </sheetPr>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12039,13 +12039,13 @@
       <c r="D2" s="59">
         <v>16</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="61">
         <v>45658</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="61">
         <v>46113</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="61">
         <v>45658</v>
       </c>
       <c r="H2" s="59" t="s">
@@ -12057,20 +12057,44 @@
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59">
-        <v>200</v>
-      </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="M2" s="62">
+        <v>4.8136574074074076E-4</v>
+      </c>
+      <c r="N2" s="62">
+        <v>8.0497685185185186E-4</v>
+      </c>
+      <c r="O2" s="62">
+        <v>1.0570601851851852E-3</v>
+      </c>
+      <c r="P2" s="62">
+        <v>8.5497685185185188E-4</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>2.0892361111111112E-3</v>
+      </c>
+      <c r="R2" s="62">
+        <v>1.8401620370370371E-3</v>
+      </c>
+      <c r="S2" s="62">
+        <v>5.0462962962962961E-4</v>
+      </c>
+      <c r="T2" s="62">
+        <v>8.5474537037037029E-4</v>
+      </c>
+      <c r="U2" s="62">
+        <v>1.1590277777777777E-3</v>
+      </c>
+      <c r="V2" s="62">
+        <v>8.9409722222222223E-4</v>
+      </c>
+      <c r="W2" s="62">
+        <v>2.2304398148148149E-3</v>
+      </c>
+      <c r="X2" s="62">
+        <v>1.9623842592592592E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -12085,13 +12109,13 @@
       <c r="D3" s="59">
         <v>16</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>45658</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="61">
         <v>46113</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="61">
         <v>45658</v>
       </c>
       <c r="H3" s="59" t="s">
@@ -12103,20 +12127,44 @@
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59">
-        <v>200</v>
-      </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="M3" s="62">
+        <v>4.2962962962962958E-4</v>
+      </c>
+      <c r="N3" s="62">
+        <v>7.1435185185185187E-4</v>
+      </c>
+      <c r="O3" s="62">
+        <v>9.710648148148149E-4</v>
+      </c>
+      <c r="P3" s="62">
+        <v>7.6932870370370371E-4</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>1.8946759259259257E-3</v>
+      </c>
+      <c r="R3" s="62">
+        <v>1.6849537037037035E-3</v>
+      </c>
+      <c r="S3" s="62">
+        <v>4.5416666666666668E-4</v>
+      </c>
+      <c r="T3" s="62">
+        <v>7.6006944444444451E-4</v>
+      </c>
+      <c r="U3" s="62">
+        <v>1.0402777777777778E-3</v>
+      </c>
+      <c r="V3" s="62">
+        <v>8.1701388888888893E-4</v>
+      </c>
+      <c r="W3" s="62">
+        <v>2.0715277777777776E-3</v>
+      </c>
+      <c r="X3" s="62">
+        <v>1.8121527777777778E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
@@ -12131,13 +12179,13 @@
       <c r="D4" s="59">
         <v>18</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>45658</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="61">
         <v>46113</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="61">
         <v>45658</v>
       </c>
       <c r="H4" s="59" t="s">
@@ -12149,20 +12197,44 @@
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59">
-        <v>200</v>
-      </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="M4" s="62">
+        <v>4.7048611111111108E-4</v>
+      </c>
+      <c r="N4" s="62">
+        <v>7.8125000000000004E-4</v>
+      </c>
+      <c r="O4" s="62">
+        <v>1.0002314814814815E-3</v>
+      </c>
+      <c r="P4" s="62">
+        <v>8.2349537037037048E-4</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>1.9892361111111113E-3</v>
+      </c>
+      <c r="R4" s="62">
+        <v>1.8848379629629629E-3</v>
+      </c>
+      <c r="S4" s="62">
+        <v>5.0428240740740739E-4</v>
+      </c>
+      <c r="T4" s="62">
+        <v>8.2812499999999998E-4</v>
+      </c>
+      <c r="U4" s="62">
+        <v>1.0603009259259259E-3</v>
+      </c>
+      <c r="V4" s="62">
+        <v>8.729166666666667E-4</v>
+      </c>
+      <c r="W4" s="62">
+        <v>2.1085648148148149E-3</v>
+      </c>
+      <c r="X4" s="62">
+        <v>1.9979166666666665E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -12177,13 +12249,13 @@
       <c r="D5" s="59">
         <v>18</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="61">
         <v>45658</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="61">
         <v>46113</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="61">
         <v>45658</v>
       </c>
       <c r="H5" s="59" t="s">
@@ -12195,20 +12267,44 @@
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
       <c r="L5" s="59">
-        <v>200</v>
-      </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="62">
+        <v>3.9583333333333338E-4</v>
+      </c>
+      <c r="N5" s="62">
+        <v>6.596064814814815E-4</v>
+      </c>
+      <c r="O5" s="62">
+        <v>8.7384259259259262E-4</v>
+      </c>
+      <c r="P5" s="62">
+        <v>7.2835648148148152E-4</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>1.7810185185185184E-3</v>
+      </c>
+      <c r="R5" s="62">
+        <v>1.6655092592592594E-3</v>
+      </c>
+      <c r="S5" s="62">
+        <v>4.1574074074074077E-4</v>
+      </c>
+      <c r="T5" s="62">
+        <v>6.9918981481481481E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <v>9.2627314814814818E-4</v>
+      </c>
+      <c r="V5" s="62">
+        <v>7.7210648148148136E-4</v>
+      </c>
+      <c r="W5" s="62">
+        <v>1.8949074074074074E-3</v>
+      </c>
+      <c r="X5" s="62">
+        <v>1.7653935185185186E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
@@ -12223,13 +12319,13 @@
       <c r="D6" s="59">
         <v>100</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="61">
         <v>45658</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="61">
         <v>46113</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="61">
         <v>45658</v>
       </c>
       <c r="H6" s="59" t="s">
@@ -12241,20 +12337,44 @@
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
       <c r="L6" s="59">
-        <v>200</v>
-      </c>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+        <v>10</v>
+      </c>
+      <c r="M6" s="62">
+        <v>4.5150462962962961E-4</v>
+      </c>
+      <c r="N6" s="62">
+        <v>7.2407407407407414E-4</v>
+      </c>
+      <c r="O6" s="62">
+        <v>1.0059027777777777E-3</v>
+      </c>
+      <c r="P6" s="62">
+        <v>7.6840277777777779E-4</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>1.9185185185185184E-3</v>
+      </c>
+      <c r="R6" s="62">
+        <v>1.7923611111111113E-3</v>
+      </c>
+      <c r="S6" s="62">
+        <v>4.7858796296296299E-4</v>
+      </c>
+      <c r="T6" s="62">
+        <v>7.6747685185185187E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <v>1.0662037037037038E-3</v>
+      </c>
+      <c r="V6" s="62">
+        <v>8.1446759259259265E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <v>2.0336805555555555E-3</v>
+      </c>
+      <c r="X6" s="62">
+        <v>1.8998842592592594E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
@@ -12269,13 +12389,13 @@
       <c r="D7" s="59">
         <v>100</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="61">
         <v>45658</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="61">
         <v>46113</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="61">
         <v>45658</v>
       </c>
       <c r="H7" s="59" t="s">
@@ -12287,42 +12407,42 @@
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59">
-        <v>200</v>
-      </c>
-      <c r="M7" s="65">
+        <v>10</v>
+      </c>
+      <c r="M7" s="62">
         <v>3.6493055555555557E-4</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="62">
         <v>5.7962962962962959E-4</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="62">
         <v>7.8923611111111111E-4</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="62">
         <v>6.3819444444444449E-4</v>
       </c>
-      <c r="Q7" s="65">
+      <c r="Q7" s="62">
         <v>1.6078703703703706E-3</v>
       </c>
-      <c r="R7" s="65">
+      <c r="R7" s="62">
         <v>1.5675925925925926E-3</v>
       </c>
-      <c r="S7" s="65">
+      <c r="S7" s="62">
         <v>3.8645833333333333E-4</v>
       </c>
-      <c r="T7" s="65">
+      <c r="T7" s="62">
         <v>6.1435185185185182E-4</v>
       </c>
-      <c r="U7" s="65">
+      <c r="U7" s="62">
         <v>8.3657407407407411E-4</v>
       </c>
-      <c r="V7" s="65">
+      <c r="V7" s="62">
         <v>6.7650462962962966E-4</v>
       </c>
-      <c r="W7" s="65">
+      <c r="W7" s="62">
         <v>1.704398148148148E-3</v>
       </c>
-      <c r="X7" s="65">
+      <c r="X7" s="62">
         <v>1.6616898148148148E-3</v>
       </c>
     </row>
@@ -12779,38 +12899,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -12975,38 +13095,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14"/>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="L14" s="63" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="L15" s="65"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -13540,38 +13660,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -13736,35 +13856,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="63" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="H14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="L14" s="63" t="s">
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="65" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="L15" s="65"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E630187B-B96C-4675-A2D4-D95AD23C151E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31834D02-0978-44B3-A430-BB215E261E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="224">
   <si>
     <t>50m Retten</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>Männlich U19</t>
-  </si>
-  <si>
-    <t>1.6.Jahr</t>
   </si>
   <si>
     <t>Jahr</t>
@@ -1443,39 +1440,51 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1494,12 +1503,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3989,8 +4001,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}" name="Tabelle68" displayName="Tabelle68" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X3" xr:uid="{38173103-C137-4989-84EA-9BDFE7009E50}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X3" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4017,30 +4029,30 @@
     <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{EC191D47-103E-4808-B80B-20281F480A7B}" name="Tabellen Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{B4135B5F-F957-45A0-BE67-B4F753711A01}" name="Geschlecht" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3E8C5D70-845D-4A0C-8911-63692B806EE3}" name="Mindest Alter" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{951555AA-1D48-4F58-84DA-5A388BC7ACA6}" name="Maximales Alter" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{532345E9-A3F4-4BC3-83A4-BBE007D5BF2F}" name="Qualizeitraum anfang" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{71A6260E-6437-4311-B1E5-334D777DE23B}" name="Qualizeitraum Ende" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{C4D53DE9-9819-4221-8397-DAA183E26E63}" name="Letzter Wettkampf am" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{8A29AFA5-6619-4699-AB42-78F4AD5566E1}" name="Landesverband" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9AB45004-0EB4-4304-AFD0-4496973A950F}" name="OMS" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{71319762-F54F-4493-84F3-802DFD3DE0D2}" name="Pool-Länge" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{E91F6E89-282A-4B79-A6DF-C43103E9413B}" name="Regelwerk" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{D4638146-A857-41ED-83D1-8E2711E1ED0F}" name="Seiten Anzahl" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{08DB5C03-8197-4058-AF4C-5A2A8CB975EF}" name="PZ1 - 50m Retten" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{94966042-A021-4D1B-83E0-516EF43C47BF}" name="PZ1 - 100m Retten" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{3D118CE3-B383-4B67-8BD7-A4E7270B694D}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{2EF5524D-F52F-403A-B1F2-26B06E1561D7}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{90AFAED0-E3F7-430F-B477-A7B8C0F28C92}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{234BF89C-A472-4472-A7B5-6E8956546AEB}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{0630350F-8319-4C46-926A-11BAE7DA4892}" name="PZ2 - 50m Retten" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{923F9722-E09F-460A-8B02-64E9F03F0806}" name="PZ2 - 100m Retten" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{AA307655-1197-43FB-A00A-75C1438B2412}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{92C209F1-CAD1-4D8C-888D-8F65EE77FFDE}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{AE53DAA0-7669-4EC4-A7F2-6BFCE8E6960F}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{AB5DE385-0AE1-401A-8EF5-9ED15B7100C9}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{021DA6E1-2C93-4474-9720-B6F016186D61}" name="Tabellen Name" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{733C1722-A9C9-4830-A9E2-FE62E96BCD98}" name="Geschlecht" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{80C0BF46-0E43-4947-BF86-B808C324772A}" name="Mindest Alter" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{DBA2A923-EEB7-43F9-A1A3-E78624448FB9}" name="Maximales Alter" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{3FDEE18A-328D-45AE-907D-69A916A93345}" name="Qualizeitraum anfang" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{BE002D7F-575F-4B60-9251-C71D93F59045}" name="Qualizeitraum Ende" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{208ABD57-DE4B-41D6-B9FC-93F2D8966E8D}" name="Letzter Wettkampf am" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{30C9697C-6550-4996-ADDB-7FEE5325B794}" name="Landesverband" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{ED2DAB77-EF46-4D8B-B8E4-90412E32E277}" name="OMS" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{AD534940-A91B-4A6E-9606-E3F3E517D401}" name="Pool-Länge" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{11F9D5D5-72FE-42CA-8624-01D513B4140F}" name="Regelwerk" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{3907872B-5438-4FBF-A045-3EF9EAACFC47}" name="Seiten Anzahl" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{FC821324-3638-40C0-BA1E-069B44E23C7A}" name="PZ1 - 50m Retten" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{70529619-443E-40D3-88C1-3E0F00BB2A50}" name="PZ1 - 100m Retten" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{EFA92FD2-C23F-42B3-83DC-5036513F19AF}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{03309E52-8CF3-4E90-9EE6-A818901C3B32}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{00B22013-AA11-4C17-9250-22060AE4B0A8}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{7E3508A9-0422-4561-A23E-53E613259B24}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{5CEA435F-F34B-4D8D-88D0-F5EBFF18B713}" name="PZ2 - 50m Retten" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{8585BE62-F7C4-4D5D-B287-052B43B08610}" name="PZ2 - 100m Retten" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{D981758B-ADAD-4E36-B787-0B0FDA808CA2}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{1D4970A8-D22F-4962-934C-AEA295ED687A}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{BE394430-C58F-4690-9615-44475E5AF9F8}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{A7036B1A-99CE-4F7C-AAB8-12E8B2696202}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11330,10 +11342,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="59" t="s">
         <v>223</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>224</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>198</v>
@@ -11353,7 +11365,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -11391,10 +11403,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>223</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>224</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>198</v>
@@ -11414,7 +11426,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
@@ -11920,8 +11932,8 @@
   </sheetPr>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12461,8 +12473,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12580,38 +12592,62 @@
       <c r="D2" s="59">
         <v>18</v>
       </c>
-      <c r="E2" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>198</v>
+      <c r="E2" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G2" s="61">
+        <v>46023</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>178</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59">
-        <v>200</v>
-      </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+        <v>10</v>
+      </c>
+      <c r="M2" s="62">
+        <v>4.8136574074074076E-4</v>
+      </c>
+      <c r="N2" s="62">
+        <v>8.0497685185185186E-4</v>
+      </c>
+      <c r="O2" s="62">
+        <v>1.0570601851851852E-3</v>
+      </c>
+      <c r="P2" s="62">
+        <v>8.5497685185185188E-4</v>
+      </c>
+      <c r="Q2" s="62">
+        <v>2.0892361111111112E-3</v>
+      </c>
+      <c r="R2" s="62">
+        <v>1.8401620370370371E-3</v>
+      </c>
+      <c r="S2" s="62">
+        <v>5.0462962962962961E-4</v>
+      </c>
+      <c r="T2" s="62">
+        <v>8.5474537037037029E-4</v>
+      </c>
+      <c r="U2" s="62">
+        <v>1.1590277777777777E-3</v>
+      </c>
+      <c r="V2" s="62">
+        <v>8.9409722222222223E-4</v>
+      </c>
+      <c r="W2" s="62">
+        <v>2.2304398148148149E-3</v>
+      </c>
+      <c r="X2" s="62">
+        <v>1.9623842592592592E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -12626,38 +12662,62 @@
       <c r="D3" s="59">
         <v>18</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>198</v>
+      <c r="E3" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F3" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G3" s="61">
+        <v>46023</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>178</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59">
-        <v>200</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+        <v>10</v>
+      </c>
+      <c r="M3" s="62">
+        <v>4.2962962962962958E-4</v>
+      </c>
+      <c r="N3" s="62">
+        <v>7.1435185185185187E-4</v>
+      </c>
+      <c r="O3" s="62">
+        <v>9.710648148148149E-4</v>
+      </c>
+      <c r="P3" s="62">
+        <v>7.6932870370370371E-4</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>1.8946759259259257E-3</v>
+      </c>
+      <c r="R3" s="62">
+        <v>1.6849537037037035E-3</v>
+      </c>
+      <c r="S3" s="62">
+        <v>4.5416666666666668E-4</v>
+      </c>
+      <c r="T3" s="62">
+        <v>7.6006944444444451E-4</v>
+      </c>
+      <c r="U3" s="62">
+        <v>1.0402777777777778E-3</v>
+      </c>
+      <c r="V3" s="62">
+        <v>8.1701388888888893E-4</v>
+      </c>
+      <c r="W3" s="62">
+        <v>2.0715277777777776E-3</v>
+      </c>
+      <c r="X3" s="62">
+        <v>1.8121527777777778E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31834D02-0978-44B3-A430-BB215E261E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B48FB-9823-4752-8890-DD64062267C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -12473,8 +12473,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12613,40 +12613,40 @@
         <v>10</v>
       </c>
       <c r="M2" s="62">
-        <v>4.8136574074074076E-4</v>
+        <v>4.5474537037037038E-4</v>
       </c>
       <c r="N2" s="62">
-        <v>8.0497685185185186E-4</v>
+        <v>7.3738425925925924E-4</v>
       </c>
       <c r="O2" s="62">
-        <v>1.0570601851851852E-3</v>
+        <v>9.592592592592592E-4</v>
       </c>
       <c r="P2" s="62">
-        <v>8.5497685185185188E-4</v>
+        <v>7.6875000000000001E-4</v>
       </c>
       <c r="Q2" s="62">
-        <v>2.0892361111111112E-3</v>
+        <v>1.9131944444444446E-3</v>
       </c>
       <c r="R2" s="62">
-        <v>1.8401620370370371E-3</v>
+        <v>1.763773148148148E-3</v>
       </c>
       <c r="S2" s="62">
-        <v>5.0462962962962961E-4</v>
+        <v>4.7893518518518521E-4</v>
       </c>
       <c r="T2" s="62">
-        <v>8.5474537037037029E-4</v>
+        <v>7.6481481481481485E-4</v>
       </c>
       <c r="U2" s="62">
-        <v>1.1590277777777777E-3</v>
+        <v>1.0063657407407408E-3</v>
       </c>
       <c r="V2" s="62">
-        <v>8.9409722222222223E-4</v>
+        <v>8.1157407407407415E-4</v>
       </c>
       <c r="W2" s="62">
-        <v>2.2304398148148149E-3</v>
+        <v>1.9793981481481481E-3</v>
       </c>
       <c r="X2" s="62">
-        <v>1.9623842592592592E-3</v>
+        <v>1.8128472222222222E-3</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -12683,40 +12683,40 @@
         <v>10</v>
       </c>
       <c r="M3" s="62">
-        <v>4.2962962962962958E-4</v>
+        <v>3.8576388888888889E-4</v>
       </c>
       <c r="N3" s="62">
-        <v>7.1435185185185187E-4</v>
+        <v>6.064814814814815E-4</v>
       </c>
       <c r="O3" s="62">
-        <v>9.710648148148149E-4</v>
+        <v>8.3912037037037039E-4</v>
       </c>
       <c r="P3" s="62">
-        <v>7.6932870370370371E-4</v>
+        <v>6.8599537037037045E-4</v>
       </c>
       <c r="Q3" s="62">
-        <v>1.8946759259259257E-3</v>
+        <v>1.6768518518518519E-3</v>
       </c>
       <c r="R3" s="62">
-        <v>1.6849537037037035E-3</v>
+        <v>1.5944444444444443E-3</v>
       </c>
       <c r="S3" s="62">
-        <v>4.5416666666666668E-4</v>
+        <v>4.0127314814814816E-4</v>
       </c>
       <c r="T3" s="62">
-        <v>7.6006944444444451E-4</v>
+        <v>6.4421296296296297E-4</v>
       </c>
       <c r="U3" s="62">
-        <v>1.0402777777777778E-3</v>
+        <v>8.879629629629629E-4</v>
       </c>
       <c r="V3" s="62">
-        <v>8.1701388888888893E-4</v>
+        <v>7.0787037037037032E-4</v>
       </c>
       <c r="W3" s="62">
-        <v>2.0715277777777776E-3</v>
+        <v>1.784722222222222E-3</v>
       </c>
       <c r="X3" s="62">
-        <v>1.8121527777777778E-3</v>
+        <v>1.6582175925925926E-3</v>
       </c>
     </row>
   </sheetData>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1B48FB-9823-4752-8890-DD64062267C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25F714-0F14-4E5B-ADB4-00830A74F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -12473,8 +12473,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12599,7 +12599,7 @@
         <v>46174</v>
       </c>
       <c r="G2" s="61">
-        <v>46023</v>
+        <v>45658</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>178</v>
@@ -12669,7 +12669,7 @@
         <v>46174</v>
       </c>
       <c r="G3" s="61">
-        <v>46023</v>
+        <v>45658</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>178</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25F714-0F14-4E5B-ADB4-00830A74F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA907B-837B-42C5-8F87-0B753394FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -12473,8 +12473,8 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12613,40 +12613,40 @@
         <v>10</v>
       </c>
       <c r="M2" s="62">
-        <v>4.5474537037037038E-4</v>
+        <v>4.6817129629629634E-4</v>
       </c>
       <c r="N2" s="62">
-        <v>7.3738425925925924E-4</v>
+        <v>7.4872685185185188E-4</v>
       </c>
       <c r="O2" s="62">
-        <v>9.592592592592592E-4</v>
+        <v>9.9224537037037033E-4</v>
       </c>
       <c r="P2" s="62">
-        <v>7.6875000000000001E-4</v>
+        <v>7.8888888888888889E-4</v>
       </c>
       <c r="Q2" s="62">
-        <v>1.9131944444444446E-3</v>
+        <v>1.9605324074074074E-3</v>
       </c>
       <c r="R2" s="62">
-        <v>1.763773148148148E-3</v>
+        <v>1.7837962962962963E-3</v>
       </c>
       <c r="S2" s="62">
-        <v>4.7893518518518521E-4</v>
+        <v>4.803240740740741E-4</v>
       </c>
       <c r="T2" s="62">
-        <v>7.6481481481481485E-4</v>
+        <v>7.8599537037037039E-4</v>
       </c>
       <c r="U2" s="62">
-        <v>1.0063657407407408E-3</v>
+        <v>1.0240740740740742E-3</v>
       </c>
       <c r="V2" s="62">
-        <v>8.1157407407407415E-4</v>
+        <v>8.2766203703703712E-4</v>
       </c>
       <c r="W2" s="62">
-        <v>1.9793981481481481E-3</v>
+        <v>2.0114583333333334E-3</v>
       </c>
       <c r="X2" s="62">
-        <v>1.8128472222222222E-3</v>
+        <v>1.8332175925925925E-3</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -12683,40 +12683,40 @@
         <v>10</v>
       </c>
       <c r="M3" s="62">
-        <v>3.8576388888888889E-4</v>
+        <v>3.9178240740740742E-4</v>
       </c>
       <c r="N3" s="62">
-        <v>6.064814814814815E-4</v>
+        <v>6.310185185185186E-4</v>
       </c>
       <c r="O3" s="62">
-        <v>8.3912037037037039E-4</v>
+        <v>8.5555555555555558E-4</v>
       </c>
       <c r="P3" s="62">
-        <v>6.8599537037037045E-4</v>
+        <v>7.0196759259259257E-4</v>
       </c>
       <c r="Q3" s="62">
-        <v>1.6768518518518519E-3</v>
+        <v>1.7359953703703704E-3</v>
       </c>
       <c r="R3" s="62">
-        <v>1.5944444444444443E-3</v>
+        <v>1.6295138888888889E-3</v>
       </c>
       <c r="S3" s="62">
-        <v>4.0127314814814816E-4</v>
+        <v>4.1747685185185187E-4</v>
       </c>
       <c r="T3" s="62">
-        <v>6.4421296296296297E-4</v>
+        <v>6.7627314814814818E-4</v>
       </c>
       <c r="U3" s="62">
-        <v>8.879629629629629E-4</v>
+        <v>8.9861111111111109E-4</v>
       </c>
       <c r="V3" s="62">
-        <v>7.0787037037037032E-4</v>
+        <v>7.2384259259259255E-4</v>
       </c>
       <c r="W3" s="62">
-        <v>1.784722222222222E-3</v>
+        <v>1.8050925925925927E-3</v>
       </c>
       <c r="X3" s="62">
-        <v>1.6582175925925926E-3</v>
+        <v>1.7003472222222222E-3</v>
       </c>
     </row>
   </sheetData>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA907B-837B-42C5-8F87-0B753394FB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B72674-C26E-4281-9CBF-AF67E38698EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="BP" sheetId="11" r:id="rId5"/>
     <sheet name="DEM" sheetId="12" r:id="rId6"/>
     <sheet name="JRP" sheetId="13" r:id="rId7"/>
-    <sheet name="2024" sheetId="6" r:id="rId8"/>
-    <sheet name="2025" sheetId="5" r:id="rId9"/>
-    <sheet name="2026" sheetId="8" r:id="rId10"/>
+    <sheet name="Tabelle1" sheetId="14" r:id="rId8"/>
+    <sheet name="2024" sheetId="6" r:id="rId9"/>
+    <sheet name="2025" sheetId="5" r:id="rId10"/>
+    <sheet name="2026" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -219,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="236">
   <si>
     <t>50m Retten</t>
   </si>
@@ -891,6 +892,42 @@
   </si>
   <si>
     <t>30.10.Jahr</t>
+  </si>
+  <si>
+    <t>Disziplin</t>
+  </si>
+  <si>
+    <t>100m Kombinierte Rettungsübung</t>
+  </si>
+  <si>
+    <t>100m Retten mit Flossen</t>
+  </si>
+  <si>
+    <t>100m Retten mit Flossen und Gurtretter</t>
+  </si>
+  <si>
+    <t>200m Hindernisschwimmen</t>
+  </si>
+  <si>
+    <t>NK2 Orginal M</t>
+  </si>
+  <si>
+    <t>NK2 +10% M</t>
+  </si>
+  <si>
+    <t>NK2-M (10%Test)</t>
+  </si>
+  <si>
+    <t>200m Super Lifesaver</t>
+  </si>
+  <si>
+    <t>NK2 Orginal W</t>
+  </si>
+  <si>
+    <t>NK2 +10% W</t>
+  </si>
+  <si>
+    <t>NK2-W (10%Test)</t>
   </si>
 </sst>
 </file>
@@ -900,7 +937,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:ss.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,6 +1043,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1157,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1344,6 +1389,16 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4001,8 +4056,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X3" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X3" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X9" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X9" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4382,9 +4437,9 @@
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -4453,7 +4508,7 @@
       <c r="AV1" s="44"/>
       <c r="AW1" s="44"/>
     </row>
-    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -4520,7 +4575,7 @@
       <c r="AV2" s="45"/>
       <c r="AW2" s="45"/>
     </row>
-    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>101</v>
       </c>
@@ -4581,7 +4636,7 @@
       <c r="AV3" s="45"/>
       <c r="AW3" s="45"/>
     </row>
-    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" s="53" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
@@ -4730,7 +4785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -4783,7 +4838,7 @@
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -4861,7 +4916,7 @@
       <c r="AV6" s="11"/>
       <c r="AW6" s="11"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -4939,7 +4994,7 @@
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -5017,7 +5072,7 @@
       <c r="AV8" s="11"/>
       <c r="AW8" s="11"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -5095,7 +5150,7 @@
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -5173,7 +5228,7 @@
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -5251,7 +5306,7 @@
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -5373,7 +5428,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -5495,7 +5550,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -5617,7 +5672,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -5739,7 +5794,7 @@
         <v>3.5995370370370369E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -5873,7 +5928,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -6007,7 +6062,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -6141,7 +6196,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -6275,7 +6330,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -6409,7 +6464,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -6543,7 +6598,7 @@
         <v>3.5324074074074077E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -6677,7 +6732,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -6811,7 +6866,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -6945,7 +7000,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -7095,7 +7150,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -7245,7 +7300,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -7395,7 +7450,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -7545,7 +7600,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -7695,7 +7750,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -7845,7 +7900,7 @@
         <v>3.4745370370370372E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -8056,27 +8111,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
-  <sheetPr codeName="Tabelle5">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
+  <sheetPr codeName="Tabelle4">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -8118,7 +8173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -8132,11 +8187,11 @@
       </c>
       <c r="D2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>91.79</v>
+        <v>93.26</v>
       </c>
       <c r="E2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>75.84</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
@@ -8148,11 +8203,11 @@
       </c>
       <c r="H2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>38.36</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>60.47</v>
+        <v>61.05</v>
       </c>
       <c r="J2" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
@@ -8174,7 +8229,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -8188,11 +8243,11 @@
       </c>
       <c r="D3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>89.13</v>
+        <v>90.56</v>
       </c>
       <c r="E3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>73.63</v>
+        <v>73.7</v>
       </c>
       <c r="F3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
@@ -8204,11 +8259,11 @@
       </c>
       <c r="H3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.25</v>
+        <v>37.68</v>
       </c>
       <c r="I3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.71</v>
+        <v>59.28</v>
       </c>
       <c r="J3" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
@@ -8230,13 +8285,13 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(B$1))*86400,2)</f>
-        <v>41.13</v>
+        <v>41.76</v>
       </c>
       <c r="C4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(C$1))*86400,2)</f>
@@ -8244,11 +8299,11 @@
       </c>
       <c r="D4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(D$1))*86400,2)</f>
-        <v>83.98</v>
+        <v>84.9</v>
       </c>
       <c r="E4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
-        <v>70.290000000000006</v>
+        <v>70.760000000000005</v>
       </c>
       <c r="F4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
@@ -8260,11 +8315,11 @@
       </c>
       <c r="H4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(H$1))*86400,2)</f>
-        <v>34.74</v>
+        <v>34.83</v>
       </c>
       <c r="I4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(I$1))*86400,2)</f>
-        <v>56.16</v>
+        <v>56.25</v>
       </c>
       <c r="J4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(J$1))*86400,2)</f>
@@ -8272,7 +8327,7 @@
       </c>
       <c r="K4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(K$1))*86400,2)</f>
-        <v>60.9</v>
+        <v>62.47</v>
       </c>
       <c r="L4" s="14">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(L$1))*86400,2)</f>
@@ -8280,13 +8335,13 @@
       </c>
       <c r="M4" s="15">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(M$1))*86400,2)</f>
-        <v>142.72</v>
+        <v>144.54</v>
       </c>
       <c r="N4" s="2">
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
@@ -8304,7 +8359,7 @@
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -8320,12 +8375,12 @@
       <c r="M8" s="64"/>
       <c r="N8" s="64"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="31" t="str">
-        <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
+        <f t="shared" ref="B9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
         <v>0:44,41</v>
       </c>
       <c r="C9" s="31" t="str">
@@ -8334,11 +8389,11 @@
       </c>
       <c r="D9" s="31" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:31,79</v>
+        <v>1:33,26</v>
       </c>
       <c r="E9" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1:15,84</v>
+        <v>1:15,90</v>
       </c>
       <c r="F9" s="31" t="str">
         <f t="shared" si="1"/>
@@ -8350,11 +8405,11 @@
       </c>
       <c r="H9" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>0:38,36</v>
+        <v>0:38,80</v>
       </c>
       <c r="I9" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>1:00,47</v>
+        <v>1:01,05</v>
       </c>
       <c r="J9" s="31" t="str">
         <f t="shared" si="1"/>
@@ -8374,115 +8429,115 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B10:M10" si="2">CONCATENATE(ROUNDDOWN(B3/60,0),":",TEXT(B3-(60*ROUNDDOWN(B3/60,0)),"00,00"))</f>
         <v>0:43,12</v>
       </c>
       <c r="C10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:03,63</v>
       </c>
       <c r="D10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:29,13</v>
+        <f t="shared" si="2"/>
+        <v>1:30,56</v>
       </c>
       <c r="E10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>1:13,63</v>
+        <f t="shared" si="2"/>
+        <v>1:13,70</v>
       </c>
       <c r="F10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3:03,57</v>
       </c>
       <c r="G10" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:39,79</v>
       </c>
       <c r="H10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0:37,25</v>
+        <f t="shared" si="2"/>
+        <v>0:37,68</v>
       </c>
       <c r="I10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>0:58,71</v>
+        <f t="shared" si="2"/>
+        <v>0:59,28</v>
       </c>
       <c r="J10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:16,92</v>
       </c>
       <c r="K10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1:04,50</v>
       </c>
       <c r="L10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:43,90</v>
       </c>
       <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2:30,57</v>
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:41,13</v>
+        <f t="shared" ref="B11:M11" si="3">CONCATENATE(ROUNDDOWN(B4/60,0),":",TEXT(B4-(60*ROUNDDOWN(B4/60,0)),"00,00"))</f>
+        <v>0:41,76</v>
       </c>
       <c r="C11" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1:02,97</v>
       </c>
       <c r="D11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:23,98</v>
+        <f t="shared" si="3"/>
+        <v>1:24,90</v>
       </c>
       <c r="E11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:10,29</v>
+        <f t="shared" si="3"/>
+        <v>1:10,76</v>
       </c>
       <c r="F11" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2:53,81</v>
       </c>
       <c r="G11" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2:35,68</v>
       </c>
       <c r="H11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:34,74</v>
+        <f t="shared" si="3"/>
+        <v>0:34,83</v>
       </c>
       <c r="I11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>0:56,16</v>
+        <f t="shared" si="3"/>
+        <v>0:56,25</v>
       </c>
       <c r="J11" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1:13,65</v>
       </c>
       <c r="K11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>1:00,90</v>
+        <f t="shared" si="3"/>
+        <v>1:02,47</v>
       </c>
       <c r="L11" s="25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2:37,09</v>
       </c>
       <c r="M11" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>2:22,72</v>
+        <f t="shared" si="3"/>
+        <v>2:24,54</v>
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="63" t="s">
         <v>14</v>
       </c>
@@ -8501,7 +8556,7 @@
       </c>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="63"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -8514,7 +8569,7 @@
       <c r="L15" s="65"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8547,7 +8602,7 @@
       </c>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>28</v>
       </c>
@@ -8576,11 +8631,11 @@
         <v>27</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
@@ -8611,7 +8666,7 @@
       <c r="L18" s="38"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
@@ -8642,7 +8697,7 @@
       <c r="L19" s="36"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
@@ -8671,7 +8726,7 @@
       <c r="L20" s="38"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -8702,7 +8757,7 @@
       <c r="L21" s="36"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -8733,7 +8788,7 @@
       <c r="L22" s="39"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
@@ -8753,7 +8808,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>38</v>
@@ -8764,66 +8819,66 @@
       <c r="L23" s="37"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
       <c r="L24" s="39"/>
       <c r="M24"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="37"/>
       <c r="M25"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L26" s="39"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L27" s="37"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L28" s="39"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L29" s="37"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L30" s="39"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L31" s="37"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L32" s="39"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L33" s="37"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L34" s="39"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M35"/>
     </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
       <c r="L36" s="39"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
       <c r="M37"/>
     </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -8831,7 +8886,803 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:L15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
+  <sheetPr codeName="Tabelle5">
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="18">
+        <v>2026</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
+        <v>44.41</v>
+      </c>
+      <c r="C2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
+        <v>65.53</v>
+      </c>
+      <c r="D2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
+        <v>91.79</v>
+      </c>
+      <c r="E2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
+        <v>75.84</v>
+      </c>
+      <c r="F2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
+        <v>189.05</v>
+      </c>
+      <c r="G2" s="27">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
+        <v>164.57</v>
+      </c>
+      <c r="H2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
+        <v>38.36</v>
+      </c>
+      <c r="I2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
+        <v>60.47</v>
+      </c>
+      <c r="J2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
+        <v>79.22</v>
+      </c>
+      <c r="K2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
+        <v>66.430000000000007</v>
+      </c>
+      <c r="L2" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
+        <v>168.79</v>
+      </c>
+      <c r="M2" s="15">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
+        <v>155.07</v>
+      </c>
+      <c r="N2" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
+        <v>43.12</v>
+      </c>
+      <c r="C3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
+        <v>63.63</v>
+      </c>
+      <c r="D3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
+        <v>89.13</v>
+      </c>
+      <c r="E3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
+        <v>73.63</v>
+      </c>
+      <c r="F3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
+        <v>183.57</v>
+      </c>
+      <c r="G3" s="28">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
+        <v>159.79</v>
+      </c>
+      <c r="H3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
+        <v>37.25</v>
+      </c>
+      <c r="I3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
+        <v>58.71</v>
+      </c>
+      <c r="J3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
+        <v>76.92</v>
+      </c>
+      <c r="K3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
+        <v>64.5</v>
+      </c>
+      <c r="L3" s="16">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
+        <v>163.9</v>
+      </c>
+      <c r="M3" s="17">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
+        <v>150.57</v>
+      </c>
+      <c r="N3" s="2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(B$1))*86400,2)</f>
+        <v>41.13</v>
+      </c>
+      <c r="C4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(C$1))*86400,2)</f>
+        <v>62.97</v>
+      </c>
+      <c r="D4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(D$1))*86400,2)</f>
+        <v>83.98</v>
+      </c>
+      <c r="E4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
+        <v>70.290000000000006</v>
+      </c>
+      <c r="F4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
+        <v>173.81</v>
+      </c>
+      <c r="G4" s="27">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
+        <v>155.68</v>
+      </c>
+      <c r="H4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(H$1))*86400,2)</f>
+        <v>34.74</v>
+      </c>
+      <c r="I4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(I$1))*86400,2)</f>
+        <v>56.16</v>
+      </c>
+      <c r="J4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(J$1))*86400,2)</f>
+        <v>73.650000000000006</v>
+      </c>
+      <c r="K4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(K$1))*86400,2)</f>
+        <v>60.9</v>
+      </c>
+      <c r="L4" s="14">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(L$1))*86400,2)</f>
+        <v>157.09</v>
+      </c>
+      <c r="M4" s="15">
+        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(M$1))*86400,2)</f>
+        <v>142.72</v>
+      </c>
+      <c r="N4" s="2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31" t="str">
+        <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
+        <v>0:44,41</v>
+      </c>
+      <c r="C9" s="31" t="str">
+        <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
+        <v>1:05,53</v>
+      </c>
+      <c r="D9" s="31" t="str">
+        <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
+        <v>1:31,79</v>
+      </c>
+      <c r="E9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:15,84</v>
+      </c>
+      <c r="F9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>3:09,05</v>
+      </c>
+      <c r="G9" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>2:44,57</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>0:38,36</v>
+      </c>
+      <c r="I9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:00,47</v>
+      </c>
+      <c r="J9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:19,22</v>
+      </c>
+      <c r="K9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>1:06,43</v>
+      </c>
+      <c r="L9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>2:48,79</v>
+      </c>
+      <c r="M9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>2:35,07</v>
+      </c>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:43,12</v>
+      </c>
+      <c r="C10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:03,63</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:29,13</v>
+      </c>
+      <c r="E10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:13,63</v>
+      </c>
+      <c r="F10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>3:03,57</v>
+      </c>
+      <c r="G10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>2:39,79</v>
+      </c>
+      <c r="H10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:37,25</v>
+      </c>
+      <c r="I10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>0:58,71</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:16,92</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>1:04,50</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2:43,90</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v>2:30,57</v>
+      </c>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:41,13</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:02,97</v>
+      </c>
+      <c r="D11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:23,98</v>
+      </c>
+      <c r="E11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:10,29</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:53,81</v>
+      </c>
+      <c r="G11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>2:35,68</v>
+      </c>
+      <c r="H11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:34,74</v>
+      </c>
+      <c r="I11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>0:56,16</v>
+      </c>
+      <c r="J11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:13,65</v>
+      </c>
+      <c r="K11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>1:00,90</v>
+      </c>
+      <c r="L11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:37,09</v>
+      </c>
+      <c r="M11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>2:22,72</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="H14" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="L14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="38"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="36"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="L20" s="38"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="39"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>100</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="37"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="L24" s="39"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="L25" s="37"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L26" s="39"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L27" s="37"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L28" s="39"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L29" s="37"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L30" s="39"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L31" s="37"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L32" s="39"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L33" s="37"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L34" s="39"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="L36" s="39"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -8860,17 +9711,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="21.1328125" customWidth="1"/>
+    <col min="7" max="11" width="18.73046875" customWidth="1"/>
+    <col min="12" max="12" width="22.1328125" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -8911,7 +9762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -8952,7 +9803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -8993,7 +9844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -9034,7 +9885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -9051,7 +9902,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A32" si="0">A5+1</f>
         <v>2001</v>
@@ -9069,7 +9920,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -9087,7 +9938,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -9105,7 +9956,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -9123,7 +9974,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -9141,7 +9992,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -9159,7 +10010,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -9177,7 +10028,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -9195,7 +10046,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -9213,7 +10064,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -9231,7 +10082,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -9249,7 +10100,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -9267,7 +10118,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -9285,7 +10136,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -9303,7 +10154,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -9345,7 +10196,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -9387,7 +10238,7 @@
         <v>1.3592592592592591E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -9429,7 +10280,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -9471,7 +10322,7 @@
         <v>1.3577546296296298E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -9513,7 +10364,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -9555,7 +10406,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -9597,7 +10448,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -9639,7 +10490,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -9681,7 +10532,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -9723,7 +10574,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -9765,7 +10616,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -9807,7 +10658,7 @@
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
@@ -9887,17 +10738,17 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="2" max="5" width="18.73046875" customWidth="1"/>
+    <col min="6" max="6" width="21.1328125" customWidth="1"/>
+    <col min="7" max="11" width="18.73046875" customWidth="1"/>
+    <col min="12" max="12" width="22.1328125" customWidth="1"/>
+    <col min="13" max="13" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>39</v>
       </c>
@@ -9938,7 +10789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
         <v>40</v>
       </c>
@@ -9979,7 +10830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="42" t="s">
         <v>41</v>
       </c>
@@ -10020,7 +10871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -10061,7 +10912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2000</v>
       </c>
@@ -10078,7 +10929,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A31" si="0">A5+1</f>
         <v>2001</v>
@@ -10108,7 +10959,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -10150,7 +11001,7 @@
         <v>1.3629629629629632E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -10192,7 +11043,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -10234,7 +11085,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -10276,7 +11127,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -10318,7 +11169,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -10360,7 +11211,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -10402,7 +11253,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -10444,7 +11295,7 @@
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -10486,7 +11337,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -10528,7 +11379,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -10570,7 +11421,7 @@
         <v>1.3306712962962966E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -10612,7 +11463,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -10654,7 +11505,7 @@
         <v>1.312962962962963E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -10696,7 +11547,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -10738,7 +11589,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>2017</v>
@@ -10780,7 +11631,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -10822,7 +11673,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -10864,7 +11715,7 @@
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10906,7 +11757,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -10948,7 +11799,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10990,7 +11841,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
@@ -11032,7 +11883,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
@@ -11074,7 +11925,7 @@
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
@@ -11116,7 +11967,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
@@ -11158,7 +12009,7 @@
         <v>1.2931712962962962E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <f>A31+1</f>
         <v>2027</v>
@@ -11240,30 +12091,30 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.73046875" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -11328,7 +12179,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>199</v>
       </c>
@@ -11389,7 +12240,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>200</v>
       </c>
@@ -11469,30 +12320,30 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.73046875" customWidth="1"/>
     <col min="15" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="60" t="s">
         <v>161</v>
       </c>
@@ -11557,7 +12408,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>190</v>
       </c>
@@ -11618,7 +12469,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>191</v>
       </c>
@@ -11679,7 +12530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
         <v>192</v>
       </c>
@@ -11740,7 +12591,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>193</v>
       </c>
@@ -11799,7 +12650,7 @@
       </c>
       <c r="U5" s="59"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
         <v>194</v>
       </c>
@@ -11858,7 +12709,7 @@
       </c>
       <c r="U6" s="59"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
         <v>195</v>
       </c>
@@ -11936,35 +12787,35 @@
       <selection activeCell="L6" sqref="A1:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>161</v>
       </c>
@@ -12038,7 +12889,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>217</v>
       </c>
@@ -12108,7 +12959,7 @@
         <v>1.9623842592592592E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>218</v>
       </c>
@@ -12178,7 +13029,7 @@
         <v>1.8121527777777778E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
         <v>219</v>
       </c>
@@ -12248,7 +13099,7 @@
         <v>1.9979166666666665E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>220</v>
       </c>
@@ -12318,7 +13169,7 @@
         <v>1.7653935185185186E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
         <v>190</v>
       </c>
@@ -12388,7 +13239,7 @@
         <v>1.8998842592592594E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
         <v>191</v>
       </c>
@@ -12471,41 +13322,41 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>161</v>
       </c>
@@ -12579,7 +13430,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
         <v>215</v>
       </c>
@@ -12649,7 +13500,7 @@
         <v>1.8332175925925925E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>216</v>
       </c>
@@ -12718,6 +13569,390 @@
       <c r="X3" s="62">
         <v>1.7003472222222222E-3</v>
       </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="59">
+        <v>17</v>
+      </c>
+      <c r="D4" s="59">
+        <v>17</v>
+      </c>
+      <c r="E4" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F4" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G4" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59">
+        <v>10</v>
+      </c>
+      <c r="M4" s="62">
+        <f>Tabelle1!E14</f>
+        <v>4.0282407407407411E-4</v>
+      </c>
+      <c r="N4" s="62">
+        <f>Tabelle1!E16</f>
+        <v>6.3721064814814814E-4</v>
+      </c>
+      <c r="O4" s="62">
+        <f>Tabelle1!E15</f>
+        <v>8.6561342592592593E-4</v>
+      </c>
+      <c r="P4" s="62">
+        <f>Tabelle1!E17</f>
+        <v>7.2594907407407417E-4</v>
+      </c>
+      <c r="Q4" s="62">
+        <f>Tabelle1!E19</f>
+        <v>1.7947569444444445E-3</v>
+      </c>
+      <c r="R4" s="62">
+        <f>Tabelle1!E18</f>
+        <v>1.6421064814814814E-3</v>
+      </c>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A5" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="59">
+        <v>16</v>
+      </c>
+      <c r="D5" s="59">
+        <v>16</v>
+      </c>
+      <c r="E5" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F5" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G5" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59">
+        <v>10</v>
+      </c>
+      <c r="M5" s="62">
+        <f>Tabelle1!D14</f>
+        <v>4.072800925925926E-4</v>
+      </c>
+      <c r="N5" s="62">
+        <f>Tabelle1!D16</f>
+        <v>6.4344907407407417E-4</v>
+      </c>
+      <c r="O5" s="62">
+        <f>Tabelle1!D15</f>
+        <v>8.7821759259259276E-4</v>
+      </c>
+      <c r="P5" s="62">
+        <f>Tabelle1!D17</f>
+        <v>7.4160879629629642E-4</v>
+      </c>
+      <c r="Q5" s="62">
+        <f>Tabelle1!D19</f>
+        <v>1.8160185185185185E-3</v>
+      </c>
+      <c r="R5" s="62">
+        <f>Tabelle1!D18</f>
+        <v>1.6614583333333334E-3</v>
+      </c>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A6" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="59">
+        <v>12</v>
+      </c>
+      <c r="D6" s="59">
+        <v>15</v>
+      </c>
+      <c r="E6" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F6" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G6" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59">
+        <v>10</v>
+      </c>
+      <c r="M6" s="62">
+        <f>Tabelle1!C14</f>
+        <v>4.1122685185185186E-4</v>
+      </c>
+      <c r="N6" s="62">
+        <f>Tabelle1!C16</f>
+        <v>6.4930555555555564E-4</v>
+      </c>
+      <c r="O6" s="62">
+        <f>Tabelle1!C15</f>
+        <v>8.899305555555557E-4</v>
+      </c>
+      <c r="P6" s="62">
+        <f>Tabelle1!C17</f>
+        <v>7.5599537037037052E-4</v>
+      </c>
+      <c r="Q6" s="62">
+        <f>Tabelle1!C19</f>
+        <v>1.835752314814815E-3</v>
+      </c>
+      <c r="R6" s="62">
+        <f>Tabelle1!C18</f>
+        <v>1.6792824074074075E-3</v>
+      </c>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A7" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="59">
+        <v>17</v>
+      </c>
+      <c r="D7" s="59">
+        <v>17</v>
+      </c>
+      <c r="E7" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F7" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G7" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59">
+        <v>10</v>
+      </c>
+      <c r="M7" s="62">
+        <f>Tabelle1!K14</f>
+        <v>4.9831018518518529E-4</v>
+      </c>
+      <c r="N7" s="62">
+        <f>Tabelle1!K16</f>
+        <v>7.4988425925925928E-4</v>
+      </c>
+      <c r="O7" s="62">
+        <f>Tabelle1!K15</f>
+        <v>1.0141898148148148E-3</v>
+      </c>
+      <c r="P7" s="62">
+        <f>Tabelle1!K17</f>
+        <v>8.3289351851851851E-4</v>
+      </c>
+      <c r="Q7" s="62">
+        <f>Tabelle1!K19</f>
+        <v>1.9631944444444445E-3</v>
+      </c>
+      <c r="R7" s="62">
+        <f>Tabelle1!K18</f>
+        <v>1.7831712962962964E-3</v>
+      </c>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="59">
+        <v>16</v>
+      </c>
+      <c r="D8" s="59">
+        <v>16</v>
+      </c>
+      <c r="E8" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F8" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G8" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59">
+        <v>10</v>
+      </c>
+      <c r="M8" s="62">
+        <f>Tabelle1!J14</f>
+        <v>5.0836805555555563E-4</v>
+      </c>
+      <c r="N8" s="62">
+        <f>Tabelle1!J16</f>
+        <v>7.5841435185185202E-4</v>
+      </c>
+      <c r="O8" s="62">
+        <f>Tabelle1!J15</f>
+        <v>1.0323958333333335E-3</v>
+      </c>
+      <c r="P8" s="62">
+        <f>Tabelle1!J17</f>
+        <v>8.4511574074074068E-4</v>
+      </c>
+      <c r="Q8" s="62">
+        <f>Tabelle1!J19</f>
+        <v>1.9777083333333335E-3</v>
+      </c>
+      <c r="R8" s="62">
+        <f>Tabelle1!J18</f>
+        <v>1.7899189814814817E-3</v>
+      </c>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A9" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="59">
+        <v>12</v>
+      </c>
+      <c r="D9" s="59">
+        <v>15</v>
+      </c>
+      <c r="E9" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F9" s="61">
+        <v>46022</v>
+      </c>
+      <c r="G9" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59">
+        <v>10</v>
+      </c>
+      <c r="M9" s="62">
+        <f>Tabelle1!I14</f>
+        <v>5.1791666666666663E-4</v>
+      </c>
+      <c r="N9" s="62">
+        <f>Tabelle1!I16</f>
+        <v>7.6630787037037043E-4</v>
+      </c>
+      <c r="O9" s="62">
+        <f>Tabelle1!I15</f>
+        <v>1.049201388888889E-3</v>
+      </c>
+      <c r="P9" s="62">
+        <f>Tabelle1!I17</f>
+        <v>8.563194444444446E-4</v>
+      </c>
+      <c r="Q9" s="62">
+        <f>Tabelle1!I19</f>
+        <v>1.9912037037037038E-3</v>
+      </c>
+      <c r="R9" s="62">
+        <f>Tabelle1!I18</f>
+        <v>1.7961574074074073E-3</v>
+      </c>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12728,6 +13963,531 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
+  <dimension ref="B3:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="69">
+        <v>2010</v>
+      </c>
+      <c r="D4" s="69">
+        <v>2009</v>
+      </c>
+      <c r="E4" s="69">
+        <v>2008</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="69">
+        <v>2010</v>
+      </c>
+      <c r="J4" s="69">
+        <v>2009</v>
+      </c>
+      <c r="K4" s="69">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="68">
+        <v>3.7384259259259255E-4</v>
+      </c>
+      <c r="D5" s="68">
+        <v>3.7025462962962961E-4</v>
+      </c>
+      <c r="E5" s="68">
+        <v>3.6620370370370371E-4</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="68">
+        <v>4.708333333333333E-4</v>
+      </c>
+      <c r="J5" s="68">
+        <v>4.621527777777778E-4</v>
+      </c>
+      <c r="K5" s="68">
+        <v>4.5300925925925928E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="68">
+        <v>8.0902777777777787E-4</v>
+      </c>
+      <c r="D6" s="68">
+        <v>7.9837962962962968E-4</v>
+      </c>
+      <c r="E6" s="68">
+        <v>7.869212962962962E-4</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="68">
+        <v>9.5381944444444442E-4</v>
+      </c>
+      <c r="J6" s="68">
+        <v>9.3854166666666673E-4</v>
+      </c>
+      <c r="K6" s="68">
+        <v>9.2199074074074069E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="68">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="D7" s="68">
+        <v>5.8495370370370374E-4</v>
+      </c>
+      <c r="E7" s="68">
+        <v>5.7928240740740737E-4</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="I7" s="68">
+        <v>6.9664351851851853E-4</v>
+      </c>
+      <c r="J7" s="68">
+        <v>6.8946759259259265E-4</v>
+      </c>
+      <c r="K7" s="68">
+        <v>6.8171296296296296E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="68">
+        <v>6.8726851851851859E-4</v>
+      </c>
+      <c r="D8" s="68">
+        <v>6.7418981481481486E-4</v>
+      </c>
+      <c r="E8" s="68">
+        <v>6.5995370370370372E-4</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="68">
+        <v>7.7847222222222228E-4</v>
+      </c>
+      <c r="J8" s="68">
+        <v>7.6828703703703694E-4</v>
+      </c>
+      <c r="K8" s="68">
+        <v>7.571759259259259E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="68">
+        <v>1.5266203703703705E-3</v>
+      </c>
+      <c r="D9" s="68">
+        <v>1.5104166666666666E-3</v>
+      </c>
+      <c r="E9" s="68">
+        <v>1.4928240740740739E-3</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="68">
+        <v>1.6328703703703702E-3</v>
+      </c>
+      <c r="J9" s="68">
+        <v>1.6271990740740741E-3</v>
+      </c>
+      <c r="K9" s="68">
+        <v>1.6210648148148148E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="68">
+        <v>1.6688657407407407E-3</v>
+      </c>
+      <c r="D10" s="68">
+        <v>1.6509259259259257E-3</v>
+      </c>
+      <c r="E10" s="68">
+        <v>1.6315972222222222E-3</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="I10" s="68">
+        <v>1.8101851851851853E-3</v>
+      </c>
+      <c r="J10" s="68">
+        <v>1.7979166666666666E-3</v>
+      </c>
+      <c r="K10" s="68">
+        <v>1.784722222222222E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="69">
+        <v>2010</v>
+      </c>
+      <c r="D13" s="69">
+        <v>2009</v>
+      </c>
+      <c r="E13" s="69">
+        <v>2008</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="69">
+        <v>2010</v>
+      </c>
+      <c r="J13" s="69">
+        <v>2009</v>
+      </c>
+      <c r="K13" s="69">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="68">
+        <f>C5*$F$12</f>
+        <v>4.1122685185185186E-4</v>
+      </c>
+      <c r="D14" s="68">
+        <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
+        <v>4.072800925925926E-4</v>
+      </c>
+      <c r="E14" s="68">
+        <f t="shared" si="0"/>
+        <v>4.0282407407407411E-4</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="68">
+        <f>I5*$L$12</f>
+        <v>5.1791666666666663E-4</v>
+      </c>
+      <c r="J14" s="68">
+        <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
+        <v>5.0836805555555563E-4</v>
+      </c>
+      <c r="K14" s="68">
+        <f t="shared" si="1"/>
+        <v>4.9831018518518529E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="68">
+        <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
+        <v>8.899305555555557E-4</v>
+      </c>
+      <c r="D15" s="68">
+        <f t="shared" si="2"/>
+        <v>8.7821759259259276E-4</v>
+      </c>
+      <c r="E15" s="68">
+        <f t="shared" si="2"/>
+        <v>8.6561342592592593E-4</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="68">
+        <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
+        <v>1.049201388888889E-3</v>
+      </c>
+      <c r="J15" s="68">
+        <f t="shared" si="3"/>
+        <v>1.0323958333333335E-3</v>
+      </c>
+      <c r="K15" s="68">
+        <f t="shared" si="3"/>
+        <v>1.0141898148148148E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="68">
+        <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
+        <v>6.4930555555555564E-4</v>
+      </c>
+      <c r="D16" s="68">
+        <f t="shared" si="4"/>
+        <v>6.4344907407407417E-4</v>
+      </c>
+      <c r="E16" s="68">
+        <f t="shared" si="4"/>
+        <v>6.3721064814814814E-4</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="68">
+        <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
+        <v>7.6630787037037043E-4</v>
+      </c>
+      <c r="J16" s="68">
+        <f t="shared" si="5"/>
+        <v>7.5841435185185202E-4</v>
+      </c>
+      <c r="K16" s="68">
+        <f t="shared" si="5"/>
+        <v>7.4988425925925928E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="68">
+        <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
+        <v>7.5599537037037052E-4</v>
+      </c>
+      <c r="D17" s="68">
+        <f t="shared" si="6"/>
+        <v>7.4160879629629642E-4</v>
+      </c>
+      <c r="E17" s="68">
+        <f t="shared" si="6"/>
+        <v>7.2594907407407417E-4</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="68">
+        <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
+        <v>8.563194444444446E-4</v>
+      </c>
+      <c r="J17" s="68">
+        <f t="shared" si="7"/>
+        <v>8.4511574074074068E-4</v>
+      </c>
+      <c r="K17" s="68">
+        <f t="shared" si="7"/>
+        <v>8.3289351851851851E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="68">
+        <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
+        <v>1.6792824074074075E-3</v>
+      </c>
+      <c r="D18" s="68">
+        <f t="shared" si="8"/>
+        <v>1.6614583333333334E-3</v>
+      </c>
+      <c r="E18" s="68">
+        <f t="shared" si="8"/>
+        <v>1.6421064814814814E-3</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="68">
+        <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
+        <v>1.7961574074074073E-3</v>
+      </c>
+      <c r="J18" s="68">
+        <f t="shared" si="9"/>
+        <v>1.7899189814814817E-3</v>
+      </c>
+      <c r="K18" s="68">
+        <f t="shared" si="9"/>
+        <v>1.7831712962962964E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="68">
+        <f t="shared" si="8"/>
+        <v>1.835752314814815E-3</v>
+      </c>
+      <c r="D19" s="68">
+        <f t="shared" si="8"/>
+        <v>1.8160185185185185E-3</v>
+      </c>
+      <c r="E19" s="68">
+        <f t="shared" si="8"/>
+        <v>1.7947569444444445E-3</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="68">
+        <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
+        <v>1.9912037037037038E-3</v>
+      </c>
+      <c r="J19" s="68">
+        <f t="shared" si="10"/>
+        <v>1.9777083333333335E-3</v>
+      </c>
+      <c r="K19" s="68">
+        <f t="shared" si="10"/>
+        <v>1.9631944444444445E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="66"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" s="66"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" s="67"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
   <sheetPr codeName="Tabelle3">
     <tabColor theme="1"/>
@@ -12738,15 +14498,15 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="18.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18">
         <v>2024</v>
       </c>
@@ -12790,7 +14550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -12846,7 +14606,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +14662,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
@@ -12958,7 +14718,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="64" t="s">
         <v>13</v>
       </c>
@@ -12976,7 +14736,7 @@
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -12992,7 +14752,7 @@
       <c r="M8" s="64"/>
       <c r="N8" s="64"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
@@ -13046,7 +14806,7 @@
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
@@ -13100,7 +14860,7 @@
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
@@ -13154,7 +14914,7 @@
       </c>
       <c r="N11" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="63" t="s">
         <v>14</v>
       </c>
@@ -13175,7 +14935,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="63"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
@@ -13190,7 +14950,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13225,7 +14985,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -13260,7 +15020,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
@@ -13293,7 +15053,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -13326,7 +15086,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
@@ -13357,7 +15117,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -13384,7 +15144,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -13407,7 +15167,7 @@
       <c r="I22" s="33"/>
       <c r="L22" s="41"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -13430,50 +15190,50 @@
       <c r="I23" s="33"/>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="L24" s="41"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L26" s="41"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L28" s="41"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L30" s="41"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L31" s="40"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L33" s="40"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L34" s="41"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L35" s="33"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L36" s="41"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L37" s="33"/>
     </row>
   </sheetData>
@@ -13486,800 +15246,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
-  <sheetPr codeName="Tabelle4">
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18">
-        <v>2025</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>44.41</v>
-      </c>
-      <c r="C2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>65.53</v>
-      </c>
-      <c r="D2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>93.26</v>
-      </c>
-      <c r="E2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>75.900000000000006</v>
-      </c>
-      <c r="F2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>189.05</v>
-      </c>
-      <c r="G2" s="27">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>164.57</v>
-      </c>
-      <c r="H2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="I2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>61.05</v>
-      </c>
-      <c r="J2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>79.22</v>
-      </c>
-      <c r="K2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>66.430000000000007</v>
-      </c>
-      <c r="L2" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>168.79</v>
-      </c>
-      <c r="M2" s="15">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>155.07</v>
-      </c>
-      <c r="N2" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>43.12</v>
-      </c>
-      <c r="C3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.63</v>
-      </c>
-      <c r="D3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>90.56</v>
-      </c>
-      <c r="E3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>73.7</v>
-      </c>
-      <c r="F3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>183.57</v>
-      </c>
-      <c r="G3" s="28">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>159.79</v>
-      </c>
-      <c r="H3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.68</v>
-      </c>
-      <c r="I3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>59.28</v>
-      </c>
-      <c r="J3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.92</v>
-      </c>
-      <c r="K3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>64.5</v>
-      </c>
-      <c r="L3" s="16">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>163.9</v>
-      </c>
-      <c r="M3" s="17">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>150.57</v>
-      </c>
-      <c r="N3" s="2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(B$1))*86400,2)</f>
-        <v>41.76</v>
-      </c>
-      <c r="C4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(C$1))*86400,2)</f>
-        <v>62.97</v>
-      </c>
-      <c r="D4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(D$1))*86400,2)</f>
-        <v>84.9</v>
-      </c>
-      <c r="E4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
-        <v>70.760000000000005</v>
-      </c>
-      <c r="F4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
-        <v>173.81</v>
-      </c>
-      <c r="G4" s="27">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
-        <v>155.68</v>
-      </c>
-      <c r="H4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(H$1))*86400,2)</f>
-        <v>34.83</v>
-      </c>
-      <c r="I4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(I$1))*86400,2)</f>
-        <v>56.25</v>
-      </c>
-      <c r="J4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(J$1))*86400,2)</f>
-        <v>73.650000000000006</v>
-      </c>
-      <c r="K4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(K$1))*86400,2)</f>
-        <v>62.47</v>
-      </c>
-      <c r="L4" s="14">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(L$1))*86400,2)</f>
-        <v>157.09</v>
-      </c>
-      <c r="M4" s="15">
-        <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(M$1))*86400,2)</f>
-        <v>144.54</v>
-      </c>
-      <c r="N4" s="2">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="31" t="str">
-        <f t="shared" ref="B9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:44,41</v>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
-        <v>1:05,53</v>
-      </c>
-      <c r="D9" s="31" t="str">
-        <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:33,26</v>
-      </c>
-      <c r="E9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:15,90</v>
-      </c>
-      <c r="F9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>3:09,05</v>
-      </c>
-      <c r="G9" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>2:44,57</v>
-      </c>
-      <c r="H9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>0:38,80</v>
-      </c>
-      <c r="I9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:01,05</v>
-      </c>
-      <c r="J9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:19,22</v>
-      </c>
-      <c r="K9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>1:06,43</v>
-      </c>
-      <c r="L9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>2:48,79</v>
-      </c>
-      <c r="M9" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>2:35,07</v>
-      </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24" t="str">
-        <f t="shared" ref="B10:M10" si="2">CONCATENATE(ROUNDDOWN(B3/60,0),":",TEXT(B3-(60*ROUNDDOWN(B3/60,0)),"00,00"))</f>
-        <v>0:43,12</v>
-      </c>
-      <c r="C10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1:03,63</v>
-      </c>
-      <c r="D10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1:30,56</v>
-      </c>
-      <c r="E10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1:13,70</v>
-      </c>
-      <c r="F10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>3:03,57</v>
-      </c>
-      <c r="G10" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>2:39,79</v>
-      </c>
-      <c r="H10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0:37,68</v>
-      </c>
-      <c r="I10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>0:59,28</v>
-      </c>
-      <c r="J10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1:16,92</v>
-      </c>
-      <c r="K10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>1:04,50</v>
-      </c>
-      <c r="L10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>2:43,90</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>2:30,57</v>
-      </c>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="25" t="str">
-        <f t="shared" ref="B11:M11" si="3">CONCATENATE(ROUNDDOWN(B4/60,0),":",TEXT(B4-(60*ROUNDDOWN(B4/60,0)),"00,00"))</f>
-        <v>0:41,76</v>
-      </c>
-      <c r="C11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>1:02,97</v>
-      </c>
-      <c r="D11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>1:24,90</v>
-      </c>
-      <c r="E11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>1:10,76</v>
-      </c>
-      <c r="F11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>2:53,81</v>
-      </c>
-      <c r="G11" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>2:35,68</v>
-      </c>
-      <c r="H11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>0:34,83</v>
-      </c>
-      <c r="I11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>0:56,25</v>
-      </c>
-      <c r="J11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>1:13,65</v>
-      </c>
-      <c r="K11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>1:02,47</v>
-      </c>
-      <c r="L11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>2:37,09</v>
-      </c>
-      <c r="M11" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>2:24,54</v>
-      </c>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="H14" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="L14" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="8">
-        <v>12</v>
-      </c>
-      <c r="C19" s="8">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="36"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="9">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="35"/>
-      <c r="L20" s="38"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>100</v>
-      </c>
-      <c r="D21" s="8">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="36"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="9">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8">
-        <v>19</v>
-      </c>
-      <c r="C23" s="8">
-        <v>100</v>
-      </c>
-      <c r="D23" s="8">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="37"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="L24" s="39"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="L25" s="37"/>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="39"/>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="37"/>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="39"/>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="37"/>
-      <c r="M29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="39"/>
-      <c r="M30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="37"/>
-      <c r="M31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L32" s="39"/>
-      <c r="M32"/>
-    </row>
-    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="37"/>
-      <c r="M33"/>
-    </row>
-    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L34" s="39"/>
-      <c r="M34"/>
-    </row>
-    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M35"/>
-    </row>
-    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L36" s="39"/>
-      <c r="M36"/>
-    </row>
-    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="M37"/>
-    </row>
-    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-    </row>
-    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:N8"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="L14:L15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B72674-C26E-4281-9CBF-AF67E38698EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375ECEE-E765-477F-BAC4-BAC47CDEC745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -1380,15 +1380,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,6 +1390,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8342,38 +8342,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -8538,35 +8538,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="H14" s="65" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="L14" s="65" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="L14" s="69" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="L15" s="69"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -9138,38 +9138,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -9334,35 +9334,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="H14" s="65" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="L14" s="65" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="L14" s="69" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="L15" s="69"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -13324,8 +13324,8 @@
   </sheetPr>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13924,27 +13924,21 @@
         <v>10</v>
       </c>
       <c r="M9" s="62">
-        <f>Tabelle1!I14</f>
         <v>5.1791666666666663E-4</v>
       </c>
       <c r="N9" s="62">
-        <f>Tabelle1!I16</f>
         <v>7.6630787037037043E-4</v>
       </c>
       <c r="O9" s="62">
-        <f>Tabelle1!I15</f>
         <v>1.049201388888889E-3</v>
       </c>
       <c r="P9" s="62">
-        <f>Tabelle1!I17</f>
         <v>8.563194444444446E-4</v>
       </c>
       <c r="Q9" s="62">
-        <f>Tabelle1!I19</f>
         <v>1.9912037037037038E-3</v>
       </c>
       <c r="R9" s="62">
-        <f>Tabelle1!I18</f>
         <v>1.7961574074074073E-3</v>
       </c>
       <c r="S9" s="62"/>
@@ -13985,184 +13979,184 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="66">
         <v>2010</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="66">
         <v>2009</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="66">
         <v>2008</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="69">
+      <c r="I4" s="66">
         <v>2010</v>
       </c>
-      <c r="J4" s="69">
+      <c r="J4" s="66">
         <v>2009</v>
       </c>
-      <c r="K4" s="69">
+      <c r="K4" s="66">
         <v>2008</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="65">
         <v>3.7384259259259255E-4</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="65">
         <v>3.7025462962962961E-4</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="65">
         <v>3.6620370370370371E-4</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="65">
         <v>4.708333333333333E-4</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="65">
         <v>4.621527777777778E-4</v>
       </c>
-      <c r="K5" s="68">
+      <c r="K5" s="65">
         <v>4.5300925925925928E-4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="65">
         <v>8.0902777777777787E-4</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="65">
         <v>7.9837962962962968E-4</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="65">
         <v>7.869212962962962E-4</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="65">
         <v>9.5381944444444442E-4</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="65">
         <v>9.3854166666666673E-4</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="65">
         <v>9.2199074074074069E-4</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="65">
         <v>5.9027777777777778E-4</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="65">
         <v>5.8495370370370374E-4</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="65">
         <v>5.7928240740740737E-4</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="65">
         <v>6.9664351851851853E-4</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="65">
         <v>6.8946759259259265E-4</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="65">
         <v>6.8171296296296296E-4</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="65">
         <v>6.8726851851851859E-4</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="65">
         <v>6.7418981481481486E-4</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="65">
         <v>6.5995370370370372E-4</v>
       </c>
-      <c r="H8" s="67" t="s">
+      <c r="H8" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="65">
         <v>7.7847222222222228E-4</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="65">
         <v>7.6828703703703694E-4</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="65">
         <v>7.571759259259259E-4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="65">
         <v>1.5266203703703705E-3</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="65">
         <v>1.5104166666666666E-3</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <v>1.4928240740740739E-3</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="65">
         <v>1.6328703703703702E-3</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="65">
         <v>1.6271990740740741E-3</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="65">
         <v>1.6210648148148148E-3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>1.6688657407407407E-3</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <v>1.6509259259259257E-3</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <v>1.6315972222222222E-3</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="65">
         <v>1.8101851851851853E-3</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="65">
         <v>1.7979166666666666E-3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="65">
         <v>1.784722222222222E-3</v>
       </c>
     </row>
@@ -14181,306 +14175,306 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="66">
         <v>2010</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="66">
         <v>2009</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="66">
         <v>2008</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="69">
+      <c r="I13" s="66">
         <v>2010</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="66">
         <v>2009</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="66">
         <v>2008</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="65">
         <f>C5*$F$12</f>
         <v>4.1122685185185186E-4</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
         <v>4.072800925925926E-4</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <f t="shared" si="0"/>
         <v>4.0282407407407411E-4</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <f>I5*$L$12</f>
         <v>5.1791666666666663E-4</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
         <v>5.0836805555555563E-4</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="65">
         <f t="shared" si="1"/>
         <v>4.9831018518518529E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
         <v>8.899305555555557E-4</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <f t="shared" si="2"/>
         <v>8.7821759259259276E-4</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="65">
         <f t="shared" si="2"/>
         <v>8.6561342592592593E-4</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
         <v>1.049201388888889E-3</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="65">
         <f t="shared" si="3"/>
         <v>1.0323958333333335E-3</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="65">
         <f t="shared" si="3"/>
         <v>1.0141898148148148E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
         <v>6.4930555555555564E-4</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <f t="shared" si="4"/>
         <v>6.4344907407407417E-4</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <f t="shared" si="4"/>
         <v>6.3721064814814814E-4</v>
       </c>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
         <v>7.6630787037037043E-4</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="65">
         <f t="shared" si="5"/>
         <v>7.5841435185185202E-4</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="65">
         <f t="shared" si="5"/>
         <v>7.4988425925925928E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
         <v>7.5599537037037052E-4</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="65">
         <f t="shared" si="6"/>
         <v>7.4160879629629642E-4</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="65">
         <f t="shared" si="6"/>
         <v>7.2594907407407417E-4</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="68">
+      <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
         <v>8.563194444444446E-4</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="65">
         <f t="shared" si="7"/>
         <v>8.4511574074074068E-4</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="65">
         <f t="shared" si="7"/>
         <v>8.3289351851851851E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
         <v>1.6792824074074075E-3</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="65">
         <f t="shared" si="8"/>
         <v>1.6614583333333334E-3</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="65">
         <f t="shared" si="8"/>
         <v>1.6421064814814814E-3</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
         <v>1.7961574074074073E-3</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="65">
         <f t="shared" si="9"/>
         <v>1.7899189814814817E-3</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="65">
         <f t="shared" si="9"/>
         <v>1.7831712962962964E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <f t="shared" si="8"/>
         <v>1.835752314814815E-3</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="65">
         <f t="shared" si="8"/>
         <v>1.8160185185185185E-3</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="65">
         <f t="shared" si="8"/>
         <v>1.7947569444444445E-3</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
         <v>1.9912037037037038E-3</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="65">
         <f t="shared" si="10"/>
         <v>1.9777083333333335E-3</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="65">
         <f t="shared" si="10"/>
         <v>1.9631944444444445E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="66"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B31" s="66"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="67"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14719,38 +14713,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -14915,38 +14909,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14"/>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="L14" s="65" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="L14" s="69" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="L15" s="69"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375ECEE-E765-477F-BAC4-BAC47CDEC745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F448D-DC1F-49E5-956A-DE7763CCA25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1399,6 +1399,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -13322,10 +13323,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:R9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13941,12 +13942,32 @@
       <c r="R9" s="62">
         <v>1.7961574074074073E-3</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="S9" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T9" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U9" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V9" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W9" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X9" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811F448D-DC1F-49E5-956A-DE7763CCA25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848911A-46E0-40F5-B959-1D8076048383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -1390,6 +1390,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,7 +1400,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8343,38 +8343,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -8539,35 +8539,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="69" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="H14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="L14" s="69" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="L14" s="70" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -9139,38 +9139,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -9335,35 +9335,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="69" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="H14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="L14" s="69" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="L14" s="70" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -13325,8 +13325,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13628,12 +13628,24 @@
         <f>Tabelle1!E18</f>
         <v>1.6421064814814814E-3</v>
       </c>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="S4" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T4" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U4" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V4" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W4" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X4" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
@@ -13692,12 +13704,24 @@
         <f>Tabelle1!D18</f>
         <v>1.6614583333333334E-3</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="S5" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T5" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V5" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W5" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X5" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
@@ -13756,12 +13780,24 @@
         <f>Tabelle1!C18</f>
         <v>1.6792824074074075E-3</v>
       </c>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="S6" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T6" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V6" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X6" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
@@ -13820,12 +13856,24 @@
         <f>Tabelle1!K18</f>
         <v>1.7831712962962964E-3</v>
       </c>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="S7" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T7" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U7" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V7" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W7" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X7" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
@@ -13884,12 +13932,24 @@
         <f>Tabelle1!J18</f>
         <v>1.7899189814814817E-3</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
+      <c r="S8" s="62">
+        <v>5.4381250000000003E-4</v>
+      </c>
+      <c r="T8" s="62">
+        <v>8.0462326388888901E-4</v>
+      </c>
+      <c r="U8" s="62">
+        <v>1.1016614583333336E-3</v>
+      </c>
+      <c r="V8" s="62">
+        <v>8.991354166666669E-4</v>
+      </c>
+      <c r="W8" s="62">
+        <v>2.090763888888889E-3</v>
+      </c>
+      <c r="X8" s="62">
+        <v>1.8859652777777779E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
@@ -13962,12 +14022,12 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14734,38 +14794,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -14930,38 +14990,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14"/>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="L14" s="69" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="L14" s="70" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
       <c r="G15"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="L15" s="70"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848911A-46E0-40F5-B959-1D8076048383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D5193-BE97-4DFD-B5E0-AA0EA72B087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13325,8 +13325,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:X8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13588,7 +13588,7 @@
         <v>45658</v>
       </c>
       <c r="F4" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G4" s="61">
         <v>45658</v>
@@ -13664,7 +13664,7 @@
         <v>45658</v>
       </c>
       <c r="F5" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G5" s="61">
         <v>45658</v>
@@ -13740,7 +13740,7 @@
         <v>45658</v>
       </c>
       <c r="F6" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G6" s="61">
         <v>45658</v>
@@ -13816,7 +13816,7 @@
         <v>45658</v>
       </c>
       <c r="F7" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G7" s="61">
         <v>45658</v>
@@ -13892,7 +13892,7 @@
         <v>45658</v>
       </c>
       <c r="F8" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G8" s="61">
         <v>45658</v>
@@ -13968,7 +13968,7 @@
         <v>45658</v>
       </c>
       <c r="F9" s="61">
-        <v>46022</v>
+        <v>46387</v>
       </c>
       <c r="G9" s="61">
         <v>45658</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606D5193-BE97-4DFD-B5E0-AA0EA72B087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0489CCE-582F-484D-8CE0-9B1CBC53C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13326,7 +13326,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13579,10 +13579,10 @@
         <v>182</v>
       </c>
       <c r="C4" s="59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="61">
         <v>45658</v>
@@ -13606,46 +13606,34 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.3721064814814814E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>8.6561342592592593E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.2594907407407417E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.7947569444444445E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.6421064814814814E-3</v>
-      </c>
-      <c r="S4" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T4" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U4" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V4" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W4" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X4" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <v>1.7913888888888886E-3</v>
+      </c>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
@@ -13655,10 +13643,10 @@
         <v>182</v>
       </c>
       <c r="C5" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="61">
         <v>45658</v>
@@ -13682,46 +13670,34 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.4344907407407417E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>8.7821759259259276E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.4160879629629642E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8160185185185185E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.6614583333333334E-3</v>
-      </c>
-      <c r="S5" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T5" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U5" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V5" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W5" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X5" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <v>1.8124999999999999E-3</v>
+      </c>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
@@ -13734,7 +13710,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="61">
         <v>45658</v>
@@ -13758,46 +13734,34 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.4930555555555564E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.5599537037037052E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.835752314814815E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.6792824074074075E-3</v>
-      </c>
-      <c r="S6" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T6" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U6" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V6" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W6" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X6" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <v>1.8319444444444444E-3</v>
+      </c>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
@@ -13807,10 +13771,10 @@
         <v>164</v>
       </c>
       <c r="C7" s="59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="61">
         <v>45658</v>
@@ -13834,46 +13798,34 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.4988425925925928E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0141898148148148E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.3289351851851851E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>1.9631944444444445E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.7831712962962964E-3</v>
-      </c>
-      <c r="S7" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T7" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U7" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V7" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W7" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X7" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <v>1.9452777777777775E-3</v>
+      </c>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
@@ -13883,10 +13835,10 @@
         <v>164</v>
       </c>
       <c r="C8" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="61">
         <v>45658</v>
@@ -13910,46 +13862,34 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.5841435185185202E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0323958333333335E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.4511574074074068E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>1.9777083333333335E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.7899189814814817E-3</v>
-      </c>
-      <c r="S8" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T8" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U8" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V8" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W8" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X8" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <v>1.9526388888888887E-3</v>
+      </c>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
@@ -13962,7 +13902,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="61">
         <v>45658</v>
@@ -13985,41 +13925,35 @@
         <v>10</v>
       </c>
       <c r="M9" s="62">
-        <v>5.1791666666666663E-4</v>
+        <f>Tabelle1!I14</f>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="N9" s="62">
-        <v>7.6630787037037043E-4</v>
+        <f>Tabelle1!I16</f>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O9" s="62">
-        <v>1.049201388888889E-3</v>
+        <f>Tabelle1!I15</f>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="P9" s="62">
-        <v>8.563194444444446E-4</v>
+        <f>Tabelle1!I17</f>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="Q9" s="62">
-        <v>1.9912037037037038E-3</v>
+        <f>Tabelle1!I19</f>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="R9" s="62">
-        <v>1.7961574074074073E-3</v>
-      </c>
-      <c r="S9" s="62">
-        <v>5.4381250000000003E-4</v>
-      </c>
-      <c r="T9" s="62">
-        <v>8.0462326388888901E-4</v>
-      </c>
-      <c r="U9" s="62">
-        <v>1.1016614583333336E-3</v>
-      </c>
-      <c r="V9" s="62">
-        <v>8.991354166666669E-4</v>
-      </c>
-      <c r="W9" s="62">
-        <v>2.090763888888889E-3</v>
-      </c>
-      <c r="X9" s="62">
-        <v>1.8859652777777779E-3</v>
-      </c>
+        <f>Tabelle1!I18</f>
+        <v>1.9594444444444442E-3</v>
+      </c>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="S12" s="67"/>
@@ -14042,7 +13976,7 @@
   <dimension ref="B3:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14246,13 +14180,13 @@
         <v>230</v>
       </c>
       <c r="F12">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="s">
         <v>234</v>
       </c>
       <c r="L12">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14287,30 +14221,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.0282407407407411E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14319,30 +14253,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>8.7821759259259276E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>8.6561342592592593E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0323958333333335E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0141898148148148E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14351,30 +14285,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>6.4930555555555564E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>6.4344907407407417E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>6.3721064814814814E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>7.6630787037037043E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>7.5841435185185202E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>7.4988425925925928E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14383,30 +14317,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>7.5599537037037052E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>7.4160879629629642E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>7.2594907407407417E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.563194444444446E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>8.4511574074074068E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>8.3289351851851851E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14415,30 +14349,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.6792824074074075E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.6614583333333334E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.6421064814814814E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.7899189814814817E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.7831712962962964E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14447,30 +14381,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>1.835752314814815E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>1.8160185185185185E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.7947569444444445E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>1.9777083333333335E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>1.9631944444444445E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0489CCE-582F-484D-8CE0-9B1CBC53C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C9167-0B48-41CB-8197-7F13F5038504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13325,8 +13325,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13628,12 +13628,30 @@
         <f>Tabelle1!E18</f>
         <v>1.7913888888888886E-3</v>
       </c>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="S4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="T4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="U4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="V4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="W4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="X4" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.3944444444444445E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
@@ -13692,12 +13710,30 @@
         <f>Tabelle1!D18</f>
         <v>1.8124999999999999E-3</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="S5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="T5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="V5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="W5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="X5" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4430555555555553E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
@@ -13756,12 +13792,30 @@
         <f>Tabelle1!C18</f>
         <v>1.8319444444444444E-3</v>
       </c>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="S6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="T6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="V6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="X6" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>4.4861111111111105E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
@@ -13820,12 +13874,30 @@
         <f>Tabelle1!K18</f>
         <v>1.9452777777777775E-3</v>
       </c>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
+      <c r="S7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="T7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="U7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="V7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="W7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="X7" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4361111111111114E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
@@ -13884,12 +13956,30 @@
         <f>Tabelle1!J18</f>
         <v>1.9526388888888887E-3</v>
       </c>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
+      <c r="S8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="T8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="U8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="V8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="W8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="X8" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.5458333333333336E-4</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
@@ -13948,12 +14038,30 @@
         <f>Tabelle1!I18</f>
         <v>1.9594444444444442E-3</v>
       </c>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="S9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="T9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="U9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="V9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="W9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="X9" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.6499999999999996E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="S12" s="67"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C9167-0B48-41CB-8197-7F13F5038504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871D699-98AC-4B15-B629-87D0C7F71EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -12088,7 +12088,7 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -12784,8 +12784,8 @@
   </sheetPr>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="A1:X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12916,7 +12916,7 @@
         <v>178</v>
       </c>
       <c r="I2" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="59"/>
@@ -12986,7 +12986,7 @@
         <v>178</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
@@ -13056,7 +13056,7 @@
         <v>178</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -13126,7 +13126,7 @@
         <v>178</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
@@ -13196,7 +13196,7 @@
         <v>178</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -13266,7 +13266,7 @@
         <v>178</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -13325,8 +13325,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4:X9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871D699-98AC-4B15-B629-87D0C7F71EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27686831-6BFF-402B-B4F6-43ABE3AAE32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -12089,7 +12089,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12209,7 +12209,7 @@
         <v>178</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -12270,7 +12270,7 @@
         <v>178</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
@@ -12318,7 +12318,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12438,7 +12438,7 @@
         <v>178</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
@@ -12499,7 +12499,7 @@
         <v>178</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
@@ -12560,7 +12560,7 @@
         <v>178</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
@@ -12621,7 +12621,7 @@
         <v>178</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
@@ -12680,7 +12680,7 @@
         <v>178</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
@@ -12739,7 +12739,7 @@
         <v>178</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27686831-6BFF-402B-B4F6-43ABE3AAE32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07859952-8F9A-4618-BCB9-20E6CE4A125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -12784,7 +12784,7 @@
   </sheetPr>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -13325,7 +13325,7 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -13606,51 +13606,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.951388888888888E-4</v>
+        <v>6.3721064814814814E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.4430555555555544E-4</v>
+        <v>8.6561342592592593E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.919444444444444E-4</v>
+        <v>7.2594907407407417E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9579166666666664E-3</v>
+        <v>1.7947569444444445E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.6421064814814814E-3</v>
       </c>
       <c r="S4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="T4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="U4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="V4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="W4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="X4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13688,51 +13688,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.0194444444444449E-4</v>
+        <v>6.4344907407407417E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.5805555555555553E-4</v>
+        <v>8.7821759259259276E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.0902777777777776E-4</v>
+        <v>7.4160879629629642E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9811111111111106E-3</v>
+        <v>1.8160185185185185E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8124999999999999E-3</v>
+        <v>1.6614583333333334E-3</v>
       </c>
       <c r="S5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="T5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="U5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="V5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="W5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="X5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13770,51 +13770,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>6.4930555555555564E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>8.899305555555557E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>7.5599537037037052E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>1.835752314814815E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.6792824074074075E-3</v>
       </c>
       <c r="S6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="T6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="U6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="V6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="W6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="X6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13852,51 +13852,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.1805555555555548E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>9.0861111111111101E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.1416666666666663E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9452777777777775E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
       <c r="S7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="T7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="U7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="V7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="W7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="X7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13934,51 +13934,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.2736111111111118E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.2194444444444431E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="S8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="T8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="U8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="V8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="W8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="X8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14016,51 +14016,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="S9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="T9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="U9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="V9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="W9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="X9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14288,13 +14288,13 @@
         <v>230</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12" t="s">
         <v>234</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14329,30 +14329,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.3944444444444445E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14361,30 +14361,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>9.7083333333333342E-4</v>
+        <v>8.899305555555557E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>9.5805555555555553E-4</v>
+        <v>8.7821759259259276E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>9.4430555555555544E-4</v>
+        <v>8.6561342592592593E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14393,30 +14393,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>7.0833333333333328E-4</v>
+        <v>6.4930555555555564E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>7.0194444444444449E-4</v>
+        <v>6.4344907407407417E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>6.951388888888888E-4</v>
+        <v>6.3721064814814814E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14425,30 +14425,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>8.2472222222222224E-4</v>
+        <v>7.5599537037037052E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>8.0902777777777776E-4</v>
+        <v>7.4160879629629642E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>7.919444444444444E-4</v>
+        <v>7.2594907407407417E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>9.2194444444444431E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>9.0861111111111101E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14457,30 +14457,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.6792824074074075E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8124999999999999E-3</v>
+        <v>1.6614583333333334E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.7913888888888886E-3</v>
+        <v>1.6421064814814814E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14489,30 +14489,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0026388888888889E-3</v>
+        <v>1.835752314814815E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9811111111111106E-3</v>
+        <v>1.8160185185185185E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9579166666666664E-3</v>
+        <v>1.7947569444444445E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>2.1416666666666663E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07859952-8F9A-4618-BCB9-20E6CE4A125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20886F8-D720-4646-BE7E-7A8253223280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -13325,7 +13325,7 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -13606,51 +13606,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.3721064814814814E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>8.6561342592592593E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.2594907407407417E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.7947569444444445E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.6421064814814814E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="S4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="T4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="U4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="V4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="W4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="X4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13688,51 +13688,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.4344907407407417E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>8.7821759259259276E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.4160879629629642E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8160185185185185E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.6614583333333334E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="S5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="T5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="U5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="V5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="W5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="X5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13770,51 +13770,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.4930555555555564E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.5599537037037052E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.835752314814815E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.6792824074074075E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="S6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="T6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="U6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="V6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="W6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="X6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13852,51 +13852,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.4988425925925928E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.3289351851851851E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.7831712962962964E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="S7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="T7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="U7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="V7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="W7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="X7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13934,51 +13934,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.5841435185185202E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.4511574074074068E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.7899189814814817E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="S8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="T8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="U8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="V8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="W8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="X8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14016,51 +14016,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>7.6630787037037043E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.563194444444446E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="S9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="T9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="U9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="V9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="W9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="X9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14083,7 +14083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -14288,13 +14288,13 @@
         <v>230</v>
       </c>
       <c r="F12">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H12" t="s">
         <v>234</v>
       </c>
       <c r="L12">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14329,30 +14329,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.0282407407407411E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14361,30 +14361,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>8.7821759259259276E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>8.6561342592592593E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14393,30 +14393,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>6.4930555555555564E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>6.4344907407407417E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>6.3721064814814814E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>7.6630787037037043E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>7.5841435185185202E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>7.4988425925925928E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14425,30 +14425,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>7.5599537037037052E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>7.4160879629629642E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>7.2594907407407417E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.563194444444446E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>8.4511574074074068E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>8.3289351851851851E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14457,30 +14457,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.6792824074074075E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.6614583333333334E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.6421064814814814E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.7899189814814817E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.7831712962962964E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14489,30 +14489,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>1.835752314814815E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>1.8160185185185185E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.7947569444444445E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20886F8-D720-4646-BE7E-7A8253223280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AC232-DCC1-4B87-900D-F7C42F66647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -915,9 +915,6 @@
     <t>NK2 +10% M</t>
   </si>
   <si>
-    <t>NK2-M (10%Test)</t>
-  </si>
-  <si>
     <t>200m Super Lifesaver</t>
   </si>
   <si>
@@ -927,7 +924,10 @@
     <t>NK2 +10% W</t>
   </si>
   <si>
-    <t>NK2-W (10%Test)</t>
+    <t>NK2-M (15%Test)</t>
+  </si>
+  <si>
+    <t>NK2-W (15%Test)</t>
   </si>
 </sst>
 </file>
@@ -13325,8 +13325,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13573,7 +13573,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -14083,7 +14083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -14098,7 +14098,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
@@ -14271,7 +14271,7 @@
         <v>1.6315972222222222E-3</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I10" s="65">
         <v>1.8101851851851853E-3</v>
@@ -14291,7 +14291,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L12">
         <v>1.1499999999999999</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3AC232-DCC1-4B87-900D-F7C42F66647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C816CE-D052-4B3B-AAEE-4D217A7C7E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13326,7 +13326,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13743,7 +13743,7 @@
         <v>182</v>
       </c>
       <c r="C6" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="59">
         <v>16</v>
@@ -13989,7 +13989,7 @@
         <v>164</v>
       </c>
       <c r="C9" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="59">
         <v>16</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C816CE-D052-4B3B-AAEE-4D217A7C7E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF2B04-8E0E-4842-A58B-C1B8FEF8D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="235">
   <si>
     <t>50m Retten</t>
   </si>
@@ -912,22 +912,19 @@
     <t>NK2 Orginal M</t>
   </si>
   <si>
-    <t>NK2 +10% M</t>
-  </si>
-  <si>
     <t>200m Super Lifesaver</t>
   </si>
   <si>
     <t>NK2 Orginal W</t>
   </si>
   <si>
-    <t>NK2 +10% W</t>
-  </si>
-  <si>
     <t>NK2-M (15%Test)</t>
   </si>
   <si>
     <t>NK2-W (15%Test)</t>
+  </si>
+  <si>
+    <t>NK2 % M</t>
   </si>
 </sst>
 </file>
@@ -13326,7 +13323,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13573,7 +13570,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13606,56 +13603,56 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.6617476851851842E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.0495949074074057E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.5894675925925923E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="S4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="T4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="U4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="V4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="W4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="X4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13688,56 +13685,56 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.7269675925925928E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.1813657407407404E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.7531828703703703E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.7369791666666664E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="S5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="T5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="U5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="V5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="W5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="X5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13770,56 +13767,56 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.7881944444444435E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.9191956018518516E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="S6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="T6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="U6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="V6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="W6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="X6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13852,56 +13849,56 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.8396990740740738E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0602893518518518E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.7075231481481476E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0524305555555552E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="S7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="T7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="U7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="V7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="W7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="X7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13934,56 +13931,56 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.9288773148148144E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.8353009259259244E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.871278935185185E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="S8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="T8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="U8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="V8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="W8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="X8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14016,51 +14013,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="S9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="T9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="U9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="V9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="W9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="X9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14098,7 +14095,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
@@ -14271,7 +14268,7 @@
         <v>1.6315972222222222E-3</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I10" s="65">
         <v>1.8101851851851853E-3</v>
@@ -14285,16 +14282,16 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F12">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L12">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14329,30 +14326,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14361,30 +14358,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>9.1813657407407404E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>9.0495949074074057E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14393,30 +14390,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>6.7881944444444435E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>6.7269675925925928E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>6.6617476851851842E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>7.9288773148148144E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>7.8396990740740738E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14425,30 +14422,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>7.7531828703703703E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>7.5894675925925923E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>8.8353009259259244E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>8.7075231481481476E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14457,30 +14454,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.7369791666666664E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14489,30 +14486,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9191956018518516E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0524305555555552E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEF2B04-8E0E-4842-A58B-C1B8FEF8D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E42CB-CD28-4C1B-BBE7-F388D35DF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -918,13 +918,13 @@
     <t>NK2 Orginal W</t>
   </si>
   <si>
-    <t>NK2-M (15%Test)</t>
-  </si>
-  <si>
-    <t>NK2-W (15%Test)</t>
-  </si>
-  <si>
     <t>NK2 % M</t>
+  </si>
+  <si>
+    <t>NK2-M (20%Test)</t>
+  </si>
+  <si>
+    <t>NK2-W (20%Test)</t>
   </si>
 </sst>
 </file>
@@ -13323,7 +13323,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13570,7 +13570,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13652,7 +13652,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13734,7 +13734,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13898,7 +13898,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13980,7 +13980,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14282,13 +14282,13 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F12">
         <v>1.2</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L12">
         <v>1.2</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E42CB-CD28-4C1B-BBE7-F388D35DF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B03A8-D456-48FA-B0FA-AB00861488BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13323,7 +13323,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13585,7 +13585,7 @@
         <v>45658</v>
       </c>
       <c r="F4" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G4" s="61">
         <v>45658</v>
@@ -13667,7 +13667,7 @@
         <v>45658</v>
       </c>
       <c r="F5" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G5" s="61">
         <v>45658</v>
@@ -13749,7 +13749,7 @@
         <v>45658</v>
       </c>
       <c r="F6" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G6" s="61">
         <v>45658</v>
@@ -13831,7 +13831,7 @@
         <v>45658</v>
       </c>
       <c r="F7" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G7" s="61">
         <v>45658</v>
@@ -13913,7 +13913,7 @@
         <v>45658</v>
       </c>
       <c r="F8" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G8" s="61">
         <v>45658</v>
@@ -13995,7 +13995,7 @@
         <v>45658</v>
       </c>
       <c r="F9" s="61">
-        <v>46387</v>
+        <v>46023</v>
       </c>
       <c r="G9" s="61">
         <v>45658</v>
@@ -14080,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B03A8-D456-48FA-B0FA-AB00861488BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B8658A-E54D-4635-B68E-9CEE15385AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -921,10 +921,10 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>NK2-M (20%Test)</t>
-  </si>
-  <si>
-    <t>NK2-W (20%Test)</t>
+    <t>NK2-M (22%Test)</t>
+  </si>
+  <si>
+    <t>NK2-W (14%Test)</t>
   </si>
 </sst>
 </file>
@@ -13323,7 +13323,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13603,51 +13603,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.951388888888888E-4</v>
+        <v>7.0672453703703696E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.6004398148148132E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.919444444444444E-4</v>
+        <v>8.0514351851851851E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9579166666666664E-3</v>
+        <v>1.9905486111111109E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8212453703703702E-3</v>
       </c>
       <c r="S4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="T4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="U4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="V4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="W4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="X4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13685,51 +13685,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.0194444444444449E-4</v>
+        <v>7.1364351851851851E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.5805555555555553E-4</v>
+        <v>9.7402314814814823E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.0902777777777776E-4</v>
+        <v>8.2251157407407414E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0141296296296292E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8427083333333334E-3</v>
       </c>
       <c r="S5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="T5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="U5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="V5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="W5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="X5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13767,51 +13767,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>7.2013888888888887E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.8701388888888905E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>8.3846759259259269E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0360162037037035E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.8624768518518519E-3</v>
       </c>
       <c r="S6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="T6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="U6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="V6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="W6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="X6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13849,51 +13849,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.1805555555555548E-4</v>
+        <v>7.7715277777777776E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0510694444444443E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>9.0861111111111101E-4</v>
+        <v>8.631805555555554E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.1416666666666663E-3</v>
+        <v>2.0345833333333331E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9452777777777775E-3</v>
+        <v>1.8480138888888886E-3</v>
       </c>
       <c r="S7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="T7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="U7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="V7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="W7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
       <c r="X7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13931,51 +13931,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.2736111111111118E-4</v>
+        <v>7.8599305555555551E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0699374999999999E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.2194444444444431E-4</v>
+        <v>8.7584722222222209E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.1574999999999997E-3</v>
+        <v>2.0496249999999998E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9526388888888887E-3</v>
+        <v>1.8550069444444443E-3</v>
       </c>
       <c r="S8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="T8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="U8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="V8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="W8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="X8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14013,51 +14013,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.9417361111111106E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.0873541666666666E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.8745833333333331E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>2.0636111111111111E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.8614722222222218E-3</v>
       </c>
       <c r="S9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="T9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="U9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="V9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="W9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="X9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14081,7 +14081,7 @@
   <dimension ref="B3:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14285,13 +14285,13 @@
         <v>232</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14326,30 +14326,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5608796296296288E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5171064814814813E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4676851851851854E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.367499999999999E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.2685416666666668E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.4361111111111114E-4</v>
+        <v>5.1643055555555557E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14358,30 +14358,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.8701388888888905E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.7402314814814823E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>9.4430555555555544E-4</v>
+        <v>9.6004398148148132E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.0873541666666666E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0699374999999999E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0510694444444443E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14390,30 +14390,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>7.0833333333333328E-4</v>
+        <v>7.2013888888888887E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>7.0194444444444449E-4</v>
+        <v>7.1364351851851851E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>6.951388888888888E-4</v>
+        <v>7.0672453703703696E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.9417361111111106E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.8599305555555551E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.7715277777777776E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14422,30 +14422,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>8.2472222222222224E-4</v>
+        <v>8.3846759259259269E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>8.0902777777777776E-4</v>
+        <v>8.2251157407407414E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>7.919444444444444E-4</v>
+        <v>8.0514351851851851E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.8745833333333331E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>9.2194444444444431E-4</v>
+        <v>8.7584722222222209E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>9.0861111111111101E-4</v>
+        <v>8.631805555555554E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14454,30 +14454,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.8624768518518519E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8427083333333334E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8212453703703702E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.8614722222222218E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.8550069444444443E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.8480138888888886E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14486,30 +14486,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0360162037037035E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0141296296296292E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9579166666666664E-3</v>
+        <v>1.9905486111111109E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>2.1722222222222221E-3</v>
+        <v>2.0636111111111111E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>2.1574999999999997E-3</v>
+        <v>2.0496249999999998E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>2.1416666666666663E-3</v>
+        <v>2.0345833333333331E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B8658A-E54D-4635-B68E-9CEE15385AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B391876-CEC6-41EE-BE4D-49CEF752114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -921,10 +921,10 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>NK2-M (22%Test)</t>
-  </si>
-  <si>
-    <t>NK2-W (14%Test)</t>
+    <t>NK2-M (25%Test)</t>
+  </si>
+  <si>
+    <t>NK2-W (15%Test)</t>
   </si>
 </sst>
 </file>
@@ -13322,8 +13322,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13603,51 +13603,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>7.0672453703703696E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.6004398148148132E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>8.0514351851851851E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9905486111111109E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.8212453703703702E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="S4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="T4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="U4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="V4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="W4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="X4" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13685,51 +13685,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.1364351851851851E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.7402314814814823E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.2251157407407414E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>2.0141296296296292E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8427083333333334E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="S5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="T5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="U5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="V5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="W5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="X5" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13767,51 +13767,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.2013888888888887E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.8701388888888905E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.3846759259259269E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0360162037037035E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8624768518518519E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="S6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="T6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="U6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="V6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="W6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="X6" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13849,51 +13849,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.7715277777777776E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0510694444444443E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.631805555555554E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0345833333333331E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8480138888888886E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="S7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="T7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="U7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="V7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="W7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="X7" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13931,51 +13931,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.8599305555555551E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0699374999999999E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.7584722222222209E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0496249999999998E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.8550069444444443E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="S8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="T8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="U8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="V8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="W8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="X8" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14013,51 +14013,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>7.9417361111111106E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.0873541666666666E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.8745833333333331E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0636111111111111E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8614722222222218E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="S9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="T9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="U9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="V9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="W9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="X9" s="62">
         <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14080,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14285,13 +14285,13 @@
         <v>232</v>
       </c>
       <c r="F12">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
       </c>
       <c r="L12">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14326,30 +14326,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.5608796296296288E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.5171064814814813E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.4676851851851854E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.367499999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.2685416666666668E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.1643055555555557E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14358,30 +14358,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>9.8701388888888905E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>9.7402314814814823E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>9.6004398148148132E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.0873541666666666E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0699374999999999E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0510694444444443E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14390,30 +14390,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>7.2013888888888887E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>7.1364351851851851E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>7.0672453703703696E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>7.9417361111111106E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>7.8599305555555551E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>7.7715277777777776E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14422,30 +14422,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>8.3846759259259269E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>8.2251157407407414E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>8.0514351851851851E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.8745833333333331E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>8.7584722222222209E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>8.631805555555554E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14454,30 +14454,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.8624768518518519E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8427083333333334E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8212453703703702E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.8614722222222218E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.8550069444444443E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.8480138888888886E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14486,30 +14486,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0360162037037035E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0141296296296292E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>1.9905486111111109E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>2.0636111111111111E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0496249999999998E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0345833333333331E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B391876-CEC6-41EE-BE4D-49CEF752114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E63697-3764-40A1-B36A-F770F954392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -921,10 +921,10 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>NK2-M (25%Test)</t>
-  </si>
-  <si>
-    <t>NK2-W (15%Test)</t>
+    <t>NK2-M (20% / 25%Test)</t>
+  </si>
+  <si>
+    <t>NK2-W (10% / 15%Test)</t>
   </si>
 </sst>
 </file>
@@ -13322,8 +13322,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13603,51 +13603,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.5775462962962962E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>7.2410300925925919E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.8365162037037019E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>8.2494212962962968E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>2.0394965277777777E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
+        <v>1.7913888888888886E-3</v>
+      </c>
+      <c r="S4" s="62">
+        <f>(M4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>4.5775462962962962E-4</v>
+      </c>
+      <c r="T4" s="62">
+        <f>(N4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>7.2410300925925919E-4</v>
+      </c>
+      <c r="U4" s="62">
+        <f>(O4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>9.8365162037037019E-4</v>
+      </c>
+      <c r="V4" s="62">
+        <f>(P4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>8.2494212962962968E-4</v>
+      </c>
+      <c r="W4" s="62">
+        <f>(Q4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>2.0394965277777777E-3</v>
+      </c>
+      <c r="X4" s="62">
+        <f>(R4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
         <v>1.8660300925925923E-3</v>
-      </c>
-      <c r="S4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="T4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="U4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="V4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="W4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="X4" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.5775462962962962E-4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13685,51 +13685,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.311921296296297E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.9797453703703702E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.427372685185186E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>2.0636574074074073E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
+        <v>1.8124999999999999E-3</v>
+      </c>
+      <c r="S5" s="62">
+        <f>(M5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>4.6281828703703703E-4</v>
+      </c>
+      <c r="T5" s="62">
+        <f>(N5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>7.311921296296297E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <f>(O5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>9.9797453703703702E-4</v>
+      </c>
+      <c r="V5" s="62">
+        <f>(P5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>8.427372685185186E-4</v>
+      </c>
+      <c r="W5" s="62">
+        <f>(Q5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>2.0636574074074068E-3</v>
+      </c>
+      <c r="X5" s="62">
+        <f>(R5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
         <v>1.8880208333333333E-3</v>
-      </c>
-      <c r="S5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="T5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="U5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="V5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="W5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="X5" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6281828703703703E-4</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13767,51 +13767,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.6730324074074068E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.378472222222222E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>1.0112847222222224E-3</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.5908564814814821E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0860821759259261E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
+        <v>1.8319444444444444E-3</v>
+      </c>
+      <c r="S6" s="62">
+        <f>(M6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>4.6730324074074068E-4</v>
+      </c>
+      <c r="T6" s="62">
+        <f>(N6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>7.378472222222222E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <f>(O6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>1.0112847222222224E-3</v>
+      </c>
+      <c r="V6" s="62">
+        <f>(P6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>8.5908564814814821E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <f>(Q6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
+        <v>2.0860821759259261E-3</v>
+      </c>
+      <c r="X6" s="62">
+        <f>(R6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
         <v>1.9082754629629632E-3</v>
-      </c>
-      <c r="S6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="T6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="U6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="V6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="W6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="X6" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>4.6730324074074068E-4</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13849,51 +13849,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.2096064814814811E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.8396990740740738E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0602893518518518E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.7075231481481476E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0524305555555552E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8642245370370368E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
       <c r="S7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(M7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>5.2096064814814832E-4</v>
       </c>
       <c r="T7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(N7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>7.8396990740740749E-4</v>
       </c>
       <c r="U7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(O7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="V7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(P7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>8.7075231481481487E-4</v>
       </c>
       <c r="W7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(Q7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>2.0524305555555556E-3</v>
       </c>
       <c r="X7" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.2096064814814811E-4</v>
+        <f>(R7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.8642245370370373E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13931,51 +13931,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.9288773148148144E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0793229166666666E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.8353009259259244E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0676041666666664E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.871278935185185E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="S8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(M8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>5.3147569444444455E-4</v>
       </c>
       <c r="T8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(N8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>7.9288773148148166E-4</v>
       </c>
       <c r="U8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(O8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.0793229166666668E-3</v>
       </c>
       <c r="V8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(P8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>8.8353009259259255E-4</v>
       </c>
       <c r="W8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(Q8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>2.0676041666666668E-3</v>
       </c>
       <c r="X8" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.3147569444444444E-4</v>
+        <f>(R8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.8712789351851855E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14013,51 +14013,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="S9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(M9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>5.4145833333333335E-4</v>
       </c>
       <c r="T9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(N9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>8.0114004629629643E-4</v>
       </c>
       <c r="U9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(O9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.0968923611111114E-3</v>
       </c>
       <c r="V9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(P9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>8.952430555555557E-4</v>
       </c>
       <c r="W9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(Q9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>2.0817129629629632E-3</v>
       </c>
       <c r="X9" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4145833333333324E-4</v>
+        <f>(R9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <v>1.877800925925926E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
@@ -14080,8 +14080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14285,13 +14285,13 @@
         <v>232</v>
       </c>
       <c r="F12">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
       </c>
       <c r="L12">
-        <v>1.1499999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
@@ -14326,30 +14326,30 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F$12</f>
-        <v>4.6730324074074068E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.5775462962962962E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L$12</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.2096064814814811E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.45">
@@ -14358,30 +14358,30 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
-        <v>1.0112847222222224E-3</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="2"/>
-        <v>9.9797453703703702E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="2"/>
-        <v>9.8365162037037019E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="3"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.45">
@@ -14390,30 +14390,30 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
-        <v>7.378472222222222E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="4"/>
-        <v>7.311921296296297E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="4"/>
-        <v>7.2410300925925919E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>8.0114004629629621E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="5"/>
-        <v>7.9288773148148144E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="5"/>
-        <v>7.8396990740740738E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
@@ -14422,30 +14422,30 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
-        <v>8.5908564814814821E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="6"/>
-        <v>8.427372685185186E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="6"/>
-        <v>8.2494212962962968E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.9524305555555559E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="7"/>
-        <v>8.8353009259259244E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="7"/>
-        <v>8.7075231481481476E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
@@ -14454,30 +14454,30 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.9082754629629632E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8880208333333333E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="8"/>
-        <v>1.8660300925925923E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="9"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="9"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
@@ -14486,30 +14486,30 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0860821759259261E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0636574074074073E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="8"/>
-        <v>2.0394965277777777E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>2.0817129629629627E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0676041666666664E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="10"/>
-        <v>2.0524305555555552E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E63697-3764-40A1-B36A-F770F954392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE5C89-43F2-489C-9A3A-8BD38956CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="236">
   <si>
     <t>50m Retten</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>NK2-W (10% / 15%Test)</t>
+  </si>
+  <si>
+    <t>AK15 W Normfenster 0,8</t>
   </si>
 </sst>
 </file>
@@ -4054,8 +4057,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X9" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X9" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X10" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13323,7 +13326,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14060,6 +14063,82 @@
         <v>1.877800925925926E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A10" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="59">
+        <v>13</v>
+      </c>
+      <c r="D10" s="59">
+        <v>16</v>
+      </c>
+      <c r="E10" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F10" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G10" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59">
+        <v>10</v>
+      </c>
+      <c r="M10" s="62">
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="N10" s="62">
+        <v>8.5547824074074072E-4</v>
+      </c>
+      <c r="O10" s="62">
+        <v>1.0492013888888888E-3</v>
+      </c>
+      <c r="P10" s="62">
+        <v>8.7188888888888895E-4</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>1.9712916666666668E-3</v>
+      </c>
+      <c r="R10" s="62">
+        <v>1.9267870370370367E-3</v>
+      </c>
+      <c r="S10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="T10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="U10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="V10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="W10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+      <c r="X10" s="62">
+        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
+        <v>5.4239999999999996E-4</v>
+      </c>
+    </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="S12" s="67"/>
       <c r="T12" s="67"/>
@@ -14080,8 +14159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14517,6 +14596,7 @@
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="64"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE5C89-43F2-489C-9A3A-8BD38956CB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0B556-458D-4621-88B6-AF4A1DBDC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="237">
   <si>
     <t>50m Retten</t>
   </si>
@@ -928,6 +928,9 @@
   </si>
   <si>
     <t>AK15 W Normfenster 0,8</t>
+  </si>
+  <si>
+    <t>Niveauabstand 1,4-1,7 w-10</t>
   </si>
 </sst>
 </file>
@@ -4057,8 +4060,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X10" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X10" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X11" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13326,7 +13329,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14139,6 +14142,82 @@
         <v>5.4239999999999996E-4</v>
       </c>
     </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="59">
+        <v>13</v>
+      </c>
+      <c r="D11" s="59">
+        <v>16</v>
+      </c>
+      <c r="E11" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F11" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G11" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59">
+        <v>10</v>
+      </c>
+      <c r="M11" s="62">
+        <v>5.1179583333333333E-4</v>
+      </c>
+      <c r="N11" s="62">
+        <v>8.0114004629629632E-4</v>
+      </c>
+      <c r="O11" s="62">
+        <v>1.096892361111111E-3</v>
+      </c>
+      <c r="P11" s="62">
+        <v>8.913506944444445E-4</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>2.110675925925926E-3</v>
+      </c>
+      <c r="R11" s="62">
+        <v>1.8778009259259258E-3</v>
+      </c>
+      <c r="S11" s="62">
+        <f>M11</f>
+        <v>5.1179583333333333E-4</v>
+      </c>
+      <c r="T11" s="62">
+        <f t="shared" ref="T11:X11" si="0">N11</f>
+        <v>8.0114004629629632E-4</v>
+      </c>
+      <c r="U11" s="62">
+        <f t="shared" si="0"/>
+        <v>1.096892361111111E-3</v>
+      </c>
+      <c r="V11" s="62">
+        <f t="shared" si="0"/>
+        <v>8.913506944444445E-4</v>
+      </c>
+      <c r="W11" s="62">
+        <f t="shared" si="0"/>
+        <v>2.110675925925926E-3</v>
+      </c>
+      <c r="X11" s="62">
+        <f t="shared" si="0"/>
+        <v>1.8778009259259258E-3</v>
+      </c>
+    </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="S12" s="67"/>
       <c r="T12" s="67"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF0B556-458D-4621-88B6-AF4A1DBDC2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B646E-2661-477F-B272-DB53D473297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="235">
   <si>
     <t>50m Retten</t>
   </si>
@@ -921,16 +921,10 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>NK2-M (20% / 25%Test)</t>
-  </si>
-  <si>
-    <t>NK2-W (10% / 15%Test)</t>
-  </si>
-  <si>
-    <t>AK15 W Normfenster 0,8</t>
-  </si>
-  <si>
-    <t>Niveauabstand 1,4-1,7 w-10</t>
+    <t>NK2-M (10-20%) ind</t>
+  </si>
+  <si>
+    <t>NK2-W (10-20%) ind</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1403,6 +1397,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4060,8 +4055,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X11" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X9" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X9" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13326,10 +13321,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13625,35 +13620,35 @@
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9579166666666664E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="S4" s="62">
-        <f>(M4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>4.5775462962962962E-4</v>
+        <f>M4</f>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="T4" s="62">
-        <f>(N4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>7.2410300925925919E-4</v>
+        <f t="shared" ref="T4:T9" si="0">N4</f>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="U4" s="62">
-        <f>(O4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>9.8365162037037019E-4</v>
+        <f t="shared" ref="U4:U9" si="1">O4</f>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="V4" s="62">
-        <f>(P4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>8.2494212962962968E-4</v>
+        <f t="shared" ref="V4:V9" si="2">P4</f>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="W4" s="62">
-        <f>(Q4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>2.0394965277777777E-3</v>
+        <f t="shared" ref="W4:W9" si="3">Q4</f>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="X4" s="62">
-        <f>(R4/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>1.8660300925925923E-3</v>
+        <f t="shared" ref="X4:X9" si="4">R4</f>
+        <v>1.7167476851851849E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13707,35 +13702,35 @@
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9811111111111106E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8124999999999999E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="S5" s="62">
-        <f>(M5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>4.6281828703703703E-4</v>
+        <f t="shared" ref="S5:S9" si="5">M5</f>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="T5" s="62">
-        <f>(N5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>7.311921296296297E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="U5" s="62">
-        <f>(O5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>9.9797453703703702E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="V5" s="62">
-        <f>(P5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>8.427372685185186E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="W5" s="62">
-        <f>(Q5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>2.0636574074074068E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="X5" s="62">
-        <f>(R5/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>1.8880208333333333E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.7369791666666664E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13789,35 +13784,35 @@
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="S6" s="62">
-        <f>(M6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>4.6730324074074068E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="T6" s="62">
-        <f>(N6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>7.378472222222222E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="U6" s="62">
-        <f>(O6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>1.0112847222222224E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="V6" s="62">
-        <f>(P6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>8.5908564814814821E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="W6" s="62">
-        <f>(Q6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>2.0860821759259261E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="X6" s="62">
-        <f>(R6/Tabelle1!$F$12)*(Tabelle1!$F$12+0.05)</f>
-        <v>1.9082754629629632E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.7556134259259259E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13859,47 +13854,47 @@
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.4988425925925928E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.3289351851851851E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0345833333333331E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.7831712962962964E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
       <c r="S7" s="62">
-        <f>(M7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>5.2096064814814832E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="T7" s="62">
-        <f>(N7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>7.8396990740740749E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="U7" s="62">
-        <f>(O7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
+        <f t="shared" si="1"/>
         <v>1.0602893518518518E-3</v>
       </c>
       <c r="V7" s="62">
-        <f>(P7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>8.7075231481481487E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="W7" s="62">
-        <f>(Q7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>2.0524305555555556E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0345833333333331E-3</v>
       </c>
       <c r="X7" s="62">
-        <f>(R7/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>1.8642245370370373E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9047511574074075E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13941,47 +13936,47 @@
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.5841435185185202E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.4511574074074068E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0496249999999998E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.7899189814814817E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
       <c r="S8" s="62">
-        <f>(M8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>5.3147569444444455E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="T8" s="62">
-        <f>(N8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>7.9288773148148166E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="U8" s="62">
-        <f>(O8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>1.0793229166666668E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="V8" s="62">
-        <f>(P8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>8.8353009259259255E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="W8" s="62">
-        <f>(Q8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>2.0676041666666668E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0496249999999998E-3</v>
       </c>
       <c r="X8" s="62">
-        <f>(R8/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>1.8712789351851855E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9119589120370371E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14023,208 +14018,56 @@
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>7.6630787037037043E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.563194444444446E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0636111111111111E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
       <c r="S9" s="62">
-        <f>(M9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>5.4145833333333335E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="T9" s="62">
-        <f>(N9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>8.0114004629629643E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="U9" s="62">
-        <f>(O9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>1.0968923611111114E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="V9" s="62">
-        <f>(P9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>8.952430555555557E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="W9" s="62">
-        <f>(Q9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>2.0817129629629632E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0636111111111111E-3</v>
       </c>
       <c r="X9" s="62">
-        <f>(R9/Tabelle1!$L$12)*(Tabelle1!$L$12+0.05)</f>
-        <v>1.877800925925926E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9186226851851851E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A10" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="59">
-        <v>13</v>
-      </c>
-      <c r="D10" s="59">
-        <v>16</v>
-      </c>
-      <c r="E10" s="61">
-        <v>45658</v>
-      </c>
-      <c r="F10" s="61">
-        <v>46023</v>
-      </c>
-      <c r="G10" s="61">
-        <v>45658</v>
-      </c>
-      <c r="H10" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59">
-        <v>10</v>
-      </c>
-      <c r="M10" s="62">
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="N10" s="62">
-        <v>8.5547824074074072E-4</v>
-      </c>
-      <c r="O10" s="62">
-        <v>1.0492013888888888E-3</v>
-      </c>
-      <c r="P10" s="62">
-        <v>8.7188888888888895E-4</v>
-      </c>
-      <c r="Q10" s="62">
-        <v>1.9712916666666668E-3</v>
-      </c>
-      <c r="R10" s="62">
-        <v>1.9267870370370367E-3</v>
-      </c>
-      <c r="S10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="T10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="U10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="V10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="W10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-      <c r="X10" s="62">
-        <f>JRP_konfig[[#This Row],[PZ1 - 50m Retten]]</f>
-        <v>5.4239999999999996E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A11" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="59">
-        <v>13</v>
-      </c>
-      <c r="D11" s="59">
-        <v>16</v>
-      </c>
-      <c r="E11" s="61">
-        <v>45658</v>
-      </c>
-      <c r="F11" s="61">
-        <v>46023</v>
-      </c>
-      <c r="G11" s="61">
-        <v>45658</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59">
-        <v>10</v>
-      </c>
-      <c r="M11" s="62">
-        <v>5.1179583333333333E-4</v>
-      </c>
-      <c r="N11" s="62">
-        <v>8.0114004629629632E-4</v>
-      </c>
-      <c r="O11" s="62">
-        <v>1.096892361111111E-3</v>
-      </c>
-      <c r="P11" s="62">
-        <v>8.913506944444445E-4</v>
-      </c>
-      <c r="Q11" s="62">
-        <v>2.110675925925926E-3</v>
-      </c>
-      <c r="R11" s="62">
-        <v>1.8778009259259258E-3</v>
-      </c>
-      <c r="S11" s="62">
-        <f>M11</f>
-        <v>5.1179583333333333E-4</v>
-      </c>
-      <c r="T11" s="62">
-        <f t="shared" ref="T11:X11" si="0">N11</f>
-        <v>8.0114004629629632E-4</v>
-      </c>
-      <c r="U11" s="62">
-        <f t="shared" si="0"/>
-        <v>1.096892361111111E-3</v>
-      </c>
-      <c r="V11" s="62">
-        <f t="shared" si="0"/>
-        <v>8.913506944444445E-4</v>
-      </c>
-      <c r="W11" s="62">
-        <f t="shared" si="0"/>
-        <v>2.110675925925926E-3</v>
-      </c>
-      <c r="X11" s="62">
-        <f t="shared" si="0"/>
-        <v>1.8778009259259258E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14236,10 +14079,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
-  <dimension ref="B3:L37"/>
+  <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L19"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14248,7 +14091,7 @@
     <col min="8" max="8" width="39.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>229</v>
       </c>
@@ -14256,7 +14099,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
         <v>224</v>
       </c>
@@ -14282,7 +14125,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
@@ -14307,8 +14150,24 @@
       <c r="K5" s="65">
         <v>4.5300925925925928E-4</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="67">
+        <f>I5-J5</f>
+        <v>8.680555555555503E-6</v>
+      </c>
+      <c r="N5" s="67">
+        <f t="shared" ref="N5:N10" si="0">J5-K5</f>
+        <v>9.1435185185185174E-6</v>
+      </c>
+      <c r="P5" s="71">
+        <f>(100-100/I5*J5)</f>
+        <v>1.8436578171091327</v>
+      </c>
+      <c r="Q5" s="71">
+        <f t="shared" ref="Q5:Q10" si="1">(100-100/J5*K5)</f>
+        <v>1.9784623090408218</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B6" s="64" t="s">
         <v>225</v>
       </c>
@@ -14333,8 +14192,24 @@
       <c r="K6" s="65">
         <v>9.2199074074074069E-4</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="67">
+        <f t="shared" ref="M6:M10" si="2">I6-J6</f>
+        <v>1.5277777777777685E-5</v>
+      </c>
+      <c r="N6" s="67">
+        <f t="shared" si="0"/>
+        <v>1.6550925925926043E-5</v>
+      </c>
+      <c r="P6" s="71">
+        <f t="shared" ref="P6:P10" si="3">(100-100/I6*J6)</f>
+        <v>1.6017473607571873</v>
+      </c>
+      <c r="Q6" s="71">
+        <f t="shared" si="1"/>
+        <v>1.7634726846713704</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B7" s="64" t="s">
         <v>226</v>
       </c>
@@ -14359,8 +14234,24 @@
       <c r="K7" s="65">
         <v>6.8171296296296296E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M7" s="67">
+        <f t="shared" si="2"/>
+        <v>7.1759259259258825E-6</v>
+      </c>
+      <c r="N7" s="67">
+        <f t="shared" si="0"/>
+        <v>7.7546296296296911E-6</v>
+      </c>
+      <c r="P7" s="71">
+        <f t="shared" si="3"/>
+        <v>1.0300714404386042</v>
+      </c>
+      <c r="Q7" s="71">
+        <f t="shared" si="1"/>
+        <v>1.1247272116837337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B8" s="64" t="s">
         <v>227</v>
       </c>
@@ -14385,8 +14276,24 @@
       <c r="K8" s="65">
         <v>7.571759259259259E-4</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M8" s="67">
+        <f t="shared" si="2"/>
+        <v>1.018518518518534E-5</v>
+      </c>
+      <c r="N8" s="67">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111044E-5</v>
+      </c>
+      <c r="P8" s="71">
+        <f t="shared" si="3"/>
+        <v>1.3083556348498604</v>
+      </c>
+      <c r="Q8" s="71">
+        <f t="shared" si="1"/>
+        <v>1.4462187405844986</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B9" s="64" t="s">
         <v>228</v>
       </c>
@@ -14411,8 +14318,24 @@
       <c r="K9" s="65">
         <v>1.6210648148148148E-3</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M9" s="67">
+        <f t="shared" si="2"/>
+        <v>5.6712962962961536E-6</v>
+      </c>
+      <c r="N9" s="67">
+        <f t="shared" si="0"/>
+        <v>6.1342592592593306E-6</v>
+      </c>
+      <c r="P9" s="71">
+        <f t="shared" si="3"/>
+        <v>0.3473206691239028</v>
+      </c>
+      <c r="Q9" s="71">
+        <f t="shared" si="1"/>
+        <v>0.37698271569813357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B10" s="64" t="s">
         <v>4</v>
       </c>
@@ -14437,22 +14360,32 @@
       <c r="K10" s="65">
         <v>1.784722222222222E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="M10" s="67">
+        <f t="shared" si="2"/>
+        <v>1.2268518518518661E-5</v>
+      </c>
+      <c r="N10" s="67">
+        <f t="shared" si="0"/>
+        <v>1.3194444444444581E-5</v>
+      </c>
+      <c r="P10" s="71">
+        <f t="shared" si="3"/>
+        <v>0.67774936061381652</v>
+      </c>
+      <c r="Q10" s="71">
+        <f t="shared" si="1"/>
+        <v>0.73387408265740817</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>232</v>
       </c>
-      <c r="F12">
-        <v>1.2</v>
-      </c>
       <c r="H12" t="s">
         <v>232</v>
       </c>
-      <c r="L12">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B13" s="63" t="s">
         <v>224</v>
       </c>
@@ -14478,248 +14411,284 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="65">
-        <f>C5*$F$12</f>
+        <f>C5*$F14</f>
         <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
-        <f t="shared" ref="D14:E14" si="0">D5*$F$12</f>
+        <f t="shared" ref="D14:E14" si="4">D5*$F14</f>
         <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.2</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
-        <f>I5*$L$12</f>
+        <f>I5*$L14</f>
         <v>5.1791666666666663E-4</v>
       </c>
       <c r="J14" s="65">
-        <f t="shared" ref="J14:K14" si="1">J5*$L$12</f>
+        <f t="shared" ref="J14:K14" si="5">J5*$L14</f>
         <v>5.0836805555555563E-4</v>
       </c>
       <c r="K14" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.9831018518518529E-4</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="C15" s="65">
-        <f t="shared" ref="C15:E15" si="2">C6*$F$12</f>
+        <f t="shared" ref="C15:E15" si="6">C6*$F15</f>
         <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.4430555555555544E-4</v>
+      </c>
+      <c r="F15">
+        <v>1.2</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:K15" si="3">I6*$L$12</f>
-        <v>1.049201388888889E-3</v>
+        <f t="shared" ref="I15:K15" si="7">I6*$L15</f>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="3"/>
-        <v>1.0323958333333335E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="3"/>
-        <v>1.0141898148148148E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="7"/>
+        <v>1.0602893518518518E-3</v>
+      </c>
+      <c r="L15">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="4">C7*$F$12</f>
+        <f t="shared" ref="C16:E16" si="8">C7*$F16</f>
         <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>6.951388888888888E-4</v>
+      </c>
+      <c r="F16">
+        <v>1.2</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" ref="I16:K16" si="5">I7*$L$12</f>
-        <v>7.6630787037037043E-4</v>
+        <f t="shared" ref="I16:K16" si="9">I7*$L16</f>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
-        <f t="shared" si="5"/>
-        <v>7.5841435185185202E-4</v>
+        <f t="shared" si="9"/>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="5"/>
-        <v>7.4988425925925928E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="9"/>
+        <v>8.1805555555555548E-4</v>
+      </c>
+      <c r="L16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="6">C8*$F$12</f>
+        <f t="shared" ref="C17:E17" si="10">C8*$F17</f>
         <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.919444444444444E-4</v>
+      </c>
+      <c r="F17">
+        <v>1.2</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" ref="I17:K17" si="7">I8*$L$12</f>
-        <v>8.563194444444446E-4</v>
+        <f t="shared" ref="I17:K17" si="11">I8*$L17</f>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="J17" s="65">
-        <f t="shared" si="7"/>
-        <v>8.4511574074074068E-4</v>
+        <f t="shared" si="11"/>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="7"/>
-        <v>8.3289351851851851E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="11"/>
+        <v>8.7075231481481476E-4</v>
+      </c>
+      <c r="L17">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="C18" s="65">
-        <f t="shared" ref="C18:E19" si="8">C9*$F$12</f>
-        <v>1.8319444444444444E-3</v>
+        <f t="shared" ref="C18:E18" si="12">C9*$F18</f>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="D18" s="65">
-        <f t="shared" si="8"/>
-        <v>1.8124999999999999E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="E18" s="65">
-        <f t="shared" si="8"/>
-        <v>1.7913888888888886E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.7167476851851849E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.1499999999999999</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" ref="I18:K18" si="9">I9*$L$12</f>
-        <v>1.7961574074074073E-3</v>
+        <f t="shared" ref="I18:K18" si="13">I9*$L18</f>
+        <v>1.9186226851851851E-3</v>
       </c>
       <c r="J18" s="65">
-        <f t="shared" si="9"/>
-        <v>1.7899189814814817E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.9119589120370371E-3</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="9"/>
-        <v>1.7831712962962964E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="13"/>
+        <v>1.9047511574074075E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="65">
-        <f t="shared" si="8"/>
-        <v>2.0026388888888889E-3</v>
+        <f t="shared" ref="C19:E19" si="14">C10*$F19</f>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="D19" s="65">
-        <f t="shared" si="8"/>
-        <v>1.9811111111111106E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" si="8"/>
-        <v>1.9579166666666664E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.8763368055555554E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.1499999999999999</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" ref="I19:K19" si="10">I10*$L$12</f>
-        <v>1.9912037037037038E-3</v>
+        <f t="shared" ref="I19:K19" si="15">I10*$L19</f>
+        <v>2.0636111111111111E-3</v>
       </c>
       <c r="J19" s="65">
-        <f t="shared" si="10"/>
-        <v>1.9777083333333335E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.0496249999999998E-3</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="10"/>
-        <v>1.9631944444444445E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v>2.0345833333333331E-3</v>
+      </c>
+      <c r="L19">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="63"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="64"/>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="64"/>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="64"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="64"/>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="63"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="64"/>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B646E-2661-477F-B272-DB53D473297C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3966BFD-24CD-4B61-A25E-0CBA54ADDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -1388,6 +1388,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,7 +1398,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -8341,38 +8341,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -8537,35 +8537,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="H14" s="70" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="H14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="L14" s="70" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="L14" s="71" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="L15" s="71"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -9137,38 +9137,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -9333,35 +9333,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="H14" s="70" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="H14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="L14" s="70" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="L14" s="71" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="L15" s="71"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -13323,8 +13323,8 @@
   </sheetPr>
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14081,8 +14081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14150,20 +14150,14 @@
       <c r="K5" s="65">
         <v>4.5300925925925928E-4</v>
       </c>
-      <c r="M5" s="67">
-        <f>I5-J5</f>
-        <v>8.680555555555503E-6</v>
-      </c>
-      <c r="N5" s="67">
-        <f t="shared" ref="N5:N10" si="0">J5-K5</f>
-        <v>9.1435185185185174E-6</v>
-      </c>
-      <c r="P5" s="71">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="P5" s="68">
         <f>(100-100/I5*J5)</f>
         <v>1.8436578171091327</v>
       </c>
-      <c r="Q5" s="71">
-        <f t="shared" ref="Q5:Q10" si="1">(100-100/J5*K5)</f>
+      <c r="Q5" s="68">
+        <f t="shared" ref="Q5:Q10" si="0">(100-100/J5*K5)</f>
         <v>1.9784623090408218</v>
       </c>
     </row>
@@ -14192,20 +14186,14 @@
       <c r="K6" s="65">
         <v>9.2199074074074069E-4</v>
       </c>
-      <c r="M6" s="67">
-        <f t="shared" ref="M6:M10" si="2">I6-J6</f>
-        <v>1.5277777777777685E-5</v>
-      </c>
-      <c r="N6" s="67">
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="P6" s="68">
+        <f t="shared" ref="P6:P10" si="1">(100-100/I6*J6)</f>
+        <v>1.6017473607571873</v>
+      </c>
+      <c r="Q6" s="68">
         <f t="shared" si="0"/>
-        <v>1.6550925925926043E-5</v>
-      </c>
-      <c r="P6" s="71">
-        <f t="shared" ref="P6:P10" si="3">(100-100/I6*J6)</f>
-        <v>1.6017473607571873</v>
-      </c>
-      <c r="Q6" s="71">
-        <f t="shared" si="1"/>
         <v>1.7634726846713704</v>
       </c>
     </row>
@@ -14234,20 +14222,14 @@
       <c r="K7" s="65">
         <v>6.8171296296296296E-4</v>
       </c>
-      <c r="M7" s="67">
-        <f t="shared" si="2"/>
-        <v>7.1759259259258825E-6</v>
-      </c>
-      <c r="N7" s="67">
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="P7" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0300714404386042</v>
+      </c>
+      <c r="Q7" s="68">
         <f t="shared" si="0"/>
-        <v>7.7546296296296911E-6</v>
-      </c>
-      <c r="P7" s="71">
-        <f t="shared" si="3"/>
-        <v>1.0300714404386042</v>
-      </c>
-      <c r="Q7" s="71">
-        <f t="shared" si="1"/>
         <v>1.1247272116837337</v>
       </c>
     </row>
@@ -14276,20 +14258,14 @@
       <c r="K8" s="65">
         <v>7.571759259259259E-4</v>
       </c>
-      <c r="M8" s="67">
-        <f t="shared" si="2"/>
-        <v>1.018518518518534E-5</v>
-      </c>
-      <c r="N8" s="67">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="P8" s="68">
+        <f t="shared" si="1"/>
+        <v>1.3083556348498604</v>
+      </c>
+      <c r="Q8" s="68">
         <f t="shared" si="0"/>
-        <v>1.1111111111111044E-5</v>
-      </c>
-      <c r="P8" s="71">
-        <f t="shared" si="3"/>
-        <v>1.3083556348498604</v>
-      </c>
-      <c r="Q8" s="71">
-        <f t="shared" si="1"/>
         <v>1.4462187405844986</v>
       </c>
     </row>
@@ -14318,20 +14294,14 @@
       <c r="K9" s="65">
         <v>1.6210648148148148E-3</v>
       </c>
-      <c r="M9" s="67">
-        <f t="shared" si="2"/>
-        <v>5.6712962962961536E-6</v>
-      </c>
-      <c r="N9" s="67">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="P9" s="68">
+        <f t="shared" si="1"/>
+        <v>0.3473206691239028</v>
+      </c>
+      <c r="Q9" s="68">
         <f t="shared" si="0"/>
-        <v>6.1342592592593306E-6</v>
-      </c>
-      <c r="P9" s="71">
-        <f t="shared" si="3"/>
-        <v>0.3473206691239028</v>
-      </c>
-      <c r="Q9" s="71">
-        <f t="shared" si="1"/>
         <v>0.37698271569813357</v>
       </c>
     </row>
@@ -14360,20 +14330,14 @@
       <c r="K10" s="65">
         <v>1.784722222222222E-3</v>
       </c>
-      <c r="M10" s="67">
-        <f t="shared" si="2"/>
-        <v>1.2268518518518661E-5</v>
-      </c>
-      <c r="N10" s="67">
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="P10" s="68">
+        <f t="shared" si="1"/>
+        <v>0.67774936061381652</v>
+      </c>
+      <c r="Q10" s="68">
         <f t="shared" si="0"/>
-        <v>1.3194444444444581E-5</v>
-      </c>
-      <c r="P10" s="71">
-        <f t="shared" si="3"/>
-        <v>0.67774936061381652</v>
-      </c>
-      <c r="Q10" s="71">
-        <f t="shared" si="1"/>
         <v>0.73387408265740817</v>
       </c>
     </row>
@@ -14420,11 +14384,11 @@
         <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
-        <f t="shared" ref="D14:E14" si="4">D5*$F14</f>
+        <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
         <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.3944444444444445E-4</v>
       </c>
       <c r="F14">
@@ -14438,11 +14402,11 @@
         <v>5.1791666666666663E-4</v>
       </c>
       <c r="J14" s="65">
-        <f t="shared" ref="J14:K14" si="5">J5*$L14</f>
+        <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
         <v>5.0836805555555563E-4</v>
       </c>
       <c r="K14" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.9831018518518529E-4</v>
       </c>
       <c r="L14">
@@ -14454,15 +14418,15 @@
         <v>225</v>
       </c>
       <c r="C15" s="65">
-        <f t="shared" ref="C15:E15" si="6">C6*$F15</f>
+        <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
         <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.4430555555555544E-4</v>
       </c>
       <c r="F15">
@@ -14472,15 +14436,15 @@
         <v>225</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:K15" si="7">I6*$L15</f>
+        <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
         <v>1.096892361111111E-3</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0793229166666666E-3</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.0602893518518518E-3</v>
       </c>
       <c r="L15">
@@ -14492,15 +14456,15 @@
         <v>226</v>
       </c>
       <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="8">C7*$F16</f>
+        <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
         <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.951388888888888E-4</v>
       </c>
       <c r="F16">
@@ -14510,15 +14474,15 @@
         <v>226</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" ref="I16:K16" si="9">I7*$L16</f>
+        <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
         <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.1805555555555548E-4</v>
       </c>
       <c r="L16">
@@ -14530,15 +14494,15 @@
         <v>227</v>
       </c>
       <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="10">C8*$F17</f>
+        <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
         <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.919444444444444E-4</v>
       </c>
       <c r="F17">
@@ -14548,15 +14512,15 @@
         <v>227</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" ref="I17:K17" si="11">I8*$L17</f>
+        <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
         <v>8.9524305555555559E-4</v>
       </c>
       <c r="J17" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.8353009259259244E-4</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.7075231481481476E-4</v>
       </c>
       <c r="L17">
@@ -14568,15 +14532,15 @@
         <v>228</v>
       </c>
       <c r="C18" s="65">
-        <f t="shared" ref="C18:E18" si="12">C9*$F18</f>
+        <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
         <v>1.7556134259259259E-3</v>
       </c>
       <c r="D18" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.7369791666666664E-3</v>
       </c>
       <c r="E18" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.7167476851851849E-3</v>
       </c>
       <c r="F18">
@@ -14586,15 +14550,15 @@
         <v>228</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" ref="I18:K18" si="13">I9*$L18</f>
+        <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
         <v>1.9186226851851851E-3</v>
       </c>
       <c r="J18" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9119589120370371E-3</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.9047511574074075E-3</v>
       </c>
       <c r="L18">
@@ -14606,15 +14570,15 @@
         <v>4</v>
       </c>
       <c r="C19" s="65">
-        <f t="shared" ref="C19:E19" si="14">C10*$F19</f>
+        <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
         <v>1.9191956018518516E-3</v>
       </c>
       <c r="D19" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.8985648148148143E-3</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.8763368055555554E-3</v>
       </c>
       <c r="F19">
@@ -14624,15 +14588,15 @@
         <v>4</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" ref="I19:K19" si="15">I10*$L19</f>
+        <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
         <v>2.0636111111111111E-3</v>
       </c>
       <c r="J19" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0496249999999998E-3</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>2.0345833333333331E-3</v>
       </c>
       <c r="L19">
@@ -14961,38 +14925,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -15157,38 +15121,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14"/>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="L14" s="70" t="s">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="L14" s="71" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="L15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="L15" s="71"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3966BFD-24CD-4B61-A25E-0CBA54ADDAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F10C0-542A-4A80-93AE-E17DA9C4FD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="236">
   <si>
     <t>50m Retten</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>NK2-W (10-20%) ind</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -4055,8 +4058,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X9" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X9" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X11" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13321,10 +13324,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14062,12 +14065,148 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
+      <c r="A10" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="59">
+        <v>15</v>
+      </c>
+      <c r="D10" s="59">
+        <v>18</v>
+      </c>
+      <c r="E10" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F10" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G10" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J10" s="59">
+        <v>25</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59">
+        <v>10</v>
+      </c>
+      <c r="M10" s="62">
+        <v>4.6817129629629634E-4</v>
+      </c>
+      <c r="N10" s="62">
+        <v>7.4872685185185188E-4</v>
+      </c>
+      <c r="O10" s="62">
+        <v>9.9224537037037033E-4</v>
+      </c>
+      <c r="P10" s="62">
+        <v>7.8888888888888889E-4</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>1.9605324074074074E-3</v>
+      </c>
+      <c r="R10" s="62">
+        <v>1.7837962962962963E-3</v>
+      </c>
+      <c r="S10" s="62">
+        <v>4.803240740740741E-4</v>
+      </c>
+      <c r="T10" s="62">
+        <v>7.8599537037037039E-4</v>
+      </c>
+      <c r="U10" s="62">
+        <v>1.0240740740740742E-3</v>
+      </c>
+      <c r="V10" s="62">
+        <v>8.2766203703703712E-4</v>
+      </c>
+      <c r="W10" s="62">
+        <v>2.0114583333333334E-3</v>
+      </c>
+      <c r="X10" s="62">
+        <v>1.8332175925925925E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="59">
+        <v>15</v>
+      </c>
+      <c r="D11" s="59">
+        <v>18</v>
+      </c>
+      <c r="E11" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F11" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G11" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="59">
+        <v>50</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59">
+        <v>10</v>
+      </c>
+      <c r="M11" s="62">
+        <v>4.6817129629629634E-4</v>
+      </c>
+      <c r="N11" s="62">
+        <v>7.4872685185185188E-4</v>
+      </c>
+      <c r="O11" s="62">
+        <v>9.9224537037037033E-4</v>
+      </c>
+      <c r="P11" s="62">
+        <v>7.8888888888888889E-4</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>1.9605324074074074E-3</v>
+      </c>
+      <c r="R11" s="62">
+        <v>1.7837962962962963E-3</v>
+      </c>
+      <c r="S11" s="62">
+        <v>4.803240740740741E-4</v>
+      </c>
+      <c r="T11" s="62">
+        <v>7.8599537037037039E-4</v>
+      </c>
+      <c r="U11" s="62">
+        <v>1.0240740740740742E-3</v>
+      </c>
+      <c r="V11" s="62">
+        <v>8.2766203703703712E-4</v>
+      </c>
+      <c r="W11" s="62">
+        <v>2.0114583333333334E-3</v>
+      </c>
+      <c r="X11" s="62">
+        <v>1.8332175925925925E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14081,7 +14220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F10C0-542A-4A80-93AE-E17DA9C4FD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9E0A7-5753-489A-9E7E-64EB47C46DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13326,8 +13326,8 @@
   </sheetPr>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14172,40 +14172,52 @@
         <v>10</v>
       </c>
       <c r="M11" s="62">
-        <v>4.6817129629629634E-4</v>
+        <f>M10*1.1</f>
+        <v>5.1498842592592601E-4</v>
       </c>
       <c r="N11" s="62">
-        <v>7.4872685185185188E-4</v>
+        <f t="shared" ref="N11:X11" si="6">N10*1.1</f>
+        <v>8.2359953703703718E-4</v>
       </c>
       <c r="O11" s="62">
-        <v>9.9224537037037033E-4</v>
+        <f t="shared" si="6"/>
+        <v>1.0914699074074075E-3</v>
       </c>
       <c r="P11" s="62">
-        <v>7.8888888888888889E-4</v>
+        <f t="shared" si="6"/>
+        <v>8.6777777777777786E-4</v>
       </c>
       <c r="Q11" s="62">
-        <v>1.9605324074074074E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.1565856481481484E-3</v>
       </c>
       <c r="R11" s="62">
-        <v>1.7837962962962963E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.9621759259259262E-3</v>
       </c>
       <c r="S11" s="62">
-        <v>4.803240740740741E-4</v>
+        <f t="shared" si="6"/>
+        <v>5.2835648148148154E-4</v>
       </c>
       <c r="T11" s="62">
-        <v>7.8599537037037039E-4</v>
+        <f t="shared" si="6"/>
+        <v>8.6459490740740746E-4</v>
       </c>
       <c r="U11" s="62">
-        <v>1.0240740740740742E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1264814814814818E-3</v>
       </c>
       <c r="V11" s="62">
-        <v>8.2766203703703712E-4</v>
+        <f t="shared" si="6"/>
+        <v>9.1042824074074095E-4</v>
       </c>
       <c r="W11" s="62">
-        <v>2.0114583333333334E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.212604166666667E-3</v>
       </c>
       <c r="X11" s="62">
-        <v>1.8332175925925925E-3</v>
+        <f t="shared" si="6"/>
+        <v>2.0165393518518518E-3</v>
       </c>
     </row>
   </sheetData>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F9E0A7-5753-489A-9E7E-64EB47C46DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92797006-DE96-4DF3-8B23-046C06D3DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -4058,8 +4058,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X11" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X12" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X12" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13324,10 +13324,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14220,6 +14220,32 @@
         <v>2.0165393518518518E-3</v>
       </c>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14233,7 +14259,7 @@
   <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92797006-DE96-4DF3-8B23-046C06D3DF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101E012-E1FD-4E5D-B14D-B46E52DD41C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -921,13 +921,13 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>NK2-M (10-20%) ind</t>
-  </si>
-  <si>
-    <t>NK2-W (10-20%) ind</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>NK2 +15% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +15% Frauen</t>
   </si>
 </sst>
 </file>
@@ -13327,7 +13327,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13607,19 +13607,19 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.951388888888888E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.919444444444444E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
@@ -13631,19 +13631,19 @@
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.951388888888888E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.919444444444444E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
@@ -13656,7 +13656,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13689,19 +13689,19 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.0194444444444449E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.5805555555555553E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.0902777777777776E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
@@ -13713,19 +13713,19 @@
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>7.0194444444444449E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>8.0902777777777776E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13771,19 +13771,19 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
@@ -13795,19 +13795,19 @@
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.4861111111111105E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>7.0833333333333328E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.7083333333333342E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.2472222222222224E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13853,11 +13853,11 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.1805555555555548E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
@@ -13869,19 +13869,19 @@
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0345833333333331E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9047511574074075E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
@@ -13893,16 +13893,16 @@
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.0345833333333331E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.9047511574074075E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13935,11 +13935,11 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.2736111111111118E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
@@ -13951,19 +13951,19 @@
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0496249999999998E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9119589120370371E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
@@ -13975,16 +13975,16 @@
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.0496249999999998E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.9119589120370371E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14017,11 +14017,11 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
@@ -14033,19 +14033,19 @@
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0636111111111111E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9186226851851851E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.3597222222222222E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
@@ -14057,16 +14057,16 @@
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.0636111111111111E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.9186226851851851E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>164</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>164</v>
@@ -14259,7 +14259,7 @@
   <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.3944444444444445E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="L14">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,18 +14596,18 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.4430555555555544E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>7.0194444444444449E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.951388888888888E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="F16">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,18 +14672,18 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>8.0902777777777776E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.919444444444444E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
@@ -14728,18 +14728,18 @@
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.9186226851851851E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9119589120370371E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9047511574074075E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="L18">
-        <v>1.175</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14766,18 +14766,18 @@
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.0636111111111111E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0496249999999998E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0345833333333331E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="L19">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101E012-E1FD-4E5D-B14D-B46E52DD41C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14D01F-9511-42B4-98B5-ABDFACA7CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -924,10 +924,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +15% Mäner</t>
-  </si>
-  <si>
     <t>NK2 +15% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +20% Mäner</t>
   </si>
 </sst>
 </file>
@@ -13326,8 +13326,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13607,56 +13607,56 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.6617476851851842E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.0495949074074057E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.5894675925925923E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.6617476851851842E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.0495949074074057E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.5894675925925923E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13689,56 +13689,56 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.7269675925925928E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.1813657407407404E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.7531828703703703E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.7369791666666664E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>6.7269675925925928E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.1813657407407404E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>7.7531828703703703E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.7369791666666664E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13771,56 +13771,56 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.7881944444444435E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.9191956018518516E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>6.7881944444444435E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.3038194444444451E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>7.9035879629629627E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>1.9191956018518516E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.7556134259259259E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13902,7 +13902,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14258,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,18 +14558,18 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="F14">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
@@ -14596,18 +14596,18 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.1813657407407404E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.0495949074074057E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="F15">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
@@ -14634,18 +14634,18 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>6.7881944444444435E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>6.7269675925925928E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.6617476851851842E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="F16">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
@@ -14672,18 +14672,18 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>7.7531828703703703E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.5894675925925923E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="F17">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
@@ -14710,18 +14710,18 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7369791666666664E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="F18">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
@@ -14748,18 +14748,18 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>1.9191956018518516E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="F19">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B14D01F-9511-42B4-98B5-ABDFACA7CEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4448A-166C-42AD-8A68-DEE1577A7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13607,51 +13607,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.951388888888888E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.919444444444444E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9579166666666664E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.951388888888888E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.919444444444444E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.9579166666666664E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13689,51 +13689,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.0194444444444449E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.5805555555555553E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.0902777777777776E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>7.0194444444444449E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>8.0902777777777776E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13771,51 +13771,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.4861111111111105E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>7.0833333333333328E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.7083333333333342E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.2472222222222224E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.8319444444444444E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13853,51 +13853,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.8396990740740738E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0602893518518518E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.7075231481481476E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0524305555555552E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>7.8396990740740738E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>8.7075231481481476E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.0524305555555552E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13935,51 +13935,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.9288773148148144E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.8353009259259244E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.871278935185185E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>7.9288773148148144E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>8.8353009259259244E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14017,51 +14017,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.0114004629629621E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.096892361111111E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>8.9524305555555559E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14259,7 +14259,7 @@
   <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.3944444444444445E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>5.2096064814814811E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="L14">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14596,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.4430555555555544E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="L15">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>7.0194444444444449E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.951388888888888E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="F16">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>7.9288773148148144E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>7.8396990740740738E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="L16">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14672,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>8.0902777777777776E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.919444444444444E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>8.8353009259259244E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>8.7075231481481476E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="L17">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14710,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="F18">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="L18">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14748,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.9579166666666664E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="F19">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0524305555555552E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="L19">
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4448A-166C-42AD-8A68-DEE1577A7439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D163E87-DC6A-4775-8A2B-2FE478DC6A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -924,10 +924,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +15% Frauen</t>
-  </si>
-  <si>
-    <t>NK2 +20% Mäner</t>
+    <t>NK2 +10% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +10% Frauen</t>
   </si>
 </sst>
 </file>
@@ -13326,8 +13326,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13574,7 +13574,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13607,56 +13607,56 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.5775462962962962E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>7.2410300925925919E-4</v>
+        <v>6.3721064814814814E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.8365162037037019E-4</v>
+        <v>8.6561342592592593E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>8.2494212962962968E-4</v>
+        <v>7.2594907407407417E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>2.0394965277777777E-3</v>
+        <v>1.7947569444444445E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.8660300925925923E-3</v>
+        <v>1.6421064814814814E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.5775462962962962E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>7.2410300925925919E-4</v>
+        <v>6.3721064814814814E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.8365162037037019E-4</v>
+        <v>8.6561342592592593E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>8.2494212962962968E-4</v>
+        <v>7.2594907407407417E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>2.0394965277777777E-3</v>
+        <v>1.7947569444444445E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.8660300925925923E-3</v>
+        <v>1.6421064814814814E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13689,56 +13689,56 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.311921296296297E-4</v>
+        <v>6.4344907407407417E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.9797453703703702E-4</v>
+        <v>8.7821759259259276E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.427372685185186E-4</v>
+        <v>7.4160879629629642E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>2.0636574074074073E-3</v>
+        <v>1.8160185185185185E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8880208333333333E-3</v>
+        <v>1.6614583333333334E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>7.311921296296297E-4</v>
+        <v>6.4344907407407417E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.9797453703703702E-4</v>
+        <v>8.7821759259259276E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>8.427372685185186E-4</v>
+        <v>7.4160879629629642E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>2.0636574074074073E-3</v>
+        <v>1.8160185185185185E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8880208333333333E-3</v>
+        <v>1.6614583333333334E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13771,56 +13771,56 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.6730324074074068E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.378472222222222E-4</v>
+        <v>6.4930555555555564E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>1.0112847222222224E-3</v>
+        <v>8.899305555555557E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.5908564814814821E-4</v>
+        <v>7.5599537037037052E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0860821759259261E-3</v>
+        <v>1.835752314814815E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.9082754629629632E-3</v>
+        <v>1.6792824074074075E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.6730324074074068E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>7.378472222222222E-4</v>
+        <v>6.4930555555555564E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>1.0112847222222224E-3</v>
+        <v>8.899305555555557E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.5908564814814821E-4</v>
+        <v>7.5599537037037052E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>2.0860821759259261E-3</v>
+        <v>1.835752314814815E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.9082754629629632E-3</v>
+        <v>1.6792824074074075E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13853,56 +13853,56 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.1805555555555548E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>9.0861111111111101E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.1416666666666663E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9452777777777775E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>9.0861111111111101E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.1416666666666663E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13935,56 +13935,56 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.2736111111111118E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.2194444444444431E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>9.2194444444444431E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14017,51 +14017,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.3597222222222222E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.1445833333333332E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>9.341666666666667E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14258,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.6730324074074068E-4</v>
+        <v>4.1122685185185186E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.072800925925926E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.5775462962962962E-4</v>
+        <v>4.0282407407407411E-4</v>
       </c>
       <c r="F14">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.1791666666666663E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.0836805555555563E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>5.4361111111111114E-4</v>
+        <v>4.9831018518518529E-4</v>
       </c>
       <c r="L14">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14596,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>1.0112847222222224E-3</v>
+        <v>8.899305555555557E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.9797453703703702E-4</v>
+        <v>8.7821759259259276E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.8365162037037019E-4</v>
+        <v>8.6561342592592593E-4</v>
       </c>
       <c r="F15">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.049201388888889E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.0323958333333335E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1063888888888887E-3</v>
+        <v>1.0141898148148148E-3</v>
       </c>
       <c r="L15">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>7.378472222222222E-4</v>
+        <v>6.4930555555555564E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>7.311921296296297E-4</v>
+        <v>6.4344907407407417E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>7.2410300925925919E-4</v>
+        <v>6.3721064814814814E-4</v>
       </c>
       <c r="F16">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.6630787037037043E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.5841435185185202E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.4988425925925928E-4</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14672,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>8.5908564814814821E-4</v>
+        <v>7.5599537037037052E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>8.427372685185186E-4</v>
+        <v>7.4160879629629642E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>8.2494212962962968E-4</v>
+        <v>7.2594907407407417E-4</v>
       </c>
       <c r="F17">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.563194444444446E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>9.2194444444444431E-4</v>
+        <v>8.4511574074074068E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>9.0861111111111101E-4</v>
+        <v>8.3289351851851851E-4</v>
       </c>
       <c r="L17">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14710,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.9082754629629632E-3</v>
+        <v>1.6792824074074075E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.8880208333333333E-3</v>
+        <v>1.6614583333333334E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.8660300925925923E-3</v>
+        <v>1.6421064814814814E-3</v>
       </c>
       <c r="F18">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7961574074074073E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7899189814814817E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.7831712962962964E-3</v>
       </c>
       <c r="L18">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14748,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>2.0860821759259261E-3</v>
+        <v>1.835752314814815E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>2.0636574074074073E-3</v>
+        <v>1.8160185185185185E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>2.0394965277777777E-3</v>
+        <v>1.7947569444444445E-3</v>
       </c>
       <c r="F19">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9912037037037038E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9777083333333335E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.1416666666666663E-3</v>
+        <v>1.9631944444444445E-3</v>
       </c>
       <c r="L19">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D163E87-DC6A-4775-8A2B-2FE478DC6A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA607183-7DF8-4859-868F-C02CBAB4CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -924,10 +924,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +10% Mäner</t>
-  </si>
-  <si>
-    <t>NK2 +10% Frauen</t>
+    <t>NK2 +12,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +12,5% Frauen</t>
   </si>
 </sst>
 </file>
@@ -13327,7 +13327,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13598,7 +13598,7 @@
         <v>178</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -13607,51 +13607,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.1197916666666667E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.3721064814814814E-4</v>
+        <v>6.5169270833333333E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>8.6561342592592593E-4</v>
+        <v>8.8528645833333319E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.2594907407407417E-4</v>
+        <v>7.4244791666666665E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.7947569444444445E-3</v>
+        <v>1.8355468749999999E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.6421064814814814E-3</v>
+        <v>1.6794270833333331E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.0282407407407411E-4</v>
+        <v>4.1197916666666667E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.3721064814814814E-4</v>
+        <v>6.5169270833333333E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>8.6561342592592593E-4</v>
+        <v>8.8528645833333319E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.2594907407407417E-4</v>
+        <v>7.4244791666666665E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.7947569444444445E-3</v>
+        <v>1.8355468749999999E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.6421064814814814E-3</v>
+        <v>1.6794270833333331E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13680,7 +13680,7 @@
         <v>178</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
@@ -13689,51 +13689,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.1653645833333332E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.4344907407407417E-4</v>
+        <v>6.5807291666666672E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>8.7821759259259276E-4</v>
+        <v>8.981770833333334E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.4160879629629642E-4</v>
+        <v>7.5846354166666673E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8160185185185185E-3</v>
+        <v>1.8572916666666664E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.6614583333333334E-3</v>
+        <v>1.69921875E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.1653645833333332E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>6.4344907407407417E-4</v>
+        <v>6.5807291666666672E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>8.7821759259259276E-4</v>
+        <v>8.981770833333334E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>7.4160879629629642E-4</v>
+        <v>7.5846354166666673E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.8160185185185185E-3</v>
+        <v>1.8572916666666664E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.6614583333333334E-3</v>
+        <v>1.69921875E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13762,7 +13762,7 @@
         <v>178</v>
       </c>
       <c r="I6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -13771,51 +13771,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2057291666666664E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.4930555555555564E-4</v>
+        <v>6.6406250000000005E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.1015625000000016E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.5599537037037052E-4</v>
+        <v>7.731770833333334E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.835752314814815E-3</v>
+        <v>1.8774739583333334E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.6792824074074075E-3</v>
+        <v>1.7174479166666668E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2057291666666664E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>6.4930555555555564E-4</v>
+        <v>6.6406250000000005E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>8.899305555555557E-4</v>
+        <v>9.1015625000000016E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>7.5599537037037052E-4</v>
+        <v>7.731770833333334E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>1.835752314814815E-3</v>
+        <v>1.8774739583333334E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.6792824074074075E-3</v>
+        <v>1.7174479166666668E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13844,7 +13844,7 @@
         <v>178</v>
       </c>
       <c r="I7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
@@ -13853,51 +13853,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>4.9831018518518529E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.4988425925925928E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.3289351851851851E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.7831712962962964E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>7.4988425925925928E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>8.3289351851851851E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.7831712962962964E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13926,7 +13926,7 @@
         <v>178</v>
       </c>
       <c r="I8" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
@@ -13935,51 +13935,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.5841435185185202E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.4511574074074068E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.7899189814814817E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.0836805555555563E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>7.5841435185185202E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>8.4511574074074068E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.7899189814814817E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14008,7 +14008,7 @@
         <v>178</v>
       </c>
       <c r="I9" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
@@ -14017,51 +14017,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.2968749999999999E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>7.6630787037037043E-4</v>
+        <v>7.8372395833333332E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.073046875E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.563194444444446E-4</v>
+        <v>8.7578125000000004E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0364583333333333E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.8369791666666664E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.1791666666666663E-4</v>
+        <v>5.2968749999999999E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>7.6630787037037043E-4</v>
+        <v>7.8372395833333332E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.049201388888889E-3</v>
+        <v>1.073046875E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>8.563194444444446E-4</v>
+        <v>8.7578125000000004E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0364583333333333E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.7961574074074073E-3</v>
+        <v>1.8369791666666664E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14259,7 +14259,7 @@
   <dimension ref="B3:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.1122685185185186E-4</v>
+        <v>4.2057291666666664E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.072800925925926E-4</v>
+        <v>4.1653645833333332E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.0282407407407411E-4</v>
+        <v>4.1197916666666667E-4</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.1791666666666663E-4</v>
+        <v>5.2968749999999999E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.0836805555555563E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>4.9831018518518529E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="L14">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14596,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>8.899305555555557E-4</v>
+        <v>9.1015625000000016E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>8.7821759259259276E-4</v>
+        <v>8.981770833333334E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>8.6561342592592593E-4</v>
+        <v>8.8528645833333319E-4</v>
       </c>
       <c r="F15">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.049201388888889E-3</v>
+        <v>1.073046875E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0323958333333335E-3</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0141898148148148E-3</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="L15">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>6.4930555555555564E-4</v>
+        <v>6.6406250000000005E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>6.4344907407407417E-4</v>
+        <v>6.5807291666666672E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.3721064814814814E-4</v>
+        <v>6.5169270833333333E-4</v>
       </c>
       <c r="F16">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>7.6630787037037043E-4</v>
+        <v>7.8372395833333332E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>7.5841435185185202E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>7.4988425925925928E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="L16">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14672,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>7.5599537037037052E-4</v>
+        <v>7.731770833333334E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>7.4160879629629642E-4</v>
+        <v>7.5846354166666673E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.2594907407407417E-4</v>
+        <v>7.4244791666666665E-4</v>
       </c>
       <c r="F17">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>8.563194444444446E-4</v>
+        <v>8.7578125000000004E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>8.4511574074074068E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>8.3289351851851851E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="L17">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14710,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.6792824074074075E-3</v>
+        <v>1.7174479166666668E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.6614583333333334E-3</v>
+        <v>1.69921875E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.6421064814814814E-3</v>
+        <v>1.6794270833333331E-3</v>
       </c>
       <c r="F18">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.7961574074074073E-3</v>
+        <v>1.8369791666666664E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.7899189814814817E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.7831712962962964E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
       <c r="L18">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14748,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>1.835752314814815E-3</v>
+        <v>1.8774739583333334E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8160185185185185E-3</v>
+        <v>1.8572916666666664E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.7947569444444445E-3</v>
+        <v>1.8355468749999999E-3</v>
       </c>
       <c r="F19">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>1.9912037037037038E-3</v>
+        <v>2.0364583333333333E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>1.9777083333333335E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>1.9631944444444445E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="L19">
-        <v>1.1000000000000001</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA607183-7DF8-4859-868F-C02CBAB4CEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB10A3B-7E57-4194-8C59-D851DCF22631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -924,10 +924,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +12,5% Mäner</t>
-  </si>
-  <si>
-    <t>NK2 +12,5% Frauen</t>
+    <t>NK2 +15% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +15% Frauen</t>
   </si>
 </sst>
 </file>
@@ -13326,8 +13326,8 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13607,51 +13607,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.1197916666666667E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.5169270833333333E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>8.8528645833333319E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.4244791666666665E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.8355468749999999E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.6794270833333331E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.1197916666666667E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.5169270833333333E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>8.8528645833333319E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.4244791666666665E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.8355468749999999E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.6794270833333331E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13689,51 +13689,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.1653645833333332E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.5807291666666672E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>8.981770833333334E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.5846354166666673E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8572916666666664E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.69921875E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.1653645833333332E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>6.5807291666666672E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>8.981770833333334E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>7.5846354166666673E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.8572916666666664E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.69921875E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13771,51 +13771,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.2057291666666664E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.6406250000000005E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.1015625000000016E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.731770833333334E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.8774739583333334E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.7174479166666668E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.2057291666666664E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>6.6406250000000005E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.1015625000000016E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>7.731770833333334E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>1.8774739583333334E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.7174479166666668E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13853,51 +13853,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.096354166666667E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.6692708333333333E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0372395833333334E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.5182291666666664E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0078124999999996E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8236979166666666E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.096354166666667E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>7.6692708333333333E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.0372395833333334E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>8.5182291666666664E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.0078124999999996E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.8236979166666666E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13935,51 +13935,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.1992187499999998E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.7565104166666668E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0558593750000002E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.6432291666666656E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0226562500000001E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.8305989583333334E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.1992187499999998E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>7.7565104166666668E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.0558593750000002E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>8.6432291666666656E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.0226562500000001E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.8305989583333334E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14017,51 +14017,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.2968749999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>7.8372395833333332E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.073046875E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.7578125000000004E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0364583333333333E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8369791666666664E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.2968749999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>7.8372395833333332E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.073046875E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>8.7578125000000004E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.0364583333333333E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.8369791666666664E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14258,7 +14258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.2057291666666664E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.1653645833333332E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.1197916666666667E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="F14">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.2968749999999999E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.1992187499999998E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>5.096354166666667E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="L14">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14596,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.1015625000000016E-4</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>8.981770833333334E-4</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>8.8528645833333319E-4</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="F15">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.073046875E-3</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0558593750000002E-3</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0372395833333334E-3</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="L15">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>6.6406250000000005E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>6.5807291666666672E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.5169270833333333E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="F16">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>7.8372395833333332E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>7.7565104166666668E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>7.6692708333333333E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="L16">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14672,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>7.731770833333334E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>7.5846354166666673E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.4244791666666665E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="F17">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>8.7578125000000004E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>8.6432291666666656E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>8.5182291666666664E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="L17">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14710,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.7174479166666668E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.69921875E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.6794270833333331E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="F18">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.8369791666666664E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.8305989583333334E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.8236979166666666E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="L18">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14748,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>1.8774739583333334E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8572916666666664E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8355468749999999E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="F19">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.0364583333333333E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0226562500000001E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0078124999999996E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="L19">
-        <v>1.125</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB10A3B-7E57-4194-8C59-D851DCF22631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B242338-9B4D-4598-9559-FA5CDE6C5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -924,10 +924,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +15% Mäner</t>
-  </si>
-  <si>
-    <t>NK2 +15% Frauen</t>
+    <t>NK2 +17,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +17,5% Frauen</t>
   </si>
 </sst>
 </file>
@@ -13326,7 +13326,7 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -13607,51 +13607,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3028935185185189E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.6617476851851842E-4</v>
+        <v>6.8065682870370372E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.0495949074074057E-4</v>
+        <v>9.2463252314814806E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.5894675925925923E-4</v>
+        <v>7.7544560185185192E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9171267361111112E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7540682870370368E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3028935185185189E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.6617476851851842E-4</v>
+        <v>6.8065682870370372E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.0495949074074057E-4</v>
+        <v>9.2463252314814806E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.5894675925925923E-4</v>
+        <v>7.7544560185185192E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9171267361111112E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7540682870370368E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13689,51 +13689,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.3504918981481481E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.7269675925925928E-4</v>
+        <v>6.8732060185185194E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.1813657407407404E-4</v>
+        <v>9.3809606481481489E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.7531828703703703E-4</v>
+        <v>7.9217303240740745E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9398379629629629E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.7369791666666664E-3</v>
+        <v>1.7747395833333335E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.3504918981481481E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>6.7269675925925928E-4</v>
+        <v>6.8732060185185194E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.1813657407407404E-4</v>
+        <v>9.3809606481481489E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>7.7531828703703703E-4</v>
+        <v>7.9217303240740745E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9398379629629629E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.7369791666666664E-3</v>
+        <v>1.7747395833333335E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13771,51 +13771,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.3926504629629627E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.7881944444444435E-4</v>
+        <v>6.9357638888888897E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.5060763888888907E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.0754050925925937E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.9191956018518516E-3</v>
+        <v>1.9609172453703702E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.7937789351851854E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.2991898148148143E-4</v>
+        <v>4.3926504629629627E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>6.7881944444444435E-4</v>
+        <v>6.9357638888888897E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.3038194444444451E-4</v>
+        <v>9.5060763888888907E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>7.9035879629629627E-4</v>
+        <v>8.0754050925925937E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>1.9191956018518516E-3</v>
+        <v>1.9609172453703702E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.7556134259259259E-3</v>
+        <v>1.7937789351851854E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13853,51 +13853,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.2096064814814811E-4</v>
+        <v>5.3228587962962962E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>7.8396990740740738E-4</v>
+        <v>8.0101273148148154E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0602893518518518E-3</v>
+        <v>1.0833391203703704E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.7075231481481476E-4</v>
+        <v>8.89681712962963E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0524305555555552E-3</v>
+        <v>2.0970486111111112E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.2096064814814811E-4</v>
+        <v>5.3228587962962962E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>7.8396990740740738E-4</v>
+        <v>8.0101273148148154E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.0833391203703704E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>8.7075231481481476E-4</v>
+        <v>8.89681712962963E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.0524305555555552E-3</v>
+        <v>2.0970486111111112E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13935,51 +13935,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.430295138888889E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>7.9288773148148144E-4</v>
+        <v>8.1012442129629642E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1027864583333334E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>8.8353009259259244E-4</v>
+        <v>9.0273726851851843E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1125520833333335E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.871278935185185E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.3147569444444444E-4</v>
+        <v>5.430295138888889E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>7.9288773148148144E-4</v>
+        <v>8.1012442129629642E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1027864583333334E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>8.8353009259259244E-4</v>
+        <v>9.0273726851851843E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1125520833333335E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14017,51 +14017,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.532291666666666E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.1855613425925932E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1207378472222222E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.1470486111111125E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1269675925925926E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.4145833333333324E-4</v>
+        <v>5.532291666666666E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.0114004629629621E-4</v>
+        <v>8.1855613425925932E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.096892361111111E-3</v>
+        <v>1.1207378472222222E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>8.9524305555555559E-4</v>
+        <v>9.1470486111111125E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1269675925925926E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14258,8 +14258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14558,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.2991898148148143E-4</v>
+        <v>4.3926504629629627E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.2579282407407404E-4</v>
+        <v>4.3504918981481481E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.2113425925925923E-4</v>
+        <v>4.3028935185185189E-4</v>
       </c>
       <c r="F14">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.4145833333333324E-4</v>
+        <v>5.532291666666666E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.3147569444444444E-4</v>
+        <v>5.430295138888889E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>5.2096064814814811E-4</v>
+        <v>5.3228587962962962E-4</v>
       </c>
       <c r="L14">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14596,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.3038194444444451E-4</v>
+        <v>9.5060763888888907E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.1813657407407404E-4</v>
+        <v>9.3809606481481489E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.0495949074074057E-4</v>
+        <v>9.2463252314814806E-4</v>
       </c>
       <c r="F15">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.096892361111111E-3</v>
+        <v>1.1207378472222222E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0793229166666666E-3</v>
+        <v>1.1027864583333334E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0602893518518518E-3</v>
+        <v>1.0833391203703704E-3</v>
       </c>
       <c r="L15">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14634,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>6.7881944444444435E-4</v>
+        <v>6.9357638888888897E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>6.7269675925925928E-4</v>
+        <v>6.8732060185185194E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.6617476851851842E-4</v>
+        <v>6.8065682870370372E-4</v>
       </c>
       <c r="F16">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>8.0114004629629621E-4</v>
+        <v>8.1855613425925932E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>7.9288773148148144E-4</v>
+        <v>8.1012442129629642E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>7.8396990740740738E-4</v>
+        <v>8.0101273148148154E-4</v>
       </c>
       <c r="L16">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14672,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>7.9035879629629627E-4</v>
+        <v>8.0754050925925937E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>7.7531828703703703E-4</v>
+        <v>7.9217303240740745E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.5894675925925923E-4</v>
+        <v>7.7544560185185192E-4</v>
       </c>
       <c r="F17">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>8.9524305555555559E-4</v>
+        <v>9.1470486111111125E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>8.8353009259259244E-4</v>
+        <v>9.0273726851851843E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>8.7075231481481476E-4</v>
+        <v>8.89681712962963E-4</v>
       </c>
       <c r="L17">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14710,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.7556134259259259E-3</v>
+        <v>1.7937789351851854E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7369791666666664E-3</v>
+        <v>1.7747395833333335E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7167476851851849E-3</v>
+        <v>1.7540682870370368E-3</v>
       </c>
       <c r="F18">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.8778009259259256E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.871278935185185E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.8642245370370368E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
       <c r="L18">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14748,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>1.9191956018518516E-3</v>
+        <v>1.9609172453703702E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8985648148148143E-3</v>
+        <v>1.9398379629629629E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.8763368055555554E-3</v>
+        <v>1.9171267361111112E-3</v>
       </c>
       <c r="F19">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.0817129629629627E-3</v>
+        <v>2.1269675925925926E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0676041666666664E-3</v>
+        <v>2.1125520833333335E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0524305555555552E-3</v>
+        <v>2.0970486111111112E-3</v>
       </c>
       <c r="L19">
-        <v>1.1499999999999999</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B242338-9B4D-4598-9559-FA5CDE6C5CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B09332-87BC-4217-AEA0-B5D173C28EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="238">
   <si>
     <t>50m Retten</t>
   </si>
@@ -928,6 +928,12 @@
   </si>
   <si>
     <t>NK2 +17,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 + 10% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 + 10% Männer</t>
   </si>
 </sst>
 </file>
@@ -4058,8 +4064,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X12" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X12" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X13" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X13" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13324,10 +13330,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13607,51 +13613,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3028935185185189E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.8065682870370372E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.2463252314814806E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.7544560185185192E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9171267361111112E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7540682870370368E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.3028935185185189E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.8065682870370372E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.2463252314814806E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.7544560185185192E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.9171267361111112E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.7540682870370368E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13689,51 +13695,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.3504918981481481E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>6.8732060185185194E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.3809606481481489E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>7.9217303240740745E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9398379629629629E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.7747395833333335E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.3504918981481481E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>6.8732060185185194E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.3809606481481489E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>7.9217303240740745E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.9398379629629629E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.7747395833333335E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13744,7 +13750,7 @@
         <v>182</v>
       </c>
       <c r="C6" s="59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="59">
         <v>16</v>
@@ -13771,51 +13777,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.3926504629629627E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>6.9357638888888897E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.5060763888888907E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.0754050925925937E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>1.9609172453703702E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.7937789351851854E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.3926504629629627E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>6.9357638888888897E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.5060763888888907E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.0754050925925937E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>1.9609172453703702E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.7937789351851854E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13853,51 +13859,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.3228587962962962E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.0101273148148154E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.0833391203703704E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>8.89681712962963E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.0970486111111112E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9047511574074075E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.3228587962962962E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>8.0101273148148154E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.0833391203703704E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>8.89681712962963E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.0970486111111112E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.9047511574074075E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13935,51 +13941,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.430295138888889E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.1012442129629642E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1027864583333334E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.0273726851851843E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.1125520833333335E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9119589120370371E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.430295138888889E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>8.1012442129629642E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.1027864583333334E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>9.0273726851851843E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.1125520833333335E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.9119589120370371E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -13990,7 +13996,7 @@
         <v>164</v>
       </c>
       <c r="C9" s="59">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="59">
         <v>16</v>
@@ -14017,51 +14023,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.532291666666666E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.1855613425925932E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1207378472222222E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.1470486111111125E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.1269675925925926E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9186226851851851E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.532291666666666E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.1855613425925932E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.1207378472222222E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>9.1470486111111125E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.1269675925925926E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.9186226851851851E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14221,18 +14227,38 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="A12" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="59">
+        <v>12</v>
+      </c>
+      <c r="D12" s="59">
+        <v>18</v>
+      </c>
+      <c r="E12" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F12" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G12" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="J12" s="59"/>
       <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
+      <c r="L12" s="59">
+        <v>10</v>
+      </c>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
@@ -14246,6 +14272,52 @@
       <c r="W12" s="62"/>
       <c r="X12" s="62"/>
     </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="59">
+        <v>12</v>
+      </c>
+      <c r="D13" s="59">
+        <v>18</v>
+      </c>
+      <c r="E13" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F13" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G13" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59">
+        <v>10</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14258,8 +14330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14558,36 +14630,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.3926504629629627E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
-        <v>4.3504918981481481E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="2"/>
-        <v>4.3028935185185189E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="F14">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.532291666666666E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
-        <v>5.430295138888889E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="3"/>
-        <v>5.3228587962962962E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="L14">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.45">
@@ -14596,36 +14668,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.5060763888888907E-4</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.3809606481481489E-4</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.2463252314814806E-4</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="F15">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.1207378472222222E-3</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1027864583333334E-3</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.0833391203703704E-3</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="L15">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.45">
@@ -14634,36 +14706,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>6.9357638888888897E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="6"/>
-        <v>6.8732060185185194E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="6"/>
-        <v>6.8065682870370372E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="F16">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
-        <v>8.1855613425925932E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="7"/>
-        <v>8.1012442129629642E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="7"/>
-        <v>8.0101273148148154E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="L16">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -14672,36 +14744,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>8.0754050925925937E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="8"/>
-        <v>7.9217303240740745E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="8"/>
-        <v>7.7544560185185192E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="F17">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
-        <v>9.1470486111111125E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="9"/>
-        <v>9.0273726851851843E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="9"/>
-        <v>8.89681712962963E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="L17">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -14710,36 +14782,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.7937789351851854E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7747395833333335E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="10"/>
-        <v>1.7540682870370368E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="F18">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
-        <v>1.9186226851851851E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9119589120370371E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="11"/>
-        <v>1.9047511574074075E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="L18">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -14748,36 +14820,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>1.9609172453703702E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="12"/>
-        <v>1.9398379629629629E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="12"/>
-        <v>1.9171267361111112E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="F19">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
-        <v>2.1269675925925926E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="13"/>
-        <v>2.1125520833333335E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="13"/>
-        <v>2.0970486111111112E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="L19">
-        <v>1.175</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B09332-87BC-4217-AEA0-B5D173C28EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD628-CCD1-4F3D-8FF8-EA545EC089B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="244">
   <si>
     <t>50m Retten</t>
   </si>
@@ -924,16 +924,34 @@
     <t>Test</t>
   </si>
   <si>
-    <t>NK2 +17,5% Mäner</t>
-  </si>
-  <si>
-    <t>NK2 +17,5% Frauen</t>
-  </si>
-  <si>
     <t>NK1 + 10% Frauen</t>
   </si>
   <si>
     <t>NK1 + 10% Männer</t>
+  </si>
+  <si>
+    <t>NK1 Orginal M</t>
+  </si>
+  <si>
+    <t>NK1 Orginal W</t>
+  </si>
+  <si>
+    <t>&gt;2007</t>
+  </si>
+  <si>
+    <t>2004-2006</t>
+  </si>
+  <si>
+    <t>&lt;2006</t>
+  </si>
+  <si>
+    <t>NK1 % M</t>
+  </si>
+  <si>
+    <t>NK2 +22,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +22,5% Frauen</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1406,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4064,8 +4085,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X13" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X13" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X17" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X17" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13330,10 +13351,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13580,7 +13601,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>182</v>
@@ -13613,56 +13634,56 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4859953703703707E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>6.951388888888888E-4</v>
+        <v>7.096209490740741E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.6397858796296292E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>7.919444444444444E-4</v>
+        <v>8.0844328703703709E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9579166666666664E-3</v>
+        <v>1.9987065972222225E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8287094907407408E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.3944444444444445E-4</v>
+        <v>4.4859953703703707E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>6.951388888888888E-4</v>
+        <v>7.096209490740741E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.4430555555555544E-4</v>
+        <v>9.6397858796296292E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>7.919444444444444E-4</v>
+        <v>8.0844328703703709E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.9579166666666664E-3</v>
+        <v>1.9987065972222225E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.7913888888888886E-3</v>
+        <v>1.8287094907407408E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13695,56 +13716,56 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5356192129629631E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.0194444444444449E-4</v>
+        <v>7.1656828703703715E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.5805555555555553E-4</v>
+        <v>9.7801504629629649E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.0902777777777776E-4</v>
+        <v>8.2588252314814829E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0223842592592589E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8502604166666667E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.4430555555555553E-4</v>
+        <v>4.5356192129629631E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>7.0194444444444449E-4</v>
+        <v>7.1656828703703715E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.7801504629629649E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>8.0902777777777776E-4</v>
+        <v>8.2588252314814829E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>1.9811111111111106E-3</v>
+        <v>2.0223842592592589E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8124999999999999E-3</v>
+        <v>1.8502604166666667E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>182</v>
@@ -13777,56 +13798,56 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5795717592592589E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.0833333333333328E-4</v>
+        <v>7.2309027777777779E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.9105902777777799E-4</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.2472222222222224E-4</v>
+        <v>8.4190393518518533E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0443605324074075E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8319444444444444E-3</v>
+        <v>1.8701099537037039E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.4861111111111105E-4</v>
+        <v>4.5795717592592589E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>7.0833333333333328E-4</v>
+        <v>7.2309027777777779E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.7083333333333342E-4</v>
+        <v>9.9105902777777799E-4</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.2472222222222224E-4</v>
+        <v>8.4190393518518533E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>2.0026388888888889E-3</v>
+        <v>2.0443605324074075E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.8319444444444444E-3</v>
+        <v>1.8701099537037039E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>164</v>
@@ -13859,56 +13880,56 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.4361111111111114E-4</v>
+        <v>5.5493634259259266E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.1805555555555548E-4</v>
+        <v>8.3509837962962965E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.1063888888888887E-3</v>
+        <v>1.1294386574074073E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>9.0861111111111101E-4</v>
+        <v>9.2754050925925925E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.1416666666666663E-3</v>
+        <v>2.1862847222222223E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9452777777777775E-3</v>
+        <v>1.9858043981481484E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.4361111111111114E-4</v>
+        <v>5.5493634259259266E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>8.1805555555555548E-4</v>
+        <v>8.3509837962962965E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.1063888888888887E-3</v>
+        <v>1.1294386574074073E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>9.0861111111111101E-4</v>
+        <v>9.2754050925925925E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.1416666666666663E-3</v>
+        <v>2.1862847222222223E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.9858043981481484E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>164</v>
@@ -13941,56 +13962,56 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>5.6613715277777782E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.2736111111111118E-4</v>
+        <v>8.4459780092592605E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1262500000000001E-3</v>
+        <v>1.1497135416666669E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.2194444444444431E-4</v>
+        <v>9.411516203703703E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.1574999999999997E-3</v>
+        <v>2.2024479166666668E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9526388888888887E-3</v>
+        <v>1.9933188657407408E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.5458333333333336E-4</v>
+        <v>5.6613715277777782E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>8.2736111111111118E-4</v>
+        <v>8.4459780092592605E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.1497135416666669E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>9.2194444444444431E-4</v>
+        <v>9.411516203703703E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.1574999999999997E-3</v>
+        <v>2.2024479166666668E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.9933188657407408E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>164</v>
@@ -14023,51 +14044,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>5.7677083333333332E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>8.5338831018518522E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.1684288194444446E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.341666666666667E-4</v>
+        <v>9.5362847222222236E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>2.217476851851852E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>2.0002662037037038E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.6499999999999996E-4</v>
+        <v>5.7677083333333332E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.3597222222222222E-4</v>
+        <v>8.5338831018518522E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.1445833333333332E-3</v>
+        <v>1.1684288194444446E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>9.341666666666667E-4</v>
+        <v>9.5362847222222236E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.1722222222222221E-3</v>
+        <v>2.217476851851852E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>1.9594444444444442E-3</v>
+        <v>2.0002662037037038E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14228,16 +14249,16 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D12" s="59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="61">
         <v>45658</v>
@@ -14274,16 +14295,16 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="59" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="59">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="59">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E13" s="61">
         <v>45658</v>
@@ -14318,6 +14339,190 @@
       <c r="W13" s="62"/>
       <c r="X13" s="62"/>
     </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A14" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="59">
+        <v>23</v>
+      </c>
+      <c r="D14" s="59">
+        <v>50</v>
+      </c>
+      <c r="E14" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F14" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G14" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59">
+        <v>10</v>
+      </c>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A15" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="59">
+        <v>19</v>
+      </c>
+      <c r="D15" s="59">
+        <v>19</v>
+      </c>
+      <c r="E15" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F15" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G15" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59">
+        <v>10</v>
+      </c>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="59">
+        <v>20</v>
+      </c>
+      <c r="D16" s="59">
+        <v>22</v>
+      </c>
+      <c r="E16" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F16" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G16" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59">
+        <v>10</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="59">
+        <v>23</v>
+      </c>
+      <c r="D17" s="59">
+        <v>50</v>
+      </c>
+      <c r="E17" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F17" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G17" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59">
+        <v>10</v>
+      </c>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14328,27 +14533,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
-  <dimension ref="B3:Q37"/>
+  <dimension ref="B3:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="8" max="8" width="39.53125" customWidth="1"/>
+    <col min="17" max="17" width="31.46484375" customWidth="1"/>
+    <col min="23" max="23" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>229</v>
       </c>
       <c r="H3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
         <v>224</v>
       </c>
@@ -14373,8 +14586,32 @@
       <c r="K4" s="66">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q4" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="R4" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="X4" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y4" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z4" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
@@ -14401,16 +14638,33 @@
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
-      <c r="P5" s="68">
-        <f>(100-100/I5*J5)</f>
-        <v>1.8436578171091327</v>
-      </c>
-      <c r="Q5" s="68">
-        <f t="shared" ref="Q5:Q10" si="0">(100-100/J5*K5)</f>
-        <v>1.9784623090408218</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P5" s="68"/>
+      <c r="Q5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="65">
+        <v>3.7384259259259255E-4</v>
+      </c>
+      <c r="S5" s="65">
+        <v>3.7025462962962961E-4</v>
+      </c>
+      <c r="T5" s="65">
+        <v>3.6620370370370371E-4</v>
+      </c>
+      <c r="W5" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="65">
+        <v>4.708333333333333E-4</v>
+      </c>
+      <c r="Y5" s="65">
+        <v>4.621527777777778E-4</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>4.5300925925925928E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B6" s="64" t="s">
         <v>225</v>
       </c>
@@ -14437,16 +14691,33 @@
       </c>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
-      <c r="P6" s="68">
-        <f t="shared" ref="P6:P10" si="1">(100-100/I6*J6)</f>
-        <v>1.6017473607571873</v>
-      </c>
-      <c r="Q6" s="68">
-        <f t="shared" si="0"/>
-        <v>1.7634726846713704</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P6" s="68"/>
+      <c r="Q6" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="65">
+        <v>8.0902777777777787E-4</v>
+      </c>
+      <c r="S6" s="65">
+        <v>7.9837962962962968E-4</v>
+      </c>
+      <c r="T6" s="65">
+        <v>7.869212962962962E-4</v>
+      </c>
+      <c r="W6" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="X6" s="65">
+        <v>9.5381944444444442E-4</v>
+      </c>
+      <c r="Y6" s="65">
+        <v>9.3854166666666673E-4</v>
+      </c>
+      <c r="Z6" s="65">
+        <v>9.2199074074074069E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B7" s="64" t="s">
         <v>226</v>
       </c>
@@ -14473,16 +14744,33 @@
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
-      <c r="P7" s="68">
-        <f t="shared" si="1"/>
-        <v>1.0300714404386042</v>
-      </c>
-      <c r="Q7" s="68">
-        <f t="shared" si="0"/>
-        <v>1.1247272116837337</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P7" s="68"/>
+      <c r="Q7" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="R7" s="65">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="S7" s="65">
+        <v>5.8495370370370374E-4</v>
+      </c>
+      <c r="T7" s="65">
+        <v>5.7928240740740737E-4</v>
+      </c>
+      <c r="W7" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="X7" s="65">
+        <v>6.9664351851851853E-4</v>
+      </c>
+      <c r="Y7" s="65">
+        <v>6.8946759259259265E-4</v>
+      </c>
+      <c r="Z7" s="65">
+        <v>6.8171296296296296E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="64" t="s">
         <v>227</v>
       </c>
@@ -14509,16 +14797,33 @@
       </c>
       <c r="M8" s="67"/>
       <c r="N8" s="67"/>
-      <c r="P8" s="68">
-        <f t="shared" si="1"/>
-        <v>1.3083556348498604</v>
-      </c>
-      <c r="Q8" s="68">
-        <f t="shared" si="0"/>
-        <v>1.4462187405844986</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="R8" s="65">
+        <v>6.8726851851851859E-4</v>
+      </c>
+      <c r="S8" s="65">
+        <v>6.7418981481481486E-4</v>
+      </c>
+      <c r="T8" s="65">
+        <v>6.5995370370370372E-4</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="X8" s="65">
+        <v>7.7847222222222228E-4</v>
+      </c>
+      <c r="Y8" s="65">
+        <v>7.6828703703703694E-4</v>
+      </c>
+      <c r="Z8" s="65">
+        <v>7.571759259259259E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B9" s="64" t="s">
         <v>228</v>
       </c>
@@ -14545,16 +14850,33 @@
       </c>
       <c r="M9" s="67"/>
       <c r="N9" s="67"/>
-      <c r="P9" s="68">
-        <f t="shared" si="1"/>
-        <v>0.3473206691239028</v>
-      </c>
-      <c r="Q9" s="68">
-        <f t="shared" si="0"/>
-        <v>0.37698271569813357</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P9" s="68"/>
+      <c r="Q9" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="R9" s="65">
+        <v>1.5266203703703705E-3</v>
+      </c>
+      <c r="S9" s="65">
+        <v>1.5104166666666666E-3</v>
+      </c>
+      <c r="T9" s="65">
+        <v>1.4928240740740739E-3</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="X9" s="65">
+        <v>1.6328703703703702E-3</v>
+      </c>
+      <c r="Y9" s="65">
+        <v>1.6271990740740741E-3</v>
+      </c>
+      <c r="Z9" s="65">
+        <v>1.6210648148148148E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B10" s="64" t="s">
         <v>4</v>
       </c>
@@ -14581,24 +14903,47 @@
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
-      <c r="P10" s="68">
-        <f t="shared" si="1"/>
-        <v>0.67774936061381652</v>
-      </c>
-      <c r="Q10" s="68">
-        <f t="shared" si="0"/>
-        <v>0.73387408265740817</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="P10" s="68"/>
+      <c r="Q10" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="65">
+        <v>1.6688657407407407E-3</v>
+      </c>
+      <c r="S10" s="65">
+        <v>1.6509259259259257E-3</v>
+      </c>
+      <c r="T10" s="65">
+        <v>1.6315972222222222E-3</v>
+      </c>
+      <c r="W10" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="X10" s="65">
+        <v>1.8101851851851853E-3</v>
+      </c>
+      <c r="Y10" s="65">
+        <v>1.7979166666666666E-3</v>
+      </c>
+      <c r="Z10" s="65">
+        <v>1.784722222222222E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>232</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q12" t="s">
+        <v>241</v>
+      </c>
+      <c r="W12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B13" s="63" t="s">
         <v>224</v>
       </c>
@@ -14623,285 +14968,525 @@
       <c r="K13" s="66">
         <v>2008</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="Q13" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="R13" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="T13" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="W13" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="X13" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y13" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z13" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
+        <v>4.5795717592592589E-4</v>
+      </c>
+      <c r="D14" s="65">
+        <f t="shared" ref="D14:E14" si="0">D5*$F14</f>
+        <v>4.5356192129629631E-4</v>
+      </c>
+      <c r="E14" s="65">
+        <f t="shared" si="0"/>
+        <v>4.4859953703703707E-4</v>
+      </c>
+      <c r="F14">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="65">
+        <f>I5*$L14</f>
+        <v>5.7677083333333332E-4</v>
+      </c>
+      <c r="J14" s="65">
+        <f t="shared" ref="J14:K14" si="1">J5*$L14</f>
+        <v>5.6613715277777782E-4</v>
+      </c>
+      <c r="K14" s="65">
+        <f t="shared" si="1"/>
+        <v>5.5493634259259266E-4</v>
+      </c>
+      <c r="L14">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q14" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="65">
+        <f>R5*$U14</f>
         <v>4.4861111111111105E-4</v>
       </c>
-      <c r="D14" s="65">
-        <f t="shared" ref="D14:E14" si="2">D5*$F14</f>
+      <c r="S14" s="65">
+        <f t="shared" ref="S14:T14" si="2">S5*$U14</f>
         <v>4.4430555555555553E-4</v>
       </c>
-      <c r="E14" s="65">
+      <c r="T14" s="65">
         <f t="shared" si="2"/>
         <v>4.3944444444444445E-4</v>
       </c>
-      <c r="F14">
+      <c r="U14">
         <v>1.2</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="W14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="65">
-        <f>I5*$L14</f>
+      <c r="X14" s="65">
+        <f>X5*$AA14</f>
         <v>5.6499999999999996E-4</v>
       </c>
-      <c r="J14" s="65">
-        <f t="shared" ref="J14:K14" si="3">J5*$L14</f>
+      <c r="Y14" s="65">
+        <f t="shared" ref="Y14:Z14" si="3">Y5*$AA14</f>
         <v>5.5458333333333336E-4</v>
       </c>
-      <c r="K14" s="65">
+      <c r="Z14" s="65">
         <f t="shared" si="3"/>
         <v>5.4361111111111114E-4</v>
       </c>
-      <c r="L14">
+      <c r="AA14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.7083333333333342E-4</v>
+        <v>9.9105902777777799E-4</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.5805555555555553E-4</v>
+        <v>9.7801504629629649E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.4430555555555544E-4</v>
+        <v>9.6397858796296292E-4</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>1.1684288194444446E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1262500000000001E-3</v>
+        <v>1.1497135416666669E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
+        <v>1.1294386574074073E-3</v>
+      </c>
+      <c r="L15">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q15" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="R15" s="65">
+        <f t="shared" ref="R15:T15" si="6">R6*$U15</f>
+        <v>9.7083333333333342E-4</v>
+      </c>
+      <c r="S15" s="65">
+        <f t="shared" si="6"/>
+        <v>9.5805555555555553E-4</v>
+      </c>
+      <c r="T15" s="65">
+        <f t="shared" si="6"/>
+        <v>9.4430555555555544E-4</v>
+      </c>
+      <c r="U15">
+        <v>1.2</v>
+      </c>
+      <c r="W15" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="X15" s="65">
+        <f t="shared" ref="X15:Z15" si="7">X6*$AA15</f>
+        <v>1.1445833333333332E-3</v>
+      </c>
+      <c r="Y15" s="65">
+        <f t="shared" si="7"/>
+        <v>1.1262500000000001E-3</v>
+      </c>
+      <c r="Z15" s="65">
+        <f t="shared" si="7"/>
         <v>1.1063888888888887E-3</v>
       </c>
-      <c r="L15">
+      <c r="AA15">
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
-        <v>7.0833333333333328E-4</v>
+        <f t="shared" ref="C16:E16" si="8">C7*$F16</f>
+        <v>7.2309027777777779E-4</v>
       </c>
       <c r="D16" s="65">
-        <f t="shared" si="6"/>
-        <v>7.0194444444444449E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.1656828703703715E-4</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="6"/>
-        <v>6.951388888888888E-4</v>
+        <f t="shared" si="8"/>
+        <v>7.096209490740741E-4</v>
       </c>
       <c r="F16">
-        <v>1.2</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
+        <f t="shared" ref="I16:K16" si="9">I7*$L16</f>
+        <v>8.5338831018518522E-4</v>
+      </c>
+      <c r="J16" s="65">
+        <f t="shared" si="9"/>
+        <v>8.4459780092592605E-4</v>
+      </c>
+      <c r="K16" s="65">
+        <f t="shared" si="9"/>
+        <v>8.3509837962962965E-4</v>
+      </c>
+      <c r="L16">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="R16" s="65">
+        <f t="shared" ref="R16:T16" si="10">R7*$U16</f>
+        <v>7.0833333333333328E-4</v>
+      </c>
+      <c r="S16" s="65">
+        <f t="shared" si="10"/>
+        <v>7.0194444444444449E-4</v>
+      </c>
+      <c r="T16" s="65">
+        <f t="shared" si="10"/>
+        <v>6.951388888888888E-4</v>
+      </c>
+      <c r="U16">
+        <v>1.2</v>
+      </c>
+      <c r="W16" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="X16" s="65">
+        <f t="shared" ref="X16:Z16" si="11">X7*$AA16</f>
         <v>8.3597222222222222E-4</v>
       </c>
-      <c r="J16" s="65">
-        <f t="shared" si="7"/>
+      <c r="Y16" s="65">
+        <f t="shared" si="11"/>
         <v>8.2736111111111118E-4</v>
       </c>
-      <c r="K16" s="65">
-        <f t="shared" si="7"/>
+      <c r="Z16" s="65">
+        <f t="shared" si="11"/>
         <v>8.1805555555555548E-4</v>
       </c>
-      <c r="L16">
+      <c r="AA16">
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="8">C8*$F17</f>
-        <v>8.2472222222222224E-4</v>
+        <f t="shared" ref="C17:E17" si="12">C8*$F17</f>
+        <v>8.4190393518518533E-4</v>
       </c>
       <c r="D17" s="65">
-        <f t="shared" si="8"/>
-        <v>8.0902777777777776E-4</v>
+        <f t="shared" si="12"/>
+        <v>8.2588252314814829E-4</v>
       </c>
       <c r="E17" s="65">
-        <f t="shared" si="8"/>
-        <v>7.919444444444444E-4</v>
+        <f t="shared" si="12"/>
+        <v>8.0844328703703709E-4</v>
       </c>
       <c r="F17">
-        <v>1.2</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" ref="I17:K17" si="9">I8*$L17</f>
+        <f t="shared" ref="I17:K17" si="13">I8*$L17</f>
+        <v>9.5362847222222236E-4</v>
+      </c>
+      <c r="J17" s="65">
+        <f t="shared" si="13"/>
+        <v>9.411516203703703E-4</v>
+      </c>
+      <c r="K17" s="65">
+        <f t="shared" si="13"/>
+        <v>9.2754050925925925E-4</v>
+      </c>
+      <c r="L17">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q17" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="R17" s="65">
+        <f t="shared" ref="R17:T17" si="14">R8*$U17</f>
+        <v>8.2472222222222224E-4</v>
+      </c>
+      <c r="S17" s="65">
+        <f t="shared" si="14"/>
+        <v>8.0902777777777776E-4</v>
+      </c>
+      <c r="T17" s="65">
+        <f t="shared" si="14"/>
+        <v>7.919444444444444E-4</v>
+      </c>
+      <c r="U17">
+        <v>1.2</v>
+      </c>
+      <c r="W17" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="X17" s="65">
+        <f t="shared" ref="X17:Z17" si="15">X8*$AA17</f>
         <v>9.341666666666667E-4</v>
       </c>
-      <c r="J17" s="65">
-        <f t="shared" si="9"/>
+      <c r="Y17" s="65">
+        <f t="shared" si="15"/>
         <v>9.2194444444444431E-4</v>
       </c>
-      <c r="K17" s="65">
-        <f t="shared" si="9"/>
+      <c r="Z17" s="65">
+        <f t="shared" si="15"/>
         <v>9.0861111111111101E-4</v>
       </c>
-      <c r="L17">
+      <c r="AA17">
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="C18" s="65">
-        <f t="shared" ref="C18:E18" si="10">C9*$F18</f>
-        <v>1.8319444444444444E-3</v>
+        <f t="shared" ref="C18:E18" si="16">C9*$F18</f>
+        <v>1.8701099537037039E-3</v>
       </c>
       <c r="D18" s="65">
-        <f t="shared" si="10"/>
-        <v>1.8124999999999999E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.8502604166666667E-3</v>
       </c>
       <c r="E18" s="65">
-        <f t="shared" si="10"/>
-        <v>1.7913888888888886E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.8287094907407408E-3</v>
       </c>
       <c r="F18">
-        <v>1.2</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" ref="I18:K18" si="11">I9*$L18</f>
+        <f t="shared" ref="I18:K18" si="17">I9*$L18</f>
+        <v>2.0002662037037038E-3</v>
+      </c>
+      <c r="J18" s="65">
+        <f t="shared" si="17"/>
+        <v>1.9933188657407408E-3</v>
+      </c>
+      <c r="K18" s="65">
+        <f t="shared" si="17"/>
+        <v>1.9858043981481484E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q18" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="R18" s="65">
+        <f t="shared" ref="R18:T18" si="18">R9*$U18</f>
+        <v>1.8319444444444444E-3</v>
+      </c>
+      <c r="S18" s="65">
+        <f t="shared" si="18"/>
+        <v>1.8124999999999999E-3</v>
+      </c>
+      <c r="T18" s="65">
+        <f t="shared" si="18"/>
+        <v>1.7913888888888886E-3</v>
+      </c>
+      <c r="U18">
+        <v>1.2</v>
+      </c>
+      <c r="W18" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="X18" s="65">
+        <f t="shared" ref="X18:Z18" si="19">X9*$AA18</f>
         <v>1.9594444444444442E-3</v>
       </c>
-      <c r="J18" s="65">
-        <f t="shared" si="11"/>
+      <c r="Y18" s="65">
+        <f t="shared" si="19"/>
         <v>1.9526388888888887E-3</v>
       </c>
-      <c r="K18" s="65">
-        <f t="shared" si="11"/>
+      <c r="Z18" s="65">
+        <f t="shared" si="19"/>
         <v>1.9452777777777775E-3</v>
       </c>
-      <c r="L18">
+      <c r="AA18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="65">
-        <f t="shared" ref="C19:E19" si="12">C10*$F19</f>
-        <v>2.0026388888888889E-3</v>
+        <f t="shared" ref="C19:E19" si="20">C10*$F19</f>
+        <v>2.0443605324074075E-3</v>
       </c>
       <c r="D19" s="65">
-        <f t="shared" si="12"/>
-        <v>1.9811111111111106E-3</v>
+        <f t="shared" si="20"/>
+        <v>2.0223842592592589E-3</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" si="12"/>
-        <v>1.9579166666666664E-3</v>
+        <f t="shared" si="20"/>
+        <v>1.9987065972222225E-3</v>
       </c>
       <c r="F19">
-        <v>1.2</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" ref="I19:K19" si="13">I10*$L19</f>
+        <f t="shared" ref="I19:K19" si="21">I10*$L19</f>
+        <v>2.217476851851852E-3</v>
+      </c>
+      <c r="J19" s="65">
+        <f t="shared" si="21"/>
+        <v>2.2024479166666668E-3</v>
+      </c>
+      <c r="K19" s="65">
+        <f t="shared" si="21"/>
+        <v>2.1862847222222223E-3</v>
+      </c>
+      <c r="L19">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="65">
+        <f t="shared" ref="R19:T19" si="22">R10*$U19</f>
+        <v>2.0026388888888889E-3</v>
+      </c>
+      <c r="S19" s="65">
+        <f t="shared" si="22"/>
+        <v>1.9811111111111106E-3</v>
+      </c>
+      <c r="T19" s="65">
+        <f t="shared" si="22"/>
+        <v>1.9579166666666664E-3</v>
+      </c>
+      <c r="U19">
+        <v>1.2</v>
+      </c>
+      <c r="W19" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="X19" s="65">
+        <f t="shared" ref="X19:Z19" si="23">X10*$AA19</f>
         <v>2.1722222222222221E-3</v>
       </c>
-      <c r="J19" s="65">
-        <f t="shared" si="13"/>
+      <c r="Y19" s="65">
+        <f t="shared" si="23"/>
         <v>2.1574999999999997E-3</v>
       </c>
-      <c r="K19" s="65">
-        <f t="shared" si="13"/>
+      <c r="Z19" s="65">
+        <f t="shared" si="23"/>
         <v>2.1416666666666663E-3</v>
       </c>
-      <c r="L19">
+      <c r="AA19">
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B22" s="63"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B25" s="64"/>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B26" s="64"/>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B27" s="64"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B28" s="64"/>
       <c r="C28" s="65"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B31" s="63"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32" s="64"/>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD628-CCD1-4F3D-8FF8-EA545EC089B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE376AC5-BFB1-4E44-8FED-82C989ABBA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -948,10 +948,10 @@
     <t>NK1 % M</t>
   </si>
   <si>
-    <t>NK2 +22,5% Mäner</t>
-  </si>
-  <si>
-    <t>NK2 +22,5% Frauen</t>
+    <t>NK2 +25% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +25% Frauen</t>
   </si>
 </sst>
 </file>
@@ -1416,6 +1416,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,9 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8371,38 +8371,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -8567,35 +8567,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="H14" s="71" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="H14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="L14" s="71" t="s">
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="L14" s="72" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -9167,38 +9167,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -9363,35 +9363,35 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="H14" s="71" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="H14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="L14" s="71" t="s">
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="L14" s="72" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
@@ -13353,8 +13353,8 @@
   </sheetPr>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13634,51 +13634,51 @@
       </c>
       <c r="M4" s="62">
         <f>Tabelle1!E14</f>
-        <v>4.4859953703703707E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="N4" s="62">
         <f>Tabelle1!E16</f>
-        <v>7.096209490740741E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="O4" s="62">
         <f>Tabelle1!E15</f>
-        <v>9.6397858796296292E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="P4" s="62">
         <f>Tabelle1!E17</f>
-        <v>8.0844328703703709E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="Q4" s="62">
         <f>Tabelle1!E19</f>
-        <v>1.9987065972222225E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="R4" s="62">
         <f>Tabelle1!E18</f>
-        <v>1.8287094907407408E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="S4" s="62">
         <f>M4</f>
-        <v>4.4859953703703707E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="T4" s="62">
         <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>7.096209490740741E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="U4" s="62">
         <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.6397858796296292E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="V4" s="62">
         <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>8.0844328703703709E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="W4" s="62">
         <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>1.9987065972222225E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="X4" s="62">
         <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.8287094907407408E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
@@ -13716,51 +13716,51 @@
       </c>
       <c r="M5" s="62">
         <f>Tabelle1!D14</f>
-        <v>4.5356192129629631E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="N5" s="62">
         <f>Tabelle1!D16</f>
-        <v>7.1656828703703715E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="O5" s="62">
         <f>Tabelle1!D15</f>
-        <v>9.7801504629629649E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="P5" s="62">
         <f>Tabelle1!D17</f>
-        <v>8.2588252314814829E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="Q5" s="62">
         <f>Tabelle1!D19</f>
-        <v>2.0223842592592589E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="R5" s="62">
         <f>Tabelle1!D18</f>
-        <v>1.8502604166666667E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="S5" s="62">
         <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.5356192129629631E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="T5" s="62">
         <f t="shared" si="0"/>
-        <v>7.1656828703703715E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="U5" s="62">
         <f t="shared" si="1"/>
-        <v>9.7801504629629649E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="V5" s="62">
         <f t="shared" si="2"/>
-        <v>8.2588252314814829E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="W5" s="62">
         <f t="shared" si="3"/>
-        <v>2.0223842592592589E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="X5" s="62">
         <f t="shared" si="4"/>
-        <v>1.8502604166666667E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
@@ -13798,51 +13798,51 @@
       </c>
       <c r="M6" s="62">
         <f>Tabelle1!C14</f>
-        <v>4.5795717592592589E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="N6" s="62">
         <f>Tabelle1!C16</f>
-        <v>7.2309027777777779E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="O6" s="62">
         <f>Tabelle1!C15</f>
-        <v>9.9105902777777799E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="P6" s="62">
         <f>Tabelle1!C17</f>
-        <v>8.4190393518518533E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="Q6" s="62">
         <f>Tabelle1!C19</f>
-        <v>2.0443605324074075E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="R6" s="62">
         <f>Tabelle1!C18</f>
-        <v>1.8701099537037039E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="S6" s="62">
         <f t="shared" si="5"/>
-        <v>4.5795717592592589E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="T6" s="62">
         <f t="shared" si="0"/>
-        <v>7.2309027777777779E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="U6" s="62">
         <f t="shared" si="1"/>
-        <v>9.9105902777777799E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="V6" s="62">
         <f t="shared" si="2"/>
-        <v>8.4190393518518533E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="W6" s="62">
         <f t="shared" si="3"/>
-        <v>2.0443605324074075E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="X6" s="62">
         <f t="shared" si="4"/>
-        <v>1.8701099537037039E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
@@ -13880,51 +13880,51 @@
       </c>
       <c r="M7" s="62">
         <f>Tabelle1!K14</f>
-        <v>5.5493634259259266E-4</v>
+        <v>5.6626157407407406E-4</v>
       </c>
       <c r="N7" s="62">
         <f>Tabelle1!K16</f>
-        <v>8.3509837962962965E-4</v>
+        <v>8.521412037037037E-4</v>
       </c>
       <c r="O7" s="62">
         <f>Tabelle1!K15</f>
-        <v>1.1294386574074073E-3</v>
+        <v>1.1524884259259259E-3</v>
       </c>
       <c r="P7" s="62">
         <f>Tabelle1!K17</f>
-        <v>9.2754050925925925E-4</v>
+        <v>9.4646990740740737E-4</v>
       </c>
       <c r="Q7" s="62">
         <f>Tabelle1!K19</f>
-        <v>2.1862847222222223E-3</v>
+        <v>2.2309027777777774E-3</v>
       </c>
       <c r="R7" s="62">
         <f>Tabelle1!K18</f>
-        <v>1.9858043981481484E-3</v>
+        <v>2.0263310185185185E-3</v>
       </c>
       <c r="S7" s="62">
         <f t="shared" si="5"/>
-        <v>5.5493634259259266E-4</v>
+        <v>5.6626157407407406E-4</v>
       </c>
       <c r="T7" s="62">
         <f t="shared" si="0"/>
-        <v>8.3509837962962965E-4</v>
+        <v>8.521412037037037E-4</v>
       </c>
       <c r="U7" s="62">
         <f t="shared" si="1"/>
-        <v>1.1294386574074073E-3</v>
+        <v>1.1524884259259259E-3</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" si="2"/>
-        <v>9.2754050925925925E-4</v>
+        <v>9.4646990740740737E-4</v>
       </c>
       <c r="W7" s="62">
         <f t="shared" si="3"/>
-        <v>2.1862847222222223E-3</v>
+        <v>2.2309027777777774E-3</v>
       </c>
       <c r="X7" s="62">
         <f t="shared" si="4"/>
-        <v>1.9858043981481484E-3</v>
+        <v>2.0263310185185185E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
@@ -13962,51 +13962,51 @@
       </c>
       <c r="M8" s="62">
         <f>Tabelle1!J14</f>
-        <v>5.6613715277777782E-4</v>
+        <v>5.7769097222222228E-4</v>
       </c>
       <c r="N8" s="62">
         <f>Tabelle1!J16</f>
-        <v>8.4459780092592605E-4</v>
+        <v>8.6183449074074081E-4</v>
       </c>
       <c r="O8" s="62">
         <f>Tabelle1!J15</f>
-        <v>1.1497135416666669E-3</v>
+        <v>1.1731770833333334E-3</v>
       </c>
       <c r="P8" s="62">
         <f>Tabelle1!J17</f>
-        <v>9.411516203703703E-4</v>
+        <v>9.6035879629629618E-4</v>
       </c>
       <c r="Q8" s="62">
         <f>Tabelle1!J19</f>
-        <v>2.2024479166666668E-3</v>
+        <v>2.2473958333333335E-3</v>
       </c>
       <c r="R8" s="62">
         <f>Tabelle1!J18</f>
-        <v>1.9933188657407408E-3</v>
+        <v>2.0339988425925925E-3</v>
       </c>
       <c r="S8" s="62">
         <f t="shared" si="5"/>
-        <v>5.6613715277777782E-4</v>
+        <v>5.7769097222222228E-4</v>
       </c>
       <c r="T8" s="62">
         <f t="shared" si="0"/>
-        <v>8.4459780092592605E-4</v>
+        <v>8.6183449074074081E-4</v>
       </c>
       <c r="U8" s="62">
         <f t="shared" si="1"/>
-        <v>1.1497135416666669E-3</v>
+        <v>1.1731770833333334E-3</v>
       </c>
       <c r="V8" s="62">
         <f t="shared" si="2"/>
-        <v>9.411516203703703E-4</v>
+        <v>9.6035879629629618E-4</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="3"/>
-        <v>2.2024479166666668E-3</v>
+        <v>2.2473958333333335E-3</v>
       </c>
       <c r="X8" s="62">
         <f t="shared" si="4"/>
-        <v>1.9933188657407408E-3</v>
+        <v>2.0339988425925925E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
@@ -14044,51 +14044,51 @@
       </c>
       <c r="M9" s="62">
         <f>Tabelle1!I14</f>
-        <v>5.7677083333333332E-4</v>
+        <v>5.8854166666666668E-4</v>
       </c>
       <c r="N9" s="62">
         <f>Tabelle1!I16</f>
-        <v>8.5338831018518522E-4</v>
+        <v>8.7080439814814811E-4</v>
       </c>
       <c r="O9" s="62">
         <f>Tabelle1!I15</f>
-        <v>1.1684288194444446E-3</v>
+        <v>1.1922743055555556E-3</v>
       </c>
       <c r="P9" s="62">
         <f>Tabelle1!I17</f>
-        <v>9.5362847222222236E-4</v>
+        <v>9.730902777777778E-4</v>
       </c>
       <c r="Q9" s="62">
         <f>Tabelle1!I19</f>
-        <v>2.217476851851852E-3</v>
+        <v>2.2627314814814815E-3</v>
       </c>
       <c r="R9" s="62">
         <f>Tabelle1!I18</f>
-        <v>2.0002662037037038E-3</v>
+        <v>2.0410879629629629E-3</v>
       </c>
       <c r="S9" s="62">
         <f t="shared" si="5"/>
-        <v>5.7677083333333332E-4</v>
+        <v>5.8854166666666668E-4</v>
       </c>
       <c r="T9" s="62">
         <f t="shared" si="0"/>
-        <v>8.5338831018518522E-4</v>
+        <v>8.7080439814814811E-4</v>
       </c>
       <c r="U9" s="62">
         <f t="shared" si="1"/>
-        <v>1.1684288194444446E-3</v>
+        <v>1.1922743055555556E-3</v>
       </c>
       <c r="V9" s="62">
         <f t="shared" si="2"/>
-        <v>9.5362847222222236E-4</v>
+        <v>9.730902777777778E-4</v>
       </c>
       <c r="W9" s="62">
         <f t="shared" si="3"/>
-        <v>2.217476851851852E-3</v>
+        <v>2.2627314814814815E-3</v>
       </c>
       <c r="X9" s="62">
         <f t="shared" si="4"/>
-        <v>2.0002662037037038E-3</v>
+        <v>2.0410879629629629E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
@@ -14535,7 +14535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -14589,25 +14589,25 @@
       <c r="Q4" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="T4" s="72" t="s">
+      <c r="T4" s="69" t="s">
         <v>240</v>
       </c>
       <c r="W4" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="X4" s="72" t="s">
+      <c r="X4" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="Y4" s="72" t="s">
+      <c r="Y4" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="Z4" s="72" t="s">
+      <c r="Z4" s="69" t="s">
         <v>240</v>
       </c>
     </row>
@@ -14971,25 +14971,25 @@
       <c r="Q13" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="R13" s="72" t="s">
+      <c r="R13" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="S13" s="72" t="s">
+      <c r="S13" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="T13" s="72" t="s">
+      <c r="T13" s="69" t="s">
         <v>240</v>
       </c>
       <c r="W13" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="X13" s="72" t="s">
+      <c r="X13" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="Y13" s="72" t="s">
+      <c r="Y13" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="Z13" s="72" t="s">
+      <c r="Z13" s="69" t="s">
         <v>240</v>
       </c>
     </row>
@@ -14999,36 +14999,36 @@
       </c>
       <c r="C14" s="65">
         <f>C5*$F14</f>
-        <v>4.5795717592592589E-4</v>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="D14" s="65">
         <f t="shared" ref="D14:E14" si="0">D5*$F14</f>
-        <v>4.5356192129629631E-4</v>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="E14" s="65">
         <f t="shared" si="0"/>
-        <v>4.4859953703703707E-4</v>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="F14">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="65">
         <f>I5*$L14</f>
-        <v>5.7677083333333332E-4</v>
+        <v>5.8854166666666668E-4</v>
       </c>
       <c r="J14" s="65">
         <f t="shared" ref="J14:K14" si="1">J5*$L14</f>
-        <v>5.6613715277777782E-4</v>
+        <v>5.7769097222222228E-4</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>5.5493634259259266E-4</v>
+        <v>5.6626157407407406E-4</v>
       </c>
       <c r="L14">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" s="64" t="s">
         <v>0</v>
@@ -15073,36 +15073,36 @@
       </c>
       <c r="C15" s="65">
         <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
-        <v>9.9105902777777799E-4</v>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="D15" s="65">
         <f t="shared" si="4"/>
-        <v>9.7801504629629649E-4</v>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="E15" s="65">
         <f t="shared" si="4"/>
-        <v>9.6397858796296292E-4</v>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="F15">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H15" s="64" t="s">
         <v>225</v>
       </c>
       <c r="I15" s="65">
         <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
-        <v>1.1684288194444446E-3</v>
+        <v>1.1922743055555556E-3</v>
       </c>
       <c r="J15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1497135416666669E-3</v>
+        <v>1.1731770833333334E-3</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="5"/>
-        <v>1.1294386574074073E-3</v>
+        <v>1.1524884259259259E-3</v>
       </c>
       <c r="L15">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" s="64" t="s">
         <v>225</v>
@@ -15147,36 +15147,36 @@
       </c>
       <c r="C16" s="65">
         <f t="shared" ref="C16:E16" si="8">C7*$F16</f>
-        <v>7.2309027777777779E-4</v>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="D16" s="65">
         <f t="shared" si="8"/>
-        <v>7.1656828703703715E-4</v>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="E16" s="65">
         <f t="shared" si="8"/>
-        <v>7.096209490740741E-4</v>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="F16">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H16" s="64" t="s">
         <v>226</v>
       </c>
       <c r="I16" s="65">
         <f t="shared" ref="I16:K16" si="9">I7*$L16</f>
-        <v>8.5338831018518522E-4</v>
+        <v>8.7080439814814811E-4</v>
       </c>
       <c r="J16" s="65">
         <f t="shared" si="9"/>
-        <v>8.4459780092592605E-4</v>
+        <v>8.6183449074074081E-4</v>
       </c>
       <c r="K16" s="65">
         <f t="shared" si="9"/>
-        <v>8.3509837962962965E-4</v>
+        <v>8.521412037037037E-4</v>
       </c>
       <c r="L16">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" s="64" t="s">
         <v>226</v>
@@ -15221,36 +15221,36 @@
       </c>
       <c r="C17" s="65">
         <f t="shared" ref="C17:E17" si="12">C8*$F17</f>
-        <v>8.4190393518518533E-4</v>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="D17" s="65">
         <f t="shared" si="12"/>
-        <v>8.2588252314814829E-4</v>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="E17" s="65">
         <f t="shared" si="12"/>
-        <v>8.0844328703703709E-4</v>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="F17">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H17" s="64" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="65">
         <f t="shared" ref="I17:K17" si="13">I8*$L17</f>
-        <v>9.5362847222222236E-4</v>
+        <v>9.730902777777778E-4</v>
       </c>
       <c r="J17" s="65">
         <f t="shared" si="13"/>
-        <v>9.411516203703703E-4</v>
+        <v>9.6035879629629618E-4</v>
       </c>
       <c r="K17" s="65">
         <f t="shared" si="13"/>
-        <v>9.2754050925925925E-4</v>
+        <v>9.4646990740740737E-4</v>
       </c>
       <c r="L17">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" s="64" t="s">
         <v>227</v>
@@ -15295,36 +15295,36 @@
       </c>
       <c r="C18" s="65">
         <f t="shared" ref="C18:E18" si="16">C9*$F18</f>
-        <v>1.8701099537037039E-3</v>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="D18" s="65">
         <f t="shared" si="16"/>
-        <v>1.8502604166666667E-3</v>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="E18" s="65">
         <f t="shared" si="16"/>
-        <v>1.8287094907407408E-3</v>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="F18">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H18" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="65">
         <f t="shared" ref="I18:K18" si="17">I9*$L18</f>
-        <v>2.0002662037037038E-3</v>
+        <v>2.0410879629629629E-3</v>
       </c>
       <c r="J18" s="65">
         <f t="shared" si="17"/>
-        <v>1.9933188657407408E-3</v>
+        <v>2.0339988425925925E-3</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="17"/>
-        <v>1.9858043981481484E-3</v>
+        <v>2.0263310185185185E-3</v>
       </c>
       <c r="L18">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" s="64" t="s">
         <v>228</v>
@@ -15369,36 +15369,36 @@
       </c>
       <c r="C19" s="65">
         <f t="shared" ref="C19:E19" si="20">C10*$F19</f>
-        <v>2.0443605324074075E-3</v>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="D19" s="65">
         <f t="shared" si="20"/>
-        <v>2.0223842592592589E-3</v>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="E19" s="65">
         <f t="shared" si="20"/>
-        <v>1.9987065972222225E-3</v>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="F19">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="65">
         <f t="shared" ref="I19:K19" si="21">I10*$L19</f>
-        <v>2.217476851851852E-3</v>
+        <v>2.2627314814814815E-3</v>
       </c>
       <c r="J19" s="65">
         <f t="shared" si="21"/>
-        <v>2.2024479166666668E-3</v>
+        <v>2.2473958333333335E-3</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="21"/>
-        <v>2.1862847222222223E-3</v>
+        <v>2.2309027777777774E-3</v>
       </c>
       <c r="L19">
-        <v>1.2250000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" s="64" t="s">
         <v>4</v>
@@ -15759,38 +15759,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
@@ -15955,38 +15955,38 @@
       <c r="N11" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14"/>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="L14" s="71" t="s">
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="L14" s="72" t="s">
         <v>36</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE376AC5-BFB1-4E44-8FED-82C989ABBA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D496192-406E-4881-84E5-0AC548C3A637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="258">
   <si>
     <t>50m Retten</t>
   </si>
@@ -952,6 +952,48 @@
   </si>
   <si>
     <t>NK2 +25% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +27,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +27,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +30% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +30% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +22,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +22,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +20% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +20% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +17,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +17,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +15% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +15% Frauen</t>
+  </si>
+  <si>
+    <t>NK2 +12,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK2 +12,5% Frauen</t>
   </si>
 </sst>
 </file>
@@ -4085,8 +4127,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X17" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X17" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X62" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X62" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -13351,10 +13393,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="J32" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13600,257 +13642,89 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="59">
-        <v>18</v>
-      </c>
-      <c r="D4" s="59">
-        <v>18</v>
-      </c>
-      <c r="E4" s="61">
-        <v>45658</v>
-      </c>
-      <c r="F4" s="61">
-        <v>46023</v>
-      </c>
-      <c r="G4" s="61">
-        <v>45658</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>180</v>
-      </c>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
-      <c r="L4" s="59">
-        <v>10</v>
-      </c>
-      <c r="M4" s="62">
-        <f>Tabelle1!E14</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="N4" s="62">
-        <f>Tabelle1!E16</f>
-        <v>7.2410300925925919E-4</v>
-      </c>
-      <c r="O4" s="62">
-        <f>Tabelle1!E15</f>
-        <v>9.8365162037037019E-4</v>
-      </c>
-      <c r="P4" s="62">
-        <f>Tabelle1!E17</f>
-        <v>8.2494212962962968E-4</v>
-      </c>
-      <c r="Q4" s="62">
-        <f>Tabelle1!E19</f>
-        <v>2.0394965277777777E-3</v>
-      </c>
-      <c r="R4" s="62">
-        <f>Tabelle1!E18</f>
-        <v>1.8660300925925923E-3</v>
-      </c>
-      <c r="S4" s="62">
-        <f>M4</f>
-        <v>4.5775462962962962E-4</v>
-      </c>
-      <c r="T4" s="62">
-        <f t="shared" ref="T4:T9" si="0">N4</f>
-        <v>7.2410300925925919E-4</v>
-      </c>
-      <c r="U4" s="62">
-        <f t="shared" ref="U4:U9" si="1">O4</f>
-        <v>9.8365162037037019E-4</v>
-      </c>
-      <c r="V4" s="62">
-        <f t="shared" ref="V4:V9" si="2">P4</f>
-        <v>8.2494212962962968E-4</v>
-      </c>
-      <c r="W4" s="62">
-        <f t="shared" ref="W4:W9" si="3">Q4</f>
-        <v>2.0394965277777777E-3</v>
-      </c>
-      <c r="X4" s="62">
-        <f t="shared" ref="X4:X9" si="4">R4</f>
-        <v>1.8660300925925923E-3</v>
-      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="59">
-        <v>17</v>
-      </c>
-      <c r="D5" s="59">
-        <v>17</v>
-      </c>
-      <c r="E5" s="61">
-        <v>45658</v>
-      </c>
-      <c r="F5" s="61">
-        <v>46023</v>
-      </c>
-      <c r="G5" s="61">
-        <v>45658</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>180</v>
-      </c>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
-      <c r="L5" s="59">
-        <v>10</v>
-      </c>
-      <c r="M5" s="62">
-        <f>Tabelle1!D14</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="N5" s="62">
-        <f>Tabelle1!D16</f>
-        <v>7.311921296296297E-4</v>
-      </c>
-      <c r="O5" s="62">
-        <f>Tabelle1!D15</f>
-        <v>9.9797453703703702E-4</v>
-      </c>
-      <c r="P5" s="62">
-        <f>Tabelle1!D17</f>
-        <v>8.427372685185186E-4</v>
-      </c>
-      <c r="Q5" s="62">
-        <f>Tabelle1!D19</f>
-        <v>2.0636574074074073E-3</v>
-      </c>
-      <c r="R5" s="62">
-        <f>Tabelle1!D18</f>
-        <v>1.8880208333333333E-3</v>
-      </c>
-      <c r="S5" s="62">
-        <f t="shared" ref="S5:S9" si="5">M5</f>
-        <v>4.6281828703703703E-4</v>
-      </c>
-      <c r="T5" s="62">
-        <f t="shared" si="0"/>
-        <v>7.311921296296297E-4</v>
-      </c>
-      <c r="U5" s="62">
-        <f t="shared" si="1"/>
-        <v>9.9797453703703702E-4</v>
-      </c>
-      <c r="V5" s="62">
-        <f t="shared" si="2"/>
-        <v>8.427372685185186E-4</v>
-      </c>
-      <c r="W5" s="62">
-        <f t="shared" si="3"/>
-        <v>2.0636574074074073E-3</v>
-      </c>
-      <c r="X5" s="62">
-        <f t="shared" si="4"/>
-        <v>1.8880208333333333E-3</v>
-      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="59">
-        <v>12</v>
-      </c>
-      <c r="D6" s="59">
-        <v>16</v>
-      </c>
-      <c r="E6" s="61">
-        <v>45658</v>
-      </c>
-      <c r="F6" s="61">
-        <v>46023</v>
-      </c>
-      <c r="G6" s="61">
-        <v>45658</v>
-      </c>
-      <c r="H6" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>180</v>
-      </c>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="59">
-        <v>10</v>
-      </c>
-      <c r="M6" s="62">
-        <f>Tabelle1!C14</f>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="N6" s="62">
-        <f>Tabelle1!C16</f>
-        <v>7.378472222222222E-4</v>
-      </c>
-      <c r="O6" s="62">
-        <f>Tabelle1!C15</f>
-        <v>1.0112847222222224E-3</v>
-      </c>
-      <c r="P6" s="62">
-        <f>Tabelle1!C17</f>
-        <v>8.5908564814814821E-4</v>
-      </c>
-      <c r="Q6" s="62">
-        <f>Tabelle1!C19</f>
-        <v>2.0860821759259261E-3</v>
-      </c>
-      <c r="R6" s="62">
-        <f>Tabelle1!C18</f>
-        <v>1.9082754629629632E-3</v>
-      </c>
-      <c r="S6" s="62">
-        <f t="shared" si="5"/>
-        <v>4.6730324074074068E-4</v>
-      </c>
-      <c r="T6" s="62">
-        <f t="shared" si="0"/>
-        <v>7.378472222222222E-4</v>
-      </c>
-      <c r="U6" s="62">
-        <f t="shared" si="1"/>
-        <v>1.0112847222222224E-3</v>
-      </c>
-      <c r="V6" s="62">
-        <f t="shared" si="2"/>
-        <v>8.5908564814814821E-4</v>
-      </c>
-      <c r="W6" s="62">
-        <f t="shared" si="3"/>
-        <v>2.0860821759259261E-3</v>
-      </c>
-      <c r="X6" s="62">
-        <f t="shared" si="4"/>
-        <v>1.9082754629629632E-3</v>
-      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C7" s="59">
         <v>18</v>
@@ -13879,60 +13753,48 @@
         <v>10</v>
       </c>
       <c r="M7" s="62">
-        <f>Tabelle1!K14</f>
-        <v>5.6626157407407406E-4</v>
+        <v>4.1197916666666667E-4</v>
       </c>
       <c r="N7" s="62">
-        <f>Tabelle1!K16</f>
-        <v>8.521412037037037E-4</v>
+        <v>6.5169270833333333E-4</v>
       </c>
       <c r="O7" s="62">
-        <f>Tabelle1!K15</f>
-        <v>1.1524884259259259E-3</v>
+        <v>8.8528645833333319E-4</v>
       </c>
       <c r="P7" s="62">
-        <f>Tabelle1!K17</f>
-        <v>9.4646990740740737E-4</v>
+        <v>7.4244791666666665E-4</v>
       </c>
       <c r="Q7" s="62">
-        <f>Tabelle1!K19</f>
-        <v>2.2309027777777774E-3</v>
+        <v>1.8355468749999999E-3</v>
       </c>
       <c r="R7" s="62">
-        <f>Tabelle1!K18</f>
-        <v>2.0263310185185185E-3</v>
+        <v>1.6794270833333331E-3</v>
       </c>
       <c r="S7" s="62">
-        <f t="shared" si="5"/>
-        <v>5.6626157407407406E-4</v>
+        <v>4.1197916666666667E-4</v>
       </c>
       <c r="T7" s="62">
-        <f t="shared" si="0"/>
-        <v>8.521412037037037E-4</v>
+        <v>6.5169270833333333E-4</v>
       </c>
       <c r="U7" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1524884259259259E-3</v>
+        <v>8.8528645833333319E-4</v>
       </c>
       <c r="V7" s="62">
-        <f t="shared" si="2"/>
-        <v>9.4646990740740737E-4</v>
+        <v>7.4244791666666665E-4</v>
       </c>
       <c r="W7" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2309027777777774E-3</v>
+        <v>1.8355468749999999E-3</v>
       </c>
       <c r="X7" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0263310185185185E-3</v>
+        <v>1.6794270833333331E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C8" s="59">
         <v>17</v>
@@ -13961,60 +13823,48 @@
         <v>10</v>
       </c>
       <c r="M8" s="62">
-        <f>Tabelle1!J14</f>
-        <v>5.7769097222222228E-4</v>
+        <v>4.1653645833333332E-4</v>
       </c>
       <c r="N8" s="62">
-        <f>Tabelle1!J16</f>
-        <v>8.6183449074074081E-4</v>
+        <v>6.5807291666666672E-4</v>
       </c>
       <c r="O8" s="62">
-        <f>Tabelle1!J15</f>
-        <v>1.1731770833333334E-3</v>
+        <v>8.981770833333334E-4</v>
       </c>
       <c r="P8" s="62">
-        <f>Tabelle1!J17</f>
-        <v>9.6035879629629618E-4</v>
+        <v>7.5846354166666673E-4</v>
       </c>
       <c r="Q8" s="62">
-        <f>Tabelle1!J19</f>
-        <v>2.2473958333333335E-3</v>
+        <v>1.8572916666666664E-3</v>
       </c>
       <c r="R8" s="62">
-        <f>Tabelle1!J18</f>
-        <v>2.0339988425925925E-3</v>
+        <v>1.69921875E-3</v>
       </c>
       <c r="S8" s="62">
-        <f t="shared" si="5"/>
-        <v>5.7769097222222228E-4</v>
+        <v>4.1653645833333332E-4</v>
       </c>
       <c r="T8" s="62">
-        <f t="shared" si="0"/>
-        <v>8.6183449074074081E-4</v>
+        <v>6.5807291666666672E-4</v>
       </c>
       <c r="U8" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1731770833333334E-3</v>
+        <v>8.981770833333334E-4</v>
       </c>
       <c r="V8" s="62">
-        <f t="shared" si="2"/>
-        <v>9.6035879629629618E-4</v>
+        <v>7.5846354166666673E-4</v>
       </c>
       <c r="W8" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2473958333333335E-3</v>
+        <v>1.8572916666666664E-3</v>
       </c>
       <c r="X8" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0339988425925925E-3</v>
+        <v>1.69921875E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C9" s="59">
         <v>12</v>
@@ -14043,63 +13893,51 @@
         <v>10</v>
       </c>
       <c r="M9" s="62">
-        <f>Tabelle1!I14</f>
-        <v>5.8854166666666668E-4</v>
+        <v>4.2057291666666664E-4</v>
       </c>
       <c r="N9" s="62">
-        <f>Tabelle1!I16</f>
-        <v>8.7080439814814811E-4</v>
+        <v>6.6406250000000005E-4</v>
       </c>
       <c r="O9" s="62">
-        <f>Tabelle1!I15</f>
-        <v>1.1922743055555556E-3</v>
+        <v>9.1015625000000016E-4</v>
       </c>
       <c r="P9" s="62">
-        <f>Tabelle1!I17</f>
-        <v>9.730902777777778E-4</v>
+        <v>7.731770833333334E-4</v>
       </c>
       <c r="Q9" s="62">
-        <f>Tabelle1!I19</f>
-        <v>2.2627314814814815E-3</v>
+        <v>1.8774739583333334E-3</v>
       </c>
       <c r="R9" s="62">
-        <f>Tabelle1!I18</f>
-        <v>2.0410879629629629E-3</v>
+        <v>1.7174479166666668E-3</v>
       </c>
       <c r="S9" s="62">
-        <f t="shared" si="5"/>
-        <v>5.8854166666666668E-4</v>
+        <v>4.2057291666666664E-4</v>
       </c>
       <c r="T9" s="62">
-        <f t="shared" si="0"/>
-        <v>8.7080439814814811E-4</v>
+        <v>6.6406250000000005E-4</v>
       </c>
       <c r="U9" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1922743055555556E-3</v>
+        <v>9.1015625000000016E-4</v>
       </c>
       <c r="V9" s="62">
-        <f t="shared" si="2"/>
-        <v>9.730902777777778E-4</v>
+        <v>7.731770833333334E-4</v>
       </c>
       <c r="W9" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2627314814814815E-3</v>
+        <v>1.8774739583333334E-3</v>
       </c>
       <c r="X9" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0410879629629629E-3</v>
+        <v>1.7174479166666668E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="59" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C10" s="59">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" s="59">
         <v>18</v>
@@ -14108,7 +13946,7 @@
         <v>45658</v>
       </c>
       <c r="F10" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G10" s="61">
         <v>45658</v>
@@ -14117,70 +13955,68 @@
         <v>178</v>
       </c>
       <c r="I10" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J10" s="59">
-        <v>25</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J10" s="59"/>
       <c r="K10" s="59"/>
       <c r="L10" s="59">
         <v>10</v>
       </c>
       <c r="M10" s="62">
-        <v>4.6817129629629634E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="N10" s="62">
-        <v>7.4872685185185188E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="O10" s="62">
-        <v>9.9224537037037033E-4</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="P10" s="62">
-        <v>7.8888888888888889E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="Q10" s="62">
-        <v>1.9605324074074074E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="R10" s="62">
-        <v>1.7837962962962963E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
       <c r="S10" s="62">
-        <v>4.803240740740741E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="T10" s="62">
-        <v>7.8599537037037039E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="U10" s="62">
-        <v>1.0240740740740742E-3</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="V10" s="62">
-        <v>8.2766203703703712E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="W10" s="62">
-        <v>2.0114583333333334E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="X10" s="62">
-        <v>1.8332175925925925E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="59" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C11" s="59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="61">
         <v>45658</v>
       </c>
       <c r="F11" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G11" s="61">
         <v>45658</v>
@@ -14189,82 +14025,68 @@
         <v>178</v>
       </c>
       <c r="I11" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="59">
-        <v>50</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J11" s="59"/>
       <c r="K11" s="59"/>
       <c r="L11" s="59">
         <v>10</v>
       </c>
       <c r="M11" s="62">
-        <f>M10*1.1</f>
-        <v>5.1498842592592601E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="N11" s="62">
-        <f t="shared" ref="N11:X11" si="6">N10*1.1</f>
-        <v>8.2359953703703718E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="O11" s="62">
-        <f t="shared" si="6"/>
-        <v>1.0914699074074075E-3</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="P11" s="62">
-        <f t="shared" si="6"/>
-        <v>8.6777777777777786E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="Q11" s="62">
-        <f t="shared" si="6"/>
-        <v>2.1565856481481484E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="R11" s="62">
-        <f t="shared" si="6"/>
-        <v>1.9621759259259262E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
       <c r="S11" s="62">
-        <f t="shared" si="6"/>
-        <v>5.2835648148148154E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="T11" s="62">
-        <f t="shared" si="6"/>
-        <v>8.6459490740740746E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="U11" s="62">
-        <f t="shared" si="6"/>
-        <v>1.1264814814814818E-3</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="V11" s="62">
-        <f t="shared" si="6"/>
-        <v>9.1042824074074095E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="W11" s="62">
-        <f t="shared" si="6"/>
-        <v>2.212604166666667E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="X11" s="62">
-        <f t="shared" si="6"/>
-        <v>2.0165393518518518E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12" s="59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="61">
         <v>45658</v>
       </c>
       <c r="F12" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G12" s="61">
         <v>45658</v>
@@ -14280,37 +14102,61 @@
       <c r="L12" s="59">
         <v>10</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
+      <c r="M12" s="62">
+        <v>5.2968749999999999E-4</v>
+      </c>
+      <c r="N12" s="62">
+        <v>7.8372395833333332E-4</v>
+      </c>
+      <c r="O12" s="62">
+        <v>1.073046875E-3</v>
+      </c>
+      <c r="P12" s="62">
+        <v>8.7578125000000004E-4</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>2.0364583333333333E-3</v>
+      </c>
+      <c r="R12" s="62">
+        <v>1.8369791666666664E-3</v>
+      </c>
+      <c r="S12" s="62">
+        <v>5.2968749999999999E-4</v>
+      </c>
+      <c r="T12" s="62">
+        <v>7.8372395833333332E-4</v>
+      </c>
+      <c r="U12" s="62">
+        <v>1.073046875E-3</v>
+      </c>
+      <c r="V12" s="62">
+        <v>8.7578125000000004E-4</v>
+      </c>
+      <c r="W12" s="62">
+        <v>2.0364583333333333E-3</v>
+      </c>
+      <c r="X12" s="62">
+        <v>1.8369791666666664E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="59" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C13" s="59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E13" s="61">
         <v>45658</v>
       </c>
       <c r="F13" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G13" s="61">
         <v>45658</v>
@@ -14326,37 +14172,61 @@
       <c r="L13" s="59">
         <v>10</v>
       </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
+      <c r="M13" s="62">
+        <v>4.2113425925925923E-4</v>
+      </c>
+      <c r="N13" s="62">
+        <v>6.6617476851851842E-4</v>
+      </c>
+      <c r="O13" s="62">
+        <v>9.0495949074074057E-4</v>
+      </c>
+      <c r="P13" s="62">
+        <v>7.5894675925925923E-4</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>1.8763368055555554E-3</v>
+      </c>
+      <c r="R13" s="62">
+        <v>1.7167476851851849E-3</v>
+      </c>
+      <c r="S13" s="62">
+        <v>4.2113425925925923E-4</v>
+      </c>
+      <c r="T13" s="62">
+        <v>6.6617476851851842E-4</v>
+      </c>
+      <c r="U13" s="62">
+        <v>9.0495949074074057E-4</v>
+      </c>
+      <c r="V13" s="62">
+        <v>7.5894675925925923E-4</v>
+      </c>
+      <c r="W13" s="62">
+        <v>1.8763368055555554E-3</v>
+      </c>
+      <c r="X13" s="62">
+        <v>1.7167476851851849E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="59" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="59">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" s="59">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E14" s="61">
         <v>45658</v>
       </c>
       <c r="F14" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G14" s="61">
         <v>45658</v>
@@ -14372,37 +14242,61 @@
       <c r="L14" s="59">
         <v>10</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
+      <c r="M14" s="62">
+        <v>4.2579282407407404E-4</v>
+      </c>
+      <c r="N14" s="62">
+        <v>6.7269675925925928E-4</v>
+      </c>
+      <c r="O14" s="62">
+        <v>9.1813657407407404E-4</v>
+      </c>
+      <c r="P14" s="62">
+        <v>7.7531828703703703E-4</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>1.8985648148148143E-3</v>
+      </c>
+      <c r="R14" s="62">
+        <v>1.7369791666666664E-3</v>
+      </c>
+      <c r="S14" s="62">
+        <v>4.2579282407407404E-4</v>
+      </c>
+      <c r="T14" s="62">
+        <v>6.7269675925925928E-4</v>
+      </c>
+      <c r="U14" s="62">
+        <v>9.1813657407407404E-4</v>
+      </c>
+      <c r="V14" s="62">
+        <v>7.7531828703703703E-4</v>
+      </c>
+      <c r="W14" s="62">
+        <v>1.8985648148148143E-3</v>
+      </c>
+      <c r="X14" s="62">
+        <v>1.7369791666666664E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C15" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D15" s="59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="61">
         <v>45658</v>
       </c>
       <c r="F15" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G15" s="61">
         <v>45658</v>
@@ -14418,37 +14312,61 @@
       <c r="L15" s="59">
         <v>10</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
+      <c r="M15" s="62">
+        <v>4.2991898148148143E-4</v>
+      </c>
+      <c r="N15" s="62">
+        <v>6.7881944444444435E-4</v>
+      </c>
+      <c r="O15" s="62">
+        <v>9.3038194444444451E-4</v>
+      </c>
+      <c r="P15" s="62">
+        <v>7.9035879629629627E-4</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>1.9191956018518516E-3</v>
+      </c>
+      <c r="R15" s="62">
+        <v>1.7556134259259259E-3</v>
+      </c>
+      <c r="S15" s="62">
+        <v>4.2991898148148143E-4</v>
+      </c>
+      <c r="T15" s="62">
+        <v>6.7881944444444435E-4</v>
+      </c>
+      <c r="U15" s="62">
+        <v>9.3038194444444451E-4</v>
+      </c>
+      <c r="V15" s="62">
+        <v>7.9035879629629627E-4</v>
+      </c>
+      <c r="W15" s="62">
+        <v>1.9191956018518516E-3</v>
+      </c>
+      <c r="X15" s="62">
+        <v>1.7556134259259259E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C16" s="59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="59">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="61">
         <v>45658</v>
       </c>
       <c r="F16" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G16" s="61">
         <v>45658</v>
@@ -14464,37 +14382,61 @@
       <c r="L16" s="59">
         <v>10</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
+      <c r="M16" s="62">
+        <v>5.2096064814814811E-4</v>
+      </c>
+      <c r="N16" s="62">
+        <v>7.8396990740740738E-4</v>
+      </c>
+      <c r="O16" s="62">
+        <v>1.0602893518518518E-3</v>
+      </c>
+      <c r="P16" s="62">
+        <v>8.7075231481481476E-4</v>
+      </c>
+      <c r="Q16" s="62">
+        <v>2.0524305555555552E-3</v>
+      </c>
+      <c r="R16" s="62">
+        <v>1.8642245370370368E-3</v>
+      </c>
+      <c r="S16" s="62">
+        <v>5.2096064814814811E-4</v>
+      </c>
+      <c r="T16" s="62">
+        <v>7.8396990740740738E-4</v>
+      </c>
+      <c r="U16" s="62">
+        <v>1.0602893518518518E-3</v>
+      </c>
+      <c r="V16" s="62">
+        <v>8.7075231481481476E-4</v>
+      </c>
+      <c r="W16" s="62">
+        <v>2.0524305555555552E-3</v>
+      </c>
+      <c r="X16" s="62">
+        <v>1.8642245370370368E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C17" s="59">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17" s="59">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E17" s="61">
         <v>45658</v>
       </c>
       <c r="F17" s="61">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="G17" s="61">
         <v>45658</v>
@@ -14510,18 +14452,3136 @@
       <c r="L17" s="59">
         <v>10</v>
       </c>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
+      <c r="M17" s="62">
+        <v>5.3147569444444444E-4</v>
+      </c>
+      <c r="N17" s="62">
+        <v>7.9288773148148144E-4</v>
+      </c>
+      <c r="O17" s="62">
+        <v>1.0793229166666666E-3</v>
+      </c>
+      <c r="P17" s="62">
+        <v>8.8353009259259244E-4</v>
+      </c>
+      <c r="Q17" s="62">
+        <v>2.0676041666666664E-3</v>
+      </c>
+      <c r="R17" s="62">
+        <v>1.871278935185185E-3</v>
+      </c>
+      <c r="S17" s="62">
+        <v>5.3147569444444444E-4</v>
+      </c>
+      <c r="T17" s="62">
+        <v>7.9288773148148144E-4</v>
+      </c>
+      <c r="U17" s="62">
+        <v>1.0793229166666666E-3</v>
+      </c>
+      <c r="V17" s="62">
+        <v>8.8353009259259244E-4</v>
+      </c>
+      <c r="W17" s="62">
+        <v>2.0676041666666664E-3</v>
+      </c>
+      <c r="X17" s="62">
+        <v>1.871278935185185E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="59">
+        <v>12</v>
+      </c>
+      <c r="D18" s="59">
+        <v>16</v>
+      </c>
+      <c r="E18" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F18" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G18" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59">
+        <v>10</v>
+      </c>
+      <c r="M18" s="62">
+        <v>5.4145833333333324E-4</v>
+      </c>
+      <c r="N18" s="62">
+        <v>8.0114004629629621E-4</v>
+      </c>
+      <c r="O18" s="62">
+        <v>1.096892361111111E-3</v>
+      </c>
+      <c r="P18" s="62">
+        <v>8.9524305555555559E-4</v>
+      </c>
+      <c r="Q18" s="62">
+        <v>2.0817129629629627E-3</v>
+      </c>
+      <c r="R18" s="62">
+        <v>1.8778009259259256E-3</v>
+      </c>
+      <c r="S18" s="62">
+        <v>5.4145833333333324E-4</v>
+      </c>
+      <c r="T18" s="62">
+        <v>8.0114004629629621E-4</v>
+      </c>
+      <c r="U18" s="62">
+        <v>1.096892361111111E-3</v>
+      </c>
+      <c r="V18" s="62">
+        <v>8.9524305555555559E-4</v>
+      </c>
+      <c r="W18" s="62">
+        <v>2.0817129629629627E-3</v>
+      </c>
+      <c r="X18" s="62">
+        <v>1.8778009259259256E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A19" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="59">
+        <v>18</v>
+      </c>
+      <c r="D19" s="59">
+        <v>18</v>
+      </c>
+      <c r="E19" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F19" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G19" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59">
+        <v>10</v>
+      </c>
+      <c r="M19" s="62">
+        <v>4.3028935185185189E-4</v>
+      </c>
+      <c r="N19" s="62">
+        <v>6.8065682870370372E-4</v>
+      </c>
+      <c r="O19" s="62">
+        <v>9.2463252314814806E-4</v>
+      </c>
+      <c r="P19" s="62">
+        <v>7.7544560185185192E-4</v>
+      </c>
+      <c r="Q19" s="62">
+        <v>1.9171267361111112E-3</v>
+      </c>
+      <c r="R19" s="62">
+        <v>1.7540682870370368E-3</v>
+      </c>
+      <c r="S19" s="62">
+        <v>4.3028935185185189E-4</v>
+      </c>
+      <c r="T19" s="62">
+        <v>6.8065682870370372E-4</v>
+      </c>
+      <c r="U19" s="62">
+        <v>9.2463252314814806E-4</v>
+      </c>
+      <c r="V19" s="62">
+        <v>7.7544560185185192E-4</v>
+      </c>
+      <c r="W19" s="62">
+        <v>1.9171267361111112E-3</v>
+      </c>
+      <c r="X19" s="62">
+        <v>1.7540682870370368E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A20" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="59">
+        <v>17</v>
+      </c>
+      <c r="D20" s="59">
+        <v>17</v>
+      </c>
+      <c r="E20" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F20" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G20" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59">
+        <v>10</v>
+      </c>
+      <c r="M20" s="62">
+        <v>4.3504918981481481E-4</v>
+      </c>
+      <c r="N20" s="62">
+        <v>6.8732060185185194E-4</v>
+      </c>
+      <c r="O20" s="62">
+        <v>9.3809606481481489E-4</v>
+      </c>
+      <c r="P20" s="62">
+        <v>7.9217303240740745E-4</v>
+      </c>
+      <c r="Q20" s="62">
+        <v>1.9398379629629629E-3</v>
+      </c>
+      <c r="R20" s="62">
+        <v>1.7747395833333335E-3</v>
+      </c>
+      <c r="S20" s="62">
+        <v>4.3504918981481481E-4</v>
+      </c>
+      <c r="T20" s="62">
+        <v>6.8732060185185194E-4</v>
+      </c>
+      <c r="U20" s="62">
+        <v>9.3809606481481489E-4</v>
+      </c>
+      <c r="V20" s="62">
+        <v>7.9217303240740745E-4</v>
+      </c>
+      <c r="W20" s="62">
+        <v>1.9398379629629629E-3</v>
+      </c>
+      <c r="X20" s="62">
+        <v>1.7747395833333335E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A21" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="59">
+        <v>12</v>
+      </c>
+      <c r="D21" s="59">
+        <v>16</v>
+      </c>
+      <c r="E21" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F21" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G21" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59">
+        <v>10</v>
+      </c>
+      <c r="M21" s="62">
+        <v>4.3926504629629627E-4</v>
+      </c>
+      <c r="N21" s="62">
+        <v>6.9357638888888897E-4</v>
+      </c>
+      <c r="O21" s="62">
+        <v>9.5060763888888907E-4</v>
+      </c>
+      <c r="P21" s="62">
+        <v>8.0754050925925937E-4</v>
+      </c>
+      <c r="Q21" s="62">
+        <v>1.9609172453703702E-3</v>
+      </c>
+      <c r="R21" s="62">
+        <v>1.7937789351851854E-3</v>
+      </c>
+      <c r="S21" s="62">
+        <v>4.3926504629629627E-4</v>
+      </c>
+      <c r="T21" s="62">
+        <v>6.9357638888888897E-4</v>
+      </c>
+      <c r="U21" s="62">
+        <v>9.5060763888888907E-4</v>
+      </c>
+      <c r="V21" s="62">
+        <v>8.0754050925925937E-4</v>
+      </c>
+      <c r="W21" s="62">
+        <v>1.9609172453703702E-3</v>
+      </c>
+      <c r="X21" s="62">
+        <v>1.7937789351851854E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="59">
+        <v>18</v>
+      </c>
+      <c r="D22" s="59">
+        <v>18</v>
+      </c>
+      <c r="E22" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F22" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G22" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59">
+        <v>10</v>
+      </c>
+      <c r="M22" s="62">
+        <v>5.3228587962962962E-4</v>
+      </c>
+      <c r="N22" s="62">
+        <v>8.0101273148148154E-4</v>
+      </c>
+      <c r="O22" s="62">
+        <v>1.0833391203703704E-3</v>
+      </c>
+      <c r="P22" s="62">
+        <v>8.89681712962963E-4</v>
+      </c>
+      <c r="Q22" s="62">
+        <v>2.0970486111111112E-3</v>
+      </c>
+      <c r="R22" s="62">
+        <v>1.9047511574074075E-3</v>
+      </c>
+      <c r="S22" s="62">
+        <v>5.3228587962962962E-4</v>
+      </c>
+      <c r="T22" s="62">
+        <v>8.0101273148148154E-4</v>
+      </c>
+      <c r="U22" s="62">
+        <v>1.0833391203703704E-3</v>
+      </c>
+      <c r="V22" s="62">
+        <v>8.89681712962963E-4</v>
+      </c>
+      <c r="W22" s="62">
+        <v>2.0970486111111112E-3</v>
+      </c>
+      <c r="X22" s="62">
+        <v>1.9047511574074075E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A23" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="59">
+        <v>17</v>
+      </c>
+      <c r="D23" s="59">
+        <v>17</v>
+      </c>
+      <c r="E23" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F23" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G23" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59">
+        <v>10</v>
+      </c>
+      <c r="M23" s="62">
+        <v>5.430295138888889E-4</v>
+      </c>
+      <c r="N23" s="62">
+        <v>8.1012442129629642E-4</v>
+      </c>
+      <c r="O23" s="62">
+        <v>1.1027864583333334E-3</v>
+      </c>
+      <c r="P23" s="62">
+        <v>9.0273726851851843E-4</v>
+      </c>
+      <c r="Q23" s="62">
+        <v>2.1125520833333335E-3</v>
+      </c>
+      <c r="R23" s="62">
+        <v>1.9119589120370371E-3</v>
+      </c>
+      <c r="S23" s="62">
+        <v>5.430295138888889E-4</v>
+      </c>
+      <c r="T23" s="62">
+        <v>8.1012442129629642E-4</v>
+      </c>
+      <c r="U23" s="62">
+        <v>1.1027864583333334E-3</v>
+      </c>
+      <c r="V23" s="62">
+        <v>9.0273726851851843E-4</v>
+      </c>
+      <c r="W23" s="62">
+        <v>2.1125520833333335E-3</v>
+      </c>
+      <c r="X23" s="62">
+        <v>1.9119589120370371E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A24" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="59">
+        <v>12</v>
+      </c>
+      <c r="D24" s="59">
+        <v>16</v>
+      </c>
+      <c r="E24" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F24" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G24" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59">
+        <v>10</v>
+      </c>
+      <c r="M24" s="62">
+        <v>5.532291666666666E-4</v>
+      </c>
+      <c r="N24" s="62">
+        <v>8.1855613425925932E-4</v>
+      </c>
+      <c r="O24" s="62">
+        <v>1.1207378472222222E-3</v>
+      </c>
+      <c r="P24" s="62">
+        <v>9.1470486111111125E-4</v>
+      </c>
+      <c r="Q24" s="62">
+        <v>2.1269675925925926E-3</v>
+      </c>
+      <c r="R24" s="62">
+        <v>1.9186226851851851E-3</v>
+      </c>
+      <c r="S24" s="62">
+        <v>5.532291666666666E-4</v>
+      </c>
+      <c r="T24" s="62">
+        <v>8.1855613425925932E-4</v>
+      </c>
+      <c r="U24" s="62">
+        <v>1.1207378472222222E-3</v>
+      </c>
+      <c r="V24" s="62">
+        <v>9.1470486111111125E-4</v>
+      </c>
+      <c r="W24" s="62">
+        <v>2.1269675925925926E-3</v>
+      </c>
+      <c r="X24" s="62">
+        <v>1.9186226851851851E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A25" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="59">
+        <v>18</v>
+      </c>
+      <c r="D25" s="59">
+        <v>18</v>
+      </c>
+      <c r="E25" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F25" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G25" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59">
+        <v>10</v>
+      </c>
+      <c r="M25" s="62">
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="N25" s="62">
+        <v>6.951388888888888E-4</v>
+      </c>
+      <c r="O25" s="62">
+        <v>9.4430555555555544E-4</v>
+      </c>
+      <c r="P25" s="62">
+        <v>7.919444444444444E-4</v>
+      </c>
+      <c r="Q25" s="62">
+        <v>1.9579166666666664E-3</v>
+      </c>
+      <c r="R25" s="62">
+        <v>1.7913888888888886E-3</v>
+      </c>
+      <c r="S25" s="62">
+        <v>4.3944444444444445E-4</v>
+      </c>
+      <c r="T25" s="62">
+        <v>6.951388888888888E-4</v>
+      </c>
+      <c r="U25" s="62">
+        <v>9.4430555555555544E-4</v>
+      </c>
+      <c r="V25" s="62">
+        <v>7.919444444444444E-4</v>
+      </c>
+      <c r="W25" s="62">
+        <v>1.9579166666666664E-3</v>
+      </c>
+      <c r="X25" s="62">
+        <v>1.7913888888888886E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A26" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="59">
+        <v>17</v>
+      </c>
+      <c r="D26" s="59">
+        <v>17</v>
+      </c>
+      <c r="E26" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F26" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G26" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59">
+        <v>10</v>
+      </c>
+      <c r="M26" s="62">
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="N26" s="62">
+        <v>7.0194444444444449E-4</v>
+      </c>
+      <c r="O26" s="62">
+        <v>9.5805555555555553E-4</v>
+      </c>
+      <c r="P26" s="62">
+        <v>8.0902777777777776E-4</v>
+      </c>
+      <c r="Q26" s="62">
+        <v>1.9811111111111106E-3</v>
+      </c>
+      <c r="R26" s="62">
+        <v>1.8124999999999999E-3</v>
+      </c>
+      <c r="S26" s="62">
+        <v>4.4430555555555553E-4</v>
+      </c>
+      <c r="T26" s="62">
+        <v>7.0194444444444449E-4</v>
+      </c>
+      <c r="U26" s="62">
+        <v>9.5805555555555553E-4</v>
+      </c>
+      <c r="V26" s="62">
+        <v>8.0902777777777776E-4</v>
+      </c>
+      <c r="W26" s="62">
+        <v>1.9811111111111106E-3</v>
+      </c>
+      <c r="X26" s="62">
+        <v>1.8124999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A27" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="59">
+        <v>12</v>
+      </c>
+      <c r="D27" s="59">
+        <v>16</v>
+      </c>
+      <c r="E27" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F27" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G27" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59">
+        <v>10</v>
+      </c>
+      <c r="M27" s="62">
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="N27" s="62">
+        <v>7.0833333333333328E-4</v>
+      </c>
+      <c r="O27" s="62">
+        <v>9.7083333333333342E-4</v>
+      </c>
+      <c r="P27" s="62">
+        <v>8.2472222222222224E-4</v>
+      </c>
+      <c r="Q27" s="62">
+        <v>2.0026388888888889E-3</v>
+      </c>
+      <c r="R27" s="62">
+        <v>1.8319444444444444E-3</v>
+      </c>
+      <c r="S27" s="62">
+        <v>4.4861111111111105E-4</v>
+      </c>
+      <c r="T27" s="62">
+        <v>7.0833333333333328E-4</v>
+      </c>
+      <c r="U27" s="62">
+        <v>9.7083333333333342E-4</v>
+      </c>
+      <c r="V27" s="62">
+        <v>8.2472222222222224E-4</v>
+      </c>
+      <c r="W27" s="62">
+        <v>2.0026388888888889E-3</v>
+      </c>
+      <c r="X27" s="62">
+        <v>1.8319444444444444E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A28" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="59">
+        <v>18</v>
+      </c>
+      <c r="D28" s="59">
+        <v>18</v>
+      </c>
+      <c r="E28" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F28" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G28" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59">
+        <v>10</v>
+      </c>
+      <c r="M28" s="62">
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="N28" s="62">
+        <v>8.1805555555555548E-4</v>
+      </c>
+      <c r="O28" s="62">
+        <v>1.1063888888888887E-3</v>
+      </c>
+      <c r="P28" s="62">
+        <v>9.0861111111111101E-4</v>
+      </c>
+      <c r="Q28" s="62">
+        <v>2.1416666666666663E-3</v>
+      </c>
+      <c r="R28" s="62">
+        <v>1.9452777777777775E-3</v>
+      </c>
+      <c r="S28" s="62">
+        <v>5.4361111111111114E-4</v>
+      </c>
+      <c r="T28" s="62">
+        <v>8.1805555555555548E-4</v>
+      </c>
+      <c r="U28" s="62">
+        <v>1.1063888888888887E-3</v>
+      </c>
+      <c r="V28" s="62">
+        <v>9.0861111111111101E-4</v>
+      </c>
+      <c r="W28" s="62">
+        <v>2.1416666666666663E-3</v>
+      </c>
+      <c r="X28" s="62">
+        <v>1.9452777777777775E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A29" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="59">
+        <v>17</v>
+      </c>
+      <c r="D29" s="59">
+        <v>17</v>
+      </c>
+      <c r="E29" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F29" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G29" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59">
+        <v>10</v>
+      </c>
+      <c r="M29" s="62">
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="N29" s="62">
+        <v>8.2736111111111118E-4</v>
+      </c>
+      <c r="O29" s="62">
+        <v>1.1262500000000001E-3</v>
+      </c>
+      <c r="P29" s="62">
+        <v>9.2194444444444431E-4</v>
+      </c>
+      <c r="Q29" s="62">
+        <v>2.1574999999999997E-3</v>
+      </c>
+      <c r="R29" s="62">
+        <v>1.9526388888888887E-3</v>
+      </c>
+      <c r="S29" s="62">
+        <v>5.5458333333333336E-4</v>
+      </c>
+      <c r="T29" s="62">
+        <v>8.2736111111111118E-4</v>
+      </c>
+      <c r="U29" s="62">
+        <v>1.1262500000000001E-3</v>
+      </c>
+      <c r="V29" s="62">
+        <v>9.2194444444444431E-4</v>
+      </c>
+      <c r="W29" s="62">
+        <v>2.1574999999999997E-3</v>
+      </c>
+      <c r="X29" s="62">
+        <v>1.9526388888888887E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A30" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="59">
+        <v>12</v>
+      </c>
+      <c r="D30" s="59">
+        <v>16</v>
+      </c>
+      <c r="E30" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F30" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G30" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59">
+        <v>10</v>
+      </c>
+      <c r="M30" s="62">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="N30" s="62">
+        <v>8.3597222222222222E-4</v>
+      </c>
+      <c r="O30" s="62">
+        <v>1.1445833333333332E-3</v>
+      </c>
+      <c r="P30" s="62">
+        <v>9.341666666666667E-4</v>
+      </c>
+      <c r="Q30" s="62">
+        <v>2.1722222222222221E-3</v>
+      </c>
+      <c r="R30" s="62">
+        <v>1.9594444444444442E-3</v>
+      </c>
+      <c r="S30" s="62">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="T30" s="62">
+        <v>8.3597222222222222E-4</v>
+      </c>
+      <c r="U30" s="62">
+        <v>1.1445833333333332E-3</v>
+      </c>
+      <c r="V30" s="62">
+        <v>9.341666666666667E-4</v>
+      </c>
+      <c r="W30" s="62">
+        <v>2.1722222222222221E-3</v>
+      </c>
+      <c r="X30" s="62">
+        <v>1.9594444444444442E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A31" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="59">
+        <v>18</v>
+      </c>
+      <c r="D31" s="59">
+        <v>18</v>
+      </c>
+      <c r="E31" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F31" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G31" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59">
+        <v>10</v>
+      </c>
+      <c r="M31" s="62">
+        <v>4.4859953703703707E-4</v>
+      </c>
+      <c r="N31" s="62">
+        <v>7.096209490740741E-4</v>
+      </c>
+      <c r="O31" s="62">
+        <v>9.6397858796296292E-4</v>
+      </c>
+      <c r="P31" s="62">
+        <v>8.0844328703703709E-4</v>
+      </c>
+      <c r="Q31" s="62">
+        <v>1.9987065972222225E-3</v>
+      </c>
+      <c r="R31" s="62">
+        <v>1.8287094907407408E-3</v>
+      </c>
+      <c r="S31" s="62">
+        <v>4.4859953703703707E-4</v>
+      </c>
+      <c r="T31" s="62">
+        <v>7.096209490740741E-4</v>
+      </c>
+      <c r="U31" s="62">
+        <v>9.6397858796296292E-4</v>
+      </c>
+      <c r="V31" s="62">
+        <v>8.0844328703703709E-4</v>
+      </c>
+      <c r="W31" s="62">
+        <v>1.9987065972222225E-3</v>
+      </c>
+      <c r="X31" s="62">
+        <v>1.8287094907407408E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A32" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="59">
+        <v>17</v>
+      </c>
+      <c r="D32" s="59">
+        <v>17</v>
+      </c>
+      <c r="E32" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F32" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G32" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59">
+        <v>10</v>
+      </c>
+      <c r="M32" s="62">
+        <v>4.5356192129629631E-4</v>
+      </c>
+      <c r="N32" s="62">
+        <v>7.1656828703703715E-4</v>
+      </c>
+      <c r="O32" s="62">
+        <v>9.7801504629629649E-4</v>
+      </c>
+      <c r="P32" s="62">
+        <v>8.2588252314814829E-4</v>
+      </c>
+      <c r="Q32" s="62">
+        <v>2.0223842592592589E-3</v>
+      </c>
+      <c r="R32" s="62">
+        <v>1.8502604166666667E-3</v>
+      </c>
+      <c r="S32" s="62">
+        <v>4.5356192129629631E-4</v>
+      </c>
+      <c r="T32" s="62">
+        <v>7.1656828703703715E-4</v>
+      </c>
+      <c r="U32" s="62">
+        <v>9.7801504629629649E-4</v>
+      </c>
+      <c r="V32" s="62">
+        <v>8.2588252314814829E-4</v>
+      </c>
+      <c r="W32" s="62">
+        <v>2.0223842592592589E-3</v>
+      </c>
+      <c r="X32" s="62">
+        <v>1.8502604166666667E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A33" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="59">
+        <v>12</v>
+      </c>
+      <c r="D33" s="59">
+        <v>16</v>
+      </c>
+      <c r="E33" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F33" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G33" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59">
+        <v>10</v>
+      </c>
+      <c r="M33" s="62">
+        <v>4.5795717592592589E-4</v>
+      </c>
+      <c r="N33" s="62">
+        <v>7.2309027777777779E-4</v>
+      </c>
+      <c r="O33" s="62">
+        <v>9.9105902777777799E-4</v>
+      </c>
+      <c r="P33" s="62">
+        <v>8.4190393518518533E-4</v>
+      </c>
+      <c r="Q33" s="62">
+        <v>2.0443605324074075E-3</v>
+      </c>
+      <c r="R33" s="62">
+        <v>1.8701099537037039E-3</v>
+      </c>
+      <c r="S33" s="62">
+        <v>4.5795717592592589E-4</v>
+      </c>
+      <c r="T33" s="62">
+        <v>7.2309027777777779E-4</v>
+      </c>
+      <c r="U33" s="62">
+        <v>9.9105902777777799E-4</v>
+      </c>
+      <c r="V33" s="62">
+        <v>8.4190393518518533E-4</v>
+      </c>
+      <c r="W33" s="62">
+        <v>2.0443605324074075E-3</v>
+      </c>
+      <c r="X33" s="62">
+        <v>1.8701099537037039E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A34" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="59">
+        <v>18</v>
+      </c>
+      <c r="D34" s="59">
+        <v>18</v>
+      </c>
+      <c r="E34" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F34" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G34" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59">
+        <v>10</v>
+      </c>
+      <c r="M34" s="62">
+        <v>5.5493634259259266E-4</v>
+      </c>
+      <c r="N34" s="62">
+        <v>8.3509837962962965E-4</v>
+      </c>
+      <c r="O34" s="62">
+        <v>1.1294386574074073E-3</v>
+      </c>
+      <c r="P34" s="62">
+        <v>9.2754050925925925E-4</v>
+      </c>
+      <c r="Q34" s="62">
+        <v>2.1862847222222223E-3</v>
+      </c>
+      <c r="R34" s="62">
+        <v>1.9858043981481484E-3</v>
+      </c>
+      <c r="S34" s="62">
+        <v>5.5493634259259266E-4</v>
+      </c>
+      <c r="T34" s="62">
+        <v>8.3509837962962965E-4</v>
+      </c>
+      <c r="U34" s="62">
+        <v>1.1294386574074073E-3</v>
+      </c>
+      <c r="V34" s="62">
+        <v>9.2754050925925925E-4</v>
+      </c>
+      <c r="W34" s="62">
+        <v>2.1862847222222223E-3</v>
+      </c>
+      <c r="X34" s="62">
+        <v>1.9858043981481484E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A35" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="59">
+        <v>17</v>
+      </c>
+      <c r="D35" s="59">
+        <v>17</v>
+      </c>
+      <c r="E35" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F35" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G35" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59">
+        <v>10</v>
+      </c>
+      <c r="M35" s="62">
+        <v>5.6613715277777782E-4</v>
+      </c>
+      <c r="N35" s="62">
+        <v>8.4459780092592605E-4</v>
+      </c>
+      <c r="O35" s="62">
+        <v>1.1497135416666669E-3</v>
+      </c>
+      <c r="P35" s="62">
+        <v>9.411516203703703E-4</v>
+      </c>
+      <c r="Q35" s="62">
+        <v>2.2024479166666668E-3</v>
+      </c>
+      <c r="R35" s="62">
+        <v>1.9933188657407408E-3</v>
+      </c>
+      <c r="S35" s="62">
+        <v>5.6613715277777782E-4</v>
+      </c>
+      <c r="T35" s="62">
+        <v>8.4459780092592605E-4</v>
+      </c>
+      <c r="U35" s="62">
+        <v>1.1497135416666669E-3</v>
+      </c>
+      <c r="V35" s="62">
+        <v>9.411516203703703E-4</v>
+      </c>
+      <c r="W35" s="62">
+        <v>2.2024479166666668E-3</v>
+      </c>
+      <c r="X35" s="62">
+        <v>1.9933188657407408E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A36" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="59">
+        <v>12</v>
+      </c>
+      <c r="D36" s="59">
+        <v>16</v>
+      </c>
+      <c r="E36" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F36" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G36" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59">
+        <v>10</v>
+      </c>
+      <c r="M36" s="62">
+        <v>5.7677083333333332E-4</v>
+      </c>
+      <c r="N36" s="62">
+        <v>8.5338831018518522E-4</v>
+      </c>
+      <c r="O36" s="62">
+        <v>1.1684288194444446E-3</v>
+      </c>
+      <c r="P36" s="62">
+        <v>9.5362847222222236E-4</v>
+      </c>
+      <c r="Q36" s="62">
+        <v>2.217476851851852E-3</v>
+      </c>
+      <c r="R36" s="62">
+        <v>2.0002662037037038E-3</v>
+      </c>
+      <c r="S36" s="62">
+        <v>5.7677083333333332E-4</v>
+      </c>
+      <c r="T36" s="62">
+        <v>8.5338831018518522E-4</v>
+      </c>
+      <c r="U36" s="62">
+        <v>1.1684288194444446E-3</v>
+      </c>
+      <c r="V36" s="62">
+        <v>9.5362847222222236E-4</v>
+      </c>
+      <c r="W36" s="62">
+        <v>2.217476851851852E-3</v>
+      </c>
+      <c r="X36" s="62">
+        <v>2.0002662037037038E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A37" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="59">
+        <v>18</v>
+      </c>
+      <c r="D37" s="59">
+        <v>18</v>
+      </c>
+      <c r="E37" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F37" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G37" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59">
+        <v>10</v>
+      </c>
+      <c r="M37" s="62">
+        <f>Tabelle1!E14</f>
+        <v>4.5775462962962962E-4</v>
+      </c>
+      <c r="N37" s="62">
+        <f>Tabelle1!E16</f>
+        <v>7.2410300925925919E-4</v>
+      </c>
+      <c r="O37" s="62">
+        <f>Tabelle1!E15</f>
+        <v>9.8365162037037019E-4</v>
+      </c>
+      <c r="P37" s="62">
+        <f>Tabelle1!E17</f>
+        <v>8.2494212962962968E-4</v>
+      </c>
+      <c r="Q37" s="62">
+        <f>Tabelle1!E19</f>
+        <v>2.0394965277777777E-3</v>
+      </c>
+      <c r="R37" s="62">
+        <f>Tabelle1!E18</f>
+        <v>1.8660300925925923E-3</v>
+      </c>
+      <c r="S37" s="62">
+        <f>M37</f>
+        <v>4.5775462962962962E-4</v>
+      </c>
+      <c r="T37" s="62">
+        <f t="shared" ref="T37:T42" si="0">N37</f>
+        <v>7.2410300925925919E-4</v>
+      </c>
+      <c r="U37" s="62">
+        <f t="shared" ref="U37:U42" si="1">O37</f>
+        <v>9.8365162037037019E-4</v>
+      </c>
+      <c r="V37" s="62">
+        <f t="shared" ref="V37:V42" si="2">P37</f>
+        <v>8.2494212962962968E-4</v>
+      </c>
+      <c r="W37" s="62">
+        <f t="shared" ref="W37:W42" si="3">Q37</f>
+        <v>2.0394965277777777E-3</v>
+      </c>
+      <c r="X37" s="62">
+        <f t="shared" ref="X37:X42" si="4">R37</f>
+        <v>1.8660300925925923E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A38" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="59">
+        <v>17</v>
+      </c>
+      <c r="D38" s="59">
+        <v>17</v>
+      </c>
+      <c r="E38" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F38" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G38" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59">
+        <v>10</v>
+      </c>
+      <c r="M38" s="62">
+        <f>Tabelle1!D14</f>
+        <v>4.6281828703703703E-4</v>
+      </c>
+      <c r="N38" s="62">
+        <f>Tabelle1!D16</f>
+        <v>7.311921296296297E-4</v>
+      </c>
+      <c r="O38" s="62">
+        <f>Tabelle1!D15</f>
+        <v>9.9797453703703702E-4</v>
+      </c>
+      <c r="P38" s="62">
+        <f>Tabelle1!D17</f>
+        <v>8.427372685185186E-4</v>
+      </c>
+      <c r="Q38" s="62">
+        <f>Tabelle1!D19</f>
+        <v>2.0636574074074073E-3</v>
+      </c>
+      <c r="R38" s="62">
+        <f>Tabelle1!D18</f>
+        <v>1.8880208333333333E-3</v>
+      </c>
+      <c r="S38" s="62">
+        <f t="shared" ref="S38:S42" si="5">M38</f>
+        <v>4.6281828703703703E-4</v>
+      </c>
+      <c r="T38" s="62">
+        <f t="shared" si="0"/>
+        <v>7.311921296296297E-4</v>
+      </c>
+      <c r="U38" s="62">
+        <f t="shared" si="1"/>
+        <v>9.9797453703703702E-4</v>
+      </c>
+      <c r="V38" s="62">
+        <f t="shared" si="2"/>
+        <v>8.427372685185186E-4</v>
+      </c>
+      <c r="W38" s="62">
+        <f t="shared" si="3"/>
+        <v>2.0636574074074073E-3</v>
+      </c>
+      <c r="X38" s="62">
+        <f t="shared" si="4"/>
+        <v>1.8880208333333333E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A39" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="59">
+        <v>12</v>
+      </c>
+      <c r="D39" s="59">
+        <v>16</v>
+      </c>
+      <c r="E39" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F39" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G39" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59">
+        <v>10</v>
+      </c>
+      <c r="M39" s="62">
+        <f>Tabelle1!C14</f>
+        <v>4.6730324074074068E-4</v>
+      </c>
+      <c r="N39" s="62">
+        <f>Tabelle1!C16</f>
+        <v>7.378472222222222E-4</v>
+      </c>
+      <c r="O39" s="62">
+        <f>Tabelle1!C15</f>
+        <v>1.0112847222222224E-3</v>
+      </c>
+      <c r="P39" s="62">
+        <f>Tabelle1!C17</f>
+        <v>8.5908564814814821E-4</v>
+      </c>
+      <c r="Q39" s="62">
+        <f>Tabelle1!C19</f>
+        <v>2.0860821759259261E-3</v>
+      </c>
+      <c r="R39" s="62">
+        <f>Tabelle1!C18</f>
+        <v>1.9082754629629632E-3</v>
+      </c>
+      <c r="S39" s="62">
+        <f t="shared" si="5"/>
+        <v>4.6730324074074068E-4</v>
+      </c>
+      <c r="T39" s="62">
+        <f t="shared" si="0"/>
+        <v>7.378472222222222E-4</v>
+      </c>
+      <c r="U39" s="62">
+        <f t="shared" si="1"/>
+        <v>1.0112847222222224E-3</v>
+      </c>
+      <c r="V39" s="62">
+        <f t="shared" si="2"/>
+        <v>8.5908564814814821E-4</v>
+      </c>
+      <c r="W39" s="62">
+        <f t="shared" si="3"/>
+        <v>2.0860821759259261E-3</v>
+      </c>
+      <c r="X39" s="62">
+        <f t="shared" si="4"/>
+        <v>1.9082754629629632E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A40" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="59">
+        <v>18</v>
+      </c>
+      <c r="D40" s="59">
+        <v>18</v>
+      </c>
+      <c r="E40" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F40" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G40" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59">
+        <v>10</v>
+      </c>
+      <c r="M40" s="62">
+        <f>Tabelle1!K14</f>
+        <v>5.6626157407407406E-4</v>
+      </c>
+      <c r="N40" s="62">
+        <f>Tabelle1!K16</f>
+        <v>8.521412037037037E-4</v>
+      </c>
+      <c r="O40" s="62">
+        <f>Tabelle1!K15</f>
+        <v>1.1524884259259259E-3</v>
+      </c>
+      <c r="P40" s="62">
+        <f>Tabelle1!K17</f>
+        <v>9.4646990740740737E-4</v>
+      </c>
+      <c r="Q40" s="62">
+        <f>Tabelle1!K19</f>
+        <v>2.2309027777777774E-3</v>
+      </c>
+      <c r="R40" s="62">
+        <f>Tabelle1!K18</f>
+        <v>2.0263310185185185E-3</v>
+      </c>
+      <c r="S40" s="62">
+        <f t="shared" si="5"/>
+        <v>5.6626157407407406E-4</v>
+      </c>
+      <c r="T40" s="62">
+        <f t="shared" si="0"/>
+        <v>8.521412037037037E-4</v>
+      </c>
+      <c r="U40" s="62">
+        <f t="shared" si="1"/>
+        <v>1.1524884259259259E-3</v>
+      </c>
+      <c r="V40" s="62">
+        <f t="shared" si="2"/>
+        <v>9.4646990740740737E-4</v>
+      </c>
+      <c r="W40" s="62">
+        <f t="shared" si="3"/>
+        <v>2.2309027777777774E-3</v>
+      </c>
+      <c r="X40" s="62">
+        <f t="shared" si="4"/>
+        <v>2.0263310185185185E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A41" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="59">
+        <v>17</v>
+      </c>
+      <c r="D41" s="59">
+        <v>17</v>
+      </c>
+      <c r="E41" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F41" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G41" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59">
+        <v>10</v>
+      </c>
+      <c r="M41" s="62">
+        <f>Tabelle1!J14</f>
+        <v>5.7769097222222228E-4</v>
+      </c>
+      <c r="N41" s="62">
+        <f>Tabelle1!J16</f>
+        <v>8.6183449074074081E-4</v>
+      </c>
+      <c r="O41" s="62">
+        <f>Tabelle1!J15</f>
+        <v>1.1731770833333334E-3</v>
+      </c>
+      <c r="P41" s="62">
+        <f>Tabelle1!J17</f>
+        <v>9.6035879629629618E-4</v>
+      </c>
+      <c r="Q41" s="62">
+        <f>Tabelle1!J19</f>
+        <v>2.2473958333333335E-3</v>
+      </c>
+      <c r="R41" s="62">
+        <f>Tabelle1!J18</f>
+        <v>2.0339988425925925E-3</v>
+      </c>
+      <c r="S41" s="62">
+        <f t="shared" si="5"/>
+        <v>5.7769097222222228E-4</v>
+      </c>
+      <c r="T41" s="62">
+        <f t="shared" si="0"/>
+        <v>8.6183449074074081E-4</v>
+      </c>
+      <c r="U41" s="62">
+        <f t="shared" si="1"/>
+        <v>1.1731770833333334E-3</v>
+      </c>
+      <c r="V41" s="62">
+        <f t="shared" si="2"/>
+        <v>9.6035879629629618E-4</v>
+      </c>
+      <c r="W41" s="62">
+        <f t="shared" si="3"/>
+        <v>2.2473958333333335E-3</v>
+      </c>
+      <c r="X41" s="62">
+        <f t="shared" si="4"/>
+        <v>2.0339988425925925E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A42" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="59">
+        <v>12</v>
+      </c>
+      <c r="D42" s="59">
+        <v>16</v>
+      </c>
+      <c r="E42" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F42" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G42" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59">
+        <v>10</v>
+      </c>
+      <c r="M42" s="62">
+        <f>Tabelle1!I14</f>
+        <v>5.8854166666666668E-4</v>
+      </c>
+      <c r="N42" s="62">
+        <f>Tabelle1!I16</f>
+        <v>8.7080439814814811E-4</v>
+      </c>
+      <c r="O42" s="62">
+        <f>Tabelle1!I15</f>
+        <v>1.1922743055555556E-3</v>
+      </c>
+      <c r="P42" s="62">
+        <f>Tabelle1!I17</f>
+        <v>9.730902777777778E-4</v>
+      </c>
+      <c r="Q42" s="62">
+        <f>Tabelle1!I19</f>
+        <v>2.2627314814814815E-3</v>
+      </c>
+      <c r="R42" s="62">
+        <f>Tabelle1!I18</f>
+        <v>2.0410879629629629E-3</v>
+      </c>
+      <c r="S42" s="62">
+        <f t="shared" si="5"/>
+        <v>5.8854166666666668E-4</v>
+      </c>
+      <c r="T42" s="62">
+        <f t="shared" si="0"/>
+        <v>8.7080439814814811E-4</v>
+      </c>
+      <c r="U42" s="62">
+        <f t="shared" si="1"/>
+        <v>1.1922743055555556E-3</v>
+      </c>
+      <c r="V42" s="62">
+        <f t="shared" si="2"/>
+        <v>9.730902777777778E-4</v>
+      </c>
+      <c r="W42" s="62">
+        <f t="shared" si="3"/>
+        <v>2.2627314814814815E-3</v>
+      </c>
+      <c r="X42" s="62">
+        <f t="shared" si="4"/>
+        <v>2.0410879629629629E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A43" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="59">
+        <v>18</v>
+      </c>
+      <c r="D43" s="59">
+        <v>18</v>
+      </c>
+      <c r="E43" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F43" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G43" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59">
+        <v>10</v>
+      </c>
+      <c r="M43" s="62">
+        <v>4.6690972222222218E-4</v>
+      </c>
+      <c r="N43" s="62">
+        <v>7.3858506944444438E-4</v>
+      </c>
+      <c r="O43" s="62">
+        <v>1.0033246527777777E-3</v>
+      </c>
+      <c r="P43" s="62">
+        <v>8.4144097222222216E-4</v>
+      </c>
+      <c r="Q43" s="62">
+        <v>2.0802864583333333E-3</v>
+      </c>
+      <c r="R43" s="62">
+        <v>1.9033506944444441E-3</v>
+      </c>
+      <c r="S43" s="62">
+        <v>4.6690972222222218E-4</v>
+      </c>
+      <c r="T43" s="62">
+        <v>7.3858506944444438E-4</v>
+      </c>
+      <c r="U43" s="62">
+        <v>1.0033246527777777E-3</v>
+      </c>
+      <c r="V43" s="62">
+        <v>8.4144097222222216E-4</v>
+      </c>
+      <c r="W43" s="62">
+        <v>2.0802864583333333E-3</v>
+      </c>
+      <c r="X43" s="62">
+        <v>1.9033506944444441E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A44" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="59">
+        <v>17</v>
+      </c>
+      <c r="D44" s="59">
+        <v>17</v>
+      </c>
+      <c r="E44" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F44" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G44" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59">
+        <v>10</v>
+      </c>
+      <c r="M44" s="62">
+        <v>4.7207465277777775E-4</v>
+      </c>
+      <c r="N44" s="62">
+        <v>7.4581597222222226E-4</v>
+      </c>
+      <c r="O44" s="62">
+        <v>1.0179340277777778E-3</v>
+      </c>
+      <c r="P44" s="62">
+        <v>8.5959201388888891E-4</v>
+      </c>
+      <c r="Q44" s="62">
+        <v>2.1049305555555552E-3</v>
+      </c>
+      <c r="R44" s="62">
+        <v>1.9257812499999998E-3</v>
+      </c>
+      <c r="S44" s="62">
+        <v>4.7207465277777775E-4</v>
+      </c>
+      <c r="T44" s="62">
+        <v>7.4581597222222226E-4</v>
+      </c>
+      <c r="U44" s="62">
+        <v>1.0179340277777778E-3</v>
+      </c>
+      <c r="V44" s="62">
+        <v>8.5959201388888891E-4</v>
+      </c>
+      <c r="W44" s="62">
+        <v>2.1049305555555552E-3</v>
+      </c>
+      <c r="X44" s="62">
+        <v>1.9257812499999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A45" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="59">
+        <v>12</v>
+      </c>
+      <c r="D45" s="59">
+        <v>16</v>
+      </c>
+      <c r="E45" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F45" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G45" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59">
+        <v>10</v>
+      </c>
+      <c r="M45" s="62">
+        <v>4.7664930555555546E-4</v>
+      </c>
+      <c r="N45" s="62">
+        <v>7.5260416666666661E-4</v>
+      </c>
+      <c r="O45" s="62">
+        <v>1.0315104166666667E-3</v>
+      </c>
+      <c r="P45" s="62">
+        <v>8.7626736111111119E-4</v>
+      </c>
+      <c r="Q45" s="62">
+        <v>2.1278038194444443E-3</v>
+      </c>
+      <c r="R45" s="62">
+        <v>1.9464409722222222E-3</v>
+      </c>
+      <c r="S45" s="62">
+        <v>4.7664930555555546E-4</v>
+      </c>
+      <c r="T45" s="62">
+        <v>7.5260416666666661E-4</v>
+      </c>
+      <c r="U45" s="62">
+        <v>1.0315104166666667E-3</v>
+      </c>
+      <c r="V45" s="62">
+        <v>8.7626736111111119E-4</v>
+      </c>
+      <c r="W45" s="62">
+        <v>2.1278038194444443E-3</v>
+      </c>
+      <c r="X45" s="62">
+        <v>1.9464409722222222E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A46" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="59">
+        <v>18</v>
+      </c>
+      <c r="D46" s="59">
+        <v>18</v>
+      </c>
+      <c r="E46" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F46" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G46" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59">
+        <v>10</v>
+      </c>
+      <c r="M46" s="62">
+        <v>5.7758680555555558E-4</v>
+      </c>
+      <c r="N46" s="62">
+        <v>8.6918402777777775E-4</v>
+      </c>
+      <c r="O46" s="62">
+        <v>1.1755381944444443E-3</v>
+      </c>
+      <c r="P46" s="62">
+        <v>9.653993055555555E-4</v>
+      </c>
+      <c r="Q46" s="62">
+        <v>2.275520833333333E-3</v>
+      </c>
+      <c r="R46" s="62">
+        <v>2.0668576388888885E-3</v>
+      </c>
+      <c r="S46" s="62">
+        <v>5.7758680555555558E-4</v>
+      </c>
+      <c r="T46" s="62">
+        <v>8.6918402777777775E-4</v>
+      </c>
+      <c r="U46" s="62">
+        <v>1.1755381944444443E-3</v>
+      </c>
+      <c r="V46" s="62">
+        <v>9.653993055555555E-4</v>
+      </c>
+      <c r="W46" s="62">
+        <v>2.275520833333333E-3</v>
+      </c>
+      <c r="X46" s="62">
+        <v>2.0668576388888885E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A47" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="59">
+        <v>17</v>
+      </c>
+      <c r="D47" s="59">
+        <v>17</v>
+      </c>
+      <c r="E47" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F47" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G47" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59">
+        <v>10</v>
+      </c>
+      <c r="M47" s="62">
+        <v>5.8924479166666663E-4</v>
+      </c>
+      <c r="N47" s="62">
+        <v>8.7907118055555557E-4</v>
+      </c>
+      <c r="O47" s="62">
+        <v>1.196640625E-3</v>
+      </c>
+      <c r="P47" s="62">
+        <v>9.7956597222222195E-4</v>
+      </c>
+      <c r="Q47" s="62">
+        <v>2.2923437499999997E-3</v>
+      </c>
+      <c r="R47" s="62">
+        <v>2.0746788194444445E-3</v>
+      </c>
+      <c r="S47" s="62">
+        <v>5.8924479166666663E-4</v>
+      </c>
+      <c r="T47" s="62">
+        <v>8.7907118055555557E-4</v>
+      </c>
+      <c r="U47" s="62">
+        <v>1.196640625E-3</v>
+      </c>
+      <c r="V47" s="62">
+        <v>9.7956597222222195E-4</v>
+      </c>
+      <c r="W47" s="62">
+        <v>2.2923437499999997E-3</v>
+      </c>
+      <c r="X47" s="62">
+        <v>2.0746788194444445E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A48" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" s="59">
+        <v>12</v>
+      </c>
+      <c r="D48" s="59">
+        <v>16</v>
+      </c>
+      <c r="E48" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F48" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G48" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59">
+        <v>10</v>
+      </c>
+      <c r="M48" s="62">
+        <v>6.0031249999999993E-4</v>
+      </c>
+      <c r="N48" s="62">
+        <v>8.8822048611111111E-4</v>
+      </c>
+      <c r="O48" s="62">
+        <v>1.2161197916666666E-3</v>
+      </c>
+      <c r="P48" s="62">
+        <v>9.9255208333333335E-4</v>
+      </c>
+      <c r="Q48" s="62">
+        <v>2.3079861111111109E-3</v>
+      </c>
+      <c r="R48" s="62">
+        <v>2.081909722222222E-3</v>
+      </c>
+      <c r="S48" s="62">
+        <v>6.0031249999999993E-4</v>
+      </c>
+      <c r="T48" s="62">
+        <v>8.8822048611111111E-4</v>
+      </c>
+      <c r="U48" s="62">
+        <v>1.2161197916666666E-3</v>
+      </c>
+      <c r="V48" s="62">
+        <v>9.9255208333333335E-4</v>
+      </c>
+      <c r="W48" s="62">
+        <v>2.3079861111111109E-3</v>
+      </c>
+      <c r="X48" s="62">
+        <v>2.081909722222222E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A49" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="59">
+        <v>18</v>
+      </c>
+      <c r="D49" s="59">
+        <v>18</v>
+      </c>
+      <c r="E49" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F49" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G49" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59">
+        <v>10</v>
+      </c>
+      <c r="M49" s="62">
+        <v>4.7606481481481485E-4</v>
+      </c>
+      <c r="N49" s="62">
+        <v>7.5306712962962957E-4</v>
+      </c>
+      <c r="O49" s="62">
+        <v>1.0229976851851852E-3</v>
+      </c>
+      <c r="P49" s="62">
+        <v>8.5793981481481485E-4</v>
+      </c>
+      <c r="Q49" s="62">
+        <v>2.1210763888888889E-3</v>
+      </c>
+      <c r="R49" s="62">
+        <v>1.9406712962962962E-3</v>
+      </c>
+      <c r="S49" s="62">
+        <v>4.7606481481481485E-4</v>
+      </c>
+      <c r="T49" s="62">
+        <v>7.5306712962962957E-4</v>
+      </c>
+      <c r="U49" s="62">
+        <v>1.0229976851851852E-3</v>
+      </c>
+      <c r="V49" s="62">
+        <v>8.5793981481481485E-4</v>
+      </c>
+      <c r="W49" s="62">
+        <v>2.1210763888888889E-3</v>
+      </c>
+      <c r="X49" s="62">
+        <v>1.9406712962962962E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A50" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="59">
+        <v>17</v>
+      </c>
+      <c r="D50" s="59">
+        <v>17</v>
+      </c>
+      <c r="E50" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F50" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G50" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59">
+        <v>10</v>
+      </c>
+      <c r="M50" s="62">
+        <v>4.8133101851851852E-4</v>
+      </c>
+      <c r="N50" s="62">
+        <v>7.6043981481481492E-4</v>
+      </c>
+      <c r="O50" s="62">
+        <v>1.0378935185185187E-3</v>
+      </c>
+      <c r="P50" s="62">
+        <v>8.7644675925925932E-4</v>
+      </c>
+      <c r="Q50" s="62">
+        <v>2.1462037037037036E-3</v>
+      </c>
+      <c r="R50" s="62">
+        <v>1.9635416666666668E-3</v>
+      </c>
+      <c r="S50" s="62">
+        <v>4.8133101851851852E-4</v>
+      </c>
+      <c r="T50" s="62">
+        <v>7.6043981481481492E-4</v>
+      </c>
+      <c r="U50" s="62">
+        <v>1.0378935185185187E-3</v>
+      </c>
+      <c r="V50" s="62">
+        <v>8.7644675925925932E-4</v>
+      </c>
+      <c r="W50" s="62">
+        <v>2.1462037037037036E-3</v>
+      </c>
+      <c r="X50" s="62">
+        <v>1.9635416666666668E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A51" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="59">
+        <v>12</v>
+      </c>
+      <c r="D51" s="59">
+        <v>16</v>
+      </c>
+      <c r="E51" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F51" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G51" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59">
+        <v>10</v>
+      </c>
+      <c r="M51" s="62">
+        <v>4.8599537037037036E-4</v>
+      </c>
+      <c r="N51" s="62">
+        <v>7.6736111111111113E-4</v>
+      </c>
+      <c r="O51" s="62">
+        <v>1.0517361111111114E-3</v>
+      </c>
+      <c r="P51" s="62">
+        <v>8.9344907407407418E-4</v>
+      </c>
+      <c r="Q51" s="62">
+        <v>2.1695254629629629E-3</v>
+      </c>
+      <c r="R51" s="62">
+        <v>1.9846064814814817E-3</v>
+      </c>
+      <c r="S51" s="62">
+        <v>4.8599537037037036E-4</v>
+      </c>
+      <c r="T51" s="62">
+        <v>7.6736111111111113E-4</v>
+      </c>
+      <c r="U51" s="62">
+        <v>1.0517361111111114E-3</v>
+      </c>
+      <c r="V51" s="62">
+        <v>8.9344907407407418E-4</v>
+      </c>
+      <c r="W51" s="62">
+        <v>2.1695254629629629E-3</v>
+      </c>
+      <c r="X51" s="62">
+        <v>1.9846064814814817E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A52" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="59">
+        <v>18</v>
+      </c>
+      <c r="D52" s="59">
+        <v>18</v>
+      </c>
+      <c r="E52" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F52" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G52" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59">
+        <v>10</v>
+      </c>
+      <c r="M52" s="62">
+        <v>5.8891203703703709E-4</v>
+      </c>
+      <c r="N52" s="62">
+        <v>8.8622685185185191E-4</v>
+      </c>
+      <c r="O52" s="62">
+        <v>1.1985879629629629E-3</v>
+      </c>
+      <c r="P52" s="62">
+        <v>9.8432870370370362E-4</v>
+      </c>
+      <c r="Q52" s="62">
+        <v>2.3201388888888889E-3</v>
+      </c>
+      <c r="R52" s="62">
+        <v>2.1073842592592594E-3</v>
+      </c>
+      <c r="S52" s="62">
+        <v>5.8891203703703709E-4</v>
+      </c>
+      <c r="T52" s="62">
+        <v>8.8622685185185191E-4</v>
+      </c>
+      <c r="U52" s="62">
+        <v>1.1985879629629629E-3</v>
+      </c>
+      <c r="V52" s="62">
+        <v>9.8432870370370362E-4</v>
+      </c>
+      <c r="W52" s="62">
+        <v>2.3201388888888889E-3</v>
+      </c>
+      <c r="X52" s="62">
+        <v>2.1073842592592594E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A53" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="59">
+        <v>17</v>
+      </c>
+      <c r="D53" s="59">
+        <v>17</v>
+      </c>
+      <c r="E53" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F53" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G53" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59">
+        <v>10</v>
+      </c>
+      <c r="M53" s="62">
+        <v>6.0079861111111119E-4</v>
+      </c>
+      <c r="N53" s="62">
+        <v>8.9630787037037044E-4</v>
+      </c>
+      <c r="O53" s="62">
+        <v>1.2201041666666669E-3</v>
+      </c>
+      <c r="P53" s="62">
+        <v>9.9877314814814815E-4</v>
+      </c>
+      <c r="Q53" s="62">
+        <v>2.3372916666666668E-3</v>
+      </c>
+      <c r="R53" s="62">
+        <v>2.1153587962962966E-3</v>
+      </c>
+      <c r="S53" s="62">
+        <v>6.0079861111111119E-4</v>
+      </c>
+      <c r="T53" s="62">
+        <v>8.9630787037037044E-4</v>
+      </c>
+      <c r="U53" s="62">
+        <v>1.2201041666666669E-3</v>
+      </c>
+      <c r="V53" s="62">
+        <v>9.9877314814814815E-4</v>
+      </c>
+      <c r="W53" s="62">
+        <v>2.3372916666666668E-3</v>
+      </c>
+      <c r="X53" s="62">
+        <v>2.1153587962962966E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A54" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="59">
+        <v>12</v>
+      </c>
+      <c r="D54" s="59">
+        <v>16</v>
+      </c>
+      <c r="E54" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F54" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G54" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59">
+        <v>10</v>
+      </c>
+      <c r="M54" s="62">
+        <v>6.1208333333333329E-4</v>
+      </c>
+      <c r="N54" s="62">
+        <v>9.0563657407407411E-4</v>
+      </c>
+      <c r="O54" s="62">
+        <v>1.2399652777777778E-3</v>
+      </c>
+      <c r="P54" s="62">
+        <v>1.0120138888888889E-3</v>
+      </c>
+      <c r="Q54" s="62">
+        <v>2.3532407407407408E-3</v>
+      </c>
+      <c r="R54" s="62">
+        <v>2.1227314814814815E-3</v>
+      </c>
+      <c r="S54" s="62">
+        <v>6.1208333333333329E-4</v>
+      </c>
+      <c r="T54" s="62">
+        <v>9.0563657407407411E-4</v>
+      </c>
+      <c r="U54" s="62">
+        <v>1.2399652777777778E-3</v>
+      </c>
+      <c r="V54" s="62">
+        <v>1.0120138888888889E-3</v>
+      </c>
+      <c r="W54" s="62">
+        <v>2.3532407407407408E-3</v>
+      </c>
+      <c r="X54" s="62">
+        <v>2.1227314814814815E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A55" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="59">
+        <v>15</v>
+      </c>
+      <c r="D55" s="59">
+        <v>18</v>
+      </c>
+      <c r="E55" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F55" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G55" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" s="59">
+        <v>25</v>
+      </c>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59">
+        <v>10</v>
+      </c>
+      <c r="M55" s="62">
+        <v>4.6817129629629634E-4</v>
+      </c>
+      <c r="N55" s="62">
+        <v>7.4872685185185188E-4</v>
+      </c>
+      <c r="O55" s="62">
+        <v>9.9224537037037033E-4</v>
+      </c>
+      <c r="P55" s="62">
+        <v>7.8888888888888889E-4</v>
+      </c>
+      <c r="Q55" s="62">
+        <v>1.9605324074074074E-3</v>
+      </c>
+      <c r="R55" s="62">
+        <v>1.7837962962962963E-3</v>
+      </c>
+      <c r="S55" s="62">
+        <v>4.803240740740741E-4</v>
+      </c>
+      <c r="T55" s="62">
+        <v>7.8599537037037039E-4</v>
+      </c>
+      <c r="U55" s="62">
+        <v>1.0240740740740742E-3</v>
+      </c>
+      <c r="V55" s="62">
+        <v>8.2766203703703712E-4</v>
+      </c>
+      <c r="W55" s="62">
+        <v>2.0114583333333334E-3</v>
+      </c>
+      <c r="X55" s="62">
+        <v>1.8332175925925925E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A56" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="59">
+        <v>15</v>
+      </c>
+      <c r="D56" s="59">
+        <v>18</v>
+      </c>
+      <c r="E56" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F56" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G56" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="59">
+        <v>50</v>
+      </c>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59">
+        <v>10</v>
+      </c>
+      <c r="M56" s="62">
+        <f>M55*1.1</f>
+        <v>5.1498842592592601E-4</v>
+      </c>
+      <c r="N56" s="62">
+        <f t="shared" ref="N56:X56" si="6">N55*1.1</f>
+        <v>8.2359953703703718E-4</v>
+      </c>
+      <c r="O56" s="62">
+        <f t="shared" si="6"/>
+        <v>1.0914699074074075E-3</v>
+      </c>
+      <c r="P56" s="62">
+        <f t="shared" si="6"/>
+        <v>8.6777777777777786E-4</v>
+      </c>
+      <c r="Q56" s="62">
+        <f t="shared" si="6"/>
+        <v>2.1565856481481484E-3</v>
+      </c>
+      <c r="R56" s="62">
+        <f t="shared" si="6"/>
+        <v>1.9621759259259262E-3</v>
+      </c>
+      <c r="S56" s="62">
+        <f t="shared" si="6"/>
+        <v>5.2835648148148154E-4</v>
+      </c>
+      <c r="T56" s="62">
+        <f t="shared" si="6"/>
+        <v>8.6459490740740746E-4</v>
+      </c>
+      <c r="U56" s="62">
+        <f t="shared" si="6"/>
+        <v>1.1264814814814818E-3</v>
+      </c>
+      <c r="V56" s="62">
+        <f t="shared" si="6"/>
+        <v>9.1042824074074095E-4</v>
+      </c>
+      <c r="W56" s="62">
+        <f t="shared" si="6"/>
+        <v>2.212604166666667E-3</v>
+      </c>
+      <c r="X56" s="62">
+        <f t="shared" si="6"/>
+        <v>2.0165393518518518E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A57" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="59">
+        <v>19</v>
+      </c>
+      <c r="D57" s="59">
+        <v>19</v>
+      </c>
+      <c r="E57" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F57" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G57" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I57" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59">
+        <v>10</v>
+      </c>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="62"/>
+      <c r="V57" s="62"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A58" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="59">
+        <v>20</v>
+      </c>
+      <c r="D58" s="59">
+        <v>22</v>
+      </c>
+      <c r="E58" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F58" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G58" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59">
+        <v>10</v>
+      </c>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="62"/>
+      <c r="W58" s="62"/>
+      <c r="X58" s="62"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A59" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="59">
+        <v>23</v>
+      </c>
+      <c r="D59" s="59">
+        <v>50</v>
+      </c>
+      <c r="E59" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F59" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G59" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59">
+        <v>10</v>
+      </c>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="62"/>
+      <c r="V59" s="62"/>
+      <c r="W59" s="62"/>
+      <c r="X59" s="62"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A60" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="59">
+        <v>19</v>
+      </c>
+      <c r="D60" s="59">
+        <v>19</v>
+      </c>
+      <c r="E60" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F60" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G60" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59">
+        <v>10</v>
+      </c>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="62"/>
+      <c r="V60" s="62"/>
+      <c r="W60" s="62"/>
+      <c r="X60" s="62"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A61" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="59">
+        <v>20</v>
+      </c>
+      <c r="D61" s="59">
+        <v>22</v>
+      </c>
+      <c r="E61" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F61" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G61" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59">
+        <v>10</v>
+      </c>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A62" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="59">
+        <v>23</v>
+      </c>
+      <c r="D62" s="59">
+        <v>50</v>
+      </c>
+      <c r="E62" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F62" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G62" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59">
+        <v>10</v>
+      </c>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14535,8 +17595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:AA37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14655,13 +17715,13 @@
         <v>0</v>
       </c>
       <c r="X5" s="65">
-        <v>4.708333333333333E-4</v>
+        <v>4.4097222222222226E-4</v>
       </c>
       <c r="Y5" s="65">
-        <v>4.621527777777778E-4</v>
+        <v>4.3379629629629627E-4</v>
       </c>
       <c r="Z5" s="65">
-        <v>4.5300925925925928E-4</v>
+        <v>4.1157407407407408E-4</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.45">
@@ -14708,13 +17768,13 @@
         <v>225</v>
       </c>
       <c r="X6" s="65">
-        <v>9.5381944444444442E-4</v>
+        <v>9.0034722222222209E-4</v>
       </c>
       <c r="Y6" s="65">
-        <v>9.3854166666666673E-4</v>
+        <v>8.8726851851851846E-4</v>
       </c>
       <c r="Z6" s="65">
-        <v>9.2199074074074069E-4</v>
+        <v>8.4699074074074082E-4</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.45">
@@ -14761,13 +17821,13 @@
         <v>226</v>
       </c>
       <c r="X7" s="65">
-        <v>6.9664351851851853E-4</v>
+        <v>6.7164351851851857E-4</v>
       </c>
       <c r="Y7" s="65">
-        <v>6.8946759259259265E-4</v>
+        <v>6.653935185185185E-4</v>
       </c>
       <c r="Z7" s="65">
-        <v>6.8171296296296296E-4</v>
+        <v>6.4606481481481481E-4</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -14814,13 +17874,13 @@
         <v>227</v>
       </c>
       <c r="X8" s="65">
-        <v>7.7847222222222228E-4</v>
+        <v>7.4259259259259254E-4</v>
       </c>
       <c r="Y8" s="65">
-        <v>7.6828703703703694E-4</v>
+        <v>7.3368055555555556E-4</v>
       </c>
       <c r="Z8" s="65">
-        <v>7.571759259259259E-4</v>
+        <v>7.0625000000000006E-4</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.45">
@@ -14867,13 +17927,13 @@
         <v>228</v>
       </c>
       <c r="X9" s="65">
-        <v>1.6328703703703702E-3</v>
+        <v>1.6129629629629632E-3</v>
       </c>
       <c r="Y9" s="65">
-        <v>1.6271990740740741E-3</v>
+        <v>1.6078703703703706E-3</v>
       </c>
       <c r="Z9" s="65">
-        <v>1.6210648148148148E-3</v>
+        <v>1.5918981481481481E-3</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.45">
@@ -14920,13 +17980,13 @@
         <v>230</v>
       </c>
       <c r="X10" s="65">
-        <v>1.8101851851851853E-3</v>
+        <v>1.767361111111111E-3</v>
       </c>
       <c r="Y10" s="65">
-        <v>1.7979166666666666E-3</v>
+        <v>1.7564814814814815E-3</v>
       </c>
       <c r="Z10" s="65">
-        <v>1.784722222222222E-3</v>
+        <v>1.7228009259259258E-3</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.45">
@@ -15053,18 +18113,18 @@
       </c>
       <c r="X14" s="65">
         <f>X5*$AA14</f>
-        <v>5.6499999999999996E-4</v>
+        <v>4.8506944444444455E-4</v>
       </c>
       <c r="Y14" s="65">
         <f t="shared" ref="Y14:Z14" si="3">Y5*$AA14</f>
-        <v>5.5458333333333336E-4</v>
+        <v>4.7717592592592592E-4</v>
       </c>
       <c r="Z14" s="65">
         <f t="shared" si="3"/>
-        <v>5.4361111111111114E-4</v>
+        <v>4.5273148148148153E-4</v>
       </c>
       <c r="AA14">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.45">
@@ -15127,18 +18187,18 @@
       </c>
       <c r="X15" s="65">
         <f t="shared" ref="X15:Z15" si="7">X6*$AA15</f>
-        <v>1.1445833333333332E-3</v>
+        <v>9.9038194444444434E-4</v>
       </c>
       <c r="Y15" s="65">
         <f t="shared" si="7"/>
-        <v>1.1262500000000001E-3</v>
+        <v>9.7599537037037034E-4</v>
       </c>
       <c r="Z15" s="65">
         <f t="shared" si="7"/>
-        <v>1.1063888888888887E-3</v>
+        <v>9.3168981481481499E-4</v>
       </c>
       <c r="AA15">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.45">
@@ -15201,18 +18261,18 @@
       </c>
       <c r="X16" s="65">
         <f t="shared" ref="X16:Z16" si="11">X7*$AA16</f>
-        <v>8.3597222222222222E-4</v>
+        <v>7.3880787037037046E-4</v>
       </c>
       <c r="Y16" s="65">
         <f t="shared" si="11"/>
-        <v>8.2736111111111118E-4</v>
+        <v>7.3193287037037042E-4</v>
       </c>
       <c r="Z16" s="65">
         <f t="shared" si="11"/>
-        <v>8.1805555555555548E-4</v>
+        <v>7.1067129629629638E-4</v>
       </c>
       <c r="AA16">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -15275,18 +18335,18 @@
       </c>
       <c r="X17" s="65">
         <f t="shared" ref="X17:Z17" si="15">X8*$AA17</f>
-        <v>9.341666666666667E-4</v>
+        <v>8.1685185185185192E-4</v>
       </c>
       <c r="Y17" s="65">
         <f t="shared" si="15"/>
-        <v>9.2194444444444431E-4</v>
+        <v>8.0704861111111114E-4</v>
       </c>
       <c r="Z17" s="65">
         <f t="shared" si="15"/>
-        <v>9.0861111111111101E-4</v>
+        <v>7.7687500000000011E-4</v>
       </c>
       <c r="AA17">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.45">
@@ -15349,18 +18409,18 @@
       </c>
       <c r="X18" s="65">
         <f t="shared" ref="X18:Z18" si="19">X9*$AA18</f>
-        <v>1.9594444444444442E-3</v>
+        <v>1.7742592592592597E-3</v>
       </c>
       <c r="Y18" s="65">
         <f t="shared" si="19"/>
-        <v>1.9526388888888887E-3</v>
+        <v>1.7686574074074078E-3</v>
       </c>
       <c r="Z18" s="65">
         <f t="shared" si="19"/>
-        <v>1.9452777777777775E-3</v>
+        <v>1.751087962962963E-3</v>
       </c>
       <c r="AA18">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.45">
@@ -15423,18 +18483,18 @@
       </c>
       <c r="X19" s="65">
         <f t="shared" ref="X19:Z19" si="23">X10*$AA19</f>
-        <v>2.1722222222222221E-3</v>
+        <v>1.9440972222222223E-3</v>
       </c>
       <c r="Y19" s="65">
         <f t="shared" si="23"/>
-        <v>2.1574999999999997E-3</v>
+        <v>1.9321296296296298E-3</v>
       </c>
       <c r="Z19" s="65">
         <f t="shared" si="23"/>
-        <v>2.1416666666666663E-3</v>
+        <v>1.8950810185185186E-3</v>
       </c>
       <c r="AA19">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D496192-406E-4881-84E5-0AC548C3A637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB14A7B-142B-41EC-B3C6-4EBC5707A0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="DR" sheetId="9" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="273">
   <si>
     <t>50m Retten</t>
   </si>
@@ -867,12 +867,6 @@
     <t>PZ2 - 200m Hindernis</t>
   </si>
   <si>
-    <t>Weiblich</t>
-  </si>
-  <si>
-    <t>Männlich</t>
-  </si>
-  <si>
     <t>Weiblich U17</t>
   </si>
   <si>
@@ -921,9 +915,6 @@
     <t>NK2 % M</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>NK1 + 10% Frauen</t>
   </si>
   <si>
@@ -994,6 +985,60 @@
   </si>
   <si>
     <t>NK2 +12,5% Frauen</t>
+  </si>
+  <si>
+    <t>JRP (TEST) Weiblich</t>
+  </si>
+  <si>
+    <t>JRP (TEST) Männlich</t>
+  </si>
+  <si>
+    <t>NK1 +12,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +12,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +15% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +15% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +17,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +17,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +20% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +20% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +22,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +22,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +25% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +25% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +27,5% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +27,5% Frauen</t>
+  </si>
+  <si>
+    <t>NK1 +30% Mäner</t>
+  </si>
+  <si>
+    <t>NK1 +30% Frauen</t>
   </si>
 </sst>
 </file>
@@ -4127,8 +4172,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X62" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X62" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X105" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:X105" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9778,7 +9823,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12264,10 +12309,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>198</v>
@@ -12287,7 +12332,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O2" s="59">
         <v>0</v>
@@ -12325,10 +12370,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" s="59" t="s">
         <v>198</v>
@@ -12348,7 +12393,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O3" s="59">
         <v>0</v>
@@ -12962,7 +13007,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -13032,7 +13077,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -13102,7 +13147,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>164</v>
@@ -13172,7 +13217,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>182</v>
@@ -13393,10 +13438,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView topLeftCell="J32" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13503,7 +13548,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" s="59" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>164</v>
@@ -13573,7 +13618,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>182</v>
@@ -13642,89 +13687,221 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
+      <c r="A4" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="59">
+        <v>18</v>
+      </c>
+      <c r="D4" s="59">
+        <v>18</v>
+      </c>
+      <c r="E4" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F4" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G4" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
+      <c r="L4" s="59">
+        <v>10</v>
+      </c>
+      <c r="M4" s="62">
+        <v>4.1197916666666667E-4</v>
+      </c>
+      <c r="N4" s="62">
+        <v>6.5169270833333333E-4</v>
+      </c>
+      <c r="O4" s="62">
+        <v>8.8528645833333319E-4</v>
+      </c>
+      <c r="P4" s="62">
+        <v>7.4244791666666665E-4</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>1.8355468749999999E-3</v>
+      </c>
+      <c r="R4" s="62">
+        <v>1.6794270833333331E-3</v>
+      </c>
+      <c r="S4" s="62">
+        <v>4.1197916666666667E-4</v>
+      </c>
+      <c r="T4" s="62">
+        <v>6.5169270833333333E-4</v>
+      </c>
+      <c r="U4" s="62">
+        <v>8.8528645833333319E-4</v>
+      </c>
+      <c r="V4" s="62">
+        <v>7.4244791666666665E-4</v>
+      </c>
+      <c r="W4" s="62">
+        <v>1.8355468749999999E-3</v>
+      </c>
+      <c r="X4" s="62">
+        <v>1.6794270833333331E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="A5" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="59">
+        <v>17</v>
+      </c>
+      <c r="D5" s="59">
+        <v>17</v>
+      </c>
+      <c r="E5" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F5" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G5" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="J5" s="59"/>
       <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
+      <c r="L5" s="59">
+        <v>10</v>
+      </c>
+      <c r="M5" s="62">
+        <v>4.1653645833333332E-4</v>
+      </c>
+      <c r="N5" s="62">
+        <v>6.5807291666666672E-4</v>
+      </c>
+      <c r="O5" s="62">
+        <v>8.981770833333334E-4</v>
+      </c>
+      <c r="P5" s="62">
+        <v>7.5846354166666673E-4</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>1.8572916666666664E-3</v>
+      </c>
+      <c r="R5" s="62">
+        <v>1.69921875E-3</v>
+      </c>
+      <c r="S5" s="62">
+        <v>4.1653645833333332E-4</v>
+      </c>
+      <c r="T5" s="62">
+        <v>6.5807291666666672E-4</v>
+      </c>
+      <c r="U5" s="62">
+        <v>8.981770833333334E-4</v>
+      </c>
+      <c r="V5" s="62">
+        <v>7.5846354166666673E-4</v>
+      </c>
+      <c r="W5" s="62">
+        <v>1.8572916666666664E-3</v>
+      </c>
+      <c r="X5" s="62">
+        <v>1.69921875E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="A6" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="59">
+        <v>12</v>
+      </c>
+      <c r="D6" s="59">
+        <v>16</v>
+      </c>
+      <c r="E6" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F6" s="61">
+        <v>46023</v>
+      </c>
+      <c r="G6" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
+      <c r="L6" s="59">
+        <v>10</v>
+      </c>
+      <c r="M6" s="62">
+        <v>4.2057291666666664E-4</v>
+      </c>
+      <c r="N6" s="62">
+        <v>6.6406250000000005E-4</v>
+      </c>
+      <c r="O6" s="62">
+        <v>9.1015625000000016E-4</v>
+      </c>
+      <c r="P6" s="62">
+        <v>7.731770833333334E-4</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>1.8774739583333334E-3</v>
+      </c>
+      <c r="R6" s="62">
+        <v>1.7174479166666668E-3</v>
+      </c>
+      <c r="S6" s="62">
+        <v>4.2057291666666664E-4</v>
+      </c>
+      <c r="T6" s="62">
+        <v>6.6406250000000005E-4</v>
+      </c>
+      <c r="U6" s="62">
+        <v>9.1015625000000016E-4</v>
+      </c>
+      <c r="V6" s="62">
+        <v>7.731770833333334E-4</v>
+      </c>
+      <c r="W6" s="62">
+        <v>1.8774739583333334E-3</v>
+      </c>
+      <c r="X6" s="62">
+        <v>1.7174479166666668E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C7" s="59">
         <v>18</v>
@@ -13753,48 +13930,48 @@
         <v>10</v>
       </c>
       <c r="M7" s="62">
-        <v>4.1197916666666667E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="N7" s="62">
-        <v>6.5169270833333333E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="O7" s="62">
-        <v>8.8528645833333319E-4</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="P7" s="62">
-        <v>7.4244791666666665E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="Q7" s="62">
-        <v>1.8355468749999999E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="R7" s="62">
-        <v>1.6794270833333331E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
       <c r="S7" s="62">
-        <v>4.1197916666666667E-4</v>
+        <v>5.096354166666667E-4</v>
       </c>
       <c r="T7" s="62">
-        <v>6.5169270833333333E-4</v>
+        <v>7.6692708333333333E-4</v>
       </c>
       <c r="U7" s="62">
-        <v>8.8528645833333319E-4</v>
+        <v>1.0372395833333334E-3</v>
       </c>
       <c r="V7" s="62">
-        <v>7.4244791666666665E-4</v>
+        <v>8.5182291666666664E-4</v>
       </c>
       <c r="W7" s="62">
-        <v>1.8355468749999999E-3</v>
+        <v>2.0078124999999996E-3</v>
       </c>
       <c r="X7" s="62">
-        <v>1.6794270833333331E-3</v>
+        <v>1.8236979166666666E-3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C8" s="59">
         <v>17</v>
@@ -13823,48 +14000,48 @@
         <v>10</v>
       </c>
       <c r="M8" s="62">
-        <v>4.1653645833333332E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="N8" s="62">
-        <v>6.5807291666666672E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="O8" s="62">
-        <v>8.981770833333334E-4</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="P8" s="62">
-        <v>7.5846354166666673E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="Q8" s="62">
-        <v>1.8572916666666664E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="R8" s="62">
-        <v>1.69921875E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
       <c r="S8" s="62">
-        <v>4.1653645833333332E-4</v>
+        <v>5.1992187499999998E-4</v>
       </c>
       <c r="T8" s="62">
-        <v>6.5807291666666672E-4</v>
+        <v>7.7565104166666668E-4</v>
       </c>
       <c r="U8" s="62">
-        <v>8.981770833333334E-4</v>
+        <v>1.0558593750000002E-3</v>
       </c>
       <c r="V8" s="62">
-        <v>7.5846354166666673E-4</v>
+        <v>8.6432291666666656E-4</v>
       </c>
       <c r="W8" s="62">
-        <v>1.8572916666666664E-3</v>
+        <v>2.0226562500000001E-3</v>
       </c>
       <c r="X8" s="62">
-        <v>1.69921875E-3</v>
+        <v>1.8305989583333334E-3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C9" s="59">
         <v>12</v>
@@ -13893,48 +14070,48 @@
         <v>10</v>
       </c>
       <c r="M9" s="62">
-        <v>4.2057291666666664E-4</v>
+        <v>5.2968749999999999E-4</v>
       </c>
       <c r="N9" s="62">
-        <v>6.6406250000000005E-4</v>
+        <v>7.8372395833333332E-4</v>
       </c>
       <c r="O9" s="62">
-        <v>9.1015625000000016E-4</v>
+        <v>1.073046875E-3</v>
       </c>
       <c r="P9" s="62">
-        <v>7.731770833333334E-4</v>
+        <v>8.7578125000000004E-4</v>
       </c>
       <c r="Q9" s="62">
-        <v>1.8774739583333334E-3</v>
+        <v>2.0364583333333333E-3</v>
       </c>
       <c r="R9" s="62">
-        <v>1.7174479166666668E-3</v>
+        <v>1.8369791666666664E-3</v>
       </c>
       <c r="S9" s="62">
-        <v>4.2057291666666664E-4</v>
+        <v>5.2968749999999999E-4</v>
       </c>
       <c r="T9" s="62">
-        <v>6.6406250000000005E-4</v>
+        <v>7.8372395833333332E-4</v>
       </c>
       <c r="U9" s="62">
-        <v>9.1015625000000016E-4</v>
+        <v>1.073046875E-3</v>
       </c>
       <c r="V9" s="62">
-        <v>7.731770833333334E-4</v>
+        <v>8.7578125000000004E-4</v>
       </c>
       <c r="W9" s="62">
-        <v>1.8774739583333334E-3</v>
+        <v>2.0364583333333333E-3</v>
       </c>
       <c r="X9" s="62">
-        <v>1.7174479166666668E-3</v>
+        <v>1.8369791666666664E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C10" s="59">
         <v>18</v>
@@ -13963,48 +14140,48 @@
         <v>10</v>
       </c>
       <c r="M10" s="62">
-        <v>5.096354166666667E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="N10" s="62">
-        <v>7.6692708333333333E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="O10" s="62">
-        <v>1.0372395833333334E-3</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="P10" s="62">
-        <v>8.5182291666666664E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="Q10" s="62">
-        <v>2.0078124999999996E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="R10" s="62">
-        <v>1.8236979166666666E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
       <c r="S10" s="62">
-        <v>5.096354166666667E-4</v>
+        <v>4.2113425925925923E-4</v>
       </c>
       <c r="T10" s="62">
-        <v>7.6692708333333333E-4</v>
+        <v>6.6617476851851842E-4</v>
       </c>
       <c r="U10" s="62">
-        <v>1.0372395833333334E-3</v>
+        <v>9.0495949074074057E-4</v>
       </c>
       <c r="V10" s="62">
-        <v>8.5182291666666664E-4</v>
+        <v>7.5894675925925923E-4</v>
       </c>
       <c r="W10" s="62">
-        <v>2.0078124999999996E-3</v>
+        <v>1.8763368055555554E-3</v>
       </c>
       <c r="X10" s="62">
-        <v>1.8236979166666666E-3</v>
+        <v>1.7167476851851849E-3</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" s="59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C11" s="59">
         <v>17</v>
@@ -14033,48 +14210,48 @@
         <v>10</v>
       </c>
       <c r="M11" s="62">
-        <v>5.1992187499999998E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="N11" s="62">
-        <v>7.7565104166666668E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="O11" s="62">
-        <v>1.0558593750000002E-3</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="P11" s="62">
-        <v>8.6432291666666656E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="Q11" s="62">
-        <v>2.0226562500000001E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="R11" s="62">
-        <v>1.8305989583333334E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
       <c r="S11" s="62">
-        <v>5.1992187499999998E-4</v>
+        <v>4.2579282407407404E-4</v>
       </c>
       <c r="T11" s="62">
-        <v>7.7565104166666668E-4</v>
+        <v>6.7269675925925928E-4</v>
       </c>
       <c r="U11" s="62">
-        <v>1.0558593750000002E-3</v>
+        <v>9.1813657407407404E-4</v>
       </c>
       <c r="V11" s="62">
-        <v>8.6432291666666656E-4</v>
+        <v>7.7531828703703703E-4</v>
       </c>
       <c r="W11" s="62">
-        <v>2.0226562500000001E-3</v>
+        <v>1.8985648148148143E-3</v>
       </c>
       <c r="X11" s="62">
-        <v>1.8305989583333334E-3</v>
+        <v>1.7369791666666664E-3</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C12" s="59">
         <v>12</v>
@@ -14103,48 +14280,48 @@
         <v>10</v>
       </c>
       <c r="M12" s="62">
-        <v>5.2968749999999999E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="N12" s="62">
-        <v>7.8372395833333332E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="O12" s="62">
-        <v>1.073046875E-3</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="P12" s="62">
-        <v>8.7578125000000004E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="Q12" s="62">
-        <v>2.0364583333333333E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="R12" s="62">
-        <v>1.8369791666666664E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
       <c r="S12" s="62">
-        <v>5.2968749999999999E-4</v>
+        <v>4.2991898148148143E-4</v>
       </c>
       <c r="T12" s="62">
-        <v>7.8372395833333332E-4</v>
+        <v>6.7881944444444435E-4</v>
       </c>
       <c r="U12" s="62">
-        <v>1.073046875E-3</v>
+        <v>9.3038194444444451E-4</v>
       </c>
       <c r="V12" s="62">
-        <v>8.7578125000000004E-4</v>
+        <v>7.9035879629629627E-4</v>
       </c>
       <c r="W12" s="62">
-        <v>2.0364583333333333E-3</v>
+        <v>1.9191956018518516E-3</v>
       </c>
       <c r="X12" s="62">
-        <v>1.8369791666666664E-3</v>
+        <v>1.7556134259259259E-3</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" s="59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C13" s="59">
         <v>18</v>
@@ -14173,48 +14350,48 @@
         <v>10</v>
       </c>
       <c r="M13" s="62">
-        <v>4.2113425925925923E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="N13" s="62">
-        <v>6.6617476851851842E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="O13" s="62">
-        <v>9.0495949074074057E-4</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="P13" s="62">
-        <v>7.5894675925925923E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="Q13" s="62">
-        <v>1.8763368055555554E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="R13" s="62">
-        <v>1.7167476851851849E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
       <c r="S13" s="62">
-        <v>4.2113425925925923E-4</v>
+        <v>5.2096064814814811E-4</v>
       </c>
       <c r="T13" s="62">
-        <v>6.6617476851851842E-4</v>
+        <v>7.8396990740740738E-4</v>
       </c>
       <c r="U13" s="62">
-        <v>9.0495949074074057E-4</v>
+        <v>1.0602893518518518E-3</v>
       </c>
       <c r="V13" s="62">
-        <v>7.5894675925925923E-4</v>
+        <v>8.7075231481481476E-4</v>
       </c>
       <c r="W13" s="62">
-        <v>1.8763368055555554E-3</v>
+        <v>2.0524305555555552E-3</v>
       </c>
       <c r="X13" s="62">
-        <v>1.7167476851851849E-3</v>
+        <v>1.8642245370370368E-3</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C14" s="59">
         <v>17</v>
@@ -14243,48 +14420,48 @@
         <v>10</v>
       </c>
       <c r="M14" s="62">
-        <v>4.2579282407407404E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="N14" s="62">
-        <v>6.7269675925925928E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="O14" s="62">
-        <v>9.1813657407407404E-4</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="P14" s="62">
-        <v>7.7531828703703703E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="Q14" s="62">
-        <v>1.8985648148148143E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="R14" s="62">
-        <v>1.7369791666666664E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
       <c r="S14" s="62">
-        <v>4.2579282407407404E-4</v>
+        <v>5.3147569444444444E-4</v>
       </c>
       <c r="T14" s="62">
-        <v>6.7269675925925928E-4</v>
+        <v>7.9288773148148144E-4</v>
       </c>
       <c r="U14" s="62">
-        <v>9.1813657407407404E-4</v>
+        <v>1.0793229166666666E-3</v>
       </c>
       <c r="V14" s="62">
-        <v>7.7531828703703703E-4</v>
+        <v>8.8353009259259244E-4</v>
       </c>
       <c r="W14" s="62">
-        <v>1.8985648148148143E-3</v>
+        <v>2.0676041666666664E-3</v>
       </c>
       <c r="X14" s="62">
-        <v>1.7369791666666664E-3</v>
+        <v>1.871278935185185E-3</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C15" s="59">
         <v>12</v>
@@ -14313,48 +14490,48 @@
         <v>10</v>
       </c>
       <c r="M15" s="62">
-        <v>4.2991898148148143E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="N15" s="62">
-        <v>6.7881944444444435E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="O15" s="62">
-        <v>9.3038194444444451E-4</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="P15" s="62">
-        <v>7.9035879629629627E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="Q15" s="62">
-        <v>1.9191956018518516E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="R15" s="62">
-        <v>1.7556134259259259E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
       <c r="S15" s="62">
-        <v>4.2991898148148143E-4</v>
+        <v>5.4145833333333324E-4</v>
       </c>
       <c r="T15" s="62">
-        <v>6.7881944444444435E-4</v>
+        <v>8.0114004629629621E-4</v>
       </c>
       <c r="U15" s="62">
-        <v>9.3038194444444451E-4</v>
+        <v>1.096892361111111E-3</v>
       </c>
       <c r="V15" s="62">
-        <v>7.9035879629629627E-4</v>
+        <v>8.9524305555555559E-4</v>
       </c>
       <c r="W15" s="62">
-        <v>1.9191956018518516E-3</v>
+        <v>2.0817129629629627E-3</v>
       </c>
       <c r="X15" s="62">
-        <v>1.7556134259259259E-3</v>
+        <v>1.8778009259259256E-3</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C16" s="59">
         <v>18</v>
@@ -14383,48 +14560,48 @@
         <v>10</v>
       </c>
       <c r="M16" s="62">
-        <v>5.2096064814814811E-4</v>
+        <v>4.3028935185185189E-4</v>
       </c>
       <c r="N16" s="62">
-        <v>7.8396990740740738E-4</v>
+        <v>6.8065682870370372E-4</v>
       </c>
       <c r="O16" s="62">
-        <v>1.0602893518518518E-3</v>
+        <v>9.2463252314814806E-4</v>
       </c>
       <c r="P16" s="62">
-        <v>8.7075231481481476E-4</v>
+        <v>7.7544560185185192E-4</v>
       </c>
       <c r="Q16" s="62">
-        <v>2.0524305555555552E-3</v>
+        <v>1.9171267361111112E-3</v>
       </c>
       <c r="R16" s="62">
-        <v>1.8642245370370368E-3</v>
+        <v>1.7540682870370368E-3</v>
       </c>
       <c r="S16" s="62">
-        <v>5.2096064814814811E-4</v>
+        <v>4.3028935185185189E-4</v>
       </c>
       <c r="T16" s="62">
-        <v>7.8396990740740738E-4</v>
+        <v>6.8065682870370372E-4</v>
       </c>
       <c r="U16" s="62">
-        <v>1.0602893518518518E-3</v>
+        <v>9.2463252314814806E-4</v>
       </c>
       <c r="V16" s="62">
-        <v>8.7075231481481476E-4</v>
+        <v>7.7544560185185192E-4</v>
       </c>
       <c r="W16" s="62">
-        <v>2.0524305555555552E-3</v>
+        <v>1.9171267361111112E-3</v>
       </c>
       <c r="X16" s="62">
-        <v>1.8642245370370368E-3</v>
+        <v>1.7540682870370368E-3</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C17" s="59">
         <v>17</v>
@@ -14453,48 +14630,48 @@
         <v>10</v>
       </c>
       <c r="M17" s="62">
-        <v>5.3147569444444444E-4</v>
+        <v>4.3504918981481481E-4</v>
       </c>
       <c r="N17" s="62">
-        <v>7.9288773148148144E-4</v>
+        <v>6.8732060185185194E-4</v>
       </c>
       <c r="O17" s="62">
-        <v>1.0793229166666666E-3</v>
+        <v>9.3809606481481489E-4</v>
       </c>
       <c r="P17" s="62">
-        <v>8.8353009259259244E-4</v>
+        <v>7.9217303240740745E-4</v>
       </c>
       <c r="Q17" s="62">
-        <v>2.0676041666666664E-3</v>
+        <v>1.9398379629629629E-3</v>
       </c>
       <c r="R17" s="62">
-        <v>1.871278935185185E-3</v>
+        <v>1.7747395833333335E-3</v>
       </c>
       <c r="S17" s="62">
-        <v>5.3147569444444444E-4</v>
+        <v>4.3504918981481481E-4</v>
       </c>
       <c r="T17" s="62">
-        <v>7.9288773148148144E-4</v>
+        <v>6.8732060185185194E-4</v>
       </c>
       <c r="U17" s="62">
-        <v>1.0793229166666666E-3</v>
+        <v>9.3809606481481489E-4</v>
       </c>
       <c r="V17" s="62">
-        <v>8.8353009259259244E-4</v>
+        <v>7.9217303240740745E-4</v>
       </c>
       <c r="W17" s="62">
-        <v>2.0676041666666664E-3</v>
+        <v>1.9398379629629629E-3</v>
       </c>
       <c r="X17" s="62">
-        <v>1.871278935185185E-3</v>
+        <v>1.7747395833333335E-3</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" s="59" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C18" s="59">
         <v>12</v>
@@ -14523,48 +14700,48 @@
         <v>10</v>
       </c>
       <c r="M18" s="62">
-        <v>5.4145833333333324E-4</v>
+        <v>4.3926504629629627E-4</v>
       </c>
       <c r="N18" s="62">
-        <v>8.0114004629629621E-4</v>
+        <v>6.9357638888888897E-4</v>
       </c>
       <c r="O18" s="62">
-        <v>1.096892361111111E-3</v>
+        <v>9.5060763888888907E-4</v>
       </c>
       <c r="P18" s="62">
-        <v>8.9524305555555559E-4</v>
+        <v>8.0754050925925937E-4</v>
       </c>
       <c r="Q18" s="62">
-        <v>2.0817129629629627E-3</v>
+        <v>1.9609172453703702E-3</v>
       </c>
       <c r="R18" s="62">
-        <v>1.8778009259259256E-3</v>
+        <v>1.7937789351851854E-3</v>
       </c>
       <c r="S18" s="62">
-        <v>5.4145833333333324E-4</v>
+        <v>4.3926504629629627E-4</v>
       </c>
       <c r="T18" s="62">
-        <v>8.0114004629629621E-4</v>
+        <v>6.9357638888888897E-4</v>
       </c>
       <c r="U18" s="62">
-        <v>1.096892361111111E-3</v>
+        <v>9.5060763888888907E-4</v>
       </c>
       <c r="V18" s="62">
-        <v>8.9524305555555559E-4</v>
+        <v>8.0754050925925937E-4</v>
       </c>
       <c r="W18" s="62">
-        <v>2.0817129629629627E-3</v>
+        <v>1.9609172453703702E-3</v>
       </c>
       <c r="X18" s="62">
-        <v>1.8778009259259256E-3</v>
+        <v>1.7937789351851854E-3</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" s="59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C19" s="59">
         <v>18</v>
@@ -14593,48 +14770,48 @@
         <v>10</v>
       </c>
       <c r="M19" s="62">
-        <v>4.3028935185185189E-4</v>
+        <v>5.3228587962962962E-4</v>
       </c>
       <c r="N19" s="62">
-        <v>6.8065682870370372E-4</v>
+        <v>8.0101273148148154E-4</v>
       </c>
       <c r="O19" s="62">
-        <v>9.2463252314814806E-4</v>
+        <v>1.0833391203703704E-3</v>
       </c>
       <c r="P19" s="62">
-        <v>7.7544560185185192E-4</v>
+        <v>8.89681712962963E-4</v>
       </c>
       <c r="Q19" s="62">
-        <v>1.9171267361111112E-3</v>
+        <v>2.0970486111111112E-3</v>
       </c>
       <c r="R19" s="62">
-        <v>1.7540682870370368E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
       <c r="S19" s="62">
-        <v>4.3028935185185189E-4</v>
+        <v>5.3228587962962962E-4</v>
       </c>
       <c r="T19" s="62">
-        <v>6.8065682870370372E-4</v>
+        <v>8.0101273148148154E-4</v>
       </c>
       <c r="U19" s="62">
-        <v>9.2463252314814806E-4</v>
+        <v>1.0833391203703704E-3</v>
       </c>
       <c r="V19" s="62">
-        <v>7.7544560185185192E-4</v>
+        <v>8.89681712962963E-4</v>
       </c>
       <c r="W19" s="62">
-        <v>1.9171267361111112E-3</v>
+        <v>2.0970486111111112E-3</v>
       </c>
       <c r="X19" s="62">
-        <v>1.7540682870370368E-3</v>
+        <v>1.9047511574074075E-3</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" s="59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C20" s="59">
         <v>17</v>
@@ -14663,48 +14840,48 @@
         <v>10</v>
       </c>
       <c r="M20" s="62">
-        <v>4.3504918981481481E-4</v>
+        <v>5.430295138888889E-4</v>
       </c>
       <c r="N20" s="62">
-        <v>6.8732060185185194E-4</v>
+        <v>8.1012442129629642E-4</v>
       </c>
       <c r="O20" s="62">
-        <v>9.3809606481481489E-4</v>
+        <v>1.1027864583333334E-3</v>
       </c>
       <c r="P20" s="62">
-        <v>7.9217303240740745E-4</v>
+        <v>9.0273726851851843E-4</v>
       </c>
       <c r="Q20" s="62">
-        <v>1.9398379629629629E-3</v>
+        <v>2.1125520833333335E-3</v>
       </c>
       <c r="R20" s="62">
-        <v>1.7747395833333335E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
       <c r="S20" s="62">
-        <v>4.3504918981481481E-4</v>
+        <v>5.430295138888889E-4</v>
       </c>
       <c r="T20" s="62">
-        <v>6.8732060185185194E-4</v>
+        <v>8.1012442129629642E-4</v>
       </c>
       <c r="U20" s="62">
-        <v>9.3809606481481489E-4</v>
+        <v>1.1027864583333334E-3</v>
       </c>
       <c r="V20" s="62">
-        <v>7.9217303240740745E-4</v>
+        <v>9.0273726851851843E-4</v>
       </c>
       <c r="W20" s="62">
-        <v>1.9398379629629629E-3</v>
+        <v>2.1125520833333335E-3</v>
       </c>
       <c r="X20" s="62">
-        <v>1.7747395833333335E-3</v>
+        <v>1.9119589120370371E-3</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" s="59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C21" s="59">
         <v>12</v>
@@ -14733,48 +14910,48 @@
         <v>10</v>
       </c>
       <c r="M21" s="62">
-        <v>4.3926504629629627E-4</v>
+        <v>5.532291666666666E-4</v>
       </c>
       <c r="N21" s="62">
-        <v>6.9357638888888897E-4</v>
+        <v>8.1855613425925932E-4</v>
       </c>
       <c r="O21" s="62">
-        <v>9.5060763888888907E-4</v>
+        <v>1.1207378472222222E-3</v>
       </c>
       <c r="P21" s="62">
-        <v>8.0754050925925937E-4</v>
+        <v>9.1470486111111125E-4</v>
       </c>
       <c r="Q21" s="62">
-        <v>1.9609172453703702E-3</v>
+        <v>2.1269675925925926E-3</v>
       </c>
       <c r="R21" s="62">
-        <v>1.7937789351851854E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
       <c r="S21" s="62">
-        <v>4.3926504629629627E-4</v>
+        <v>5.532291666666666E-4</v>
       </c>
       <c r="T21" s="62">
-        <v>6.9357638888888897E-4</v>
+        <v>8.1855613425925932E-4</v>
       </c>
       <c r="U21" s="62">
-        <v>9.5060763888888907E-4</v>
+        <v>1.1207378472222222E-3</v>
       </c>
       <c r="V21" s="62">
-        <v>8.0754050925925937E-4</v>
+        <v>9.1470486111111125E-4</v>
       </c>
       <c r="W21" s="62">
-        <v>1.9609172453703702E-3</v>
+        <v>2.1269675925925926E-3</v>
       </c>
       <c r="X21" s="62">
-        <v>1.7937789351851854E-3</v>
+        <v>1.9186226851851851E-3</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" s="59" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C22" s="59">
         <v>18</v>
@@ -14803,48 +14980,48 @@
         <v>10</v>
       </c>
       <c r="M22" s="62">
-        <v>5.3228587962962962E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="N22" s="62">
-        <v>8.0101273148148154E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="O22" s="62">
-        <v>1.0833391203703704E-3</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="P22" s="62">
-        <v>8.89681712962963E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="Q22" s="62">
-        <v>2.0970486111111112E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="R22" s="62">
-        <v>1.9047511574074075E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
       <c r="S22" s="62">
-        <v>5.3228587962962962E-4</v>
+        <v>4.3944444444444445E-4</v>
       </c>
       <c r="T22" s="62">
-        <v>8.0101273148148154E-4</v>
+        <v>6.951388888888888E-4</v>
       </c>
       <c r="U22" s="62">
-        <v>1.0833391203703704E-3</v>
+        <v>9.4430555555555544E-4</v>
       </c>
       <c r="V22" s="62">
-        <v>8.89681712962963E-4</v>
+        <v>7.919444444444444E-4</v>
       </c>
       <c r="W22" s="62">
-        <v>2.0970486111111112E-3</v>
+        <v>1.9579166666666664E-3</v>
       </c>
       <c r="X22" s="62">
-        <v>1.9047511574074075E-3</v>
+        <v>1.7913888888888886E-3</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" s="59" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C23" s="59">
         <v>17</v>
@@ -14873,48 +15050,48 @@
         <v>10</v>
       </c>
       <c r="M23" s="62">
-        <v>5.430295138888889E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="N23" s="62">
-        <v>8.1012442129629642E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="O23" s="62">
-        <v>1.1027864583333334E-3</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="P23" s="62">
-        <v>9.0273726851851843E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="Q23" s="62">
-        <v>2.1125520833333335E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="R23" s="62">
-        <v>1.9119589120370371E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
       <c r="S23" s="62">
-        <v>5.430295138888889E-4</v>
+        <v>4.4430555555555553E-4</v>
       </c>
       <c r="T23" s="62">
-        <v>8.1012442129629642E-4</v>
+        <v>7.0194444444444449E-4</v>
       </c>
       <c r="U23" s="62">
-        <v>1.1027864583333334E-3</v>
+        <v>9.5805555555555553E-4</v>
       </c>
       <c r="V23" s="62">
-        <v>9.0273726851851843E-4</v>
+        <v>8.0902777777777776E-4</v>
       </c>
       <c r="W23" s="62">
-        <v>2.1125520833333335E-3</v>
+        <v>1.9811111111111106E-3</v>
       </c>
       <c r="X23" s="62">
-        <v>1.9119589120370371E-3</v>
+        <v>1.8124999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" s="59" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C24" s="59">
         <v>12</v>
@@ -14943,48 +15120,48 @@
         <v>10</v>
       </c>
       <c r="M24" s="62">
-        <v>5.532291666666666E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="N24" s="62">
-        <v>8.1855613425925932E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="O24" s="62">
-        <v>1.1207378472222222E-3</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="P24" s="62">
-        <v>9.1470486111111125E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="Q24" s="62">
-        <v>2.1269675925925926E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="R24" s="62">
-        <v>1.9186226851851851E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
       <c r="S24" s="62">
-        <v>5.532291666666666E-4</v>
+        <v>4.4861111111111105E-4</v>
       </c>
       <c r="T24" s="62">
-        <v>8.1855613425925932E-4</v>
+        <v>7.0833333333333328E-4</v>
       </c>
       <c r="U24" s="62">
-        <v>1.1207378472222222E-3</v>
+        <v>9.7083333333333342E-4</v>
       </c>
       <c r="V24" s="62">
-        <v>9.1470486111111125E-4</v>
+        <v>8.2472222222222224E-4</v>
       </c>
       <c r="W24" s="62">
-        <v>2.1269675925925926E-3</v>
+        <v>2.0026388888888889E-3</v>
       </c>
       <c r="X24" s="62">
-        <v>1.9186226851851851E-3</v>
+        <v>1.8319444444444444E-3</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C25" s="59">
         <v>18</v>
@@ -15013,48 +15190,48 @@
         <v>10</v>
       </c>
       <c r="M25" s="62">
-        <v>4.3944444444444445E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="N25" s="62">
-        <v>6.951388888888888E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="O25" s="62">
-        <v>9.4430555555555544E-4</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="P25" s="62">
-        <v>7.919444444444444E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="Q25" s="62">
-        <v>1.9579166666666664E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="R25" s="62">
-        <v>1.7913888888888886E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
       <c r="S25" s="62">
-        <v>4.3944444444444445E-4</v>
+        <v>5.4361111111111114E-4</v>
       </c>
       <c r="T25" s="62">
-        <v>6.951388888888888E-4</v>
+        <v>8.1805555555555548E-4</v>
       </c>
       <c r="U25" s="62">
-        <v>9.4430555555555544E-4</v>
+        <v>1.1063888888888887E-3</v>
       </c>
       <c r="V25" s="62">
-        <v>7.919444444444444E-4</v>
+        <v>9.0861111111111101E-4</v>
       </c>
       <c r="W25" s="62">
-        <v>1.9579166666666664E-3</v>
+        <v>2.1416666666666663E-3</v>
       </c>
       <c r="X25" s="62">
-        <v>1.7913888888888886E-3</v>
+        <v>1.9452777777777775E-3</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C26" s="59">
         <v>17</v>
@@ -15083,48 +15260,48 @@
         <v>10</v>
       </c>
       <c r="M26" s="62">
-        <v>4.4430555555555553E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="N26" s="62">
-        <v>7.0194444444444449E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="O26" s="62">
-        <v>9.5805555555555553E-4</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="P26" s="62">
-        <v>8.0902777777777776E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="Q26" s="62">
-        <v>1.9811111111111106E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="R26" s="62">
-        <v>1.8124999999999999E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
       <c r="S26" s="62">
-        <v>4.4430555555555553E-4</v>
+        <v>5.5458333333333336E-4</v>
       </c>
       <c r="T26" s="62">
-        <v>7.0194444444444449E-4</v>
+        <v>8.2736111111111118E-4</v>
       </c>
       <c r="U26" s="62">
-        <v>9.5805555555555553E-4</v>
+        <v>1.1262500000000001E-3</v>
       </c>
       <c r="V26" s="62">
-        <v>8.0902777777777776E-4</v>
+        <v>9.2194444444444431E-4</v>
       </c>
       <c r="W26" s="62">
-        <v>1.9811111111111106E-3</v>
+        <v>2.1574999999999997E-3</v>
       </c>
       <c r="X26" s="62">
-        <v>1.8124999999999999E-3</v>
+        <v>1.9526388888888887E-3</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" s="59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C27" s="59">
         <v>12</v>
@@ -15153,48 +15330,48 @@
         <v>10</v>
       </c>
       <c r="M27" s="62">
-        <v>4.4861111111111105E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="N27" s="62">
-        <v>7.0833333333333328E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="O27" s="62">
-        <v>9.7083333333333342E-4</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="P27" s="62">
-        <v>8.2472222222222224E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="Q27" s="62">
-        <v>2.0026388888888889E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="R27" s="62">
-        <v>1.8319444444444444E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
       <c r="S27" s="62">
-        <v>4.4861111111111105E-4</v>
+        <v>5.6499999999999996E-4</v>
       </c>
       <c r="T27" s="62">
-        <v>7.0833333333333328E-4</v>
+        <v>8.3597222222222222E-4</v>
       </c>
       <c r="U27" s="62">
-        <v>9.7083333333333342E-4</v>
+        <v>1.1445833333333332E-3</v>
       </c>
       <c r="V27" s="62">
-        <v>8.2472222222222224E-4</v>
+        <v>9.341666666666667E-4</v>
       </c>
       <c r="W27" s="62">
-        <v>2.0026388888888889E-3</v>
+        <v>2.1722222222222221E-3</v>
       </c>
       <c r="X27" s="62">
-        <v>1.8319444444444444E-3</v>
+        <v>1.9594444444444442E-3</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" s="59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C28" s="59">
         <v>18</v>
@@ -15223,48 +15400,48 @@
         <v>10</v>
       </c>
       <c r="M28" s="62">
-        <v>5.4361111111111114E-4</v>
+        <v>4.4859953703703707E-4</v>
       </c>
       <c r="N28" s="62">
-        <v>8.1805555555555548E-4</v>
+        <v>7.096209490740741E-4</v>
       </c>
       <c r="O28" s="62">
-        <v>1.1063888888888887E-3</v>
+        <v>9.6397858796296292E-4</v>
       </c>
       <c r="P28" s="62">
-        <v>9.0861111111111101E-4</v>
+        <v>8.0844328703703709E-4</v>
       </c>
       <c r="Q28" s="62">
-        <v>2.1416666666666663E-3</v>
+        <v>1.9987065972222225E-3</v>
       </c>
       <c r="R28" s="62">
-        <v>1.9452777777777775E-3</v>
+        <v>1.8287094907407408E-3</v>
       </c>
       <c r="S28" s="62">
-        <v>5.4361111111111114E-4</v>
+        <v>4.4859953703703707E-4</v>
       </c>
       <c r="T28" s="62">
-        <v>8.1805555555555548E-4</v>
+        <v>7.096209490740741E-4</v>
       </c>
       <c r="U28" s="62">
-        <v>1.1063888888888887E-3</v>
+        <v>9.6397858796296292E-4</v>
       </c>
       <c r="V28" s="62">
-        <v>9.0861111111111101E-4</v>
+        <v>8.0844328703703709E-4</v>
       </c>
       <c r="W28" s="62">
-        <v>2.1416666666666663E-3</v>
+        <v>1.9987065972222225E-3</v>
       </c>
       <c r="X28" s="62">
-        <v>1.9452777777777775E-3</v>
+        <v>1.8287094907407408E-3</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" s="59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C29" s="59">
         <v>17</v>
@@ -15293,48 +15470,48 @@
         <v>10</v>
       </c>
       <c r="M29" s="62">
-        <v>5.5458333333333336E-4</v>
+        <v>4.5356192129629631E-4</v>
       </c>
       <c r="N29" s="62">
-        <v>8.2736111111111118E-4</v>
+        <v>7.1656828703703715E-4</v>
       </c>
       <c r="O29" s="62">
-        <v>1.1262500000000001E-3</v>
+        <v>9.7801504629629649E-4</v>
       </c>
       <c r="P29" s="62">
-        <v>9.2194444444444431E-4</v>
+        <v>8.2588252314814829E-4</v>
       </c>
       <c r="Q29" s="62">
-        <v>2.1574999999999997E-3</v>
+        <v>2.0223842592592589E-3</v>
       </c>
       <c r="R29" s="62">
-        <v>1.9526388888888887E-3</v>
+        <v>1.8502604166666667E-3</v>
       </c>
       <c r="S29" s="62">
-        <v>5.5458333333333336E-4</v>
+        <v>4.5356192129629631E-4</v>
       </c>
       <c r="T29" s="62">
-        <v>8.2736111111111118E-4</v>
+        <v>7.1656828703703715E-4</v>
       </c>
       <c r="U29" s="62">
-        <v>1.1262500000000001E-3</v>
+        <v>9.7801504629629649E-4</v>
       </c>
       <c r="V29" s="62">
-        <v>9.2194444444444431E-4</v>
+        <v>8.2588252314814829E-4</v>
       </c>
       <c r="W29" s="62">
-        <v>2.1574999999999997E-3</v>
+        <v>2.0223842592592589E-3</v>
       </c>
       <c r="X29" s="62">
-        <v>1.9526388888888887E-3</v>
+        <v>1.8502604166666667E-3</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" s="59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C30" s="59">
         <v>12</v>
@@ -15363,48 +15540,48 @@
         <v>10</v>
       </c>
       <c r="M30" s="62">
-        <v>5.6499999999999996E-4</v>
+        <v>4.5795717592592589E-4</v>
       </c>
       <c r="N30" s="62">
-        <v>8.3597222222222222E-4</v>
+        <v>7.2309027777777779E-4</v>
       </c>
       <c r="O30" s="62">
-        <v>1.1445833333333332E-3</v>
+        <v>9.9105902777777799E-4</v>
       </c>
       <c r="P30" s="62">
-        <v>9.341666666666667E-4</v>
+        <v>8.4190393518518533E-4</v>
       </c>
       <c r="Q30" s="62">
-        <v>2.1722222222222221E-3</v>
+        <v>2.0443605324074075E-3</v>
       </c>
       <c r="R30" s="62">
-        <v>1.9594444444444442E-3</v>
+        <v>1.8701099537037039E-3</v>
       </c>
       <c r="S30" s="62">
-        <v>5.6499999999999996E-4</v>
+        <v>4.5795717592592589E-4</v>
       </c>
       <c r="T30" s="62">
-        <v>8.3597222222222222E-4</v>
+        <v>7.2309027777777779E-4</v>
       </c>
       <c r="U30" s="62">
-        <v>1.1445833333333332E-3</v>
+        <v>9.9105902777777799E-4</v>
       </c>
       <c r="V30" s="62">
-        <v>9.341666666666667E-4</v>
+        <v>8.4190393518518533E-4</v>
       </c>
       <c r="W30" s="62">
-        <v>2.1722222222222221E-3</v>
+        <v>2.0443605324074075E-3</v>
       </c>
       <c r="X30" s="62">
-        <v>1.9594444444444442E-3</v>
+        <v>1.8701099537037039E-3</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" s="59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C31" s="59">
         <v>18</v>
@@ -15433,48 +15610,48 @@
         <v>10</v>
       </c>
       <c r="M31" s="62">
-        <v>4.4859953703703707E-4</v>
+        <v>5.5493634259259266E-4</v>
       </c>
       <c r="N31" s="62">
-        <v>7.096209490740741E-4</v>
+        <v>8.3509837962962965E-4</v>
       </c>
       <c r="O31" s="62">
-        <v>9.6397858796296292E-4</v>
+        <v>1.1294386574074073E-3</v>
       </c>
       <c r="P31" s="62">
-        <v>8.0844328703703709E-4</v>
+        <v>9.2754050925925925E-4</v>
       </c>
       <c r="Q31" s="62">
-        <v>1.9987065972222225E-3</v>
+        <v>2.1862847222222223E-3</v>
       </c>
       <c r="R31" s="62">
-        <v>1.8287094907407408E-3</v>
+        <v>1.9858043981481484E-3</v>
       </c>
       <c r="S31" s="62">
-        <v>4.4859953703703707E-4</v>
+        <v>5.5493634259259266E-4</v>
       </c>
       <c r="T31" s="62">
-        <v>7.096209490740741E-4</v>
+        <v>8.3509837962962965E-4</v>
       </c>
       <c r="U31" s="62">
-        <v>9.6397858796296292E-4</v>
+        <v>1.1294386574074073E-3</v>
       </c>
       <c r="V31" s="62">
-        <v>8.0844328703703709E-4</v>
+        <v>9.2754050925925925E-4</v>
       </c>
       <c r="W31" s="62">
-        <v>1.9987065972222225E-3</v>
+        <v>2.1862847222222223E-3</v>
       </c>
       <c r="X31" s="62">
-        <v>1.8287094907407408E-3</v>
+        <v>1.9858043981481484E-3</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" s="59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C32" s="59">
         <v>17</v>
@@ -15503,48 +15680,48 @@
         <v>10</v>
       </c>
       <c r="M32" s="62">
-        <v>4.5356192129629631E-4</v>
+        <v>5.6613715277777782E-4</v>
       </c>
       <c r="N32" s="62">
-        <v>7.1656828703703715E-4</v>
+        <v>8.4459780092592605E-4</v>
       </c>
       <c r="O32" s="62">
-        <v>9.7801504629629649E-4</v>
+        <v>1.1497135416666669E-3</v>
       </c>
       <c r="P32" s="62">
-        <v>8.2588252314814829E-4</v>
+        <v>9.411516203703703E-4</v>
       </c>
       <c r="Q32" s="62">
-        <v>2.0223842592592589E-3</v>
+        <v>2.2024479166666668E-3</v>
       </c>
       <c r="R32" s="62">
-        <v>1.8502604166666667E-3</v>
+        <v>1.9933188657407408E-3</v>
       </c>
       <c r="S32" s="62">
-        <v>4.5356192129629631E-4</v>
+        <v>5.6613715277777782E-4</v>
       </c>
       <c r="T32" s="62">
-        <v>7.1656828703703715E-4</v>
+        <v>8.4459780092592605E-4</v>
       </c>
       <c r="U32" s="62">
-        <v>9.7801504629629649E-4</v>
+        <v>1.1497135416666669E-3</v>
       </c>
       <c r="V32" s="62">
-        <v>8.2588252314814829E-4</v>
+        <v>9.411516203703703E-4</v>
       </c>
       <c r="W32" s="62">
-        <v>2.0223842592592589E-3</v>
+        <v>2.2024479166666668E-3</v>
       </c>
       <c r="X32" s="62">
-        <v>1.8502604166666667E-3</v>
+        <v>1.9933188657407408E-3</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="59" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C33" s="59">
         <v>12</v>
@@ -15573,48 +15750,48 @@
         <v>10</v>
       </c>
       <c r="M33" s="62">
-        <v>4.5795717592592589E-4</v>
+        <v>5.7677083333333332E-4</v>
       </c>
       <c r="N33" s="62">
-        <v>7.2309027777777779E-4</v>
+        <v>8.5338831018518522E-4</v>
       </c>
       <c r="O33" s="62">
-        <v>9.9105902777777799E-4</v>
+        <v>1.1684288194444446E-3</v>
       </c>
       <c r="P33" s="62">
-        <v>8.4190393518518533E-4</v>
+        <v>9.5362847222222236E-4</v>
       </c>
       <c r="Q33" s="62">
-        <v>2.0443605324074075E-3</v>
+        <v>2.217476851851852E-3</v>
       </c>
       <c r="R33" s="62">
-        <v>1.8701099537037039E-3</v>
+        <v>2.0002662037037038E-3</v>
       </c>
       <c r="S33" s="62">
-        <v>4.5795717592592589E-4</v>
+        <v>5.7677083333333332E-4</v>
       </c>
       <c r="T33" s="62">
-        <v>7.2309027777777779E-4</v>
+        <v>8.5338831018518522E-4</v>
       </c>
       <c r="U33" s="62">
-        <v>9.9105902777777799E-4</v>
+        <v>1.1684288194444446E-3</v>
       </c>
       <c r="V33" s="62">
-        <v>8.4190393518518533E-4</v>
+        <v>9.5362847222222236E-4</v>
       </c>
       <c r="W33" s="62">
-        <v>2.0443605324074075E-3</v>
+        <v>2.217476851851852E-3</v>
       </c>
       <c r="X33" s="62">
-        <v>1.8701099537037039E-3</v>
+        <v>2.0002662037037038E-3</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" s="59" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C34" s="59">
         <v>18</v>
@@ -15643,48 +15820,60 @@
         <v>10</v>
       </c>
       <c r="M34" s="62">
-        <v>5.5493634259259266E-4</v>
+        <f>Tabelle1!E14</f>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="N34" s="62">
-        <v>8.3509837962962965E-4</v>
+        <f>Tabelle1!E16</f>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="O34" s="62">
-        <v>1.1294386574074073E-3</v>
+        <f>Tabelle1!E15</f>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="P34" s="62">
-        <v>9.2754050925925925E-4</v>
+        <f>Tabelle1!E17</f>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="Q34" s="62">
-        <v>2.1862847222222223E-3</v>
+        <f>Tabelle1!E19</f>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="R34" s="62">
-        <v>1.9858043981481484E-3</v>
+        <f>Tabelle1!E18</f>
+        <v>1.8660300925925923E-3</v>
       </c>
       <c r="S34" s="62">
-        <v>5.5493634259259266E-4</v>
+        <f>M34</f>
+        <v>4.5775462962962962E-4</v>
       </c>
       <c r="T34" s="62">
-        <v>8.3509837962962965E-4</v>
+        <f t="shared" ref="T34:T39" si="0">N34</f>
+        <v>7.2410300925925919E-4</v>
       </c>
       <c r="U34" s="62">
-        <v>1.1294386574074073E-3</v>
+        <f t="shared" ref="U34:U39" si="1">O34</f>
+        <v>9.8365162037037019E-4</v>
       </c>
       <c r="V34" s="62">
-        <v>9.2754050925925925E-4</v>
+        <f t="shared" ref="V34:V39" si="2">P34</f>
+        <v>8.2494212962962968E-4</v>
       </c>
       <c r="W34" s="62">
-        <v>2.1862847222222223E-3</v>
+        <f t="shared" ref="W34:W39" si="3">Q34</f>
+        <v>2.0394965277777777E-3</v>
       </c>
       <c r="X34" s="62">
-        <v>1.9858043981481484E-3</v>
+        <f t="shared" ref="X34:X39" si="4">R34</f>
+        <v>1.8660300925925923E-3</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="59" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C35" s="59">
         <v>17</v>
@@ -15713,48 +15902,60 @@
         <v>10</v>
       </c>
       <c r="M35" s="62">
-        <v>5.6613715277777782E-4</v>
+        <f>Tabelle1!D14</f>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="N35" s="62">
-        <v>8.4459780092592605E-4</v>
+        <f>Tabelle1!D16</f>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="O35" s="62">
-        <v>1.1497135416666669E-3</v>
+        <f>Tabelle1!D15</f>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="P35" s="62">
-        <v>9.411516203703703E-4</v>
+        <f>Tabelle1!D17</f>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="Q35" s="62">
-        <v>2.2024479166666668E-3</v>
+        <f>Tabelle1!D19</f>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="R35" s="62">
-        <v>1.9933188657407408E-3</v>
+        <f>Tabelle1!D18</f>
+        <v>1.8880208333333333E-3</v>
       </c>
       <c r="S35" s="62">
-        <v>5.6613715277777782E-4</v>
+        <f t="shared" ref="S35:S39" si="5">M35</f>
+        <v>4.6281828703703703E-4</v>
       </c>
       <c r="T35" s="62">
-        <v>8.4459780092592605E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.311921296296297E-4</v>
       </c>
       <c r="U35" s="62">
-        <v>1.1497135416666669E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.9797453703703702E-4</v>
       </c>
       <c r="V35" s="62">
-        <v>9.411516203703703E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.427372685185186E-4</v>
       </c>
       <c r="W35" s="62">
-        <v>2.2024479166666668E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0636574074074073E-3</v>
       </c>
       <c r="X35" s="62">
-        <v>1.9933188657407408E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.8880208333333333E-3</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="59" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C36" s="59">
         <v>12</v>
@@ -15783,48 +15984,60 @@
         <v>10</v>
       </c>
       <c r="M36" s="62">
-        <v>5.7677083333333332E-4</v>
+        <f>Tabelle1!C14</f>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="N36" s="62">
-        <v>8.5338831018518522E-4</v>
+        <f>Tabelle1!C16</f>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="O36" s="62">
-        <v>1.1684288194444446E-3</v>
+        <f>Tabelle1!C15</f>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="P36" s="62">
-        <v>9.5362847222222236E-4</v>
+        <f>Tabelle1!C17</f>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="Q36" s="62">
-        <v>2.217476851851852E-3</v>
+        <f>Tabelle1!C19</f>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="R36" s="62">
-        <v>2.0002662037037038E-3</v>
+        <f>Tabelle1!C18</f>
+        <v>1.9082754629629632E-3</v>
       </c>
       <c r="S36" s="62">
-        <v>5.7677083333333332E-4</v>
+        <f t="shared" si="5"/>
+        <v>4.6730324074074068E-4</v>
       </c>
       <c r="T36" s="62">
-        <v>8.5338831018518522E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.378472222222222E-4</v>
       </c>
       <c r="U36" s="62">
-        <v>1.1684288194444446E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0112847222222224E-3</v>
       </c>
       <c r="V36" s="62">
-        <v>9.5362847222222236E-4</v>
+        <f t="shared" si="2"/>
+        <v>8.5908564814814821E-4</v>
       </c>
       <c r="W36" s="62">
-        <v>2.217476851851852E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.0860821759259261E-3</v>
       </c>
       <c r="X36" s="62">
-        <v>2.0002662037037038E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9082754629629632E-3</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C37" s="59">
         <v>18</v>
@@ -15853,60 +16066,60 @@
         <v>10</v>
       </c>
       <c r="M37" s="62">
-        <f>Tabelle1!E14</f>
-        <v>4.5775462962962962E-4</v>
+        <f>Tabelle1!K14</f>
+        <v>5.6626157407407406E-4</v>
       </c>
       <c r="N37" s="62">
-        <f>Tabelle1!E16</f>
-        <v>7.2410300925925919E-4</v>
+        <f>Tabelle1!K16</f>
+        <v>8.521412037037037E-4</v>
       </c>
       <c r="O37" s="62">
-        <f>Tabelle1!E15</f>
-        <v>9.8365162037037019E-4</v>
+        <f>Tabelle1!K15</f>
+        <v>1.1524884259259259E-3</v>
       </c>
       <c r="P37" s="62">
-        <f>Tabelle1!E17</f>
-        <v>8.2494212962962968E-4</v>
+        <f>Tabelle1!K17</f>
+        <v>9.4646990740740737E-4</v>
       </c>
       <c r="Q37" s="62">
-        <f>Tabelle1!E19</f>
-        <v>2.0394965277777777E-3</v>
+        <f>Tabelle1!K19</f>
+        <v>2.2309027777777774E-3</v>
       </c>
       <c r="R37" s="62">
-        <f>Tabelle1!E18</f>
-        <v>1.8660300925925923E-3</v>
+        <f>Tabelle1!K18</f>
+        <v>2.0263310185185185E-3</v>
       </c>
       <c r="S37" s="62">
-        <f>M37</f>
-        <v>4.5775462962962962E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.6626157407407406E-4</v>
       </c>
       <c r="T37" s="62">
-        <f t="shared" ref="T37:T42" si="0">N37</f>
-        <v>7.2410300925925919E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.521412037037037E-4</v>
       </c>
       <c r="U37" s="62">
-        <f t="shared" ref="U37:U42" si="1">O37</f>
-        <v>9.8365162037037019E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.1524884259259259E-3</v>
       </c>
       <c r="V37" s="62">
-        <f t="shared" ref="V37:V42" si="2">P37</f>
-        <v>8.2494212962962968E-4</v>
+        <f t="shared" si="2"/>
+        <v>9.4646990740740737E-4</v>
       </c>
       <c r="W37" s="62">
-        <f t="shared" ref="W37:W42" si="3">Q37</f>
-        <v>2.0394965277777777E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.2309027777777774E-3</v>
       </c>
       <c r="X37" s="62">
-        <f t="shared" ref="X37:X42" si="4">R37</f>
-        <v>1.8660300925925923E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.0263310185185185E-3</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C38" s="59">
         <v>17</v>
@@ -15935,60 +16148,60 @@
         <v>10</v>
       </c>
       <c r="M38" s="62">
-        <f>Tabelle1!D14</f>
-        <v>4.6281828703703703E-4</v>
+        <f>Tabelle1!J14</f>
+        <v>5.7769097222222228E-4</v>
       </c>
       <c r="N38" s="62">
-        <f>Tabelle1!D16</f>
-        <v>7.311921296296297E-4</v>
+        <f>Tabelle1!J16</f>
+        <v>8.6183449074074081E-4</v>
       </c>
       <c r="O38" s="62">
-        <f>Tabelle1!D15</f>
-        <v>9.9797453703703702E-4</v>
+        <f>Tabelle1!J15</f>
+        <v>1.1731770833333334E-3</v>
       </c>
       <c r="P38" s="62">
-        <f>Tabelle1!D17</f>
-        <v>8.427372685185186E-4</v>
+        <f>Tabelle1!J17</f>
+        <v>9.6035879629629618E-4</v>
       </c>
       <c r="Q38" s="62">
-        <f>Tabelle1!D19</f>
-        <v>2.0636574074074073E-3</v>
+        <f>Tabelle1!J19</f>
+        <v>2.2473958333333335E-3</v>
       </c>
       <c r="R38" s="62">
-        <f>Tabelle1!D18</f>
-        <v>1.8880208333333333E-3</v>
+        <f>Tabelle1!J18</f>
+        <v>2.0339988425925925E-3</v>
       </c>
       <c r="S38" s="62">
-        <f t="shared" ref="S38:S42" si="5">M38</f>
-        <v>4.6281828703703703E-4</v>
+        <f t="shared" si="5"/>
+        <v>5.7769097222222228E-4</v>
       </c>
       <c r="T38" s="62">
         <f t="shared" si="0"/>
-        <v>7.311921296296297E-4</v>
+        <v>8.6183449074074081E-4</v>
       </c>
       <c r="U38" s="62">
         <f t="shared" si="1"/>
-        <v>9.9797453703703702E-4</v>
+        <v>1.1731770833333334E-3</v>
       </c>
       <c r="V38" s="62">
         <f t="shared" si="2"/>
-        <v>8.427372685185186E-4</v>
+        <v>9.6035879629629618E-4</v>
       </c>
       <c r="W38" s="62">
         <f t="shared" si="3"/>
-        <v>2.0636574074074073E-3</v>
+        <v>2.2473958333333335E-3</v>
       </c>
       <c r="X38" s="62">
         <f t="shared" si="4"/>
-        <v>1.8880208333333333E-3</v>
+        <v>2.0339988425925925E-3</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C39" s="59">
         <v>12</v>
@@ -16017,60 +16230,60 @@
         <v>10</v>
       </c>
       <c r="M39" s="62">
-        <f>Tabelle1!C14</f>
-        <v>4.6730324074074068E-4</v>
+        <f>Tabelle1!I14</f>
+        <v>5.8854166666666668E-4</v>
       </c>
       <c r="N39" s="62">
-        <f>Tabelle1!C16</f>
-        <v>7.378472222222222E-4</v>
+        <f>Tabelle1!I16</f>
+        <v>8.7080439814814811E-4</v>
       </c>
       <c r="O39" s="62">
-        <f>Tabelle1!C15</f>
-        <v>1.0112847222222224E-3</v>
+        <f>Tabelle1!I15</f>
+        <v>1.1922743055555556E-3</v>
       </c>
       <c r="P39" s="62">
-        <f>Tabelle1!C17</f>
-        <v>8.5908564814814821E-4</v>
+        <f>Tabelle1!I17</f>
+        <v>9.730902777777778E-4</v>
       </c>
       <c r="Q39" s="62">
-        <f>Tabelle1!C19</f>
-        <v>2.0860821759259261E-3</v>
+        <f>Tabelle1!I19</f>
+        <v>2.2627314814814815E-3</v>
       </c>
       <c r="R39" s="62">
-        <f>Tabelle1!C18</f>
-        <v>1.9082754629629632E-3</v>
+        <f>Tabelle1!I18</f>
+        <v>2.0410879629629629E-3</v>
       </c>
       <c r="S39" s="62">
         <f t="shared" si="5"/>
-        <v>4.6730324074074068E-4</v>
+        <v>5.8854166666666668E-4</v>
       </c>
       <c r="T39" s="62">
         <f t="shared" si="0"/>
-        <v>7.378472222222222E-4</v>
+        <v>8.7080439814814811E-4</v>
       </c>
       <c r="U39" s="62">
         <f t="shared" si="1"/>
-        <v>1.0112847222222224E-3</v>
+        <v>1.1922743055555556E-3</v>
       </c>
       <c r="V39" s="62">
         <f t="shared" si="2"/>
-        <v>8.5908564814814821E-4</v>
+        <v>9.730902777777778E-4</v>
       </c>
       <c r="W39" s="62">
         <f t="shared" si="3"/>
-        <v>2.0860821759259261E-3</v>
+        <v>2.2627314814814815E-3</v>
       </c>
       <c r="X39" s="62">
         <f t="shared" si="4"/>
-        <v>1.9082754629629632E-3</v>
+        <v>2.0410879629629629E-3</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C40" s="59">
         <v>18</v>
@@ -16099,60 +16312,48 @@
         <v>10</v>
       </c>
       <c r="M40" s="62">
-        <f>Tabelle1!K14</f>
-        <v>5.6626157407407406E-4</v>
+        <v>4.6690972222222218E-4</v>
       </c>
       <c r="N40" s="62">
-        <f>Tabelle1!K16</f>
-        <v>8.521412037037037E-4</v>
+        <v>7.3858506944444438E-4</v>
       </c>
       <c r="O40" s="62">
-        <f>Tabelle1!K15</f>
-        <v>1.1524884259259259E-3</v>
+        <v>1.0033246527777777E-3</v>
       </c>
       <c r="P40" s="62">
-        <f>Tabelle1!K17</f>
-        <v>9.4646990740740737E-4</v>
+        <v>8.4144097222222216E-4</v>
       </c>
       <c r="Q40" s="62">
-        <f>Tabelle1!K19</f>
-        <v>2.2309027777777774E-3</v>
+        <v>2.0802864583333333E-3</v>
       </c>
       <c r="R40" s="62">
-        <f>Tabelle1!K18</f>
-        <v>2.0263310185185185E-3</v>
+        <v>1.9033506944444441E-3</v>
       </c>
       <c r="S40" s="62">
-        <f t="shared" si="5"/>
-        <v>5.6626157407407406E-4</v>
+        <v>4.6690972222222218E-4</v>
       </c>
       <c r="T40" s="62">
-        <f t="shared" si="0"/>
-        <v>8.521412037037037E-4</v>
+        <v>7.3858506944444438E-4</v>
       </c>
       <c r="U40" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1524884259259259E-3</v>
+        <v>1.0033246527777777E-3</v>
       </c>
       <c r="V40" s="62">
-        <f t="shared" si="2"/>
-        <v>9.4646990740740737E-4</v>
+        <v>8.4144097222222216E-4</v>
       </c>
       <c r="W40" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2309027777777774E-3</v>
+        <v>2.0802864583333333E-3</v>
       </c>
       <c r="X40" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0263310185185185E-3</v>
+        <v>1.9033506944444441E-3</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C41" s="59">
         <v>17</v>
@@ -16181,60 +16382,48 @@
         <v>10</v>
       </c>
       <c r="M41" s="62">
-        <f>Tabelle1!J14</f>
-        <v>5.7769097222222228E-4</v>
+        <v>4.7207465277777775E-4</v>
       </c>
       <c r="N41" s="62">
-        <f>Tabelle1!J16</f>
-        <v>8.6183449074074081E-4</v>
+        <v>7.4581597222222226E-4</v>
       </c>
       <c r="O41" s="62">
-        <f>Tabelle1!J15</f>
-        <v>1.1731770833333334E-3</v>
+        <v>1.0179340277777778E-3</v>
       </c>
       <c r="P41" s="62">
-        <f>Tabelle1!J17</f>
-        <v>9.6035879629629618E-4</v>
+        <v>8.5959201388888891E-4</v>
       </c>
       <c r="Q41" s="62">
-        <f>Tabelle1!J19</f>
-        <v>2.2473958333333335E-3</v>
+        <v>2.1049305555555552E-3</v>
       </c>
       <c r="R41" s="62">
-        <f>Tabelle1!J18</f>
-        <v>2.0339988425925925E-3</v>
+        <v>1.9257812499999998E-3</v>
       </c>
       <c r="S41" s="62">
-        <f t="shared" si="5"/>
-        <v>5.7769097222222228E-4</v>
+        <v>4.7207465277777775E-4</v>
       </c>
       <c r="T41" s="62">
-        <f t="shared" si="0"/>
-        <v>8.6183449074074081E-4</v>
+        <v>7.4581597222222226E-4</v>
       </c>
       <c r="U41" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1731770833333334E-3</v>
+        <v>1.0179340277777778E-3</v>
       </c>
       <c r="V41" s="62">
-        <f t="shared" si="2"/>
-        <v>9.6035879629629618E-4</v>
+        <v>8.5959201388888891E-4</v>
       </c>
       <c r="W41" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2473958333333335E-3</v>
+        <v>2.1049305555555552E-3</v>
       </c>
       <c r="X41" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0339988425925925E-3</v>
+        <v>1.9257812499999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C42" s="59">
         <v>12</v>
@@ -16263,60 +16452,48 @@
         <v>10</v>
       </c>
       <c r="M42" s="62">
-        <f>Tabelle1!I14</f>
-        <v>5.8854166666666668E-4</v>
+        <v>4.7664930555555546E-4</v>
       </c>
       <c r="N42" s="62">
-        <f>Tabelle1!I16</f>
-        <v>8.7080439814814811E-4</v>
+        <v>7.5260416666666661E-4</v>
       </c>
       <c r="O42" s="62">
-        <f>Tabelle1!I15</f>
-        <v>1.1922743055555556E-3</v>
+        <v>1.0315104166666667E-3</v>
       </c>
       <c r="P42" s="62">
-        <f>Tabelle1!I17</f>
-        <v>9.730902777777778E-4</v>
+        <v>8.7626736111111119E-4</v>
       </c>
       <c r="Q42" s="62">
-        <f>Tabelle1!I19</f>
-        <v>2.2627314814814815E-3</v>
+        <v>2.1278038194444443E-3</v>
       </c>
       <c r="R42" s="62">
-        <f>Tabelle1!I18</f>
-        <v>2.0410879629629629E-3</v>
+        <v>1.9464409722222222E-3</v>
       </c>
       <c r="S42" s="62">
-        <f t="shared" si="5"/>
-        <v>5.8854166666666668E-4</v>
+        <v>4.7664930555555546E-4</v>
       </c>
       <c r="T42" s="62">
-        <f t="shared" si="0"/>
-        <v>8.7080439814814811E-4</v>
+        <v>7.5260416666666661E-4</v>
       </c>
       <c r="U42" s="62">
-        <f t="shared" si="1"/>
-        <v>1.1922743055555556E-3</v>
+        <v>1.0315104166666667E-3</v>
       </c>
       <c r="V42" s="62">
-        <f t="shared" si="2"/>
-        <v>9.730902777777778E-4</v>
+        <v>8.7626736111111119E-4</v>
       </c>
       <c r="W42" s="62">
-        <f t="shared" si="3"/>
-        <v>2.2627314814814815E-3</v>
+        <v>2.1278038194444443E-3</v>
       </c>
       <c r="X42" s="62">
-        <f t="shared" si="4"/>
-        <v>2.0410879629629629E-3</v>
+        <v>1.9464409722222222E-3</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C43" s="59">
         <v>18</v>
@@ -16345,48 +16522,48 @@
         <v>10</v>
       </c>
       <c r="M43" s="62">
-        <v>4.6690972222222218E-4</v>
+        <v>5.7758680555555558E-4</v>
       </c>
       <c r="N43" s="62">
-        <v>7.3858506944444438E-4</v>
+        <v>8.6918402777777775E-4</v>
       </c>
       <c r="O43" s="62">
-        <v>1.0033246527777777E-3</v>
+        <v>1.1755381944444443E-3</v>
       </c>
       <c r="P43" s="62">
-        <v>8.4144097222222216E-4</v>
+        <v>9.653993055555555E-4</v>
       </c>
       <c r="Q43" s="62">
-        <v>2.0802864583333333E-3</v>
+        <v>2.275520833333333E-3</v>
       </c>
       <c r="R43" s="62">
-        <v>1.9033506944444441E-3</v>
+        <v>2.0668576388888885E-3</v>
       </c>
       <c r="S43" s="62">
-        <v>4.6690972222222218E-4</v>
+        <v>5.7758680555555558E-4</v>
       </c>
       <c r="T43" s="62">
-        <v>7.3858506944444438E-4</v>
+        <v>8.6918402777777775E-4</v>
       </c>
       <c r="U43" s="62">
-        <v>1.0033246527777777E-3</v>
+        <v>1.1755381944444443E-3</v>
       </c>
       <c r="V43" s="62">
-        <v>8.4144097222222216E-4</v>
+        <v>9.653993055555555E-4</v>
       </c>
       <c r="W43" s="62">
-        <v>2.0802864583333333E-3</v>
+        <v>2.275520833333333E-3</v>
       </c>
       <c r="X43" s="62">
-        <v>1.9033506944444441E-3</v>
+        <v>2.0668576388888885E-3</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C44" s="59">
         <v>17</v>
@@ -16415,48 +16592,48 @@
         <v>10</v>
       </c>
       <c r="M44" s="62">
-        <v>4.7207465277777775E-4</v>
+        <v>5.8924479166666663E-4</v>
       </c>
       <c r="N44" s="62">
-        <v>7.4581597222222226E-4</v>
+        <v>8.7907118055555557E-4</v>
       </c>
       <c r="O44" s="62">
-        <v>1.0179340277777778E-3</v>
+        <v>1.196640625E-3</v>
       </c>
       <c r="P44" s="62">
-        <v>8.5959201388888891E-4</v>
+        <v>9.7956597222222195E-4</v>
       </c>
       <c r="Q44" s="62">
-        <v>2.1049305555555552E-3</v>
+        <v>2.2923437499999997E-3</v>
       </c>
       <c r="R44" s="62">
-        <v>1.9257812499999998E-3</v>
+        <v>2.0746788194444445E-3</v>
       </c>
       <c r="S44" s="62">
-        <v>4.7207465277777775E-4</v>
+        <v>5.8924479166666663E-4</v>
       </c>
       <c r="T44" s="62">
-        <v>7.4581597222222226E-4</v>
+        <v>8.7907118055555557E-4</v>
       </c>
       <c r="U44" s="62">
-        <v>1.0179340277777778E-3</v>
+        <v>1.196640625E-3</v>
       </c>
       <c r="V44" s="62">
-        <v>8.5959201388888891E-4</v>
+        <v>9.7956597222222195E-4</v>
       </c>
       <c r="W44" s="62">
-        <v>2.1049305555555552E-3</v>
+        <v>2.2923437499999997E-3</v>
       </c>
       <c r="X44" s="62">
-        <v>1.9257812499999998E-3</v>
+        <v>2.0746788194444445E-3</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C45" s="59">
         <v>12</v>
@@ -16485,48 +16662,48 @@
         <v>10</v>
       </c>
       <c r="M45" s="62">
-        <v>4.7664930555555546E-4</v>
+        <v>6.0031249999999993E-4</v>
       </c>
       <c r="N45" s="62">
-        <v>7.5260416666666661E-4</v>
+        <v>8.8822048611111111E-4</v>
       </c>
       <c r="O45" s="62">
-        <v>1.0315104166666667E-3</v>
+        <v>1.2161197916666666E-3</v>
       </c>
       <c r="P45" s="62">
-        <v>8.7626736111111119E-4</v>
+        <v>9.9255208333333335E-4</v>
       </c>
       <c r="Q45" s="62">
-        <v>2.1278038194444443E-3</v>
+        <v>2.3079861111111109E-3</v>
       </c>
       <c r="R45" s="62">
-        <v>1.9464409722222222E-3</v>
+        <v>2.081909722222222E-3</v>
       </c>
       <c r="S45" s="62">
-        <v>4.7664930555555546E-4</v>
+        <v>6.0031249999999993E-4</v>
       </c>
       <c r="T45" s="62">
-        <v>7.5260416666666661E-4</v>
+        <v>8.8822048611111111E-4</v>
       </c>
       <c r="U45" s="62">
-        <v>1.0315104166666667E-3</v>
+        <v>1.2161197916666666E-3</v>
       </c>
       <c r="V45" s="62">
-        <v>8.7626736111111119E-4</v>
+        <v>9.9255208333333335E-4</v>
       </c>
       <c r="W45" s="62">
-        <v>2.1278038194444443E-3</v>
+        <v>2.3079861111111109E-3</v>
       </c>
       <c r="X45" s="62">
-        <v>1.9464409722222222E-3</v>
+        <v>2.081909722222222E-3</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C46" s="59">
         <v>18</v>
@@ -16555,48 +16732,48 @@
         <v>10</v>
       </c>
       <c r="M46" s="62">
-        <v>5.7758680555555558E-4</v>
+        <v>4.7606481481481485E-4</v>
       </c>
       <c r="N46" s="62">
-        <v>8.6918402777777775E-4</v>
+        <v>7.5306712962962957E-4</v>
       </c>
       <c r="O46" s="62">
-        <v>1.1755381944444443E-3</v>
+        <v>1.0229976851851852E-3</v>
       </c>
       <c r="P46" s="62">
-        <v>9.653993055555555E-4</v>
+        <v>8.5793981481481485E-4</v>
       </c>
       <c r="Q46" s="62">
-        <v>2.275520833333333E-3</v>
+        <v>2.1210763888888889E-3</v>
       </c>
       <c r="R46" s="62">
-        <v>2.0668576388888885E-3</v>
+        <v>1.9406712962962962E-3</v>
       </c>
       <c r="S46" s="62">
-        <v>5.7758680555555558E-4</v>
+        <v>4.7606481481481485E-4</v>
       </c>
       <c r="T46" s="62">
-        <v>8.6918402777777775E-4</v>
+        <v>7.5306712962962957E-4</v>
       </c>
       <c r="U46" s="62">
-        <v>1.1755381944444443E-3</v>
+        <v>1.0229976851851852E-3</v>
       </c>
       <c r="V46" s="62">
-        <v>9.653993055555555E-4</v>
+        <v>8.5793981481481485E-4</v>
       </c>
       <c r="W46" s="62">
-        <v>2.275520833333333E-3</v>
+        <v>2.1210763888888889E-3</v>
       </c>
       <c r="X46" s="62">
-        <v>2.0668576388888885E-3</v>
+        <v>1.9406712962962962E-3</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C47" s="59">
         <v>17</v>
@@ -16625,48 +16802,48 @@
         <v>10</v>
       </c>
       <c r="M47" s="62">
-        <v>5.8924479166666663E-4</v>
+        <v>4.8133101851851852E-4</v>
       </c>
       <c r="N47" s="62">
-        <v>8.7907118055555557E-4</v>
+        <v>7.6043981481481492E-4</v>
       </c>
       <c r="O47" s="62">
-        <v>1.196640625E-3</v>
+        <v>1.0378935185185187E-3</v>
       </c>
       <c r="P47" s="62">
-        <v>9.7956597222222195E-4</v>
+        <v>8.7644675925925932E-4</v>
       </c>
       <c r="Q47" s="62">
-        <v>2.2923437499999997E-3</v>
+        <v>2.1462037037037036E-3</v>
       </c>
       <c r="R47" s="62">
-        <v>2.0746788194444445E-3</v>
+        <v>1.9635416666666668E-3</v>
       </c>
       <c r="S47" s="62">
-        <v>5.8924479166666663E-4</v>
+        <v>4.8133101851851852E-4</v>
       </c>
       <c r="T47" s="62">
-        <v>8.7907118055555557E-4</v>
+        <v>7.6043981481481492E-4</v>
       </c>
       <c r="U47" s="62">
-        <v>1.196640625E-3</v>
+        <v>1.0378935185185187E-3</v>
       </c>
       <c r="V47" s="62">
-        <v>9.7956597222222195E-4</v>
+        <v>8.7644675925925932E-4</v>
       </c>
       <c r="W47" s="62">
-        <v>2.2923437499999997E-3</v>
+        <v>2.1462037037037036E-3</v>
       </c>
       <c r="X47" s="62">
-        <v>2.0746788194444445E-3</v>
+        <v>1.9635416666666668E-3</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" s="59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C48" s="59">
         <v>12</v>
@@ -16695,48 +16872,48 @@
         <v>10</v>
       </c>
       <c r="M48" s="62">
-        <v>6.0031249999999993E-4</v>
+        <v>4.8599537037037036E-4</v>
       </c>
       <c r="N48" s="62">
-        <v>8.8822048611111111E-4</v>
+        <v>7.6736111111111113E-4</v>
       </c>
       <c r="O48" s="62">
-        <v>1.2161197916666666E-3</v>
+        <v>1.0517361111111114E-3</v>
       </c>
       <c r="P48" s="62">
-        <v>9.9255208333333335E-4</v>
+        <v>8.9344907407407418E-4</v>
       </c>
       <c r="Q48" s="62">
-        <v>2.3079861111111109E-3</v>
+        <v>2.1695254629629629E-3</v>
       </c>
       <c r="R48" s="62">
-        <v>2.081909722222222E-3</v>
+        <v>1.9846064814814817E-3</v>
       </c>
       <c r="S48" s="62">
-        <v>6.0031249999999993E-4</v>
+        <v>4.8599537037037036E-4</v>
       </c>
       <c r="T48" s="62">
-        <v>8.8822048611111111E-4</v>
+        <v>7.6736111111111113E-4</v>
       </c>
       <c r="U48" s="62">
-        <v>1.2161197916666666E-3</v>
+        <v>1.0517361111111114E-3</v>
       </c>
       <c r="V48" s="62">
-        <v>9.9255208333333335E-4</v>
+        <v>8.9344907407407418E-4</v>
       </c>
       <c r="W48" s="62">
-        <v>2.3079861111111109E-3</v>
+        <v>2.1695254629629629E-3</v>
       </c>
       <c r="X48" s="62">
-        <v>2.081909722222222E-3</v>
+        <v>1.9846064814814817E-3</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C49" s="59">
         <v>18</v>
@@ -16765,48 +16942,48 @@
         <v>10</v>
       </c>
       <c r="M49" s="62">
-        <v>4.7606481481481485E-4</v>
+        <v>5.8891203703703709E-4</v>
       </c>
       <c r="N49" s="62">
-        <v>7.5306712962962957E-4</v>
+        <v>8.8622685185185191E-4</v>
       </c>
       <c r="O49" s="62">
-        <v>1.0229976851851852E-3</v>
+        <v>1.1985879629629629E-3</v>
       </c>
       <c r="P49" s="62">
-        <v>8.5793981481481485E-4</v>
+        <v>9.8432870370370362E-4</v>
       </c>
       <c r="Q49" s="62">
-        <v>2.1210763888888889E-3</v>
+        <v>2.3201388888888889E-3</v>
       </c>
       <c r="R49" s="62">
-        <v>1.9406712962962962E-3</v>
+        <v>2.1073842592592594E-3</v>
       </c>
       <c r="S49" s="62">
-        <v>4.7606481481481485E-4</v>
+        <v>5.8891203703703709E-4</v>
       </c>
       <c r="T49" s="62">
-        <v>7.5306712962962957E-4</v>
+        <v>8.8622685185185191E-4</v>
       </c>
       <c r="U49" s="62">
-        <v>1.0229976851851852E-3</v>
+        <v>1.1985879629629629E-3</v>
       </c>
       <c r="V49" s="62">
-        <v>8.5793981481481485E-4</v>
+        <v>9.8432870370370362E-4</v>
       </c>
       <c r="W49" s="62">
-        <v>2.1210763888888889E-3</v>
+        <v>2.3201388888888889E-3</v>
       </c>
       <c r="X49" s="62">
-        <v>1.9406712962962962E-3</v>
+        <v>2.1073842592592594E-3</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C50" s="59">
         <v>17</v>
@@ -16835,48 +17012,48 @@
         <v>10</v>
       </c>
       <c r="M50" s="62">
-        <v>4.8133101851851852E-4</v>
+        <v>6.0079861111111119E-4</v>
       </c>
       <c r="N50" s="62">
-        <v>7.6043981481481492E-4</v>
+        <v>8.9630787037037044E-4</v>
       </c>
       <c r="O50" s="62">
-        <v>1.0378935185185187E-3</v>
+        <v>1.2201041666666669E-3</v>
       </c>
       <c r="P50" s="62">
-        <v>8.7644675925925932E-4</v>
+        <v>9.9877314814814815E-4</v>
       </c>
       <c r="Q50" s="62">
-        <v>2.1462037037037036E-3</v>
+        <v>2.3372916666666668E-3</v>
       </c>
       <c r="R50" s="62">
-        <v>1.9635416666666668E-3</v>
+        <v>2.1153587962962966E-3</v>
       </c>
       <c r="S50" s="62">
-        <v>4.8133101851851852E-4</v>
+        <v>6.0079861111111119E-4</v>
       </c>
       <c r="T50" s="62">
-        <v>7.6043981481481492E-4</v>
+        <v>8.9630787037037044E-4</v>
       </c>
       <c r="U50" s="62">
-        <v>1.0378935185185187E-3</v>
+        <v>1.2201041666666669E-3</v>
       </c>
       <c r="V50" s="62">
-        <v>8.7644675925925932E-4</v>
+        <v>9.9877314814814815E-4</v>
       </c>
       <c r="W50" s="62">
-        <v>2.1462037037037036E-3</v>
+        <v>2.3372916666666668E-3</v>
       </c>
       <c r="X50" s="62">
-        <v>1.9635416666666668E-3</v>
+        <v>2.1153587962962966E-3</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C51" s="59">
         <v>12</v>
@@ -16905,60 +17082,60 @@
         <v>10</v>
       </c>
       <c r="M51" s="62">
-        <v>4.8599537037037036E-4</v>
+        <v>6.1208333333333329E-4</v>
       </c>
       <c r="N51" s="62">
-        <v>7.6736111111111113E-4</v>
+        <v>9.0563657407407411E-4</v>
       </c>
       <c r="O51" s="62">
-        <v>1.0517361111111114E-3</v>
+        <v>1.2399652777777778E-3</v>
       </c>
       <c r="P51" s="62">
-        <v>8.9344907407407418E-4</v>
+        <v>1.0120138888888889E-3</v>
       </c>
       <c r="Q51" s="62">
-        <v>2.1695254629629629E-3</v>
+        <v>2.3532407407407408E-3</v>
       </c>
       <c r="R51" s="62">
-        <v>1.9846064814814817E-3</v>
+        <v>2.1227314814814815E-3</v>
       </c>
       <c r="S51" s="62">
-        <v>4.8599537037037036E-4</v>
+        <v>6.1208333333333329E-4</v>
       </c>
       <c r="T51" s="62">
-        <v>7.6736111111111113E-4</v>
+        <v>9.0563657407407411E-4</v>
       </c>
       <c r="U51" s="62">
-        <v>1.0517361111111114E-3</v>
+        <v>1.2399652777777778E-3</v>
       </c>
       <c r="V51" s="62">
-        <v>8.9344907407407418E-4</v>
+        <v>1.0120138888888889E-3</v>
       </c>
       <c r="W51" s="62">
-        <v>2.1695254629629629E-3</v>
+        <v>2.3532407407407408E-3</v>
       </c>
       <c r="X51" s="62">
-        <v>1.9846064814814817E-3</v>
+        <v>2.1227314814814815E-3</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" s="59" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B52" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C52" s="59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D52" s="59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="61">
         <v>45658</v>
       </c>
       <c r="F52" s="61">
-        <v>46023</v>
+        <v>46174</v>
       </c>
       <c r="G52" s="61">
         <v>45658</v>
@@ -16975,60 +17152,66 @@
         <v>10</v>
       </c>
       <c r="M52" s="62">
-        <v>5.8891203703703709E-4</v>
+        <v>3.9722222222222226E-4</v>
       </c>
       <c r="N52" s="62">
-        <v>8.8622685185185191E-4</v>
+        <v>6.2893518518518528E-4</v>
       </c>
       <c r="O52" s="62">
-        <v>1.1985879629629629E-3</v>
+        <v>8.490625000000001E-4</v>
       </c>
       <c r="P52" s="62">
-        <v>9.8432870370370362E-4</v>
+        <v>7.0545138888888882E-4</v>
       </c>
       <c r="Q52" s="62">
-        <v>2.3201388888888889E-3</v>
+        <v>1.7668750000000002E-3</v>
       </c>
       <c r="R52" s="62">
-        <v>2.1073842592592594E-3</v>
+        <v>1.6167708333333333E-3</v>
       </c>
       <c r="S52" s="62">
-        <v>5.8891203703703709E-4</v>
+        <f t="shared" ref="S52:S99" si="6">M52</f>
+        <v>3.9722222222222226E-4</v>
       </c>
       <c r="T52" s="62">
-        <v>8.8622685185185191E-4</v>
+        <f t="shared" ref="T52:T105" si="7">N52</f>
+        <v>6.2893518518518528E-4</v>
       </c>
       <c r="U52" s="62">
-        <v>1.1985879629629629E-3</v>
+        <f t="shared" ref="U52:U105" si="8">O52</f>
+        <v>8.490625000000001E-4</v>
       </c>
       <c r="V52" s="62">
-        <v>9.8432870370370362E-4</v>
+        <f t="shared" ref="V52:V105" si="9">P52</f>
+        <v>7.0545138888888882E-4</v>
       </c>
       <c r="W52" s="62">
-        <v>2.3201388888888889E-3</v>
+        <f t="shared" ref="W52:W105" si="10">Q52</f>
+        <v>1.7668750000000002E-3</v>
       </c>
       <c r="X52" s="62">
-        <v>2.1073842592592594E-3</v>
+        <f t="shared" ref="X52:X105" si="11">R52</f>
+        <v>1.6167708333333333E-3</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A53" s="59" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C53" s="59">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" s="59">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E53" s="61">
         <v>45658</v>
       </c>
       <c r="F53" s="61">
-        <v>46023</v>
+        <v>46174</v>
       </c>
       <c r="G53" s="61">
         <v>45658</v>
@@ -17045,60 +17228,66 @@
         <v>10</v>
       </c>
       <c r="M53" s="62">
-        <v>6.0079861111111119E-4</v>
+        <v>3.9365740740740745E-4</v>
       </c>
       <c r="N53" s="62">
-        <v>8.9630787037037044E-4</v>
+        <v>6.2384259259259272E-4</v>
       </c>
       <c r="O53" s="62">
-        <v>1.2201041666666669E-3</v>
+        <v>8.3900462962962976E-4</v>
       </c>
       <c r="P53" s="62">
-        <v>9.9877314814814815E-4</v>
+        <v>6.9322916666666675E-4</v>
       </c>
       <c r="Q53" s="62">
-        <v>2.3372916666666668E-3</v>
+        <v>1.7496875000000002E-3</v>
       </c>
       <c r="R53" s="62">
-        <v>2.1153587962962966E-3</v>
+        <v>1.6011111111111113E-3</v>
       </c>
       <c r="S53" s="62">
-        <v>6.0079861111111119E-4</v>
+        <f t="shared" si="6"/>
+        <v>3.9365740740740745E-4</v>
       </c>
       <c r="T53" s="62">
-        <v>8.9630787037037044E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.2384259259259272E-4</v>
       </c>
       <c r="U53" s="62">
-        <v>1.2201041666666669E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.3900462962962976E-4</v>
       </c>
       <c r="V53" s="62">
-        <v>9.9877314814814815E-4</v>
+        <f t="shared" si="9"/>
+        <v>6.9322916666666675E-4</v>
       </c>
       <c r="W53" s="62">
-        <v>2.3372916666666668E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.7496875000000002E-3</v>
       </c>
       <c r="X53" s="62">
-        <v>2.1153587962962966E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.6011111111111113E-3</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A54" s="59" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B54" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C54" s="59">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D54" s="59">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E54" s="61">
         <v>45658</v>
       </c>
       <c r="F54" s="61">
-        <v>46023</v>
+        <v>46174</v>
       </c>
       <c r="G54" s="61">
         <v>45658</v>
@@ -17115,54 +17304,60 @@
         <v>10</v>
       </c>
       <c r="M54" s="62">
-        <v>6.1208333333333329E-4</v>
+        <v>3.8283564814814821E-4</v>
       </c>
       <c r="N54" s="62">
-        <v>9.0563657407407411E-4</v>
+        <v>6.079282407407408E-4</v>
       </c>
       <c r="O54" s="62">
-        <v>1.2399652777777778E-3</v>
+        <v>8.0768518518518526E-4</v>
       </c>
       <c r="P54" s="62">
-        <v>1.0120138888888889E-3</v>
+        <v>6.5554398148148145E-4</v>
       </c>
       <c r="Q54" s="62">
-        <v>2.3532407407407408E-3</v>
+        <v>1.6964699074074076E-3</v>
       </c>
       <c r="R54" s="62">
-        <v>2.1227314814814815E-3</v>
+        <v>1.5527314814814815E-3</v>
       </c>
       <c r="S54" s="62">
-        <v>6.1208333333333329E-4</v>
+        <f t="shared" si="6"/>
+        <v>3.8283564814814821E-4</v>
       </c>
       <c r="T54" s="62">
-        <v>9.0563657407407411E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.079282407407408E-4</v>
       </c>
       <c r="U54" s="62">
-        <v>1.2399652777777778E-3</v>
+        <f t="shared" si="8"/>
+        <v>8.0768518518518526E-4</v>
       </c>
       <c r="V54" s="62">
-        <v>1.0120138888888889E-3</v>
+        <f t="shared" si="9"/>
+        <v>6.5554398148148145E-4</v>
       </c>
       <c r="W54" s="62">
-        <v>2.3532407407407408E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.6964699074074076E-3</v>
       </c>
       <c r="X54" s="62">
-        <v>2.1227314814814815E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.5527314814814815E-3</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A55" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B55" s="59" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" s="59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E55" s="61">
         <v>45658</v>
@@ -17177,64 +17372,68 @@
         <v>178</v>
       </c>
       <c r="I55" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="59">
-        <v>25</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J55" s="59"/>
       <c r="K55" s="59"/>
       <c r="L55" s="59">
         <v>10</v>
       </c>
       <c r="M55" s="62">
-        <v>4.6817129629629634E-4</v>
+        <v>4.8506944444444455E-4</v>
       </c>
       <c r="N55" s="62">
-        <v>7.4872685185185188E-4</v>
+        <v>7.3880787037037046E-4</v>
       </c>
       <c r="O55" s="62">
-        <v>9.9224537037037033E-4</v>
+        <v>9.9038194444444434E-4</v>
       </c>
       <c r="P55" s="62">
-        <v>7.8888888888888889E-4</v>
+        <v>8.1685185185185192E-4</v>
       </c>
       <c r="Q55" s="62">
-        <v>1.9605324074074074E-3</v>
+        <v>1.9440972222222223E-3</v>
       </c>
       <c r="R55" s="62">
-        <v>1.7837962962962963E-3</v>
+        <v>1.7742592592592597E-3</v>
       </c>
       <c r="S55" s="62">
-        <v>4.803240740740741E-4</v>
+        <f t="shared" si="6"/>
+        <v>4.8506944444444455E-4</v>
       </c>
       <c r="T55" s="62">
-        <v>7.8599537037037039E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.3880787037037046E-4</v>
       </c>
       <c r="U55" s="62">
-        <v>1.0240740740740742E-3</v>
+        <f t="shared" si="8"/>
+        <v>9.9038194444444434E-4</v>
       </c>
       <c r="V55" s="62">
-        <v>8.2766203703703712E-4</v>
+        <f t="shared" si="9"/>
+        <v>8.1685185185185192E-4</v>
       </c>
       <c r="W55" s="62">
-        <v>2.0114583333333334E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.9440972222222223E-3</v>
       </c>
       <c r="X55" s="62">
-        <v>1.8332175925925925E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7742592592592597E-3</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A56" s="59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C56" s="59">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D56" s="59">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E56" s="61">
         <v>45658</v>
@@ -17249,76 +17448,68 @@
         <v>178</v>
       </c>
       <c r="I56" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" s="59">
-        <v>50</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J56" s="59"/>
       <c r="K56" s="59"/>
       <c r="L56" s="59">
         <v>10</v>
       </c>
       <c r="M56" s="62">
-        <f>M55*1.1</f>
-        <v>5.1498842592592601E-4</v>
+        <v>4.7717592592592592E-4</v>
       </c>
       <c r="N56" s="62">
-        <f t="shared" ref="N56:X56" si="6">N55*1.1</f>
-        <v>8.2359953703703718E-4</v>
+        <v>7.3193287037037042E-4</v>
       </c>
       <c r="O56" s="62">
-        <f t="shared" si="6"/>
-        <v>1.0914699074074075E-3</v>
+        <v>9.7599537037037034E-4</v>
       </c>
       <c r="P56" s="62">
-        <f t="shared" si="6"/>
-        <v>8.6777777777777786E-4</v>
+        <v>8.0704861111111114E-4</v>
       </c>
       <c r="Q56" s="62">
-        <f t="shared" si="6"/>
-        <v>2.1565856481481484E-3</v>
+        <v>1.9321296296296298E-3</v>
       </c>
       <c r="R56" s="62">
-        <f t="shared" si="6"/>
-        <v>1.9621759259259262E-3</v>
+        <v>1.7686574074074078E-3</v>
       </c>
       <c r="S56" s="62">
         <f t="shared" si="6"/>
-        <v>5.2835648148148154E-4</v>
+        <v>4.7717592592592592E-4</v>
       </c>
       <c r="T56" s="62">
-        <f t="shared" si="6"/>
-        <v>8.6459490740740746E-4</v>
+        <f t="shared" si="7"/>
+        <v>7.3193287037037042E-4</v>
       </c>
       <c r="U56" s="62">
-        <f t="shared" si="6"/>
-        <v>1.1264814814814818E-3</v>
+        <f t="shared" si="8"/>
+        <v>9.7599537037037034E-4</v>
       </c>
       <c r="V56" s="62">
-        <f t="shared" si="6"/>
-        <v>9.1042824074074095E-4</v>
+        <f t="shared" si="9"/>
+        <v>8.0704861111111114E-4</v>
       </c>
       <c r="W56" s="62">
-        <f t="shared" si="6"/>
-        <v>2.212604166666667E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.9321296296296298E-3</v>
       </c>
       <c r="X56" s="62">
-        <f t="shared" si="6"/>
-        <v>2.0165393518518518E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.7686574074074078E-3</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A57" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C57" s="59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D57" s="59">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E57" s="61">
         <v>45658</v>
@@ -17340,31 +17531,61 @@
       <c r="L57" s="59">
         <v>10</v>
       </c>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
+      <c r="M57" s="62">
+        <v>4.5273148148148153E-4</v>
+      </c>
+      <c r="N57" s="62">
+        <v>7.1067129629629638E-4</v>
+      </c>
+      <c r="O57" s="62">
+        <v>9.3168981481481499E-4</v>
+      </c>
+      <c r="P57" s="62">
+        <v>7.7687500000000011E-4</v>
+      </c>
+      <c r="Q57" s="62">
+        <v>1.8950810185185186E-3</v>
+      </c>
+      <c r="R57" s="62">
+        <v>1.751087962962963E-3</v>
+      </c>
+      <c r="S57" s="62">
+        <f t="shared" si="6"/>
+        <v>4.5273148148148153E-4</v>
+      </c>
+      <c r="T57" s="62">
+        <f t="shared" si="7"/>
+        <v>7.1067129629629638E-4</v>
+      </c>
+      <c r="U57" s="62">
+        <f t="shared" si="8"/>
+        <v>9.3168981481481499E-4</v>
+      </c>
+      <c r="V57" s="62">
+        <f t="shared" si="9"/>
+        <v>7.7687500000000011E-4</v>
+      </c>
+      <c r="W57" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8950810185185186E-3</v>
+      </c>
+      <c r="X57" s="62">
+        <f t="shared" si="11"/>
+        <v>1.751087962962963E-3</v>
+      </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A58" s="59" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C58" s="59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" s="59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E58" s="61">
         <v>45658</v>
@@ -17386,31 +17607,61 @@
       <c r="L58" s="59">
         <v>10</v>
       </c>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="62"/>
-      <c r="V58" s="62"/>
-      <c r="W58" s="62"/>
-      <c r="X58" s="62"/>
+      <c r="M58" s="62">
+        <v>4.0624999999999998E-4</v>
+      </c>
+      <c r="N58" s="62">
+        <v>6.4322916666666673E-4</v>
+      </c>
+      <c r="O58" s="62">
+        <v>8.6835937499999999E-4</v>
+      </c>
+      <c r="P58" s="62">
+        <v>7.214843749999999E-4</v>
+      </c>
+      <c r="Q58" s="62">
+        <v>1.80703125E-3</v>
+      </c>
+      <c r="R58" s="62">
+        <v>1.6535156249999998E-3</v>
+      </c>
+      <c r="S58" s="62">
+        <f t="shared" si="6"/>
+        <v>4.0624999999999998E-4</v>
+      </c>
+      <c r="T58" s="62">
+        <f t="shared" si="7"/>
+        <v>6.4322916666666673E-4</v>
+      </c>
+      <c r="U58" s="62">
+        <f t="shared" si="8"/>
+        <v>8.6835937499999999E-4</v>
+      </c>
+      <c r="V58" s="62">
+        <f t="shared" si="9"/>
+        <v>7.214843749999999E-4</v>
+      </c>
+      <c r="W58" s="62">
+        <f t="shared" si="10"/>
+        <v>1.80703125E-3</v>
+      </c>
+      <c r="X58" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6535156249999998E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A59" s="59" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B59" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C59" s="59">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59" s="59">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E59" s="61">
         <v>45658</v>
@@ -17432,31 +17683,61 @@
       <c r="L59" s="59">
         <v>10</v>
       </c>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="62"/>
-      <c r="U59" s="62"/>
-      <c r="V59" s="62"/>
-      <c r="W59" s="62"/>
-      <c r="X59" s="62"/>
+      <c r="M59" s="62">
+        <v>4.0260416666666667E-4</v>
+      </c>
+      <c r="N59" s="62">
+        <v>6.3802083333333332E-4</v>
+      </c>
+      <c r="O59" s="62">
+        <v>8.5807291666666671E-4</v>
+      </c>
+      <c r="P59" s="62">
+        <v>7.0898437499999998E-4</v>
+      </c>
+      <c r="Q59" s="62">
+        <v>1.789453125E-3</v>
+      </c>
+      <c r="R59" s="62">
+        <v>1.6375000000000001E-3</v>
+      </c>
+      <c r="S59" s="62">
+        <f t="shared" si="6"/>
+        <v>4.0260416666666667E-4</v>
+      </c>
+      <c r="T59" s="62">
+        <f t="shared" si="7"/>
+        <v>6.3802083333333332E-4</v>
+      </c>
+      <c r="U59" s="62">
+        <f t="shared" si="8"/>
+        <v>8.5807291666666671E-4</v>
+      </c>
+      <c r="V59" s="62">
+        <f t="shared" si="9"/>
+        <v>7.0898437499999998E-4</v>
+      </c>
+      <c r="W59" s="62">
+        <f t="shared" si="10"/>
+        <v>1.789453125E-3</v>
+      </c>
+      <c r="X59" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6375000000000001E-3</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A60" s="59" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C60" s="59">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D60" s="59">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E60" s="61">
         <v>45658</v>
@@ -17478,31 +17759,61 @@
       <c r="L60" s="59">
         <v>10</v>
       </c>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="62"/>
-      <c r="W60" s="62"/>
-      <c r="X60" s="62"/>
+      <c r="M60" s="62">
+        <v>3.9153645833333336E-4</v>
+      </c>
+      <c r="N60" s="62">
+        <v>6.2174479166666671E-4</v>
+      </c>
+      <c r="O60" s="62">
+        <v>8.2604166666666666E-4</v>
+      </c>
+      <c r="P60" s="62">
+        <v>6.7044270833333333E-4</v>
+      </c>
+      <c r="Q60" s="62">
+        <v>1.7350260416666668E-3</v>
+      </c>
+      <c r="R60" s="62">
+        <v>1.5880208333333332E-3</v>
+      </c>
+      <c r="S60" s="62">
+        <f t="shared" si="6"/>
+        <v>3.9153645833333336E-4</v>
+      </c>
+      <c r="T60" s="62">
+        <f t="shared" si="7"/>
+        <v>6.2174479166666671E-4</v>
+      </c>
+      <c r="U60" s="62">
+        <f t="shared" si="8"/>
+        <v>8.2604166666666666E-4</v>
+      </c>
+      <c r="V60" s="62">
+        <f t="shared" si="9"/>
+        <v>6.7044270833333333E-4</v>
+      </c>
+      <c r="W60" s="62">
+        <f t="shared" si="10"/>
+        <v>1.7350260416666668E-3</v>
+      </c>
+      <c r="X60" s="62">
+        <f t="shared" si="11"/>
+        <v>1.5880208333333332E-3</v>
+      </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A61" s="59" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C61" s="59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="59">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E61" s="61">
         <v>45658</v>
@@ -17524,31 +17835,61 @@
       <c r="L61" s="59">
         <v>10</v>
       </c>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
-      <c r="W61" s="62"/>
-      <c r="X61" s="62"/>
+      <c r="M61" s="62">
+        <v>4.9609375000000001E-4</v>
+      </c>
+      <c r="N61" s="62">
+        <v>7.5559895833333338E-4</v>
+      </c>
+      <c r="O61" s="62">
+        <v>1.0128906249999999E-3</v>
+      </c>
+      <c r="P61" s="62">
+        <v>8.354166666666666E-4</v>
+      </c>
+      <c r="Q61" s="62">
+        <v>1.98828125E-3</v>
+      </c>
+      <c r="R61" s="62">
+        <v>1.8145833333333336E-3</v>
+      </c>
+      <c r="S61" s="62">
+        <f t="shared" si="6"/>
+        <v>4.9609375000000001E-4</v>
+      </c>
+      <c r="T61" s="62">
+        <f t="shared" si="7"/>
+        <v>7.5559895833333338E-4</v>
+      </c>
+      <c r="U61" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0128906249999999E-3</v>
+      </c>
+      <c r="V61" s="62">
+        <f t="shared" si="9"/>
+        <v>8.354166666666666E-4</v>
+      </c>
+      <c r="W61" s="62">
+        <f t="shared" si="10"/>
+        <v>1.98828125E-3</v>
+      </c>
+      <c r="X61" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8145833333333336E-3</v>
+      </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62" s="59" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="B62" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C62" s="59">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D62" s="59">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E62" s="61">
         <v>45658</v>
@@ -17570,18 +17911,3430 @@
       <c r="L62" s="59">
         <v>10</v>
       </c>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
+      <c r="M62" s="62">
+        <v>4.8802083333333331E-4</v>
+      </c>
+      <c r="N62" s="62">
+        <v>7.4856770833333329E-4</v>
+      </c>
+      <c r="O62" s="62">
+        <v>9.9817708333333334E-4</v>
+      </c>
+      <c r="P62" s="62">
+        <v>8.2539062499999995E-4</v>
+      </c>
+      <c r="Q62" s="62">
+        <v>1.9760416666666667E-3</v>
+      </c>
+      <c r="R62" s="62">
+        <v>1.8088541666666669E-3</v>
+      </c>
+      <c r="S62" s="62">
+        <f t="shared" si="6"/>
+        <v>4.8802083333333331E-4</v>
+      </c>
+      <c r="T62" s="62">
+        <f t="shared" si="7"/>
+        <v>7.4856770833333329E-4</v>
+      </c>
+      <c r="U62" s="62">
+        <f t="shared" si="8"/>
+        <v>9.9817708333333334E-4</v>
+      </c>
+      <c r="V62" s="62">
+        <f t="shared" si="9"/>
+        <v>8.2539062499999995E-4</v>
+      </c>
+      <c r="W62" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9760416666666667E-3</v>
+      </c>
+      <c r="X62" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8088541666666669E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A63" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="59">
+        <v>23</v>
+      </c>
+      <c r="D63" s="59">
+        <v>50</v>
+      </c>
+      <c r="E63" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F63" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G63" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I63" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="59"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59">
+        <v>10</v>
+      </c>
+      <c r="M63" s="62">
+        <v>4.6302083333333335E-4</v>
+      </c>
+      <c r="N63" s="62">
+        <v>7.2682291666666663E-4</v>
+      </c>
+      <c r="O63" s="62">
+        <v>9.5286458333333345E-4</v>
+      </c>
+      <c r="P63" s="62">
+        <v>7.945312500000001E-4</v>
+      </c>
+      <c r="Q63" s="62">
+        <v>1.9381510416666666E-3</v>
+      </c>
+      <c r="R63" s="62">
+        <v>1.7908854166666665E-3</v>
+      </c>
+      <c r="S63" s="62">
+        <f t="shared" si="6"/>
+        <v>4.6302083333333335E-4</v>
+      </c>
+      <c r="T63" s="62">
+        <f t="shared" si="7"/>
+        <v>7.2682291666666663E-4</v>
+      </c>
+      <c r="U63" s="62">
+        <f t="shared" si="8"/>
+        <v>9.5286458333333345E-4</v>
+      </c>
+      <c r="V63" s="62">
+        <f t="shared" si="9"/>
+        <v>7.945312500000001E-4</v>
+      </c>
+      <c r="W63" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9381510416666666E-3</v>
+      </c>
+      <c r="X63" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7908854166666665E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A64" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="59">
+        <v>19</v>
+      </c>
+      <c r="D64" s="59">
+        <v>19</v>
+      </c>
+      <c r="E64" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F64" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G64" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59">
+        <v>10</v>
+      </c>
+      <c r="M64" s="62">
+        <v>4.152777777777777E-4</v>
+      </c>
+      <c r="N64" s="62">
+        <v>6.5752314814814807E-4</v>
+      </c>
+      <c r="O64" s="62">
+        <v>8.8765624999999988E-4</v>
+      </c>
+      <c r="P64" s="62">
+        <v>7.3751736111111099E-4</v>
+      </c>
+      <c r="Q64" s="62">
+        <v>1.8471874999999999E-3</v>
+      </c>
+      <c r="R64" s="62">
+        <v>1.6902604166666663E-3</v>
+      </c>
+      <c r="S64" s="62">
+        <f t="shared" si="6"/>
+        <v>4.152777777777777E-4</v>
+      </c>
+      <c r="T64" s="62">
+        <f t="shared" si="7"/>
+        <v>6.5752314814814807E-4</v>
+      </c>
+      <c r="U64" s="62">
+        <f t="shared" si="8"/>
+        <v>8.8765624999999988E-4</v>
+      </c>
+      <c r="V64" s="62">
+        <f t="shared" si="9"/>
+        <v>7.3751736111111099E-4</v>
+      </c>
+      <c r="W64" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8471874999999999E-3</v>
+      </c>
+      <c r="X64" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6902604166666663E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A65" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="59">
+        <v>20</v>
+      </c>
+      <c r="D65" s="59">
+        <v>22</v>
+      </c>
+      <c r="E65" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F65" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G65" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59">
+        <v>10</v>
+      </c>
+      <c r="M65" s="62">
+        <v>4.1155092592592589E-4</v>
+      </c>
+      <c r="N65" s="62">
+        <v>6.5219907407407403E-4</v>
+      </c>
+      <c r="O65" s="62">
+        <v>8.7714120370370365E-4</v>
+      </c>
+      <c r="P65" s="62">
+        <v>7.247395833333332E-4</v>
+      </c>
+      <c r="Q65" s="62">
+        <v>1.8292187499999999E-3</v>
+      </c>
+      <c r="R65" s="62">
+        <v>1.6738888888888888E-3</v>
+      </c>
+      <c r="S65" s="62">
+        <f t="shared" si="6"/>
+        <v>4.1155092592592589E-4</v>
+      </c>
+      <c r="T65" s="62">
+        <f t="shared" si="7"/>
+        <v>6.5219907407407403E-4</v>
+      </c>
+      <c r="U65" s="62">
+        <f t="shared" si="8"/>
+        <v>8.7714120370370365E-4</v>
+      </c>
+      <c r="V65" s="62">
+        <f t="shared" si="9"/>
+        <v>7.247395833333332E-4</v>
+      </c>
+      <c r="W65" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8292187499999999E-3</v>
+      </c>
+      <c r="X65" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6738888888888888E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A66" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="59">
+        <v>23</v>
+      </c>
+      <c r="D66" s="59">
+        <v>50</v>
+      </c>
+      <c r="E66" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F66" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G66" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I66" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59">
+        <v>10</v>
+      </c>
+      <c r="M66" s="62">
+        <v>4.0023726851851852E-4</v>
+      </c>
+      <c r="N66" s="62">
+        <v>6.3556134259259251E-4</v>
+      </c>
+      <c r="O66" s="62">
+        <v>8.4439814814814805E-4</v>
+      </c>
+      <c r="P66" s="62">
+        <v>6.853414351851851E-4</v>
+      </c>
+      <c r="Q66" s="62">
+        <v>1.7735821759259258E-3</v>
+      </c>
+      <c r="R66" s="62">
+        <v>1.6233101851851849E-3</v>
+      </c>
+      <c r="S66" s="62">
+        <f t="shared" si="6"/>
+        <v>4.0023726851851852E-4</v>
+      </c>
+      <c r="T66" s="62">
+        <f t="shared" si="7"/>
+        <v>6.3556134259259251E-4</v>
+      </c>
+      <c r="U66" s="62">
+        <f t="shared" si="8"/>
+        <v>8.4439814814814805E-4</v>
+      </c>
+      <c r="V66" s="62">
+        <f t="shared" si="9"/>
+        <v>6.853414351851851E-4</v>
+      </c>
+      <c r="W66" s="62">
+        <f t="shared" si="10"/>
+        <v>1.7735821759259258E-3</v>
+      </c>
+      <c r="X66" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6233101851851849E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A67" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="59">
+        <v>19</v>
+      </c>
+      <c r="D67" s="59">
+        <v>19</v>
+      </c>
+      <c r="E67" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F67" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G67" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I67" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59">
+        <v>10</v>
+      </c>
+      <c r="M67" s="62">
+        <v>5.0711805555555558E-4</v>
+      </c>
+      <c r="N67" s="62">
+        <v>7.723900462962963E-4</v>
+      </c>
+      <c r="O67" s="62">
+        <v>1.0353993055555552E-3</v>
+      </c>
+      <c r="P67" s="62">
+        <v>8.5398148148148139E-4</v>
+      </c>
+      <c r="Q67" s="62">
+        <v>2.0324652777777776E-3</v>
+      </c>
+      <c r="R67" s="62">
+        <v>1.8549074074074075E-3</v>
+      </c>
+      <c r="S67" s="62">
+        <f t="shared" si="6"/>
+        <v>5.0711805555555558E-4</v>
+      </c>
+      <c r="T67" s="62">
+        <f t="shared" si="7"/>
+        <v>7.723900462962963E-4</v>
+      </c>
+      <c r="U67" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0353993055555552E-3</v>
+      </c>
+      <c r="V67" s="62">
+        <f t="shared" si="9"/>
+        <v>8.5398148148148139E-4</v>
+      </c>
+      <c r="W67" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0324652777777776E-3</v>
+      </c>
+      <c r="X67" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8549074074074075E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A68" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="59">
+        <v>20</v>
+      </c>
+      <c r="D68" s="59">
+        <v>22</v>
+      </c>
+      <c r="E68" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F68" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G68" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H68" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59">
+        <v>10</v>
+      </c>
+      <c r="M68" s="62">
+        <v>4.9886574074074069E-4</v>
+      </c>
+      <c r="N68" s="62">
+        <v>7.6520254629629627E-4</v>
+      </c>
+      <c r="O68" s="62">
+        <v>1.0203587962962961E-3</v>
+      </c>
+      <c r="P68" s="62">
+        <v>8.4373263888888887E-4</v>
+      </c>
+      <c r="Q68" s="62">
+        <v>2.0199537037037035E-3</v>
+      </c>
+      <c r="R68" s="62">
+        <v>1.8490509259259261E-3</v>
+      </c>
+      <c r="S68" s="62">
+        <f t="shared" si="6"/>
+        <v>4.9886574074074069E-4</v>
+      </c>
+      <c r="T68" s="62">
+        <f t="shared" si="7"/>
+        <v>7.6520254629629627E-4</v>
+      </c>
+      <c r="U68" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0203587962962961E-3</v>
+      </c>
+      <c r="V68" s="62">
+        <f t="shared" si="9"/>
+        <v>8.4373263888888887E-4</v>
+      </c>
+      <c r="W68" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0199537037037035E-3</v>
+      </c>
+      <c r="X68" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8490509259259261E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A69" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="59">
+        <v>23</v>
+      </c>
+      <c r="D69" s="59">
+        <v>50</v>
+      </c>
+      <c r="E69" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F69" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G69" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I69" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="59"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59">
+        <v>10</v>
+      </c>
+      <c r="M69" s="62">
+        <v>4.7331018518518517E-4</v>
+      </c>
+      <c r="N69" s="62">
+        <v>7.42974537037037E-4</v>
+      </c>
+      <c r="O69" s="62">
+        <v>9.7403935185185191E-4</v>
+      </c>
+      <c r="P69" s="62">
+        <v>8.1218749999999998E-4</v>
+      </c>
+      <c r="Q69" s="62">
+        <v>1.9812210648148146E-3</v>
+      </c>
+      <c r="R69" s="62">
+        <v>1.8306828703703701E-3</v>
+      </c>
+      <c r="S69" s="62">
+        <f t="shared" si="6"/>
+        <v>4.7331018518518517E-4</v>
+      </c>
+      <c r="T69" s="62">
+        <f t="shared" si="7"/>
+        <v>7.42974537037037E-4</v>
+      </c>
+      <c r="U69" s="62">
+        <f t="shared" si="8"/>
+        <v>9.7403935185185191E-4</v>
+      </c>
+      <c r="V69" s="62">
+        <f t="shared" si="9"/>
+        <v>8.1218749999999998E-4</v>
+      </c>
+      <c r="W69" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9812210648148146E-3</v>
+      </c>
+      <c r="X69" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8306828703703701E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A70" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="59">
+        <v>19</v>
+      </c>
+      <c r="D70" s="59">
+        <v>19</v>
+      </c>
+      <c r="E70" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F70" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G70" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I70" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59">
+        <v>10</v>
+      </c>
+      <c r="M70" s="62">
+        <v>4.2430555555555554E-4</v>
+      </c>
+      <c r="N70" s="62">
+        <v>6.7181712962962963E-4</v>
+      </c>
+      <c r="O70" s="62">
+        <v>9.0695312499999999E-4</v>
+      </c>
+      <c r="P70" s="62">
+        <v>7.5355034722222219E-4</v>
+      </c>
+      <c r="Q70" s="62">
+        <v>1.8873437500000001E-3</v>
+      </c>
+      <c r="R70" s="62">
+        <v>1.7270052083333332E-3</v>
+      </c>
+      <c r="S70" s="62">
+        <f t="shared" si="6"/>
+        <v>4.2430555555555554E-4</v>
+      </c>
+      <c r="T70" s="62">
+        <f t="shared" si="7"/>
+        <v>6.7181712962962963E-4</v>
+      </c>
+      <c r="U70" s="62">
+        <f t="shared" si="8"/>
+        <v>9.0695312499999999E-4</v>
+      </c>
+      <c r="V70" s="62">
+        <f t="shared" si="9"/>
+        <v>7.5355034722222219E-4</v>
+      </c>
+      <c r="W70" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8873437500000001E-3</v>
+      </c>
+      <c r="X70" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7270052083333332E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A71" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="59">
+        <v>20</v>
+      </c>
+      <c r="D71" s="59">
+        <v>22</v>
+      </c>
+      <c r="E71" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F71" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G71" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59">
+        <v>10</v>
+      </c>
+      <c r="M71" s="62">
+        <v>4.2049768518518521E-4</v>
+      </c>
+      <c r="N71" s="62">
+        <v>6.6637731481481485E-4</v>
+      </c>
+      <c r="O71" s="62">
+        <v>8.9620949074074082E-4</v>
+      </c>
+      <c r="P71" s="62">
+        <v>7.4049479166666664E-4</v>
+      </c>
+      <c r="Q71" s="62">
+        <v>1.8689843750000002E-3</v>
+      </c>
+      <c r="R71" s="62">
+        <v>1.710277777777778E-3</v>
+      </c>
+      <c r="S71" s="62">
+        <f t="shared" si="6"/>
+        <v>4.2049768518518521E-4</v>
+      </c>
+      <c r="T71" s="62">
+        <f t="shared" si="7"/>
+        <v>6.6637731481481485E-4</v>
+      </c>
+      <c r="U71" s="62">
+        <f t="shared" si="8"/>
+        <v>8.9620949074074082E-4</v>
+      </c>
+      <c r="V71" s="62">
+        <f t="shared" si="9"/>
+        <v>7.4049479166666664E-4</v>
+      </c>
+      <c r="W71" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8689843750000002E-3</v>
+      </c>
+      <c r="X71" s="62">
+        <f t="shared" si="11"/>
+        <v>1.710277777777778E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A72" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="59">
+        <v>23</v>
+      </c>
+      <c r="D72" s="59">
+        <v>50</v>
+      </c>
+      <c r="E72" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F72" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G72" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I72" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59">
+        <v>10</v>
+      </c>
+      <c r="M72" s="62">
+        <v>4.0893807870370373E-4</v>
+      </c>
+      <c r="N72" s="62">
+        <v>6.4937789351851853E-4</v>
+      </c>
+      <c r="O72" s="62">
+        <v>8.6275462962962966E-4</v>
+      </c>
+      <c r="P72" s="62">
+        <v>7.0024016203703698E-4</v>
+      </c>
+      <c r="Q72" s="62">
+        <v>1.8121383101851853E-3</v>
+      </c>
+      <c r="R72" s="62">
+        <v>1.658599537037037E-3</v>
+      </c>
+      <c r="S72" s="62">
+        <f t="shared" si="6"/>
+        <v>4.0893807870370373E-4</v>
+      </c>
+      <c r="T72" s="62">
+        <f t="shared" si="7"/>
+        <v>6.4937789351851853E-4</v>
+      </c>
+      <c r="U72" s="62">
+        <f t="shared" si="8"/>
+        <v>8.6275462962962966E-4</v>
+      </c>
+      <c r="V72" s="62">
+        <f t="shared" si="9"/>
+        <v>7.0024016203703698E-4</v>
+      </c>
+      <c r="W72" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8121383101851853E-3</v>
+      </c>
+      <c r="X72" s="62">
+        <f t="shared" si="11"/>
+        <v>1.658599537037037E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A73" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="59">
+        <v>19</v>
+      </c>
+      <c r="D73" s="59">
+        <v>19</v>
+      </c>
+      <c r="E73" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F73" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G73" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H73" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J73" s="59"/>
+      <c r="K73" s="59"/>
+      <c r="L73" s="59">
+        <v>10</v>
+      </c>
+      <c r="M73" s="62">
+        <v>5.1814236111111115E-4</v>
+      </c>
+      <c r="N73" s="62">
+        <v>7.8918113425925933E-4</v>
+      </c>
+      <c r="O73" s="62">
+        <v>1.057907986111111E-3</v>
+      </c>
+      <c r="P73" s="62">
+        <v>8.7254629629629629E-4</v>
+      </c>
+      <c r="Q73" s="62">
+        <v>2.0766493055555555E-3</v>
+      </c>
+      <c r="R73" s="62">
+        <v>1.8952314814814819E-3</v>
+      </c>
+      <c r="S73" s="62">
+        <f t="shared" si="6"/>
+        <v>5.1814236111111115E-4</v>
+      </c>
+      <c r="T73" s="62">
+        <f t="shared" si="7"/>
+        <v>7.8918113425925933E-4</v>
+      </c>
+      <c r="U73" s="62">
+        <f t="shared" si="8"/>
+        <v>1.057907986111111E-3</v>
+      </c>
+      <c r="V73" s="62">
+        <f t="shared" si="9"/>
+        <v>8.7254629629629629E-4</v>
+      </c>
+      <c r="W73" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0766493055555555E-3</v>
+      </c>
+      <c r="X73" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8952314814814819E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A74" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="59">
+        <v>20</v>
+      </c>
+      <c r="D74" s="59">
+        <v>22</v>
+      </c>
+      <c r="E74" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F74" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G74" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H74" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I74" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59">
+        <v>10</v>
+      </c>
+      <c r="M74" s="62">
+        <v>5.0971064814814813E-4</v>
+      </c>
+      <c r="N74" s="62">
+        <v>7.8183738425925925E-4</v>
+      </c>
+      <c r="O74" s="62">
+        <v>1.0425405092592593E-3</v>
+      </c>
+      <c r="P74" s="62">
+        <v>8.620746527777778E-4</v>
+      </c>
+      <c r="Q74" s="62">
+        <v>2.0638657407407407E-3</v>
+      </c>
+      <c r="R74" s="62">
+        <v>1.8892476851851856E-3</v>
+      </c>
+      <c r="S74" s="62">
+        <f t="shared" si="6"/>
+        <v>5.0971064814814813E-4</v>
+      </c>
+      <c r="T74" s="62">
+        <f t="shared" si="7"/>
+        <v>7.8183738425925925E-4</v>
+      </c>
+      <c r="U74" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0425405092592593E-3</v>
+      </c>
+      <c r="V74" s="62">
+        <f t="shared" si="9"/>
+        <v>8.620746527777778E-4</v>
+      </c>
+      <c r="W74" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0638657407407407E-3</v>
+      </c>
+      <c r="X74" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8892476851851856E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A75" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="59">
+        <v>23</v>
+      </c>
+      <c r="D75" s="59">
+        <v>50</v>
+      </c>
+      <c r="E75" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F75" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G75" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59">
+        <v>10</v>
+      </c>
+      <c r="M75" s="62">
+        <v>4.8359953703703705E-4</v>
+      </c>
+      <c r="N75" s="62">
+        <v>7.5912615740740747E-4</v>
+      </c>
+      <c r="O75" s="62">
+        <v>9.9521412037037048E-4</v>
+      </c>
+      <c r="P75" s="62">
+        <v>8.2984375000000007E-4</v>
+      </c>
+      <c r="Q75" s="62">
+        <v>2.024291087962963E-3</v>
+      </c>
+      <c r="R75" s="62">
+        <v>1.8704803240740741E-3</v>
+      </c>
+      <c r="S75" s="62">
+        <f t="shared" si="6"/>
+        <v>4.8359953703703705E-4</v>
+      </c>
+      <c r="T75" s="62">
+        <f t="shared" si="7"/>
+        <v>7.5912615740740747E-4</v>
+      </c>
+      <c r="U75" s="62">
+        <f t="shared" si="8"/>
+        <v>9.9521412037037048E-4</v>
+      </c>
+      <c r="V75" s="62">
+        <f t="shared" si="9"/>
+        <v>8.2984375000000007E-4</v>
+      </c>
+      <c r="W75" s="62">
+        <f t="shared" si="10"/>
+        <v>2.024291087962963E-3</v>
+      </c>
+      <c r="X75" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8704803240740741E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A76" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="59">
+        <v>19</v>
+      </c>
+      <c r="D76" s="59">
+        <v>19</v>
+      </c>
+      <c r="E76" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F76" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G76" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H76" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59">
+        <v>10</v>
+      </c>
+      <c r="M76" s="62">
+        <v>4.3333333333333331E-4</v>
+      </c>
+      <c r="N76" s="62">
+        <v>6.8611111111111108E-4</v>
+      </c>
+      <c r="O76" s="62">
+        <v>9.2624999999999999E-4</v>
+      </c>
+      <c r="P76" s="62">
+        <v>7.6958333333333317E-4</v>
+      </c>
+      <c r="Q76" s="62">
+        <v>1.9275E-3</v>
+      </c>
+      <c r="R76" s="62">
+        <v>1.7637499999999997E-3</v>
+      </c>
+      <c r="S76" s="62">
+        <f t="shared" si="6"/>
+        <v>4.3333333333333331E-4</v>
+      </c>
+      <c r="T76" s="62">
+        <f t="shared" si="7"/>
+        <v>6.8611111111111108E-4</v>
+      </c>
+      <c r="U76" s="62">
+        <f t="shared" si="8"/>
+        <v>9.2624999999999999E-4</v>
+      </c>
+      <c r="V76" s="62">
+        <f t="shared" si="9"/>
+        <v>7.6958333333333317E-4</v>
+      </c>
+      <c r="W76" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9275E-3</v>
+      </c>
+      <c r="X76" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7637499999999997E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A77" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="59">
+        <v>20</v>
+      </c>
+      <c r="D77" s="59">
+        <v>22</v>
+      </c>
+      <c r="E77" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F77" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G77" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H77" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I77" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59">
+        <v>10</v>
+      </c>
+      <c r="M77" s="62">
+        <v>4.2944444444444443E-4</v>
+      </c>
+      <c r="N77" s="62">
+        <v>6.8055555555555556E-4</v>
+      </c>
+      <c r="O77" s="62">
+        <v>9.1527777777777777E-4</v>
+      </c>
+      <c r="P77" s="62">
+        <v>7.5624999999999998E-4</v>
+      </c>
+      <c r="Q77" s="62">
+        <v>1.9087499999999999E-3</v>
+      </c>
+      <c r="R77" s="62">
+        <v>1.7466666666666668E-3</v>
+      </c>
+      <c r="S77" s="62">
+        <f t="shared" si="6"/>
+        <v>4.2944444444444443E-4</v>
+      </c>
+      <c r="T77" s="62">
+        <f t="shared" si="7"/>
+        <v>6.8055555555555556E-4</v>
+      </c>
+      <c r="U77" s="62">
+        <f t="shared" si="8"/>
+        <v>9.1527777777777777E-4</v>
+      </c>
+      <c r="V77" s="62">
+        <f t="shared" si="9"/>
+        <v>7.5624999999999998E-4</v>
+      </c>
+      <c r="W77" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9087499999999999E-3</v>
+      </c>
+      <c r="X77" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7466666666666668E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A78" s="59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="59">
+        <v>23</v>
+      </c>
+      <c r="D78" s="59">
+        <v>50</v>
+      </c>
+      <c r="E78" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F78" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G78" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H78" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59">
+        <v>10</v>
+      </c>
+      <c r="M78" s="62">
+        <v>4.1763888888888889E-4</v>
+      </c>
+      <c r="N78" s="62">
+        <v>6.6319444444444444E-4</v>
+      </c>
+      <c r="O78" s="62">
+        <v>8.8111111111111105E-4</v>
+      </c>
+      <c r="P78" s="62">
+        <v>7.1513888888888886E-4</v>
+      </c>
+      <c r="Q78" s="62">
+        <v>1.8506944444444445E-3</v>
+      </c>
+      <c r="R78" s="62">
+        <v>1.6938888888888887E-3</v>
+      </c>
+      <c r="S78" s="62">
+        <f t="shared" si="6"/>
+        <v>4.1763888888888889E-4</v>
+      </c>
+      <c r="T78" s="62">
+        <f t="shared" si="7"/>
+        <v>6.6319444444444444E-4</v>
+      </c>
+      <c r="U78" s="62">
+        <f t="shared" si="8"/>
+        <v>8.8111111111111105E-4</v>
+      </c>
+      <c r="V78" s="62">
+        <f t="shared" si="9"/>
+        <v>7.1513888888888886E-4</v>
+      </c>
+      <c r="W78" s="62">
+        <f t="shared" si="10"/>
+        <v>1.8506944444444445E-3</v>
+      </c>
+      <c r="X78" s="62">
+        <f t="shared" si="11"/>
+        <v>1.6938888888888887E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A79" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="59">
+        <v>19</v>
+      </c>
+      <c r="D79" s="59">
+        <v>19</v>
+      </c>
+      <c r="E79" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F79" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G79" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I79" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59">
+        <v>10</v>
+      </c>
+      <c r="M79" s="62">
+        <v>5.2916666666666672E-4</v>
+      </c>
+      <c r="N79" s="62">
+        <v>8.0597222222222225E-4</v>
+      </c>
+      <c r="O79" s="62">
+        <v>1.0804166666666664E-3</v>
+      </c>
+      <c r="P79" s="62">
+        <v>8.9111111111111097E-4</v>
+      </c>
+      <c r="Q79" s="62">
+        <v>2.1208333333333331E-3</v>
+      </c>
+      <c r="R79" s="62">
+        <v>1.9355555555555558E-3</v>
+      </c>
+      <c r="S79" s="62">
+        <f t="shared" si="6"/>
+        <v>5.2916666666666672E-4</v>
+      </c>
+      <c r="T79" s="62">
+        <f t="shared" si="7"/>
+        <v>8.0597222222222225E-4</v>
+      </c>
+      <c r="U79" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0804166666666664E-3</v>
+      </c>
+      <c r="V79" s="62">
+        <f t="shared" si="9"/>
+        <v>8.9111111111111097E-4</v>
+      </c>
+      <c r="W79" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1208333333333331E-3</v>
+      </c>
+      <c r="X79" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9355555555555558E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A80" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B80" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="59">
+        <v>20</v>
+      </c>
+      <c r="D80" s="59">
+        <v>22</v>
+      </c>
+      <c r="E80" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F80" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G80" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H80" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59">
+        <v>10</v>
+      </c>
+      <c r="M80" s="62">
+        <v>5.2055555555555546E-4</v>
+      </c>
+      <c r="N80" s="62">
+        <v>7.9847222222222223E-4</v>
+      </c>
+      <c r="O80" s="62">
+        <v>1.0647222222222221E-3</v>
+      </c>
+      <c r="P80" s="62">
+        <v>8.8041666666666661E-4</v>
+      </c>
+      <c r="Q80" s="62">
+        <v>2.1077777777777779E-3</v>
+      </c>
+      <c r="R80" s="62">
+        <v>1.9294444444444446E-3</v>
+      </c>
+      <c r="S80" s="62">
+        <f t="shared" si="6"/>
+        <v>5.2055555555555546E-4</v>
+      </c>
+      <c r="T80" s="62">
+        <f t="shared" si="7"/>
+        <v>7.9847222222222223E-4</v>
+      </c>
+      <c r="U80" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0647222222222221E-3</v>
+      </c>
+      <c r="V80" s="62">
+        <f t="shared" si="9"/>
+        <v>8.8041666666666661E-4</v>
+      </c>
+      <c r="W80" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1077777777777779E-3</v>
+      </c>
+      <c r="X80" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9294444444444446E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A81" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="59">
+        <v>23</v>
+      </c>
+      <c r="D81" s="59">
+        <v>50</v>
+      </c>
+      <c r="E81" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F81" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G81" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59">
+        <v>10</v>
+      </c>
+      <c r="M81" s="62">
+        <v>4.9388888888888887E-4</v>
+      </c>
+      <c r="N81" s="62">
+        <v>7.7527777777777773E-4</v>
+      </c>
+      <c r="O81" s="62">
+        <v>1.0163888888888889E-3</v>
+      </c>
+      <c r="P81" s="62">
+        <v>8.4750000000000005E-4</v>
+      </c>
+      <c r="Q81" s="62">
+        <v>2.067361111111111E-3</v>
+      </c>
+      <c r="R81" s="62">
+        <v>1.9102777777777777E-3</v>
+      </c>
+      <c r="S81" s="62">
+        <f t="shared" si="6"/>
+        <v>4.9388888888888887E-4</v>
+      </c>
+      <c r="T81" s="62">
+        <f t="shared" si="7"/>
+        <v>7.7527777777777773E-4</v>
+      </c>
+      <c r="U81" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0163888888888889E-3</v>
+      </c>
+      <c r="V81" s="62">
+        <f t="shared" si="9"/>
+        <v>8.4750000000000005E-4</v>
+      </c>
+      <c r="W81" s="62">
+        <f t="shared" si="10"/>
+        <v>2.067361111111111E-3</v>
+      </c>
+      <c r="X81" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9102777777777777E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A82" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="59">
+        <v>19</v>
+      </c>
+      <c r="D82" s="59">
+        <v>19</v>
+      </c>
+      <c r="E82" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F82" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G82" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I82" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59">
+        <v>10</v>
+      </c>
+      <c r="M82" s="62">
+        <v>4.4236111111111115E-4</v>
+      </c>
+      <c r="N82" s="62">
+        <v>7.0040509259259264E-4</v>
+      </c>
+      <c r="O82" s="62">
+        <v>9.455468750000001E-4</v>
+      </c>
+      <c r="P82" s="62">
+        <v>7.8561631944444436E-4</v>
+      </c>
+      <c r="Q82" s="62">
+        <v>1.9676562500000002E-3</v>
+      </c>
+      <c r="R82" s="62">
+        <v>1.8004947916666666E-3</v>
+      </c>
+      <c r="S82" s="62">
+        <f t="shared" si="6"/>
+        <v>4.4236111111111115E-4</v>
+      </c>
+      <c r="T82" s="62">
+        <f t="shared" si="7"/>
+        <v>7.0040509259259264E-4</v>
+      </c>
+      <c r="U82" s="62">
+        <f t="shared" si="8"/>
+        <v>9.455468750000001E-4</v>
+      </c>
+      <c r="V82" s="62">
+        <f t="shared" si="9"/>
+        <v>7.8561631944444436E-4</v>
+      </c>
+      <c r="W82" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9676562500000002E-3</v>
+      </c>
+      <c r="X82" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8004947916666666E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A83" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="59">
+        <v>20</v>
+      </c>
+      <c r="D83" s="59">
+        <v>22</v>
+      </c>
+      <c r="E83" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F83" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G83" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59">
+        <v>10</v>
+      </c>
+      <c r="M83" s="62">
+        <v>4.3839120370370375E-4</v>
+      </c>
+      <c r="N83" s="62">
+        <v>6.9473379629629638E-4</v>
+      </c>
+      <c r="O83" s="62">
+        <v>9.3434606481481493E-4</v>
+      </c>
+      <c r="P83" s="62">
+        <v>7.7200520833333342E-4</v>
+      </c>
+      <c r="Q83" s="62">
+        <v>1.9485156250000002E-3</v>
+      </c>
+      <c r="R83" s="62">
+        <v>1.7830555555555557E-3</v>
+      </c>
+      <c r="S83" s="62">
+        <f t="shared" si="6"/>
+        <v>4.3839120370370375E-4</v>
+      </c>
+      <c r="T83" s="62">
+        <f t="shared" si="7"/>
+        <v>6.9473379629629638E-4</v>
+      </c>
+      <c r="U83" s="62">
+        <f t="shared" si="8"/>
+        <v>9.3434606481481493E-4</v>
+      </c>
+      <c r="V83" s="62">
+        <f t="shared" si="9"/>
+        <v>7.7200520833333342E-4</v>
+      </c>
+      <c r="W83" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9485156250000002E-3</v>
+      </c>
+      <c r="X83" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7830555555555557E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A84" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="59">
+        <v>23</v>
+      </c>
+      <c r="D84" s="59">
+        <v>50</v>
+      </c>
+      <c r="E84" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F84" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G84" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59">
+        <v>10</v>
+      </c>
+      <c r="M84" s="62">
+        <v>4.263396990740741E-4</v>
+      </c>
+      <c r="N84" s="62">
+        <v>6.7701099537037046E-4</v>
+      </c>
+      <c r="O84" s="62">
+        <v>8.9946759259259266E-4</v>
+      </c>
+      <c r="P84" s="62">
+        <v>7.3003761574074073E-4</v>
+      </c>
+      <c r="Q84" s="62">
+        <v>1.889250578703704E-3</v>
+      </c>
+      <c r="R84" s="62">
+        <v>1.7291782407407408E-3</v>
+      </c>
+      <c r="S84" s="62">
+        <f t="shared" si="6"/>
+        <v>4.263396990740741E-4</v>
+      </c>
+      <c r="T84" s="62">
+        <f t="shared" si="7"/>
+        <v>6.7701099537037046E-4</v>
+      </c>
+      <c r="U84" s="62">
+        <f t="shared" si="8"/>
+        <v>8.9946759259259266E-4</v>
+      </c>
+      <c r="V84" s="62">
+        <f t="shared" si="9"/>
+        <v>7.3003761574074073E-4</v>
+      </c>
+      <c r="W84" s="62">
+        <f t="shared" si="10"/>
+        <v>1.889250578703704E-3</v>
+      </c>
+      <c r="X84" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7291782407407408E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A85" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="59">
+        <v>19</v>
+      </c>
+      <c r="D85" s="59">
+        <v>19</v>
+      </c>
+      <c r="E85" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F85" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G85" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H85" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59">
+        <v>10</v>
+      </c>
+      <c r="M85" s="62">
+        <v>5.4019097222222229E-4</v>
+      </c>
+      <c r="N85" s="62">
+        <v>8.2276331018518527E-4</v>
+      </c>
+      <c r="O85" s="62">
+        <v>1.1029253472222222E-3</v>
+      </c>
+      <c r="P85" s="62">
+        <v>9.0967592592592597E-4</v>
+      </c>
+      <c r="Q85" s="62">
+        <v>2.165017361111111E-3</v>
+      </c>
+      <c r="R85" s="62">
+        <v>1.9758796296296299E-3</v>
+      </c>
+      <c r="S85" s="62">
+        <f t="shared" si="6"/>
+        <v>5.4019097222222229E-4</v>
+      </c>
+      <c r="T85" s="62">
+        <f t="shared" si="7"/>
+        <v>8.2276331018518527E-4</v>
+      </c>
+      <c r="U85" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1029253472222222E-3</v>
+      </c>
+      <c r="V85" s="62">
+        <f t="shared" si="9"/>
+        <v>9.0967592592592597E-4</v>
+      </c>
+      <c r="W85" s="62">
+        <f t="shared" si="10"/>
+        <v>2.165017361111111E-3</v>
+      </c>
+      <c r="X85" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9758796296296299E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A86" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="59">
+        <v>20</v>
+      </c>
+      <c r="D86" s="59">
+        <v>22</v>
+      </c>
+      <c r="E86" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F86" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G86" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H86" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59">
+        <v>10</v>
+      </c>
+      <c r="M86" s="62">
+        <v>5.3140046296296301E-4</v>
+      </c>
+      <c r="N86" s="62">
+        <v>8.1510706018518521E-4</v>
+      </c>
+      <c r="O86" s="62">
+        <v>1.0869039351851851E-3</v>
+      </c>
+      <c r="P86" s="62">
+        <v>8.9875868055555564E-4</v>
+      </c>
+      <c r="Q86" s="62">
+        <v>2.151689814814815E-3</v>
+      </c>
+      <c r="R86" s="62">
+        <v>1.9696412037037044E-3</v>
+      </c>
+      <c r="S86" s="62">
+        <f t="shared" si="6"/>
+        <v>5.3140046296296301E-4</v>
+      </c>
+      <c r="T86" s="62">
+        <f t="shared" si="7"/>
+        <v>8.1510706018518521E-4</v>
+      </c>
+      <c r="U86" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0869039351851851E-3</v>
+      </c>
+      <c r="V86" s="62">
+        <f t="shared" si="9"/>
+        <v>8.9875868055555564E-4</v>
+      </c>
+      <c r="W86" s="62">
+        <f t="shared" si="10"/>
+        <v>2.151689814814815E-3</v>
+      </c>
+      <c r="X86" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9696412037037044E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A87" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="59">
+        <v>23</v>
+      </c>
+      <c r="D87" s="59">
+        <v>50</v>
+      </c>
+      <c r="E87" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F87" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G87" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H87" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I87" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59">
+        <v>10</v>
+      </c>
+      <c r="M87" s="62">
+        <v>5.041782407407408E-4</v>
+      </c>
+      <c r="N87" s="62">
+        <v>7.914293981481482E-4</v>
+      </c>
+      <c r="O87" s="62">
+        <v>1.0375636574074076E-3</v>
+      </c>
+      <c r="P87" s="62">
+        <v>8.6515625000000015E-4</v>
+      </c>
+      <c r="Q87" s="62">
+        <v>2.1104311342592594E-3</v>
+      </c>
+      <c r="R87" s="62">
+        <v>1.9500752314814815E-3</v>
+      </c>
+      <c r="S87" s="62">
+        <f t="shared" si="6"/>
+        <v>5.041782407407408E-4</v>
+      </c>
+      <c r="T87" s="62">
+        <f t="shared" si="7"/>
+        <v>7.914293981481482E-4</v>
+      </c>
+      <c r="U87" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0375636574074076E-3</v>
+      </c>
+      <c r="V87" s="62">
+        <f t="shared" si="9"/>
+        <v>8.6515625000000015E-4</v>
+      </c>
+      <c r="W87" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1104311342592594E-3</v>
+      </c>
+      <c r="X87" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9500752314814815E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A88" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="59">
+        <v>19</v>
+      </c>
+      <c r="D88" s="59">
+        <v>19</v>
+      </c>
+      <c r="E88" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F88" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G88" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H88" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I88" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59">
+        <v>10</v>
+      </c>
+      <c r="M88" s="62">
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="N88" s="62">
+        <v>7.1469907407407409E-4</v>
+      </c>
+      <c r="O88" s="62">
+        <v>9.6484374999999999E-4</v>
+      </c>
+      <c r="P88" s="62">
+        <v>8.0164930555555545E-4</v>
+      </c>
+      <c r="Q88" s="62">
+        <v>2.0078125E-3</v>
+      </c>
+      <c r="R88" s="62">
+        <v>1.8372395833333331E-3</v>
+      </c>
+      <c r="S88" s="62">
+        <f t="shared" si="6"/>
+        <v>4.5138888888888887E-4</v>
+      </c>
+      <c r="T88" s="62">
+        <f t="shared" si="7"/>
+        <v>7.1469907407407409E-4</v>
+      </c>
+      <c r="U88" s="62">
+        <f t="shared" si="8"/>
+        <v>9.6484374999999999E-4</v>
+      </c>
+      <c r="V88" s="62">
+        <f t="shared" si="9"/>
+        <v>8.0164930555555545E-4</v>
+      </c>
+      <c r="W88" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0078125E-3</v>
+      </c>
+      <c r="X88" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8372395833333331E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A89" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="59">
+        <v>20</v>
+      </c>
+      <c r="D89" s="59">
+        <v>22</v>
+      </c>
+      <c r="E89" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F89" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G89" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H89" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I89" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J89" s="59"/>
+      <c r="K89" s="59"/>
+      <c r="L89" s="59">
+        <v>10</v>
+      </c>
+      <c r="M89" s="62">
+        <v>4.4733796296296297E-4</v>
+      </c>
+      <c r="N89" s="62">
+        <v>7.0891203703703708E-4</v>
+      </c>
+      <c r="O89" s="62">
+        <v>9.5341435185185188E-4</v>
+      </c>
+      <c r="P89" s="62">
+        <v>7.8776041666666664E-4</v>
+      </c>
+      <c r="Q89" s="62">
+        <v>1.98828125E-3</v>
+      </c>
+      <c r="R89" s="62">
+        <v>1.8194444444444445E-3</v>
+      </c>
+      <c r="S89" s="62">
+        <f t="shared" si="6"/>
+        <v>4.4733796296296297E-4</v>
+      </c>
+      <c r="T89" s="62">
+        <f t="shared" si="7"/>
+        <v>7.0891203703703708E-4</v>
+      </c>
+      <c r="U89" s="62">
+        <f t="shared" si="8"/>
+        <v>9.5341435185185188E-4</v>
+      </c>
+      <c r="V89" s="62">
+        <f t="shared" si="9"/>
+        <v>7.8776041666666664E-4</v>
+      </c>
+      <c r="W89" s="62">
+        <f t="shared" si="10"/>
+        <v>1.98828125E-3</v>
+      </c>
+      <c r="X89" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8194444444444445E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A90" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="59">
+        <v>23</v>
+      </c>
+      <c r="D90" s="59">
+        <v>50</v>
+      </c>
+      <c r="E90" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F90" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G90" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H90" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I90" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59">
+        <v>10</v>
+      </c>
+      <c r="M90" s="62">
+        <v>4.3504050925925926E-4</v>
+      </c>
+      <c r="N90" s="62">
+        <v>6.9082754629629637E-4</v>
+      </c>
+      <c r="O90" s="62">
+        <v>9.1782407407407405E-4</v>
+      </c>
+      <c r="P90" s="62">
+        <v>7.4493634259259261E-4</v>
+      </c>
+      <c r="Q90" s="62">
+        <v>1.9278067129629632E-3</v>
+      </c>
+      <c r="R90" s="62">
+        <v>1.7644675925925924E-3</v>
+      </c>
+      <c r="S90" s="62">
+        <f t="shared" si="6"/>
+        <v>4.3504050925925926E-4</v>
+      </c>
+      <c r="T90" s="62">
+        <f t="shared" si="7"/>
+        <v>6.9082754629629637E-4</v>
+      </c>
+      <c r="U90" s="62">
+        <f t="shared" si="8"/>
+        <v>9.1782407407407405E-4</v>
+      </c>
+      <c r="V90" s="62">
+        <f t="shared" si="9"/>
+        <v>7.4493634259259261E-4</v>
+      </c>
+      <c r="W90" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9278067129629632E-3</v>
+      </c>
+      <c r="X90" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7644675925925924E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A91" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="59">
+        <v>19</v>
+      </c>
+      <c r="D91" s="59">
+        <v>19</v>
+      </c>
+      <c r="E91" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F91" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G91" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H91" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I91" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59">
+        <v>10</v>
+      </c>
+      <c r="M91" s="62">
+        <v>5.5121527777777786E-4</v>
+      </c>
+      <c r="N91" s="62">
+        <v>8.3955439814814819E-4</v>
+      </c>
+      <c r="O91" s="62">
+        <v>1.1254340277777777E-3</v>
+      </c>
+      <c r="P91" s="62">
+        <v>9.2824074074074065E-4</v>
+      </c>
+      <c r="Q91" s="62">
+        <v>2.209201388888889E-3</v>
+      </c>
+      <c r="R91" s="62">
+        <v>2.0162037037037041E-3</v>
+      </c>
+      <c r="S91" s="62">
+        <f t="shared" si="6"/>
+        <v>5.5121527777777786E-4</v>
+      </c>
+      <c r="T91" s="62">
+        <f t="shared" si="7"/>
+        <v>8.3955439814814819E-4</v>
+      </c>
+      <c r="U91" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1254340277777777E-3</v>
+      </c>
+      <c r="V91" s="62">
+        <f t="shared" si="9"/>
+        <v>9.2824074074074065E-4</v>
+      </c>
+      <c r="W91" s="62">
+        <f t="shared" si="10"/>
+        <v>2.209201388888889E-3</v>
+      </c>
+      <c r="X91" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0162037037037041E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A92" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="59">
+        <v>20</v>
+      </c>
+      <c r="D92" s="59">
+        <v>22</v>
+      </c>
+      <c r="E92" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F92" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G92" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H92" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I92" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59">
+        <v>10</v>
+      </c>
+      <c r="M92" s="62">
+        <v>5.4224537037037034E-4</v>
+      </c>
+      <c r="N92" s="62">
+        <v>8.3174189814814808E-4</v>
+      </c>
+      <c r="O92" s="62">
+        <v>1.1090856481481481E-3</v>
+      </c>
+      <c r="P92" s="62">
+        <v>9.1710069444444445E-4</v>
+      </c>
+      <c r="Q92" s="62">
+        <v>2.1956018518518518E-3</v>
+      </c>
+      <c r="R92" s="62">
+        <v>2.0098379629629633E-3</v>
+      </c>
+      <c r="S92" s="62">
+        <f t="shared" si="6"/>
+        <v>5.4224537037037034E-4</v>
+      </c>
+      <c r="T92" s="62">
+        <f t="shared" si="7"/>
+        <v>8.3174189814814808E-4</v>
+      </c>
+      <c r="U92" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1090856481481481E-3</v>
+      </c>
+      <c r="V92" s="62">
+        <f t="shared" si="9"/>
+        <v>9.1710069444444445E-4</v>
+      </c>
+      <c r="W92" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1956018518518518E-3</v>
+      </c>
+      <c r="X92" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0098379629629633E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A93" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="59">
+        <v>23</v>
+      </c>
+      <c r="D93" s="59">
+        <v>50</v>
+      </c>
+      <c r="E93" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F93" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G93" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H93" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I93" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59">
+        <v>10</v>
+      </c>
+      <c r="M93" s="62">
+        <v>5.1446759259259262E-4</v>
+      </c>
+      <c r="N93" s="62">
+        <v>8.0758101851851846E-4</v>
+      </c>
+      <c r="O93" s="62">
+        <v>1.0587384259259261E-3</v>
+      </c>
+      <c r="P93" s="62">
+        <v>8.8281250000000013E-4</v>
+      </c>
+      <c r="Q93" s="62">
+        <v>2.1535011574074074E-3</v>
+      </c>
+      <c r="R93" s="62">
+        <v>1.9898726851851852E-3</v>
+      </c>
+      <c r="S93" s="62">
+        <f t="shared" si="6"/>
+        <v>5.1446759259259262E-4</v>
+      </c>
+      <c r="T93" s="62">
+        <f t="shared" si="7"/>
+        <v>8.0758101851851846E-4</v>
+      </c>
+      <c r="U93" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0587384259259261E-3</v>
+      </c>
+      <c r="V93" s="62">
+        <f t="shared" si="9"/>
+        <v>8.8281250000000013E-4</v>
+      </c>
+      <c r="W93" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1535011574074074E-3</v>
+      </c>
+      <c r="X93" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9898726851851852E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A94" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="59">
+        <v>19</v>
+      </c>
+      <c r="D94" s="59">
+        <v>19</v>
+      </c>
+      <c r="E94" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F94" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G94" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I94" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59">
+        <v>10</v>
+      </c>
+      <c r="M94" s="62">
+        <v>4.6041666666666659E-4</v>
+      </c>
+      <c r="N94" s="62">
+        <v>7.2899305555555554E-4</v>
+      </c>
+      <c r="O94" s="62">
+        <v>9.8414062499999999E-4</v>
+      </c>
+      <c r="P94" s="62">
+        <v>8.1768229166666654E-4</v>
+      </c>
+      <c r="Q94" s="62">
+        <v>2.0479687499999999E-3</v>
+      </c>
+      <c r="R94" s="62">
+        <v>1.8739843749999998E-3</v>
+      </c>
+      <c r="S94" s="62">
+        <f t="shared" si="6"/>
+        <v>4.6041666666666659E-4</v>
+      </c>
+      <c r="T94" s="62">
+        <f t="shared" si="7"/>
+        <v>7.2899305555555554E-4</v>
+      </c>
+      <c r="U94" s="62">
+        <f t="shared" si="8"/>
+        <v>9.8414062499999999E-4</v>
+      </c>
+      <c r="V94" s="62">
+        <f t="shared" si="9"/>
+        <v>8.1768229166666654E-4</v>
+      </c>
+      <c r="W94" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0479687499999999E-3</v>
+      </c>
+      <c r="X94" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8739843749999998E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A95" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="59">
+        <v>20</v>
+      </c>
+      <c r="D95" s="59">
+        <v>22</v>
+      </c>
+      <c r="E95" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F95" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G95" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H95" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I95" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59">
+        <v>10</v>
+      </c>
+      <c r="M95" s="62">
+        <v>4.5628472222222218E-4</v>
+      </c>
+      <c r="N95" s="62">
+        <v>7.2309027777777779E-4</v>
+      </c>
+      <c r="O95" s="62">
+        <v>9.7248263888888883E-4</v>
+      </c>
+      <c r="P95" s="62">
+        <v>8.0351562499999987E-4</v>
+      </c>
+      <c r="Q95" s="62">
+        <v>2.0280468749999999E-3</v>
+      </c>
+      <c r="R95" s="62">
+        <v>1.8558333333333332E-3</v>
+      </c>
+      <c r="S95" s="62">
+        <f t="shared" si="6"/>
+        <v>4.5628472222222218E-4</v>
+      </c>
+      <c r="T95" s="62">
+        <f t="shared" si="7"/>
+        <v>7.2309027777777779E-4</v>
+      </c>
+      <c r="U95" s="62">
+        <f t="shared" si="8"/>
+        <v>9.7248263888888883E-4</v>
+      </c>
+      <c r="V95" s="62">
+        <f t="shared" si="9"/>
+        <v>8.0351562499999987E-4</v>
+      </c>
+      <c r="W95" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0280468749999999E-3</v>
+      </c>
+      <c r="X95" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8558333333333332E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A96" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="59">
+        <v>23</v>
+      </c>
+      <c r="D96" s="59">
+        <v>50</v>
+      </c>
+      <c r="E96" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F96" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G96" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H96" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I96" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59">
+        <v>10</v>
+      </c>
+      <c r="M96" s="62">
+        <v>4.4374131944444441E-4</v>
+      </c>
+      <c r="N96" s="62">
+        <v>7.0464409722222217E-4</v>
+      </c>
+      <c r="O96" s="62">
+        <v>9.3618055555555544E-4</v>
+      </c>
+      <c r="P96" s="62">
+        <v>7.5983506944444438E-4</v>
+      </c>
+      <c r="Q96" s="62">
+        <v>1.9663628472222222E-3</v>
+      </c>
+      <c r="R96" s="62">
+        <v>1.7997569444444441E-3</v>
+      </c>
+      <c r="S96" s="62">
+        <f t="shared" si="6"/>
+        <v>4.4374131944444441E-4</v>
+      </c>
+      <c r="T96" s="62">
+        <f t="shared" si="7"/>
+        <v>7.0464409722222217E-4</v>
+      </c>
+      <c r="U96" s="62">
+        <f t="shared" si="8"/>
+        <v>9.3618055555555544E-4</v>
+      </c>
+      <c r="V96" s="62">
+        <f t="shared" si="9"/>
+        <v>7.5983506944444438E-4</v>
+      </c>
+      <c r="W96" s="62">
+        <f t="shared" si="10"/>
+        <v>1.9663628472222222E-3</v>
+      </c>
+      <c r="X96" s="62">
+        <f t="shared" si="11"/>
+        <v>1.7997569444444441E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A97" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="59">
+        <v>19</v>
+      </c>
+      <c r="D97" s="59">
+        <v>19</v>
+      </c>
+      <c r="E97" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F97" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G97" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H97" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I97" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59">
+        <v>10</v>
+      </c>
+      <c r="M97" s="62">
+        <v>5.6223958333333332E-4</v>
+      </c>
+      <c r="N97" s="62">
+        <v>8.5634548611111111E-4</v>
+      </c>
+      <c r="O97" s="62">
+        <v>1.1479427083333331E-3</v>
+      </c>
+      <c r="P97" s="62">
+        <v>9.4680555555555544E-4</v>
+      </c>
+      <c r="Q97" s="62">
+        <v>2.2533854166666666E-3</v>
+      </c>
+      <c r="R97" s="62">
+        <v>2.0565277777777778E-3</v>
+      </c>
+      <c r="S97" s="62">
+        <f t="shared" si="6"/>
+        <v>5.6223958333333332E-4</v>
+      </c>
+      <c r="T97" s="62">
+        <f t="shared" si="7"/>
+        <v>8.5634548611111111E-4</v>
+      </c>
+      <c r="U97" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1479427083333331E-3</v>
+      </c>
+      <c r="V97" s="62">
+        <f t="shared" si="9"/>
+        <v>9.4680555555555544E-4</v>
+      </c>
+      <c r="W97" s="62">
+        <f t="shared" si="10"/>
+        <v>2.2533854166666666E-3</v>
+      </c>
+      <c r="X97" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0565277777777778E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A98" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" s="59">
+        <v>20</v>
+      </c>
+      <c r="D98" s="59">
+        <v>22</v>
+      </c>
+      <c r="E98" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F98" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G98" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H98" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I98" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59">
+        <v>10</v>
+      </c>
+      <c r="M98" s="62">
+        <v>5.5309027777777767E-4</v>
+      </c>
+      <c r="N98" s="62">
+        <v>8.4837673611111105E-4</v>
+      </c>
+      <c r="O98" s="62">
+        <v>1.1312673611111109E-3</v>
+      </c>
+      <c r="P98" s="62">
+        <v>9.3544270833333327E-4</v>
+      </c>
+      <c r="Q98" s="62">
+        <v>2.2395138888888885E-3</v>
+      </c>
+      <c r="R98" s="62">
+        <v>2.0500347222222222E-3</v>
+      </c>
+      <c r="S98" s="62">
+        <f t="shared" si="6"/>
+        <v>5.5309027777777767E-4</v>
+      </c>
+      <c r="T98" s="62">
+        <f t="shared" si="7"/>
+        <v>8.4837673611111105E-4</v>
+      </c>
+      <c r="U98" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1312673611111109E-3</v>
+      </c>
+      <c r="V98" s="62">
+        <f t="shared" si="9"/>
+        <v>9.3544270833333327E-4</v>
+      </c>
+      <c r="W98" s="62">
+        <f t="shared" si="10"/>
+        <v>2.2395138888888885E-3</v>
+      </c>
+      <c r="X98" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0500347222222222E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A99" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="59">
+        <v>23</v>
+      </c>
+      <c r="D99" s="59">
+        <v>50</v>
+      </c>
+      <c r="E99" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F99" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G99" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H99" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I99" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59">
+        <v>10</v>
+      </c>
+      <c r="M99" s="62">
+        <v>5.2475694444444445E-4</v>
+      </c>
+      <c r="N99" s="62">
+        <v>8.2373263888888882E-4</v>
+      </c>
+      <c r="O99" s="62">
+        <v>1.0799131944444445E-3</v>
+      </c>
+      <c r="P99" s="62">
+        <v>9.0046875000000001E-4</v>
+      </c>
+      <c r="Q99" s="62">
+        <v>2.1965711805555553E-3</v>
+      </c>
+      <c r="R99" s="62">
+        <v>2.0296701388888886E-3</v>
+      </c>
+      <c r="S99" s="62">
+        <f t="shared" si="6"/>
+        <v>5.2475694444444445E-4</v>
+      </c>
+      <c r="T99" s="62">
+        <f t="shared" si="7"/>
+        <v>8.2373263888888882E-4</v>
+      </c>
+      <c r="U99" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0799131944444445E-3</v>
+      </c>
+      <c r="V99" s="62">
+        <f t="shared" si="9"/>
+        <v>9.0046875000000001E-4</v>
+      </c>
+      <c r="W99" s="62">
+        <f t="shared" si="10"/>
+        <v>2.1965711805555553E-3</v>
+      </c>
+      <c r="X99" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0296701388888886E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A100" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B100" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" s="59">
+        <v>19</v>
+      </c>
+      <c r="D100" s="59">
+        <v>19</v>
+      </c>
+      <c r="E100" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F100" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G100" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H100" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I100" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59">
+        <v>10</v>
+      </c>
+      <c r="M100" s="62">
+        <f>Tabelle1!$R$14</f>
+        <v>4.6944444444444442E-4</v>
+      </c>
+      <c r="N100" s="62">
+        <f>Tabelle1!$R$16</f>
+        <v>7.4328703703703709E-4</v>
+      </c>
+      <c r="O100" s="62">
+        <f>Tabelle1!$R$15</f>
+        <v>1.0034375E-3</v>
+      </c>
+      <c r="P100" s="62">
+        <f>Tabelle1!$R$17</f>
+        <v>8.3371527777777773E-4</v>
+      </c>
+      <c r="Q100" s="62">
+        <f>Tabelle1!$R$19</f>
+        <v>2.0881250000000001E-3</v>
+      </c>
+      <c r="R100" s="62">
+        <f>Tabelle1!$R$18</f>
+        <v>1.9107291666666667E-3</v>
+      </c>
+      <c r="S100" s="62">
+        <f>M100</f>
+        <v>4.6944444444444442E-4</v>
+      </c>
+      <c r="T100" s="62">
+        <f t="shared" si="7"/>
+        <v>7.4328703703703709E-4</v>
+      </c>
+      <c r="U100" s="62">
+        <f t="shared" si="8"/>
+        <v>1.0034375E-3</v>
+      </c>
+      <c r="V100" s="62">
+        <f t="shared" si="9"/>
+        <v>8.3371527777777773E-4</v>
+      </c>
+      <c r="W100" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0881250000000001E-3</v>
+      </c>
+      <c r="X100" s="62">
+        <f t="shared" si="11"/>
+        <v>1.9107291666666667E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A101" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="59">
+        <v>20</v>
+      </c>
+      <c r="D101" s="59">
+        <v>22</v>
+      </c>
+      <c r="E101" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F101" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G101" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H101" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I101" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59">
+        <v>10</v>
+      </c>
+      <c r="M101" s="62">
+        <f>Tabelle1!$S$14</f>
+        <v>4.6523148148148151E-4</v>
+      </c>
+      <c r="N101" s="62">
+        <f>Tabelle1!$S$16</f>
+        <v>7.3726851851851861E-4</v>
+      </c>
+      <c r="O101" s="62">
+        <f>Tabelle1!$S$15</f>
+        <v>9.9155092592592611E-4</v>
+      </c>
+      <c r="P101" s="62">
+        <f>Tabelle1!$S$17</f>
+        <v>8.1927083333333331E-4</v>
+      </c>
+      <c r="Q101" s="62">
+        <f>Tabelle1!$S$19</f>
+        <v>2.0678125000000002E-3</v>
+      </c>
+      <c r="R101" s="62">
+        <f>Tabelle1!$S$18</f>
+        <v>1.8922222222222224E-3</v>
+      </c>
+      <c r="S101" s="62">
+        <f t="shared" ref="S101:S105" si="12">M101</f>
+        <v>4.6523148148148151E-4</v>
+      </c>
+      <c r="T101" s="62">
+        <f t="shared" si="7"/>
+        <v>7.3726851851851861E-4</v>
+      </c>
+      <c r="U101" s="62">
+        <f t="shared" si="8"/>
+        <v>9.9155092592592611E-4</v>
+      </c>
+      <c r="V101" s="62">
+        <f t="shared" si="9"/>
+        <v>8.1927083333333331E-4</v>
+      </c>
+      <c r="W101" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0678125000000002E-3</v>
+      </c>
+      <c r="X101" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8922222222222224E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A102" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="59">
+        <v>23</v>
+      </c>
+      <c r="D102" s="59">
+        <v>50</v>
+      </c>
+      <c r="E102" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F102" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G102" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H102" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I102" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59">
+        <v>10</v>
+      </c>
+      <c r="M102" s="62">
+        <f>Tabelle1!$T$14</f>
+        <v>4.5244212962962968E-4</v>
+      </c>
+      <c r="N102" s="62">
+        <f>Tabelle1!$T$16</f>
+        <v>7.1846064814814819E-4</v>
+      </c>
+      <c r="O102" s="62">
+        <f>Tabelle1!$T$15</f>
+        <v>9.5453703703703705E-4</v>
+      </c>
+      <c r="P102" s="62">
+        <f>Tabelle1!$T$17</f>
+        <v>7.7473379629629626E-4</v>
+      </c>
+      <c r="Q102" s="62">
+        <f>Tabelle1!$T$19</f>
+        <v>2.0049189814814817E-3</v>
+      </c>
+      <c r="R102" s="62">
+        <f>Tabelle1!$T$18</f>
+        <v>1.8350462962962962E-3</v>
+      </c>
+      <c r="S102" s="62">
+        <f t="shared" si="12"/>
+        <v>4.5244212962962968E-4</v>
+      </c>
+      <c r="T102" s="62">
+        <f t="shared" si="7"/>
+        <v>7.1846064814814819E-4</v>
+      </c>
+      <c r="U102" s="62">
+        <f t="shared" si="8"/>
+        <v>9.5453703703703705E-4</v>
+      </c>
+      <c r="V102" s="62">
+        <f t="shared" si="9"/>
+        <v>7.7473379629629626E-4</v>
+      </c>
+      <c r="W102" s="62">
+        <f t="shared" si="10"/>
+        <v>2.0049189814814817E-3</v>
+      </c>
+      <c r="X102" s="62">
+        <f t="shared" si="11"/>
+        <v>1.8350462962962962E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A103" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C103" s="59">
+        <v>19</v>
+      </c>
+      <c r="D103" s="59">
+        <v>19</v>
+      </c>
+      <c r="E103" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F103" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G103" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H103" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I103" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59">
+        <v>10</v>
+      </c>
+      <c r="M103" s="62">
+        <f>Tabelle1!$X$14</f>
+        <v>5.73263888888889E-4</v>
+      </c>
+      <c r="N103" s="62">
+        <f>Tabelle1!$X$16</f>
+        <v>8.7313657407407414E-4</v>
+      </c>
+      <c r="O103" s="62">
+        <f>Tabelle1!$X$15</f>
+        <v>1.1704513888888888E-3</v>
+      </c>
+      <c r="P103" s="62">
+        <f>Tabelle1!$X$17</f>
+        <v>9.6537037037037034E-4</v>
+      </c>
+      <c r="Q103" s="62">
+        <f>Tabelle1!$X$19</f>
+        <v>2.2975694444444445E-3</v>
+      </c>
+      <c r="R103" s="62">
+        <f>Tabelle1!$X$18</f>
+        <v>2.0968518518518523E-3</v>
+      </c>
+      <c r="S103" s="62">
+        <f t="shared" si="12"/>
+        <v>5.73263888888889E-4</v>
+      </c>
+      <c r="T103" s="62">
+        <f t="shared" si="7"/>
+        <v>8.7313657407407414E-4</v>
+      </c>
+      <c r="U103" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1704513888888888E-3</v>
+      </c>
+      <c r="V103" s="62">
+        <f t="shared" si="9"/>
+        <v>9.6537037037037034E-4</v>
+      </c>
+      <c r="W103" s="62">
+        <f t="shared" si="10"/>
+        <v>2.2975694444444445E-3</v>
+      </c>
+      <c r="X103" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0968518518518523E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A104" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" s="59">
+        <v>20</v>
+      </c>
+      <c r="D104" s="59">
+        <v>22</v>
+      </c>
+      <c r="E104" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F104" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G104" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H104" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I104" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59">
+        <v>10</v>
+      </c>
+      <c r="M104" s="62">
+        <f>Tabelle1!$Y$14</f>
+        <v>5.6393518518518522E-4</v>
+      </c>
+      <c r="N104" s="62">
+        <f>Tabelle1!$Y$16</f>
+        <v>8.6501157407407403E-4</v>
+      </c>
+      <c r="O104" s="62">
+        <f>Tabelle1!$Y$15</f>
+        <v>1.1534490740740741E-3</v>
+      </c>
+      <c r="P104" s="62">
+        <f>Tabelle1!$Y$17</f>
+        <v>9.5378472222222229E-4</v>
+      </c>
+      <c r="Q104" s="62">
+        <f>Tabelle1!$Y$19</f>
+        <v>2.2834259259259262E-3</v>
+      </c>
+      <c r="R104" s="62">
+        <f>Tabelle1!$Y$18</f>
+        <v>2.090231481481482E-3</v>
+      </c>
+      <c r="S104" s="62">
+        <f t="shared" si="12"/>
+        <v>5.6393518518518522E-4</v>
+      </c>
+      <c r="T104" s="62">
+        <f t="shared" si="7"/>
+        <v>8.6501157407407403E-4</v>
+      </c>
+      <c r="U104" s="62">
+        <f t="shared" si="8"/>
+        <v>1.1534490740740741E-3</v>
+      </c>
+      <c r="V104" s="62">
+        <f t="shared" si="9"/>
+        <v>9.5378472222222229E-4</v>
+      </c>
+      <c r="W104" s="62">
+        <f t="shared" si="10"/>
+        <v>2.2834259259259262E-3</v>
+      </c>
+      <c r="X104" s="62">
+        <f t="shared" si="11"/>
+        <v>2.090231481481482E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A105" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="59">
+        <v>23</v>
+      </c>
+      <c r="D105" s="59">
+        <v>50</v>
+      </c>
+      <c r="E105" s="61">
+        <v>45658</v>
+      </c>
+      <c r="F105" s="61">
+        <v>46174</v>
+      </c>
+      <c r="G105" s="61">
+        <v>45658</v>
+      </c>
+      <c r="H105" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I105" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59">
+        <v>10</v>
+      </c>
+      <c r="M105" s="62">
+        <f>Tabelle1!$Z$14</f>
+        <v>5.3504629629629627E-4</v>
+      </c>
+      <c r="N105" s="62">
+        <f>Tabelle1!$Z$16</f>
+        <v>8.3988425925925929E-4</v>
+      </c>
+      <c r="O105" s="62">
+        <f>Tabelle1!$Z$15</f>
+        <v>1.101087962962963E-3</v>
+      </c>
+      <c r="P105" s="62">
+        <f>Tabelle1!$Z$17</f>
+        <v>9.181250000000001E-4</v>
+      </c>
+      <c r="Q105" s="62">
+        <f>Tabelle1!$Z$19</f>
+        <v>2.2396412037037038E-3</v>
+      </c>
+      <c r="R105" s="62">
+        <f>Tabelle1!$Z$18</f>
+        <v>2.0694675925925924E-3</v>
+      </c>
+      <c r="S105" s="62">
+        <f t="shared" si="12"/>
+        <v>5.3504629629629627E-4</v>
+      </c>
+      <c r="T105" s="62">
+        <f t="shared" si="7"/>
+        <v>8.3988425925925929E-4</v>
+      </c>
+      <c r="U105" s="62">
+        <f t="shared" si="8"/>
+        <v>1.101087962962963E-3</v>
+      </c>
+      <c r="V105" s="62">
+        <f t="shared" si="9"/>
+        <v>9.181250000000001E-4</v>
+      </c>
+      <c r="W105" s="62">
+        <f t="shared" si="10"/>
+        <v>2.2396412037037038E-3</v>
+      </c>
+      <c r="X105" s="62">
+        <f t="shared" si="11"/>
+        <v>2.0694675925925924E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A106" s="59"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
+      <c r="W106" s="62"/>
+      <c r="X106" s="62"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="61"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="62"/>
+      <c r="S107" s="62"/>
+      <c r="T107" s="62"/>
+      <c r="U107" s="62"/>
+      <c r="V107" s="62"/>
+      <c r="W107" s="62"/>
+      <c r="X107" s="62"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A108" s="59"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="S108" s="62"/>
+      <c r="T108" s="62"/>
+      <c r="U108" s="62"/>
+      <c r="V108" s="62"/>
+      <c r="W108" s="62"/>
+      <c r="X108" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -17595,8 +21348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13DA696-49DD-4BFA-98FE-5C7770404E50}">
   <dimension ref="B3:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14:AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17609,21 +21362,21 @@
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" t="s">
         <v>229</v>
       </c>
-      <c r="H3" t="s">
-        <v>231</v>
-      </c>
       <c r="Q3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="W3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="66">
         <v>2010</v>
@@ -17635,7 +21388,7 @@
         <v>2008</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I4" s="66">
         <v>2010</v>
@@ -17647,28 +21400,28 @@
         <v>2008</v>
       </c>
       <c r="Q4" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R4" s="69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S4" s="69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T4" s="69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W4" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X4" s="69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y4" s="69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z4" s="69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.45">
@@ -17703,13 +21456,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="65">
-        <v>3.7384259259259255E-4</v>
+        <v>3.6111111111111109E-4</v>
       </c>
       <c r="S5" s="65">
-        <v>3.7025462962962961E-4</v>
+        <v>3.5787037037037037E-4</v>
       </c>
       <c r="T5" s="65">
-        <v>3.6620370370370371E-4</v>
+        <v>3.4803240740740742E-4</v>
       </c>
       <c r="W5" s="64" t="s">
         <v>0</v>
@@ -17726,7 +21479,7 @@
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B6" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="65">
         <v>8.0902777777777787E-4</v>
@@ -17738,7 +21491,7 @@
         <v>7.869212962962962E-4</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I6" s="65">
         <v>9.5381944444444442E-4</v>
@@ -17753,19 +21506,19 @@
       <c r="N6" s="67"/>
       <c r="P6" s="68"/>
       <c r="Q6" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R6" s="65">
-        <v>8.0902777777777787E-4</v>
+        <v>7.7187499999999999E-4</v>
       </c>
       <c r="S6" s="65">
-        <v>7.9837962962962968E-4</v>
+        <v>7.6273148148148153E-4</v>
       </c>
       <c r="T6" s="65">
-        <v>7.869212962962962E-4</v>
+        <v>7.3425925925925926E-4</v>
       </c>
       <c r="W6" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X6" s="65">
         <v>9.0034722222222209E-4</v>
@@ -17779,7 +21532,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B7" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C7" s="65">
         <v>5.9027777777777778E-4</v>
@@ -17791,7 +21544,7 @@
         <v>5.7928240740740737E-4</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I7" s="65">
         <v>6.9664351851851853E-4</v>
@@ -17806,19 +21559,19 @@
       <c r="N7" s="67"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R7" s="65">
-        <v>5.9027777777777778E-4</v>
+        <v>5.7175925925925927E-4</v>
       </c>
       <c r="S7" s="65">
-        <v>5.8495370370370374E-4</v>
+        <v>5.6712962962962967E-4</v>
       </c>
       <c r="T7" s="65">
-        <v>5.7928240740740737E-4</v>
+        <v>5.5266203703703705E-4</v>
       </c>
       <c r="W7" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X7" s="65">
         <v>6.7164351851851857E-4</v>
@@ -17832,7 +21585,7 @@
     </row>
     <row r="8" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C8" s="65">
         <v>6.8726851851851859E-4</v>
@@ -17844,7 +21597,7 @@
         <v>6.5995370370370372E-4</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I8" s="65">
         <v>7.7847222222222228E-4</v>
@@ -17859,19 +21612,19 @@
       <c r="N8" s="67"/>
       <c r="P8" s="68"/>
       <c r="Q8" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R8" s="65">
-        <v>6.8726851851851859E-4</v>
+        <v>6.4131944444444436E-4</v>
       </c>
       <c r="S8" s="65">
-        <v>6.7418981481481486E-4</v>
+        <v>6.3020833333333331E-4</v>
       </c>
       <c r="T8" s="65">
-        <v>6.5995370370370372E-4</v>
+        <v>5.9594907407407405E-4</v>
       </c>
       <c r="W8" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X8" s="65">
         <v>7.4259259259259254E-4</v>
@@ -17885,7 +21638,7 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B9" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C9" s="65">
         <v>1.5266203703703705E-3</v>
@@ -17897,7 +21650,7 @@
         <v>1.4928240740740739E-3</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I9" s="65">
         <v>1.6328703703703702E-3</v>
@@ -17912,19 +21665,19 @@
       <c r="N9" s="67"/>
       <c r="P9" s="68"/>
       <c r="Q9" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R9" s="65">
-        <v>1.5266203703703705E-3</v>
+        <v>1.4697916666666666E-3</v>
       </c>
       <c r="S9" s="65">
-        <v>1.5104166666666666E-3</v>
+        <v>1.4555555555555556E-3</v>
       </c>
       <c r="T9" s="65">
-        <v>1.4928240740740739E-3</v>
+        <v>1.411574074074074E-3</v>
       </c>
       <c r="W9" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X9" s="65">
         <v>1.6129629629629632E-3</v>
@@ -17950,7 +21703,7 @@
         <v>1.6315972222222222E-3</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I10" s="65">
         <v>1.8101851851851853E-3</v>
@@ -17968,16 +21721,16 @@
         <v>4</v>
       </c>
       <c r="R10" s="65">
-        <v>1.6688657407407407E-3</v>
+        <v>1.60625E-3</v>
       </c>
       <c r="S10" s="65">
-        <v>1.6509259259259257E-3</v>
+        <v>1.590625E-3</v>
       </c>
       <c r="T10" s="65">
-        <v>1.6315972222222222E-3</v>
+        <v>1.5422453703703705E-3</v>
       </c>
       <c r="W10" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="X10" s="65">
         <v>1.767361111111111E-3</v>
@@ -17991,21 +21744,21 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="W12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B13" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="66">
         <v>2010</v>
@@ -18017,7 +21770,7 @@
         <v>2008</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I13" s="66">
         <v>2010</v>
@@ -18029,28 +21782,28 @@
         <v>2008</v>
       </c>
       <c r="Q13" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R13" s="69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="S13" s="69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T13" s="69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W13" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="X13" s="69" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y13" s="69" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z13" s="69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.45">
@@ -18095,332 +21848,332 @@
       </c>
       <c r="R14" s="65">
         <f>R5*$U14</f>
-        <v>4.4861111111111105E-4</v>
+        <v>4.6944444444444442E-4</v>
       </c>
       <c r="S14" s="65">
-        <f t="shared" ref="S14:T14" si="2">S5*$U14</f>
-        <v>4.4430555555555553E-4</v>
+        <f>S5*$U14</f>
+        <v>4.6523148148148151E-4</v>
       </c>
       <c r="T14" s="65">
-        <f t="shared" si="2"/>
-        <v>4.3944444444444445E-4</v>
+        <f>T5*$U14</f>
+        <v>4.5244212962962968E-4</v>
       </c>
       <c r="U14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W14" s="64" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="65">
         <f>X5*$AA14</f>
-        <v>4.8506944444444455E-4</v>
+        <v>5.73263888888889E-4</v>
       </c>
       <c r="Y14" s="65">
-        <f t="shared" ref="Y14:Z14" si="3">Y5*$AA14</f>
-        <v>4.7717592592592592E-4</v>
+        <f t="shared" ref="Y14:Z14" si="2">Y5*$AA14</f>
+        <v>5.6393518518518522E-4</v>
       </c>
       <c r="Z14" s="65">
-        <f t="shared" si="3"/>
-        <v>4.5273148148148153E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.3504629629629627E-4</v>
       </c>
       <c r="AA14">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B15" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="65">
-        <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
+        <f t="shared" ref="C15:E15" si="3">C6*$F15</f>
         <v>1.0112847222222224E-3</v>
       </c>
       <c r="D15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.9797453703703702E-4</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9.8365162037037019E-4</v>
       </c>
       <c r="F15">
         <v>1.25</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
+        <f t="shared" ref="I15:K15" si="4">I6*$L15</f>
         <v>1.1922743055555556E-3</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1731770833333334E-3</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.1524884259259259E-3</v>
       </c>
       <c r="L15">
         <v>1.25</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R15" s="65">
-        <f t="shared" ref="R15:T15" si="6">R6*$U15</f>
-        <v>9.7083333333333342E-4</v>
+        <f>R6*$U15</f>
+        <v>1.0034375E-3</v>
       </c>
       <c r="S15" s="65">
-        <f t="shared" si="6"/>
-        <v>9.5805555555555553E-4</v>
+        <f>S6*$U15</f>
+        <v>9.9155092592592611E-4</v>
       </c>
       <c r="T15" s="65">
-        <f t="shared" si="6"/>
-        <v>9.4430555555555544E-4</v>
+        <f>T6*$U15</f>
+        <v>9.5453703703703705E-4</v>
       </c>
       <c r="U15">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W15" s="64" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X15" s="65">
-        <f t="shared" ref="X15:Z15" si="7">X6*$AA15</f>
-        <v>9.9038194444444434E-4</v>
+        <f t="shared" ref="X15:Z15" si="5">X6*$AA15</f>
+        <v>1.1704513888888888E-3</v>
       </c>
       <c r="Y15" s="65">
-        <f t="shared" si="7"/>
-        <v>9.7599537037037034E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.1534490740740741E-3</v>
       </c>
       <c r="Z15" s="65">
-        <f t="shared" si="7"/>
-        <v>9.3168981481481499E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.101087962962963E-3</v>
       </c>
       <c r="AA15">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B16" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="8">C7*$F16</f>
+        <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
         <v>7.378472222222222E-4</v>
       </c>
       <c r="D16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.311921296296297E-4</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.2410300925925919E-4</v>
       </c>
       <c r="F16">
         <v>1.25</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" ref="I16:K16" si="9">I7*$L16</f>
+        <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
         <v>8.7080439814814811E-4</v>
       </c>
       <c r="J16" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.6183449074074081E-4</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.521412037037037E-4</v>
       </c>
       <c r="L16">
         <v>1.25</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R16" s="65">
-        <f t="shared" ref="R16:T16" si="10">R7*$U16</f>
-        <v>7.0833333333333328E-4</v>
+        <f>R7*$U16</f>
+        <v>7.4328703703703709E-4</v>
       </c>
       <c r="S16" s="65">
-        <f t="shared" si="10"/>
-        <v>7.0194444444444449E-4</v>
+        <f>S7*$U16</f>
+        <v>7.3726851851851861E-4</v>
       </c>
       <c r="T16" s="65">
-        <f t="shared" si="10"/>
-        <v>6.951388888888888E-4</v>
+        <f>T7*$U16</f>
+        <v>7.1846064814814819E-4</v>
       </c>
       <c r="U16">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W16" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X16" s="65">
-        <f t="shared" ref="X16:Z16" si="11">X7*$AA16</f>
-        <v>7.3880787037037046E-4</v>
+        <f t="shared" ref="X16:Z16" si="8">X7*$AA16</f>
+        <v>8.7313657407407414E-4</v>
       </c>
       <c r="Y16" s="65">
-        <f t="shared" si="11"/>
-        <v>7.3193287037037042E-4</v>
+        <f t="shared" si="8"/>
+        <v>8.6501157407407403E-4</v>
       </c>
       <c r="Z16" s="65">
-        <f t="shared" si="11"/>
-        <v>7.1067129629629638E-4</v>
+        <f t="shared" si="8"/>
+        <v>8.3988425925925929E-4</v>
       </c>
       <c r="AA16">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="12">C8*$F17</f>
+        <f t="shared" ref="C17:E17" si="9">C8*$F17</f>
         <v>8.5908564814814821E-4</v>
       </c>
       <c r="D17" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8.427372685185186E-4</v>
       </c>
       <c r="E17" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8.2494212962962968E-4</v>
       </c>
       <c r="F17">
         <v>1.25</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" ref="I17:K17" si="13">I8*$L17</f>
+        <f t="shared" ref="I17:K17" si="10">I8*$L17</f>
         <v>9.730902777777778E-4</v>
       </c>
       <c r="J17" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>9.6035879629629618E-4</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>9.4646990740740737E-4</v>
       </c>
       <c r="L17">
         <v>1.25</v>
       </c>
       <c r="Q17" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R17" s="65">
-        <f t="shared" ref="R17:T17" si="14">R8*$U17</f>
-        <v>8.2472222222222224E-4</v>
+        <f>R8*$U17</f>
+        <v>8.3371527777777773E-4</v>
       </c>
       <c r="S17" s="65">
-        <f t="shared" si="14"/>
-        <v>8.0902777777777776E-4</v>
+        <f>S8*$U17</f>
+        <v>8.1927083333333331E-4</v>
       </c>
       <c r="T17" s="65">
-        <f t="shared" si="14"/>
-        <v>7.919444444444444E-4</v>
+        <f>T8*$U17</f>
+        <v>7.7473379629629626E-4</v>
       </c>
       <c r="U17">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W17" s="64" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="X17" s="65">
-        <f t="shared" ref="X17:Z17" si="15">X8*$AA17</f>
-        <v>8.1685185185185192E-4</v>
+        <f t="shared" ref="X17:Z17" si="11">X8*$AA17</f>
+        <v>9.6537037037037034E-4</v>
       </c>
       <c r="Y17" s="65">
-        <f t="shared" si="15"/>
-        <v>8.0704861111111114E-4</v>
+        <f t="shared" si="11"/>
+        <v>9.5378472222222229E-4</v>
       </c>
       <c r="Z17" s="65">
-        <f t="shared" si="15"/>
-        <v>7.7687500000000011E-4</v>
+        <f t="shared" si="11"/>
+        <v>9.181250000000001E-4</v>
       </c>
       <c r="AA17">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B18" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="65">
-        <f t="shared" ref="C18:E18" si="16">C9*$F18</f>
+        <f t="shared" ref="C18:E18" si="12">C9*$F18</f>
         <v>1.9082754629629632E-3</v>
       </c>
       <c r="D18" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.8880208333333333E-3</v>
       </c>
       <c r="E18" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>1.8660300925925923E-3</v>
       </c>
       <c r="F18">
         <v>1.25</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" ref="I18:K18" si="17">I9*$L18</f>
+        <f t="shared" ref="I18:K18" si="13">I9*$L18</f>
         <v>2.0410879629629629E-3</v>
       </c>
       <c r="J18" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2.0339988425925925E-3</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2.0263310185185185E-3</v>
       </c>
       <c r="L18">
         <v>1.25</v>
       </c>
       <c r="Q18" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R18" s="65">
-        <f t="shared" ref="R18:T18" si="18">R9*$U18</f>
-        <v>1.8319444444444444E-3</v>
+        <f>R9*$U18</f>
+        <v>1.9107291666666667E-3</v>
       </c>
       <c r="S18" s="65">
-        <f t="shared" si="18"/>
-        <v>1.8124999999999999E-3</v>
+        <f>S9*$U18</f>
+        <v>1.8922222222222224E-3</v>
       </c>
       <c r="T18" s="65">
-        <f t="shared" si="18"/>
-        <v>1.7913888888888886E-3</v>
+        <f>T9*$U18</f>
+        <v>1.8350462962962962E-3</v>
       </c>
       <c r="U18">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W18" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X18" s="65">
-        <f t="shared" ref="X18:Z18" si="19">X9*$AA18</f>
-        <v>1.7742592592592597E-3</v>
+        <f t="shared" ref="X18:Z18" si="14">X9*$AA18</f>
+        <v>2.0968518518518523E-3</v>
       </c>
       <c r="Y18" s="65">
-        <f t="shared" si="19"/>
-        <v>1.7686574074074078E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.090231481481482E-3</v>
       </c>
       <c r="Z18" s="65">
-        <f t="shared" si="19"/>
-        <v>1.751087962962963E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.0694675925925924E-3</v>
       </c>
       <c r="AA18">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.45">
@@ -18428,15 +22181,15 @@
         <v>4</v>
       </c>
       <c r="C19" s="65">
-        <f t="shared" ref="C19:E19" si="20">C10*$F19</f>
+        <f t="shared" ref="C19:E19" si="15">C10*$F19</f>
         <v>2.0860821759259261E-3</v>
       </c>
       <c r="D19" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.0636574074074073E-3</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.0394965277777777E-3</v>
       </c>
       <c r="F19">
@@ -18446,15 +22199,15 @@
         <v>4</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" ref="I19:K19" si="21">I10*$L19</f>
+        <f t="shared" ref="I19:K19" si="16">I10*$L19</f>
         <v>2.2627314814814815E-3</v>
       </c>
       <c r="J19" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2.2473958333333335E-3</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2.2309027777777774E-3</v>
       </c>
       <c r="L19">
@@ -18464,37 +22217,37 @@
         <v>4</v>
       </c>
       <c r="R19" s="65">
-        <f t="shared" ref="R19:T19" si="22">R10*$U19</f>
-        <v>2.0026388888888889E-3</v>
+        <f>R10*$U19</f>
+        <v>2.0881250000000001E-3</v>
       </c>
       <c r="S19" s="65">
-        <f t="shared" si="22"/>
-        <v>1.9811111111111106E-3</v>
+        <f>S10*$U19</f>
+        <v>2.0678125000000002E-3</v>
       </c>
       <c r="T19" s="65">
-        <f t="shared" si="22"/>
-        <v>1.9579166666666664E-3</v>
+        <f>T10*$U19</f>
+        <v>2.0049189814814817E-3</v>
       </c>
       <c r="U19">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W19" s="64" t="s">
         <v>4</v>
       </c>
       <c r="X19" s="65">
-        <f t="shared" ref="X19:Z19" si="23">X10*$AA19</f>
-        <v>1.9440972222222223E-3</v>
+        <f t="shared" ref="X19:Z19" si="17">X10*$AA19</f>
+        <v>2.2975694444444445E-3</v>
       </c>
       <c r="Y19" s="65">
-        <f t="shared" si="23"/>
-        <v>1.9321296296296298E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.2834259259259262E-3</v>
       </c>
       <c r="Z19" s="65">
-        <f t="shared" si="23"/>
-        <v>1.8950810185185186E-3</v>
+        <f t="shared" si="17"/>
+        <v>2.2396412037037038E-3</v>
       </c>
       <c r="AA19">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.45">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB14A7B-142B-41EC-B3C6-4EBC5707A0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85967DC-532F-4403-96A9-03685B8B49E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -13440,8 +13440,8 @@
   </sheetPr>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17123,7 +17123,7 @@
         <v>232</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C52" s="59">
         <v>19</v>
@@ -17427,7 +17427,7 @@
         <v>231</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C56" s="59">
         <v>20</v>
@@ -17503,7 +17503,7 @@
         <v>231</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C57" s="59">
         <v>23</v>
@@ -17579,7 +17579,7 @@
         <v>257</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C58" s="59">
         <v>19</v>
@@ -17883,7 +17883,7 @@
         <v>258</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C62" s="59">
         <v>20</v>
@@ -17959,7 +17959,7 @@
         <v>258</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C63" s="59">
         <v>23</v>
@@ -18035,7 +18035,7 @@
         <v>259</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C64" s="59">
         <v>19</v>
@@ -18339,7 +18339,7 @@
         <v>260</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C68" s="59">
         <v>20</v>
@@ -18415,7 +18415,7 @@
         <v>260</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C69" s="59">
         <v>23</v>
@@ -18491,7 +18491,7 @@
         <v>261</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C70" s="59">
         <v>19</v>
@@ -18795,7 +18795,7 @@
         <v>262</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C74" s="59">
         <v>20</v>
@@ -18871,7 +18871,7 @@
         <v>262</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C75" s="59">
         <v>23</v>
@@ -18947,7 +18947,7 @@
         <v>263</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C76" s="59">
         <v>19</v>
@@ -19251,7 +19251,7 @@
         <v>264</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C80" s="59">
         <v>20</v>
@@ -19327,7 +19327,7 @@
         <v>264</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C81" s="59">
         <v>23</v>
@@ -19403,7 +19403,7 @@
         <v>265</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C82" s="59">
         <v>19</v>
@@ -19707,7 +19707,7 @@
         <v>266</v>
       </c>
       <c r="B86" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C86" s="59">
         <v>20</v>
@@ -19783,7 +19783,7 @@
         <v>266</v>
       </c>
       <c r="B87" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C87" s="59">
         <v>23</v>
@@ -19859,7 +19859,7 @@
         <v>267</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C88" s="59">
         <v>19</v>
@@ -20163,7 +20163,7 @@
         <v>268</v>
       </c>
       <c r="B92" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C92" s="59">
         <v>20</v>
@@ -20239,7 +20239,7 @@
         <v>268</v>
       </c>
       <c r="B93" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C93" s="59">
         <v>23</v>
@@ -20315,7 +20315,7 @@
         <v>269</v>
       </c>
       <c r="B94" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C94" s="59">
         <v>19</v>
@@ -20619,7 +20619,7 @@
         <v>270</v>
       </c>
       <c r="B98" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C98" s="59">
         <v>20</v>
@@ -20695,7 +20695,7 @@
         <v>270</v>
       </c>
       <c r="B99" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C99" s="59">
         <v>23</v>
@@ -20771,7 +20771,7 @@
         <v>271</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C100" s="59">
         <v>19</v>
@@ -21099,7 +21099,7 @@
         <v>272</v>
       </c>
       <c r="B104" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C104" s="59">
         <v>20</v>
@@ -21181,7 +21181,7 @@
         <v>272</v>
       </c>
       <c r="B105" s="59" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C105" s="59">
         <v>23</v>
@@ -21847,15 +21847,15 @@
         <v>0</v>
       </c>
       <c r="R14" s="65">
-        <f>R5*$U14</f>
+        <f t="shared" ref="R14:T19" si="2">R5*$U14</f>
         <v>4.6944444444444442E-4</v>
       </c>
       <c r="S14" s="65">
-        <f>S5*$U14</f>
+        <f t="shared" si="2"/>
         <v>4.6523148148148151E-4</v>
       </c>
       <c r="T14" s="65">
-        <f>T5*$U14</f>
+        <f t="shared" si="2"/>
         <v>4.5244212962962968E-4</v>
       </c>
       <c r="U14">
@@ -21869,11 +21869,11 @@
         <v>5.73263888888889E-4</v>
       </c>
       <c r="Y14" s="65">
-        <f t="shared" ref="Y14:Z14" si="2">Y5*$AA14</f>
+        <f t="shared" ref="Y14:Z14" si="3">Y5*$AA14</f>
         <v>5.6393518518518522E-4</v>
       </c>
       <c r="Z14" s="65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3504629629629627E-4</v>
       </c>
       <c r="AA14">
@@ -21885,15 +21885,15 @@
         <v>223</v>
       </c>
       <c r="C15" s="65">
-        <f t="shared" ref="C15:E15" si="3">C6*$F15</f>
+        <f t="shared" ref="C15:E15" si="4">C6*$F15</f>
         <v>1.0112847222222224E-3</v>
       </c>
       <c r="D15" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.9797453703703702E-4</v>
       </c>
       <c r="E15" s="65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8365162037037019E-4</v>
       </c>
       <c r="F15">
@@ -21903,15 +21903,15 @@
         <v>223</v>
       </c>
       <c r="I15" s="65">
-        <f t="shared" ref="I15:K15" si="4">I6*$L15</f>
+        <f t="shared" ref="I15:K15" si="5">I6*$L15</f>
         <v>1.1922743055555556E-3</v>
       </c>
       <c r="J15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1731770833333334E-3</v>
       </c>
       <c r="K15" s="65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1524884259259259E-3</v>
       </c>
       <c r="L15">
@@ -21921,15 +21921,15 @@
         <v>223</v>
       </c>
       <c r="R15" s="65">
-        <f>R6*$U15</f>
+        <f t="shared" si="2"/>
         <v>1.0034375E-3</v>
       </c>
       <c r="S15" s="65">
-        <f>S6*$U15</f>
+        <f t="shared" si="2"/>
         <v>9.9155092592592611E-4</v>
       </c>
       <c r="T15" s="65">
-        <f>T6*$U15</f>
+        <f t="shared" si="2"/>
         <v>9.5453703703703705E-4</v>
       </c>
       <c r="U15">
@@ -21939,15 +21939,15 @@
         <v>223</v>
       </c>
       <c r="X15" s="65">
-        <f t="shared" ref="X15:Z15" si="5">X6*$AA15</f>
+        <f t="shared" ref="X15:Z15" si="6">X6*$AA15</f>
         <v>1.1704513888888888E-3</v>
       </c>
       <c r="Y15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1534490740740741E-3</v>
       </c>
       <c r="Z15" s="65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.101087962962963E-3</v>
       </c>
       <c r="AA15">
@@ -21959,15 +21959,15 @@
         <v>224</v>
       </c>
       <c r="C16" s="65">
-        <f t="shared" ref="C16:E16" si="6">C7*$F16</f>
+        <f t="shared" ref="C16:E16" si="7">C7*$F16</f>
         <v>7.378472222222222E-4</v>
       </c>
       <c r="D16" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.311921296296297E-4</v>
       </c>
       <c r="E16" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2410300925925919E-4</v>
       </c>
       <c r="F16">
@@ -21977,15 +21977,15 @@
         <v>224</v>
       </c>
       <c r="I16" s="65">
-        <f t="shared" ref="I16:K16" si="7">I7*$L16</f>
+        <f t="shared" ref="I16:K16" si="8">I7*$L16</f>
         <v>8.7080439814814811E-4</v>
       </c>
       <c r="J16" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6183449074074081E-4</v>
       </c>
       <c r="K16" s="65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.521412037037037E-4</v>
       </c>
       <c r="L16">
@@ -21995,15 +21995,15 @@
         <v>224</v>
       </c>
       <c r="R16" s="65">
-        <f>R7*$U16</f>
+        <f t="shared" si="2"/>
         <v>7.4328703703703709E-4</v>
       </c>
       <c r="S16" s="65">
-        <f>S7*$U16</f>
+        <f t="shared" si="2"/>
         <v>7.3726851851851861E-4</v>
       </c>
       <c r="T16" s="65">
-        <f>T7*$U16</f>
+        <f t="shared" si="2"/>
         <v>7.1846064814814819E-4</v>
       </c>
       <c r="U16">
@@ -22013,15 +22013,15 @@
         <v>224</v>
       </c>
       <c r="X16" s="65">
-        <f t="shared" ref="X16:Z16" si="8">X7*$AA16</f>
+        <f t="shared" ref="X16:Z16" si="9">X7*$AA16</f>
         <v>8.7313657407407414E-4</v>
       </c>
       <c r="Y16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.6501157407407403E-4</v>
       </c>
       <c r="Z16" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3988425925925929E-4</v>
       </c>
       <c r="AA16">
@@ -22033,15 +22033,15 @@
         <v>225</v>
       </c>
       <c r="C17" s="65">
-        <f t="shared" ref="C17:E17" si="9">C8*$F17</f>
+        <f t="shared" ref="C17:E17" si="10">C8*$F17</f>
         <v>8.5908564814814821E-4</v>
       </c>
       <c r="D17" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.427372685185186E-4</v>
       </c>
       <c r="E17" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.2494212962962968E-4</v>
       </c>
       <c r="F17">
@@ -22051,15 +22051,15 @@
         <v>225</v>
       </c>
       <c r="I17" s="65">
-        <f t="shared" ref="I17:K17" si="10">I8*$L17</f>
+        <f t="shared" ref="I17:K17" si="11">I8*$L17</f>
         <v>9.730902777777778E-4</v>
       </c>
       <c r="J17" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.6035879629629618E-4</v>
       </c>
       <c r="K17" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.4646990740740737E-4</v>
       </c>
       <c r="L17">
@@ -22069,15 +22069,15 @@
         <v>225</v>
       </c>
       <c r="R17" s="65">
-        <f>R8*$U17</f>
+        <f t="shared" si="2"/>
         <v>8.3371527777777773E-4</v>
       </c>
       <c r="S17" s="65">
-        <f>S8*$U17</f>
+        <f t="shared" si="2"/>
         <v>8.1927083333333331E-4</v>
       </c>
       <c r="T17" s="65">
-        <f>T8*$U17</f>
+        <f t="shared" si="2"/>
         <v>7.7473379629629626E-4</v>
       </c>
       <c r="U17">
@@ -22087,15 +22087,15 @@
         <v>225</v>
       </c>
       <c r="X17" s="65">
-        <f t="shared" ref="X17:Z17" si="11">X8*$AA17</f>
+        <f t="shared" ref="X17:Z17" si="12">X8*$AA17</f>
         <v>9.6537037037037034E-4</v>
       </c>
       <c r="Y17" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.5378472222222229E-4</v>
       </c>
       <c r="Z17" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.181250000000001E-4</v>
       </c>
       <c r="AA17">
@@ -22107,15 +22107,15 @@
         <v>226</v>
       </c>
       <c r="C18" s="65">
-        <f t="shared" ref="C18:E18" si="12">C9*$F18</f>
+        <f t="shared" ref="C18:E18" si="13">C9*$F18</f>
         <v>1.9082754629629632E-3</v>
       </c>
       <c r="D18" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8880208333333333E-3</v>
       </c>
       <c r="E18" s="65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8660300925925923E-3</v>
       </c>
       <c r="F18">
@@ -22125,15 +22125,15 @@
         <v>226</v>
       </c>
       <c r="I18" s="65">
-        <f t="shared" ref="I18:K18" si="13">I9*$L18</f>
+        <f t="shared" ref="I18:K18" si="14">I9*$L18</f>
         <v>2.0410879629629629E-3</v>
       </c>
       <c r="J18" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0339988425925925E-3</v>
       </c>
       <c r="K18" s="65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0263310185185185E-3</v>
       </c>
       <c r="L18">
@@ -22143,15 +22143,15 @@
         <v>226</v>
       </c>
       <c r="R18" s="65">
-        <f>R9*$U18</f>
+        <f t="shared" si="2"/>
         <v>1.9107291666666667E-3</v>
       </c>
       <c r="S18" s="65">
-        <f>S9*$U18</f>
+        <f t="shared" si="2"/>
         <v>1.8922222222222224E-3</v>
       </c>
       <c r="T18" s="65">
-        <f>T9*$U18</f>
+        <f t="shared" si="2"/>
         <v>1.8350462962962962E-3</v>
       </c>
       <c r="U18">
@@ -22161,15 +22161,15 @@
         <v>226</v>
       </c>
       <c r="X18" s="65">
-        <f t="shared" ref="X18:Z18" si="14">X9*$AA18</f>
+        <f t="shared" ref="X18:Z18" si="15">X9*$AA18</f>
         <v>2.0968518518518523E-3</v>
       </c>
       <c r="Y18" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.090231481481482E-3</v>
       </c>
       <c r="Z18" s="65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0694675925925924E-3</v>
       </c>
       <c r="AA18">
@@ -22181,15 +22181,15 @@
         <v>4</v>
       </c>
       <c r="C19" s="65">
-        <f t="shared" ref="C19:E19" si="15">C10*$F19</f>
+        <f t="shared" ref="C19:E19" si="16">C10*$F19</f>
         <v>2.0860821759259261E-3</v>
       </c>
       <c r="D19" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0636574074074073E-3</v>
       </c>
       <c r="E19" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0394965277777777E-3</v>
       </c>
       <c r="F19">
@@ -22199,15 +22199,15 @@
         <v>4</v>
       </c>
       <c r="I19" s="65">
-        <f t="shared" ref="I19:K19" si="16">I10*$L19</f>
+        <f t="shared" ref="I19:K19" si="17">I10*$L19</f>
         <v>2.2627314814814815E-3</v>
       </c>
       <c r="J19" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2473958333333335E-3</v>
       </c>
       <c r="K19" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2309027777777774E-3</v>
       </c>
       <c r="L19">
@@ -22217,15 +22217,15 @@
         <v>4</v>
       </c>
       <c r="R19" s="65">
-        <f>R10*$U19</f>
+        <f t="shared" si="2"/>
         <v>2.0881250000000001E-3</v>
       </c>
       <c r="S19" s="65">
-        <f>S10*$U19</f>
+        <f t="shared" si="2"/>
         <v>2.0678125000000002E-3</v>
       </c>
       <c r="T19" s="65">
-        <f>T10*$U19</f>
+        <f t="shared" si="2"/>
         <v>2.0049189814814817E-3</v>
       </c>
       <c r="U19">
@@ -22235,15 +22235,15 @@
         <v>4</v>
       </c>
       <c r="X19" s="65">
-        <f t="shared" ref="X19:Z19" si="17">X10*$AA19</f>
+        <f t="shared" ref="X19:Z19" si="18">X10*$AA19</f>
         <v>2.2975694444444445E-3</v>
       </c>
       <c r="Y19" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2834259259259262E-3</v>
       </c>
       <c r="Z19" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.2396412037037038E-3</v>
       </c>
       <c r="AA19">

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85967DC-532F-4403-96A9-03685B8B49E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88C473-8CA6-4A23-A6CB-F0E68D1F7EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -3925,6 +3925,5131 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$M$2:$M$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>4.6817129629629634E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9178240740740742E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1197916666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1653645833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2057291666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.096354166666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1992187499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2968749999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2113425925925923E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2579282407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2991898148148143E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2096064814814811E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3147569444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4145833333333324E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3028935185185189E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3504918981481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3926504629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3228587962962962E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.430295138888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.532291666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3944444444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4430555555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4861111111111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.4361111111111114E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5458333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4859953703703707E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5356192129629631E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5795717592592589E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5493634259259266E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6613715277777782E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7677083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5775462962962962E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6281828703703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6730324074074068E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6626157407407406E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7769097222222228E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8854166666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6690972222222218E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7207465277777775E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7664930555555546E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7758680555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8924479166666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0031249999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7606481481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8133101851851852E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8599537037037036E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8891203703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0079861111111119E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1208333333333329E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9722222222222226E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9365740740740745E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8283564814814821E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8506944444444455E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7717592592592592E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5273148148148153E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0624999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0260416666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9153645833333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9609375000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8802083333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.6302083333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.152777777777777E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1155092592592589E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0023726851851852E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0711805555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9886574074074069E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7331018518518517E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2430555555555554E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2049768518518521E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0893807870370373E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.1814236111111115E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0971064814814813E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8359953703703705E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.3333333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.2944444444444443E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1763888888888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2916666666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2055555555555546E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9388888888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4236111111111115E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.3839120370370375E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.263396990740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4019097222222229E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.3140046296296301E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.041782407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5138888888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4733796296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3504050925925926E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5121527777777786E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4224537037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1446759259259262E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6041666666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.5628472222222218E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4374131944444441E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6223958333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5309027777777767E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.2475694444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6944444444444442E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.6523148148148151E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5244212962962968E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.73263888888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.6393518518518522E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.3504629629629627E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$N$2:$N$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>7.4872685185185188E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.310185185185186E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5169270833333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5807291666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6406250000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6692708333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7565104166666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8372395833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6617476851851842E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7269675925925928E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7881944444444435E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8396990740740738E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9288773148148144E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0114004629629621E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8065682870370372E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8732060185185194E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9357638888888897E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0101273148148154E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1012442129629642E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1855613425925932E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.951388888888888E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0194444444444449E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0833333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1805555555555548E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2736111111111118E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3597222222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.096209490740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1656828703703715E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2309027777777779E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3509837962962965E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4459780092592605E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5338831018518522E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2410300925925919E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.311921296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.378472222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.521412037037037E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6183449074074081E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7080439814814811E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3858506944444438E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4581597222222226E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5260416666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.6918402777777775E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7907118055555557E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8822048611111111E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5306712962962957E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6043981481481492E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6736111111111113E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.8622685185185191E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.9630787037037044E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0563657407407411E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.2893518518518528E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.2384259259259272E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.079282407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3880787037037046E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3193287037037042E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1067129629629638E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.4322916666666673E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.3802083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2174479166666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5559895833333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4856770833333329E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2682291666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5752314814814807E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5219907407407403E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3556134259259251E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.723900462962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6520254629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.42974537037037E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7181712962962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.6637731481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4937789351851853E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.8918113425925933E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.8183738425925925E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5912615740740747E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.8611111111111108E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8055555555555556E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6319444444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0597222222222225E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.9847222222222223E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7527777777777773E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0040509259259264E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9473379629629638E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7701099537037046E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2276331018518527E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.1510706018518521E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.914293981481482E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.1469907407407409E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0891203703703708E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9082754629629637E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.3955439814814819E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.3174189814814808E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0758101851851846E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.2899305555555554E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2309027777777779E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.0464409722222217E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5634548611111111E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.4837673611111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.2373263888888882E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4328703703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3726851851851861E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.1846064814814819E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.7313657407407414E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.6501157407407403E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.3988425925925929E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$O$2:$O$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>9.9224537037037033E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5555555555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8528645833333319E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.981770833333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1015625000000016E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0372395833333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0558593750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.073046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0495949074074057E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1813657407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3038194444444451E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0602893518518518E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0793229166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.096892361111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2463252314814806E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3809606481481489E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5060763888888907E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0833391203703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1027864583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1207378472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4430555555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5805555555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7083333333333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1063888888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1262500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1445833333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6397858796296292E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7801504629629649E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9105902777777799E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1294386574074073E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1497135416666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1684288194444446E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8365162037037019E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9797453703703702E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0112847222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1524884259259259E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1731770833333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1922743055555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0033246527777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0179340277777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0315104166666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1755381944444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.196640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2161197916666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0229976851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0378935185185187E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0517361111111114E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1985879629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2201041666666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2399652777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.490625000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3900462962962976E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.0768518518518526E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.9038194444444434E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.7599537037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.3168981481481499E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6835937499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5807291666666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.2604166666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0128906249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9817708333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.5286458333333345E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.8765624999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7714120370370365E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4439814814814805E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0353993055555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0203587962962961E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.7403935185185191E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0695312499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9620949074074082E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.6275462962962966E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.057907986111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0425405092592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9521412037037048E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.2624999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1527777777777777E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.8111111111111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0804166666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0647222222222221E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0163888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.455468750000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3434606481481493E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.9946759259259266E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1029253472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0869039351851851E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0375636574074076E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6484374999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.5341435185185188E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1782407407407405E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1254340277777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1090856481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0587384259259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.8414062499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.7248263888888883E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3618055555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1479427083333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1312673611111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0799131944444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0034375E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9155092592592611E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.5453703703703705E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1704513888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1534490740740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.101087962962963E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$P$2:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>7.8888888888888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0196759259259257E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4244791666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5846354166666673E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.731770833333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5182291666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6432291666666656E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7578125000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5894675925925923E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7531828703703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9035879629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7075231481481476E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8353009259259244E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9524305555555559E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7544560185185192E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9217303240740745E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0754050925925937E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.89681712962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0273726851851843E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1470486111111125E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.919444444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0902777777777776E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2472222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0861111111111101E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2194444444444431E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.341666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0844328703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2588252314814829E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4190393518518533E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2754050925925925E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.411516203703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5362847222222236E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2494212962962968E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.427372685185186E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5908564814814821E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.4646990740740737E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6035879629629618E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.730902777777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.4144097222222216E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5959201388888891E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.7626736111111119E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.653993055555555E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.7956597222222195E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9255208333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5793981481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.7644675925925932E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.9344907407407418E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8432870370370362E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.9877314814814815E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0120138888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0545138888888882E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9322916666666675E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5554398148148145E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.1685185185185192E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0704861111111114E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.7687500000000011E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.214843749999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.0898437499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7044270833333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.354166666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.2539062499999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.945312500000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3751736111111099E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.247395833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.853414351851851E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5398148148148139E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4373263888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1218749999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5355034722222219E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4049479166666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0024016203703698E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.7254629629629629E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.620746527777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2984375000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.6958333333333317E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5624999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1513888888888886E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.9111111111111097E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8041666666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.4750000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.8561631944444436E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.7200520833333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3003761574074073E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0967592592592597E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.9875868055555564E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6515625000000015E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.0164930555555545E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.8776041666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4493634259259261E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.2824074074074065E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.1710069444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.8281250000000013E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1768229166666654E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.0351562499999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.5983506944444438E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4680555555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.3544270833333327E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.0046875000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.3371527777777773E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.1927083333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7473379629629626E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.6537037037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.5378472222222229E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.181250000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$Q$2:$Q$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1.9605324074074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7359953703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8355468749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8572916666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8774739583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0078124999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0226562500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0364583333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8763368055555554E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8985648148148143E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9191956018518516E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0524305555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0676041666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0817129629629627E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9171267361111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9398379629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9609172453703702E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0970486111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1125520833333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1269675925925926E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9579166666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9811111111111106E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0026388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1416666666666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1574999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1722222222222221E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9987065972222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0223842592592589E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0443605324074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1862847222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2024479166666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.217476851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0394965277777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0636574074074073E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0860821759259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2309027777777774E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2473958333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2627314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0802864583333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1049305555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1278038194444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.275520833333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2923437499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3079861111111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1210763888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1462037037037036E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1695254629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3201388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3372916666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3532407407407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7668750000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7496875000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6964699074074076E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9440972222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9321296296296298E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8950810185185186E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.80703125E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.789453125E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7350260416666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.98828125E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9760416666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9381510416666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8471874999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8292187499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7735821759259258E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0324652777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0199537037037035E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9812210648148146E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8873437500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8689843750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8121383101851853E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0766493055555555E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0638657407407407E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.024291087962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9275E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9087499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8506944444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1208333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1077777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.067361111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9676562500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9485156250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.889250578703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.165017361111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.151689814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1104311342592594E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0078125E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.98828125E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9278067129629632E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.209201388888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1956018518518518E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1535011574074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0479687499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0280468749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9663628472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2533854166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2395138888888885E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1965711805555553E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.0881250000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0678125000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0049189814814817E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2975694444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.2834259259259262E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.2396412037037038E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$R$2:$R$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1.7837962962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6295138888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6794270833333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7174479166666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8236979166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8305989583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8369791666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7167476851851849E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7369791666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7556134259259259E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8642245370370368E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.871278935185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8778009259259256E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7540682870370368E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7747395833333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7937789351851854E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9047511574074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9119589120370371E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9186226851851851E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7913888888888886E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8124999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8319444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9452777777777775E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9526388888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9594444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8287094907407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8502604166666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8701099537037039E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9858043981481484E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9933188657407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0002662037037038E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8660300925925923E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8880208333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9082754629629632E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0263310185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0339988425925925E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0410879629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9033506944444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9257812499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9464409722222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0668576388888885E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0746788194444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.081909722222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9406712962962962E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9635416666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9846064814814817E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1073842592592594E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1153587962962966E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1227314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6167708333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6011111111111113E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5527314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7742592592592597E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7686574074074078E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.751087962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6535156249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6375000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5880208333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8145833333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8088541666666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7908854166666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6902604166666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6738888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6233101851851849E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8549074074074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8490509259259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8306828703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7270052083333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.710277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.658599537037037E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8952314814814819E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8892476851851856E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8704803240740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7637499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7466666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6938888888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9355555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9294444444444446E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9102777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8004947916666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7830555555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7291782407407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9758796296296299E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9696412037037044E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9500752314814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8372395833333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8194444444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7644675925925924E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0162037037037041E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0098379629629633E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9898726851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8739843749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8558333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7997569444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0565277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0500347222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0296701388888886E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9107291666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8922222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8350462962962962E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0968518518518523E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.090231481481482E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0694675925925924E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$S$2:$S$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>4.803240740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1747685185185187E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1197916666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1653645833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2057291666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.096354166666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1992187499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2968749999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2113425925925923E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2579282407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2991898148148143E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2096064814814811E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3147569444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4145833333333324E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3028935185185189E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3504918981481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3926504629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3228587962962962E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.430295138888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.532291666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3944444444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4430555555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4861111111111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.4361111111111114E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5458333333333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6499999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4859953703703707E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5356192129629631E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5795717592592589E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5493634259259266E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6613715277777782E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.7677083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5775462962962962E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.6281828703703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6730324074074068E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6626157407407406E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7769097222222228E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8854166666666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.6690972222222218E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.7207465277777775E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7664930555555546E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.7758680555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8924479166666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0031249999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7606481481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.8133101851851852E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.8599537037037036E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.8891203703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0079861111111119E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1208333333333329E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.9722222222222226E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.9365740740740745E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8283564814814821E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8506944444444455E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7717592592592592E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5273148148148153E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0624999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0260416666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.9153645833333336E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9609375000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8802083333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.6302083333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.152777777777777E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1155092592592589E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0023726851851852E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0711805555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.9886574074074069E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7331018518518517E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2430555555555554E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.2049768518518521E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.0893807870370373E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.1814236111111115E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.0971064814814813E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.8359953703703705E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.3333333333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.2944444444444443E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.1763888888888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.2916666666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2055555555555546E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.9388888888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4236111111111115E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.3839120370370375E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.263396990740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4019097222222229E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.3140046296296301E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.041782407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5138888888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4733796296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3504050925925926E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.5121527777777786E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4224537037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1446759259259262E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.6041666666666659E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.5628472222222218E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4374131944444441E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6223958333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5309027777777767E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.2475694444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6944444444444442E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.6523148148148151E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5244212962962968E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.73263888888889E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.6393518518518522E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.3504629629629627E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$T$2:$T$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>7.8599537037037039E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7627314814814818E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5169270833333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5807291666666672E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6406250000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6692708333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7565104166666668E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8372395833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6617476851851842E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7269675925925928E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7881944444444435E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8396990740740738E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9288773148148144E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0114004629629621E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8065682870370372E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8732060185185194E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9357638888888897E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.0101273148148154E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1012442129629642E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1855613425925932E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.951388888888888E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0194444444444449E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0833333333333328E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.1805555555555548E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2736111111111118E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3597222222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.096209490740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.1656828703703715E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.2309027777777779E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.3509837962962965E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.4459780092592605E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.5338831018518522E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2410300925925919E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.311921296296297E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.378472222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.521412037037037E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6183449074074081E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7080439814814811E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.3858506944444438E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4581597222222226E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5260416666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.6918402777777775E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7907118055555557E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8822048611111111E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5306712962962957E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6043981481481492E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6736111111111113E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.8622685185185191E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.9630787037037044E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.0563657407407411E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.2893518518518528E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.2384259259259272E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.079282407407408E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.3880787037037046E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3193287037037042E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.1067129629629638E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.4322916666666673E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.3802083333333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2174479166666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.5559895833333338E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.4856770833333329E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.2682291666666663E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.5752314814814807E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5219907407407403E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.3556134259259251E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.723900462962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6520254629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.42974537037037E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7181712962962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.6637731481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.4937789351851853E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.8918113425925933E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.8183738425925925E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.5912615740740747E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.8611111111111108E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.8055555555555556E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6319444444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0597222222222225E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.9847222222222223E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.7527777777777773E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.0040509259259264E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9473379629629638E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7701099537037046E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.2276331018518527E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.1510706018518521E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.914293981481482E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.1469907407407409E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0891203703703708E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.9082754629629637E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.3955439814814819E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.3174189814814808E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.0758101851851846E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.2899305555555554E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2309027777777779E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.0464409722222217E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5634548611111111E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.4837673611111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.2373263888888882E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4328703703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3726851851851861E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.1846064814814819E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.7313657407407414E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.6501157407407403E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.3988425925925929E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$U$2:$U$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1.0240740740740742E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9861111111111109E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8528645833333319E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.981770833333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1015625000000016E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0372395833333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0558593750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.073046875E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0495949074074057E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1813657407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3038194444444451E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0602893518518518E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0793229166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.096892361111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2463252314814806E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3809606481481489E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5060763888888907E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0833391203703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1027864583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1207378472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4430555555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5805555555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7083333333333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1063888888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1262500000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1445833333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.6397858796296292E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7801504629629649E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9105902777777799E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1294386574074073E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1497135416666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1684288194444446E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.8365162037037019E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.9797453703703702E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0112847222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1524884259259259E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1731770833333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1922743055555556E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0033246527777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0179340277777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0315104166666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1755381944444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.196640625E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2161197916666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0229976851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0378935185185187E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0517361111111114E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1985879629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2201041666666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2399652777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.490625000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3900462962962976E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.0768518518518526E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.9038194444444434E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.7599537037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.3168981481481499E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.6835937499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.5807291666666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.2604166666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0128906249999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.9817708333333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.5286458333333345E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.8765624999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7714120370370365E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.4439814814814805E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0353993055555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0203587962962961E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.7403935185185191E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0695312499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9620949074074082E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.6275462962962966E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.057907986111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0425405092592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9521412037037048E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.2624999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1527777777777777E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.8111111111111105E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0804166666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0647222222222221E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0163888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.455468750000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.3434606481481493E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.9946759259259266E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1029253472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0869039351851851E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0375636574074076E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6484374999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.5341435185185188E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1782407407407405E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1254340277777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1090856481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.0587384259259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.8414062499999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.7248263888888883E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.3618055555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1479427083333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1312673611111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0799131944444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0034375E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9155092592592611E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.5453703703703705E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1704513888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1534490740740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.101087962962963E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$V$2:$V$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>8.2766203703703712E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2384259259259255E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4244791666666665E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5846354166666673E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.731770833333334E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5182291666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6432291666666656E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7578125000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5894675925925923E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7531828703703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9035879629629627E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7075231481481476E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8353009259259244E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9524305555555559E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.7544560185185192E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9217303240740745E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0754050925925937E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.89681712962963E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.0273726851851843E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1470486111111125E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.919444444444444E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.0902777777777776E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2472222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0861111111111101E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2194444444444431E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.341666666666667E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0844328703703709E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.2588252314814829E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4190393518518533E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2754050925925925E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.411516203703703E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.5362847222222236E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.2494212962962968E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.427372685185186E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5908564814814821E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.4646990740740737E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.6035879629629618E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.730902777777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.4144097222222216E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5959201388888891E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.7626736111111119E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.653993055555555E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.7956597222222195E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9255208333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.5793981481481485E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.7644675925925932E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.9344907407407418E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8432870370370362E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.9877314814814815E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0120138888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0545138888888882E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9322916666666675E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.5554398148148145E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.1685185185185192E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0704861111111114E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.7687500000000011E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.214843749999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.0898437499999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7044270833333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.354166666666666E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.2539062499999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.945312500000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.3751736111111099E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.247395833333332E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.853414351851851E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.5398148148148139E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4373263888888887E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.1218749999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.5355034722222219E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4049479166666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0024016203703698E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.7254629629629629E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.620746527777778E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2984375000000007E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.6958333333333317E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5624999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1513888888888886E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.9111111111111097E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8041666666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.4750000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.8561631944444436E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.7200520833333342E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.3003761574074073E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0967592592592597E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.9875868055555564E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.6515625000000015E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.0164930555555545E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.8776041666666664E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4493634259259261E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.2824074074074065E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.1710069444444445E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.8281250000000013E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.1768229166666654E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.0351562499999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.5983506944444438E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.4680555555555544E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.3544270833333327E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.0046875000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.3371527777777773E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.1927083333333331E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7473379629629626E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>9.6537037037037034E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.5378472222222229E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9.181250000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$W$2:$W$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>2.0114583333333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8050925925925927E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8355468749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8572916666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8774739583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0078124999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0226562500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0364583333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8763368055555554E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8985648148148143E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9191956018518516E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0524305555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0676041666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0817129629629627E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9171267361111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9398379629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9609172453703702E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0970486111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1125520833333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1269675925925926E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9579166666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9811111111111106E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0026388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1416666666666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1574999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1722222222222221E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9987065972222225E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0223842592592589E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0443605324074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1862847222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2024479166666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.217476851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0394965277777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0636574074074073E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0860821759259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2309027777777774E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2473958333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2627314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0802864583333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.1049305555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1278038194444443E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.275520833333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2923437499999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3079861111111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1210763888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1462037037037036E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1695254629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.3201388888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3372916666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.3532407407407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7668750000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7496875000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6964699074074076E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9440972222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9321296296296298E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8950810185185186E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.80703125E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.789453125E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7350260416666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.98828125E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9760416666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9381510416666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8471874999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.8292187499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7735821759259258E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0324652777777776E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0199537037037035E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9812210648148146E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8873437500000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8689843750000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8121383101851853E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0766493055555555E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0638657407407407E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.024291087962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9275E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9087499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8506944444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1208333333333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.1077777777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.067361111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9676562500000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9485156250000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.889250578703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.165017361111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.151689814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1104311342592594E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0078125E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.98828125E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9278067129629632E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.209201388888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1956018518518518E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1535011574074074E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0479687499999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0280468749999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9663628472222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2533854166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2395138888888885E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1965711805555553E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.0881250000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.0678125000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.0049189814814817E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2975694444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.2834259259259262E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.2396412037037038E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>JRP!$X$2:$X$105</c:f>
+              <c:numCache>
+                <c:formatCode>m:ss.00</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1.8332175925925925E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7003472222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6794270833333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69921875E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7174479166666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8236979166666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8305989583333334E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8369791666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7167476851851849E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7369791666666664E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7556134259259259E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8642245370370368E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.871278935185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8778009259259256E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7540682870370368E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7747395833333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7937789351851854E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9047511574074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9119589120370371E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9186226851851851E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7913888888888886E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8124999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8319444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9452777777777775E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9526388888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9594444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8287094907407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8502604166666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8701099537037039E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9858043981481484E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9933188657407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0002662037037038E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8660300925925923E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8880208333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9082754629629632E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0263310185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.0339988425925925E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0410879629629629E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9033506944444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9257812499999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9464409722222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0668576388888885E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0746788194444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.081909722222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9406712962962962E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9635416666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9846064814814817E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.1073842592592594E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.1153587962962966E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1227314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6167708333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6011111111111113E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5527314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7742592592592597E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7686574074074078E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.751087962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6535156249999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6375000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5880208333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8145833333333336E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8088541666666669E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7908854166666665E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6902604166666663E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6738888888888888E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6233101851851849E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8549074074074075E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.8490509259259261E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.8306828703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7270052083333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.710277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.658599537037037E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8952314814814819E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8892476851851856E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8704803240740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7637499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7466666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6938888888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9355555555555558E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9294444444444446E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9102777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.8004947916666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7830555555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7291782407407408E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9758796296296299E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9696412037037044E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9500752314814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8372395833333331E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8194444444444445E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7644675925925924E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0162037037037041E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0098379629629633E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9898726851851852E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8739843749999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8558333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7997569444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0565277777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.0500347222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0296701388888886E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9107291666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.8922222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8350462962962962E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.0968518518518523E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.090231481481482E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0694675925925924E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2A56-4469-84C5-8D24DBA7559C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1891692623"/>
+        <c:axId val="1891693103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1891692623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m:ss.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891693103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1891693103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m:ss.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891692623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1058223</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>744899</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>151946</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06854EA7-6173-CEF4-E0AB-5AE78275A7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}" name="WR_Open4" displayName="WR_Open4" ref="A4:AW31" totalsRowShown="0" headerRowDxfId="193" headerRowBorderDxfId="192" tableBorderDxfId="191">
   <autoFilter ref="A4:AW31" xr:uid="{2C5E83EE-6B6F-478A-9C90-A846A1A76536}"/>
@@ -13440,8 +18565,8 @@
   </sheetPr>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17354,7 +22479,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D55" s="59">
         <v>19</v>
@@ -17582,7 +22707,7 @@
         <v>182</v>
       </c>
       <c r="C58" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D58" s="59">
         <v>19</v>
@@ -17810,7 +22935,7 @@
         <v>164</v>
       </c>
       <c r="C61" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D61" s="59">
         <v>19</v>
@@ -18038,7 +23163,7 @@
         <v>182</v>
       </c>
       <c r="C64" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D64" s="59">
         <v>19</v>
@@ -18266,7 +23391,7 @@
         <v>164</v>
       </c>
       <c r="C67" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D67" s="59">
         <v>19</v>
@@ -18494,7 +23619,7 @@
         <v>182</v>
       </c>
       <c r="C70" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D70" s="59">
         <v>19</v>
@@ -18722,7 +23847,7 @@
         <v>164</v>
       </c>
       <c r="C73" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D73" s="59">
         <v>19</v>
@@ -18950,7 +24075,7 @@
         <v>182</v>
       </c>
       <c r="C76" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D76" s="59">
         <v>19</v>
@@ -19178,7 +24303,7 @@
         <v>164</v>
       </c>
       <c r="C79" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D79" s="59">
         <v>19</v>
@@ -19406,7 +24531,7 @@
         <v>182</v>
       </c>
       <c r="C82" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D82" s="59">
         <v>19</v>
@@ -19634,7 +24759,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D85" s="59">
         <v>19</v>
@@ -19862,7 +24987,7 @@
         <v>182</v>
       </c>
       <c r="C88" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D88" s="59">
         <v>19</v>
@@ -20090,7 +25215,7 @@
         <v>164</v>
       </c>
       <c r="C91" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D91" s="59">
         <v>19</v>
@@ -20318,7 +25443,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D94" s="59">
         <v>19</v>
@@ -20546,7 +25671,7 @@
         <v>164</v>
       </c>
       <c r="C97" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D97" s="59">
         <v>19</v>
@@ -20774,7 +25899,7 @@
         <v>182</v>
       </c>
       <c r="C100" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D100" s="59">
         <v>19</v>
@@ -21020,7 +26145,7 @@
         <v>164</v>
       </c>
       <c r="C103" s="59">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D103" s="59">
         <v>19</v>
@@ -21338,8 +26463,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88C473-8CA6-4A23-A6CB-F0E68D1F7EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D0693-B613-44E4-AABF-3CD019BF5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="BP" sheetId="11" r:id="rId5"/>
     <sheet name="DEM" sheetId="12" r:id="rId6"/>
     <sheet name="JRP" sheetId="13" r:id="rId7"/>
-    <sheet name="Tabelle1" sheetId="14" r:id="rId8"/>
+    <sheet name="NK" sheetId="14" r:id="rId8"/>
     <sheet name="2024" sheetId="6" r:id="rId9"/>
     <sheet name="2025" sheetId="5" r:id="rId10"/>
     <sheet name="2026" sheetId="8" r:id="rId11"/>
@@ -18565,8 +18565,8 @@
   </sheetPr>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18959,7 +18959,7 @@
         <v>182</v>
       </c>
       <c r="C6" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="59">
         <v>16</v>
@@ -19169,7 +19169,7 @@
         <v>164</v>
       </c>
       <c r="C9" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="59">
         <v>16</v>
@@ -19379,7 +19379,7 @@
         <v>182</v>
       </c>
       <c r="C12" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="59">
         <v>16</v>
@@ -19589,7 +19589,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" s="59">
         <v>16</v>
@@ -19799,7 +19799,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="59">
         <v>16</v>
@@ -20009,7 +20009,7 @@
         <v>164</v>
       </c>
       <c r="C21" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="59">
         <v>16</v>
@@ -20219,7 +20219,7 @@
         <v>182</v>
       </c>
       <c r="C24" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="59">
         <v>16</v>
@@ -20429,7 +20429,7 @@
         <v>164</v>
       </c>
       <c r="C27" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="59">
         <v>16</v>
@@ -20639,7 +20639,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="59">
         <v>16</v>
@@ -20849,7 +20849,7 @@
         <v>164</v>
       </c>
       <c r="C33" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="59">
         <v>16</v>
@@ -20945,27 +20945,27 @@
         <v>10</v>
       </c>
       <c r="M34" s="62">
-        <f>Tabelle1!E14</f>
+        <f>NK!E14</f>
         <v>4.5775462962962962E-4</v>
       </c>
       <c r="N34" s="62">
-        <f>Tabelle1!E16</f>
+        <f>NK!E16</f>
         <v>7.2410300925925919E-4</v>
       </c>
       <c r="O34" s="62">
-        <f>Tabelle1!E15</f>
+        <f>NK!E15</f>
         <v>9.8365162037037019E-4</v>
       </c>
       <c r="P34" s="62">
-        <f>Tabelle1!E17</f>
+        <f>NK!E17</f>
         <v>8.2494212962962968E-4</v>
       </c>
       <c r="Q34" s="62">
-        <f>Tabelle1!E19</f>
+        <f>NK!E19</f>
         <v>2.0394965277777777E-3</v>
       </c>
       <c r="R34" s="62">
-        <f>Tabelle1!E18</f>
+        <f>NK!E18</f>
         <v>1.8660300925925923E-3</v>
       </c>
       <c r="S34" s="62">
@@ -21027,27 +21027,27 @@
         <v>10</v>
       </c>
       <c r="M35" s="62">
-        <f>Tabelle1!D14</f>
+        <f>NK!D14</f>
         <v>4.6281828703703703E-4</v>
       </c>
       <c r="N35" s="62">
-        <f>Tabelle1!D16</f>
+        <f>NK!D16</f>
         <v>7.311921296296297E-4</v>
       </c>
       <c r="O35" s="62">
-        <f>Tabelle1!D15</f>
+        <f>NK!D15</f>
         <v>9.9797453703703702E-4</v>
       </c>
       <c r="P35" s="62">
-        <f>Tabelle1!D17</f>
+        <f>NK!D17</f>
         <v>8.427372685185186E-4</v>
       </c>
       <c r="Q35" s="62">
-        <f>Tabelle1!D19</f>
+        <f>NK!D19</f>
         <v>2.0636574074074073E-3</v>
       </c>
       <c r="R35" s="62">
-        <f>Tabelle1!D18</f>
+        <f>NK!D18</f>
         <v>1.8880208333333333E-3</v>
       </c>
       <c r="S35" s="62">
@@ -21083,7 +21083,7 @@
         <v>182</v>
       </c>
       <c r="C36" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" s="59">
         <v>16</v>
@@ -21109,27 +21109,27 @@
         <v>10</v>
       </c>
       <c r="M36" s="62">
-        <f>Tabelle1!C14</f>
+        <f>NK!C14</f>
         <v>4.6730324074074068E-4</v>
       </c>
       <c r="N36" s="62">
-        <f>Tabelle1!C16</f>
+        <f>NK!C16</f>
         <v>7.378472222222222E-4</v>
       </c>
       <c r="O36" s="62">
-        <f>Tabelle1!C15</f>
+        <f>NK!C15</f>
         <v>1.0112847222222224E-3</v>
       </c>
       <c r="P36" s="62">
-        <f>Tabelle1!C17</f>
+        <f>NK!C17</f>
         <v>8.5908564814814821E-4</v>
       </c>
       <c r="Q36" s="62">
-        <f>Tabelle1!C19</f>
+        <f>NK!C19</f>
         <v>2.0860821759259261E-3</v>
       </c>
       <c r="R36" s="62">
-        <f>Tabelle1!C18</f>
+        <f>NK!C18</f>
         <v>1.9082754629629632E-3</v>
       </c>
       <c r="S36" s="62">
@@ -21191,27 +21191,27 @@
         <v>10</v>
       </c>
       <c r="M37" s="62">
-        <f>Tabelle1!K14</f>
+        <f>NK!K14</f>
         <v>5.6626157407407406E-4</v>
       </c>
       <c r="N37" s="62">
-        <f>Tabelle1!K16</f>
+        <f>NK!K16</f>
         <v>8.521412037037037E-4</v>
       </c>
       <c r="O37" s="62">
-        <f>Tabelle1!K15</f>
+        <f>NK!K15</f>
         <v>1.1524884259259259E-3</v>
       </c>
       <c r="P37" s="62">
-        <f>Tabelle1!K17</f>
+        <f>NK!K17</f>
         <v>9.4646990740740737E-4</v>
       </c>
       <c r="Q37" s="62">
-        <f>Tabelle1!K19</f>
+        <f>NK!K19</f>
         <v>2.2309027777777774E-3</v>
       </c>
       <c r="R37" s="62">
-        <f>Tabelle1!K18</f>
+        <f>NK!K18</f>
         <v>2.0263310185185185E-3</v>
       </c>
       <c r="S37" s="62">
@@ -21273,27 +21273,27 @@
         <v>10</v>
       </c>
       <c r="M38" s="62">
-        <f>Tabelle1!J14</f>
+        <f>NK!J14</f>
         <v>5.7769097222222228E-4</v>
       </c>
       <c r="N38" s="62">
-        <f>Tabelle1!J16</f>
+        <f>NK!J16</f>
         <v>8.6183449074074081E-4</v>
       </c>
       <c r="O38" s="62">
-        <f>Tabelle1!J15</f>
+        <f>NK!J15</f>
         <v>1.1731770833333334E-3</v>
       </c>
       <c r="P38" s="62">
-        <f>Tabelle1!J17</f>
+        <f>NK!J17</f>
         <v>9.6035879629629618E-4</v>
       </c>
       <c r="Q38" s="62">
-        <f>Tabelle1!J19</f>
+        <f>NK!J19</f>
         <v>2.2473958333333335E-3</v>
       </c>
       <c r="R38" s="62">
-        <f>Tabelle1!J18</f>
+        <f>NK!J18</f>
         <v>2.0339988425925925E-3</v>
       </c>
       <c r="S38" s="62">
@@ -21329,7 +21329,7 @@
         <v>164</v>
       </c>
       <c r="C39" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" s="59">
         <v>16</v>
@@ -21355,27 +21355,27 @@
         <v>10</v>
       </c>
       <c r="M39" s="62">
-        <f>Tabelle1!I14</f>
+        <f>NK!I14</f>
         <v>5.8854166666666668E-4</v>
       </c>
       <c r="N39" s="62">
-        <f>Tabelle1!I16</f>
+        <f>NK!I16</f>
         <v>8.7080439814814811E-4</v>
       </c>
       <c r="O39" s="62">
-        <f>Tabelle1!I15</f>
+        <f>NK!I15</f>
         <v>1.1922743055555556E-3</v>
       </c>
       <c r="P39" s="62">
-        <f>Tabelle1!I17</f>
+        <f>NK!I17</f>
         <v>9.730902777777778E-4</v>
       </c>
       <c r="Q39" s="62">
-        <f>Tabelle1!I19</f>
+        <f>NK!I19</f>
         <v>2.2627314814814815E-3</v>
       </c>
       <c r="R39" s="62">
-        <f>Tabelle1!I18</f>
+        <f>NK!I18</f>
         <v>2.0410879629629629E-3</v>
       </c>
       <c r="S39" s="62">
@@ -21551,7 +21551,7 @@
         <v>182</v>
       </c>
       <c r="C42" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" s="59">
         <v>16</v>
@@ -21761,7 +21761,7 @@
         <v>164</v>
       </c>
       <c r="C45" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="59">
         <v>16</v>
@@ -21971,7 +21971,7 @@
         <v>182</v>
       </c>
       <c r="C48" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" s="59">
         <v>16</v>
@@ -22181,7 +22181,7 @@
         <v>164</v>
       </c>
       <c r="C51" s="59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" s="59">
         <v>16</v>
@@ -22406,7 +22406,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E54" s="61">
         <v>45658</v>
@@ -22479,7 +22479,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D55" s="59">
         <v>19</v>
@@ -22634,7 +22634,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E57" s="61">
         <v>45658</v>
@@ -22707,7 +22707,7 @@
         <v>182</v>
       </c>
       <c r="C58" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D58" s="59">
         <v>19</v>
@@ -22862,7 +22862,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E60" s="61">
         <v>45658</v>
@@ -22935,7 +22935,7 @@
         <v>164</v>
       </c>
       <c r="C61" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D61" s="59">
         <v>19</v>
@@ -23090,7 +23090,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E63" s="61">
         <v>45658</v>
@@ -23163,7 +23163,7 @@
         <v>182</v>
       </c>
       <c r="C64" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D64" s="59">
         <v>19</v>
@@ -23318,7 +23318,7 @@
         <v>23</v>
       </c>
       <c r="D66" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E66" s="61">
         <v>45658</v>
@@ -23391,7 +23391,7 @@
         <v>164</v>
       </c>
       <c r="C67" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D67" s="59">
         <v>19</v>
@@ -23546,7 +23546,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E69" s="61">
         <v>45658</v>
@@ -23619,7 +23619,7 @@
         <v>182</v>
       </c>
       <c r="C70" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D70" s="59">
         <v>19</v>
@@ -23774,7 +23774,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E72" s="61">
         <v>45658</v>
@@ -23847,7 +23847,7 @@
         <v>164</v>
       </c>
       <c r="C73" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D73" s="59">
         <v>19</v>
@@ -24002,7 +24002,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E75" s="61">
         <v>45658</v>
@@ -24075,7 +24075,7 @@
         <v>182</v>
       </c>
       <c r="C76" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D76" s="59">
         <v>19</v>
@@ -24230,7 +24230,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E78" s="61">
         <v>45658</v>
@@ -24303,7 +24303,7 @@
         <v>164</v>
       </c>
       <c r="C79" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D79" s="59">
         <v>19</v>
@@ -24458,7 +24458,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E81" s="61">
         <v>45658</v>
@@ -24531,7 +24531,7 @@
         <v>182</v>
       </c>
       <c r="C82" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D82" s="59">
         <v>19</v>
@@ -24686,7 +24686,7 @@
         <v>23</v>
       </c>
       <c r="D84" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E84" s="61">
         <v>45658</v>
@@ -24759,7 +24759,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D85" s="59">
         <v>19</v>
@@ -24914,7 +24914,7 @@
         <v>23</v>
       </c>
       <c r="D87" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E87" s="61">
         <v>45658</v>
@@ -24987,7 +24987,7 @@
         <v>182</v>
       </c>
       <c r="C88" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D88" s="59">
         <v>19</v>
@@ -25142,7 +25142,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E90" s="61">
         <v>45658</v>
@@ -25215,7 +25215,7 @@
         <v>164</v>
       </c>
       <c r="C91" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D91" s="59">
         <v>19</v>
@@ -25370,7 +25370,7 @@
         <v>23</v>
       </c>
       <c r="D93" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E93" s="61">
         <v>45658</v>
@@ -25443,7 +25443,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D94" s="59">
         <v>19</v>
@@ -25598,7 +25598,7 @@
         <v>23</v>
       </c>
       <c r="D96" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E96" s="61">
         <v>45658</v>
@@ -25671,7 +25671,7 @@
         <v>164</v>
       </c>
       <c r="C97" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D97" s="59">
         <v>19</v>
@@ -25826,7 +25826,7 @@
         <v>23</v>
       </c>
       <c r="D99" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E99" s="61">
         <v>45658</v>
@@ -25899,7 +25899,7 @@
         <v>182</v>
       </c>
       <c r="C100" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D100" s="59">
         <v>19</v>
@@ -25925,27 +25925,27 @@
         <v>10</v>
       </c>
       <c r="M100" s="62">
-        <f>Tabelle1!$R$14</f>
+        <f>NK!$R$14</f>
         <v>4.6944444444444442E-4</v>
       </c>
       <c r="N100" s="62">
-        <f>Tabelle1!$R$16</f>
+        <f>NK!$R$16</f>
         <v>7.4328703703703709E-4</v>
       </c>
       <c r="O100" s="62">
-        <f>Tabelle1!$R$15</f>
+        <f>NK!$R$15</f>
         <v>1.0034375E-3</v>
       </c>
       <c r="P100" s="62">
-        <f>Tabelle1!$R$17</f>
+        <f>NK!$R$17</f>
         <v>8.3371527777777773E-4</v>
       </c>
       <c r="Q100" s="62">
-        <f>Tabelle1!$R$19</f>
+        <f>NK!$R$19</f>
         <v>2.0881250000000001E-3</v>
       </c>
       <c r="R100" s="62">
-        <f>Tabelle1!$R$18</f>
+        <f>NK!$R$18</f>
         <v>1.9107291666666667E-3</v>
       </c>
       <c r="S100" s="62">
@@ -26007,27 +26007,27 @@
         <v>10</v>
       </c>
       <c r="M101" s="62">
-        <f>Tabelle1!$S$14</f>
+        <f>NK!$S$14</f>
         <v>4.6523148148148151E-4</v>
       </c>
       <c r="N101" s="62">
-        <f>Tabelle1!$S$16</f>
+        <f>NK!$S$16</f>
         <v>7.3726851851851861E-4</v>
       </c>
       <c r="O101" s="62">
-        <f>Tabelle1!$S$15</f>
+        <f>NK!$S$15</f>
         <v>9.9155092592592611E-4</v>
       </c>
       <c r="P101" s="62">
-        <f>Tabelle1!$S$17</f>
+        <f>NK!$S$17</f>
         <v>8.1927083333333331E-4</v>
       </c>
       <c r="Q101" s="62">
-        <f>Tabelle1!$S$19</f>
+        <f>NK!$S$19</f>
         <v>2.0678125000000002E-3</v>
       </c>
       <c r="R101" s="62">
-        <f>Tabelle1!$S$18</f>
+        <f>NK!$S$18</f>
         <v>1.8922222222222224E-3</v>
       </c>
       <c r="S101" s="62">
@@ -26066,7 +26066,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E102" s="61">
         <v>45658</v>
@@ -26089,27 +26089,27 @@
         <v>10</v>
       </c>
       <c r="M102" s="62">
-        <f>Tabelle1!$T$14</f>
+        <f>NK!$T$14</f>
         <v>4.5244212962962968E-4</v>
       </c>
       <c r="N102" s="62">
-        <f>Tabelle1!$T$16</f>
+        <f>NK!$T$16</f>
         <v>7.1846064814814819E-4</v>
       </c>
       <c r="O102" s="62">
-        <f>Tabelle1!$T$15</f>
+        <f>NK!$T$15</f>
         <v>9.5453703703703705E-4</v>
       </c>
       <c r="P102" s="62">
-        <f>Tabelle1!$T$17</f>
+        <f>NK!$T$17</f>
         <v>7.7473379629629626E-4</v>
       </c>
       <c r="Q102" s="62">
-        <f>Tabelle1!$T$19</f>
+        <f>NK!$T$19</f>
         <v>2.0049189814814817E-3</v>
       </c>
       <c r="R102" s="62">
-        <f>Tabelle1!$T$18</f>
+        <f>NK!$T$18</f>
         <v>1.8350462962962962E-3</v>
       </c>
       <c r="S102" s="62">
@@ -26145,7 +26145,7 @@
         <v>164</v>
       </c>
       <c r="C103" s="59">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D103" s="59">
         <v>19</v>
@@ -26171,27 +26171,27 @@
         <v>10</v>
       </c>
       <c r="M103" s="62">
-        <f>Tabelle1!$X$14</f>
+        <f>NK!$X$14</f>
         <v>5.73263888888889E-4</v>
       </c>
       <c r="N103" s="62">
-        <f>Tabelle1!$X$16</f>
+        <f>NK!$X$16</f>
         <v>8.7313657407407414E-4</v>
       </c>
       <c r="O103" s="62">
-        <f>Tabelle1!$X$15</f>
+        <f>NK!$X$15</f>
         <v>1.1704513888888888E-3</v>
       </c>
       <c r="P103" s="62">
-        <f>Tabelle1!$X$17</f>
+        <f>NK!$X$17</f>
         <v>9.6537037037037034E-4</v>
       </c>
       <c r="Q103" s="62">
-        <f>Tabelle1!$X$19</f>
+        <f>NK!$X$19</f>
         <v>2.2975694444444445E-3</v>
       </c>
       <c r="R103" s="62">
-        <f>Tabelle1!$X$18</f>
+        <f>NK!$X$18</f>
         <v>2.0968518518518523E-3</v>
       </c>
       <c r="S103" s="62">
@@ -26253,27 +26253,27 @@
         <v>10</v>
       </c>
       <c r="M104" s="62">
-        <f>Tabelle1!$Y$14</f>
+        <f>NK!$Y$14</f>
         <v>5.6393518518518522E-4</v>
       </c>
       <c r="N104" s="62">
-        <f>Tabelle1!$Y$16</f>
+        <f>NK!$Y$16</f>
         <v>8.6501157407407403E-4</v>
       </c>
       <c r="O104" s="62">
-        <f>Tabelle1!$Y$15</f>
+        <f>NK!$Y$15</f>
         <v>1.1534490740740741E-3</v>
       </c>
       <c r="P104" s="62">
-        <f>Tabelle1!$Y$17</f>
+        <f>NK!$Y$17</f>
         <v>9.5378472222222229E-4</v>
       </c>
       <c r="Q104" s="62">
-        <f>Tabelle1!$Y$19</f>
+        <f>NK!$Y$19</f>
         <v>2.2834259259259262E-3</v>
       </c>
       <c r="R104" s="62">
-        <f>Tabelle1!$Y$18</f>
+        <f>NK!$Y$18</f>
         <v>2.090231481481482E-3</v>
       </c>
       <c r="S104" s="62">
@@ -26312,7 +26312,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E105" s="61">
         <v>45658</v>
@@ -26335,27 +26335,27 @@
         <v>10</v>
       </c>
       <c r="M105" s="62">
-        <f>Tabelle1!$Z$14</f>
+        <f>NK!$Z$14</f>
         <v>5.3504629629629627E-4</v>
       </c>
       <c r="N105" s="62">
-        <f>Tabelle1!$Z$16</f>
+        <f>NK!$Z$16</f>
         <v>8.3988425925925929E-4</v>
       </c>
       <c r="O105" s="62">
-        <f>Tabelle1!$Z$15</f>
+        <f>NK!$Z$15</f>
         <v>1.101087962962963E-3</v>
       </c>
       <c r="P105" s="62">
-        <f>Tabelle1!$Z$17</f>
+        <f>NK!$Z$17</f>
         <v>9.181250000000001E-4</v>
       </c>
       <c r="Q105" s="62">
-        <f>Tabelle1!$Z$19</f>
+        <f>NK!$Z$19</f>
         <v>2.2396412037037038E-3</v>
       </c>
       <c r="R105" s="62">
-        <f>Tabelle1!$Z$18</f>
+        <f>NK!$Z$18</f>
         <v>2.0694675925925924E-3</v>
       </c>
       <c r="S105" s="62">
@@ -26475,7 +26475,7 @@
   <dimension ref="B3:AA37"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14:AA19"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/web/utilities/records_kriterien.xlsx
+++ b/web/utilities/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D0693-B613-44E4-AABF-3CD019BF5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D29FB73-FBD6-4160-A66B-5422857C127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="6" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="275">
   <si>
     <t>50m Retten</t>
   </si>
@@ -1035,10 +1035,16 @@
     <t>NK1 +27,5% Frauen</t>
   </si>
   <si>
-    <t>NK1 +30% Mäner</t>
+    <t>NK1 +13% Mäner (bis 10 nominiert)</t>
   </si>
   <si>
-    <t>NK1 +30% Frauen</t>
+    <t>NK1 +18% Frauen (bis 10 nominiert)</t>
+  </si>
+  <si>
+    <t>NK2 +30% Mäner  (bis 6 nominiert)</t>
+  </si>
+  <si>
+    <t>NK2 +30% Frauen  (bis 6 nominiert)</t>
   </si>
 </sst>
 </file>
@@ -1521,96 +1527,6 @@
   </cellStyles>
   <dxfs count="194">
     <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="m:ss.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1702,6 +1618,96 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="m:ss.00"/>
@@ -4002,10 +4008,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$M$2:$M$105</c:f>
+              <c:f>JRP!$M$2:$M$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>4.6817129629629634E-4</c:v>
                 </c:pt>
@@ -4103,22 +4109,22 @@
                   <c:v>5.7677083333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.5775462962962962E-4</c:v>
+                  <c:v>4.5043055555555553E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6281828703703703E-4</c:v>
+                  <c:v>4.5541319444444443E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.6730324074074068E-4</c:v>
+                  <c:v>4.5982638888888885E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6626157407407406E-4</c:v>
+                  <c:v>5.3455092592592595E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7769097222222228E-4</c:v>
+                  <c:v>5.4534027777777773E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8854166666666668E-4</c:v>
+                  <c:v>5.5558333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4.6690972222222218E-4</c:v>
@@ -4301,22 +4307,34 @@
                   <c:v>5.2475694444444445E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6944444444444442E-4</c:v>
+                  <c:v>4.0805555555555549E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.6523148148148151E-4</c:v>
+                  <c:v>4.043935185185185E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.5244212962962968E-4</c:v>
+                  <c:v>3.9327662037037033E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.73263888888889E-4</c:v>
+                  <c:v>5.2034722222222228E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.6393518518518522E-4</c:v>
+                  <c:v>5.118796296296296E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.3504629629629627E-4</c:v>
+                  <c:v>4.8565740740740736E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.5043055555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.5541319444444443E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.5982638888888885E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.3455092592592595E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,10 +4373,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$N$2:$N$105</c:f>
+              <c:f>JRP!$N$2:$N$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>7.4872685185185188E-4</c:v>
                 </c:pt>
@@ -4456,22 +4474,22 @@
                   <c:v>8.5338831018518522E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2410300925925919E-4</c:v>
+                  <c:v>7.1251736111111103E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.311921296296297E-4</c:v>
+                  <c:v>7.1949305555555558E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.378472222222222E-4</c:v>
+                  <c:v>7.2604166666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.521412037037037E-4</c:v>
+                  <c:v>8.0442129629629624E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.6183449074074081E-4</c:v>
+                  <c:v>8.1357175925925933E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7080439814814811E-4</c:v>
+                  <c:v>8.2203935185185179E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7.3858506944444438E-4</c:v>
@@ -4654,22 +4672,34 @@
                   <c:v>8.2373263888888882E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.4328703703703709E-4</c:v>
+                  <c:v>6.4608796296296289E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.3726851851851861E-4</c:v>
+                  <c:v>6.4085648148148151E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.1846064814814819E-4</c:v>
+                  <c:v>6.2450810185185179E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.7313657407407414E-4</c:v>
+                  <c:v>7.9253935185185189E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6501157407407403E-4</c:v>
+                  <c:v>7.8516435185185178E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.3988425925925929E-4</c:v>
+                  <c:v>7.6235648148148148E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.1251736111111103E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.1949305555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.2604166666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.0442129629629624E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,10 +4738,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$O$2:$O$105</c:f>
+              <c:f>JRP!$O$2:$O$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>9.9224537037037033E-4</c:v>
                 </c:pt>
@@ -4809,22 +4839,22 @@
                   <c:v>1.1684288194444446E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.8365162037037019E-4</c:v>
+                  <c:v>9.6791319444444431E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9797453703703702E-4</c:v>
+                  <c:v>9.8200694444444442E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0112847222222224E-3</c:v>
+                  <c:v>9.9510416666666671E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1524884259259259E-3</c:v>
+                  <c:v>1.0879490740740739E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1731770833333334E-3</c:v>
+                  <c:v>1.1074791666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1922743055555556E-3</c:v>
+                  <c:v>1.1255069444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.0033246527777777E-3</c:v>
@@ -5007,22 +5037,34 @@
                   <c:v>1.0799131944444445E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0034375E-3</c:v>
+                  <c:v>8.7221874999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.9155092592592611E-4</c:v>
+                  <c:v>8.6188657407407405E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.5453703703703705E-4</c:v>
+                  <c:v>8.2971296296296287E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.1704513888888888E-3</c:v>
+                  <c:v>1.062409722222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.1534490740740741E-3</c:v>
+                  <c:v>1.0469768518518517E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.101087962962963E-3</c:v>
+                  <c:v>9.9944907407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.6791319444444431E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.8200694444444442E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.9510416666666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0879490740740739E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,10 +5103,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$P$2:$P$105</c:f>
+              <c:f>JRP!$P$2:$P$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>7.8888888888888889E-4</c:v>
                 </c:pt>
@@ -5162,22 +5204,22 @@
                   <c:v>9.5362847222222236E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.2494212962962968E-4</c:v>
+                  <c:v>8.1174305555555557E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.427372685185186E-4</c:v>
+                  <c:v>8.2925347222222222E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5908564814814821E-4</c:v>
+                  <c:v>8.4534027777777786E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4646990740740737E-4</c:v>
+                  <c:v>8.9346759259259251E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6035879629629618E-4</c:v>
+                  <c:v>9.065787037037035E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.730902777777778E-4</c:v>
+                  <c:v>9.1859722222222223E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8.4144097222222216E-4</c:v>
@@ -5360,22 +5402,34 @@
                   <c:v>9.0046875000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.3371527777777773E-4</c:v>
+                  <c:v>7.2469097222222206E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.1927083333333331E-4</c:v>
+                  <c:v>7.1213541666666658E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.7473379629629626E-4</c:v>
+                  <c:v>6.7342245370370364E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.6537037037037034E-4</c:v>
+                  <c:v>8.7625925925925914E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.5378472222222229E-4</c:v>
+                  <c:v>8.6574305555555547E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9.181250000000001E-4</c:v>
+                  <c:v>8.3337500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.1174305555555557E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.2925347222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.4534027777777786E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.9346759259259251E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5414,10 +5468,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$Q$2:$Q$105</c:f>
+              <c:f>JRP!$Q$2:$Q$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>1.9605324074074074E-3</c:v>
                 </c:pt>
@@ -5515,22 +5569,22 @@
                   <c:v>2.217476851851852E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0394965277777777E-3</c:v>
+                  <c:v>2.0068645833333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0636574074074073E-3</c:v>
+                  <c:v>2.0306388888888887E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0860821759259261E-3</c:v>
+                  <c:v>2.052704861111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2309027777777774E-3</c:v>
+                  <c:v>2.1059722222222218E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2473958333333335E-3</c:v>
+                  <c:v>2.1215416666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2627314814814815E-3</c:v>
+                  <c:v>2.1360185185185184E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.0802864583333333E-3</c:v>
@@ -5713,22 +5767,34 @@
                   <c:v>2.1965711805555553E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0881250000000001E-3</c:v>
+                  <c:v>1.8150624999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0678125000000002E-3</c:v>
+                  <c:v>1.79740625E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0049189814814817E-3</c:v>
+                  <c:v>1.7427372685185185E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2975694444444445E-3</c:v>
+                  <c:v>2.0854861111111109E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.2834259259259262E-3</c:v>
+                  <c:v>2.0726481481481481E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.2396412037037038E-3</c:v>
+                  <c:v>2.0329050925925922E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0068645833333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0306388888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.052704861111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1059722222222218E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5767,10 +5833,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$R$2:$R$105</c:f>
+              <c:f>JRP!$R$2:$R$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>1.7837962962962963E-3</c:v>
                 </c:pt>
@@ -5868,22 +5934,22 @@
                   <c:v>2.0002662037037038E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8660300925925923E-3</c:v>
+                  <c:v>1.8361736111111109E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8880208333333333E-3</c:v>
+                  <c:v>1.8578124999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9082754629629632E-3</c:v>
+                  <c:v>1.8777430555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0263310185185185E-3</c:v>
+                  <c:v>1.9128564814814813E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0339988425925925E-3</c:v>
+                  <c:v>1.9200949074074073E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0410879629629629E-3</c:v>
+                  <c:v>1.9267870370370367E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.9033506944444441E-3</c:v>
@@ -6066,22 +6132,34 @@
                   <c:v>2.0296701388888886E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9107291666666667E-3</c:v>
+                  <c:v>1.660864583333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8922222222222224E-3</c:v>
+                  <c:v>1.6447777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.8350462962962962E-3</c:v>
+                  <c:v>1.5950787037037034E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0968518518518523E-3</c:v>
+                  <c:v>1.9032962962962964E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.090231481481482E-3</c:v>
+                  <c:v>1.8972870370370372E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0694675925925924E-3</c:v>
+                  <c:v>1.8784398148148146E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8361736111111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8578124999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8777430555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.9128564814814813E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6124,10 +6202,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$S$2:$S$105</c:f>
+              <c:f>JRP!$S$2:$S$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>4.803240740740741E-4</c:v>
                 </c:pt>
@@ -6225,22 +6303,22 @@
                   <c:v>5.7677083333333332E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.5775462962962962E-4</c:v>
+                  <c:v>4.5043055555555553E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6281828703703703E-4</c:v>
+                  <c:v>4.5541319444444443E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.6730324074074068E-4</c:v>
+                  <c:v>4.5982638888888885E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6626157407407406E-4</c:v>
+                  <c:v>5.3455092592592595E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7769097222222228E-4</c:v>
+                  <c:v>5.4534027777777773E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8854166666666668E-4</c:v>
+                  <c:v>5.5558333333333328E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4.6690972222222218E-4</c:v>
@@ -6423,22 +6501,34 @@
                   <c:v>5.2475694444444445E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6944444444444442E-4</c:v>
+                  <c:v>4.0805555555555549E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.6523148148148151E-4</c:v>
+                  <c:v>4.043935185185185E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.5244212962962968E-4</c:v>
+                  <c:v>3.9327662037037033E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.73263888888889E-4</c:v>
+                  <c:v>5.2034722222222228E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.6393518518518522E-4</c:v>
+                  <c:v>5.118796296296296E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.3504629629629627E-4</c:v>
+                  <c:v>4.8565740740740736E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.5043055555555553E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.5541319444444443E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.5982638888888885E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.3455092592592595E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6481,10 +6571,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$T$2:$T$105</c:f>
+              <c:f>JRP!$T$2:$T$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>7.8599537037037039E-4</c:v>
                 </c:pt>
@@ -6582,22 +6672,22 @@
                   <c:v>8.5338831018518522E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.2410300925925919E-4</c:v>
+                  <c:v>7.1251736111111103E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.311921296296297E-4</c:v>
+                  <c:v>7.1949305555555558E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.378472222222222E-4</c:v>
+                  <c:v>7.2604166666666661E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.521412037037037E-4</c:v>
+                  <c:v>8.0442129629629624E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.6183449074074081E-4</c:v>
+                  <c:v>8.1357175925925933E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7080439814814811E-4</c:v>
+                  <c:v>8.2203935185185179E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7.3858506944444438E-4</c:v>
@@ -6780,22 +6870,34 @@
                   <c:v>8.2373263888888882E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.4328703703703709E-4</c:v>
+                  <c:v>6.4608796296296289E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.3726851851851861E-4</c:v>
+                  <c:v>6.4085648148148151E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.1846064814814819E-4</c:v>
+                  <c:v>6.2450810185185179E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.7313657407407414E-4</c:v>
+                  <c:v>7.9253935185185189E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.6501157407407403E-4</c:v>
+                  <c:v>7.8516435185185178E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.3988425925925929E-4</c:v>
+                  <c:v>7.6235648148148148E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>7.1251736111111103E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.1949305555555558E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.2604166666666661E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.0442129629629624E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6838,10 +6940,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$U$2:$U$105</c:f>
+              <c:f>JRP!$U$2:$U$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>1.0240740740740742E-3</c:v>
                 </c:pt>
@@ -6939,22 +7041,22 @@
                   <c:v>1.1684288194444446E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.8365162037037019E-4</c:v>
+                  <c:v>9.6791319444444431E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9797453703703702E-4</c:v>
+                  <c:v>9.8200694444444442E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0112847222222224E-3</c:v>
+                  <c:v>9.9510416666666671E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1524884259259259E-3</c:v>
+                  <c:v>1.0879490740740739E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1731770833333334E-3</c:v>
+                  <c:v>1.1074791666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1922743055555556E-3</c:v>
+                  <c:v>1.1255069444444444E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.0033246527777777E-3</c:v>
@@ -7137,22 +7239,34 @@
                   <c:v>1.0799131944444445E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.0034375E-3</c:v>
+                  <c:v>8.7221874999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.9155092592592611E-4</c:v>
+                  <c:v>8.6188657407407405E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.5453703703703705E-4</c:v>
+                  <c:v>8.2971296296296287E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.1704513888888888E-3</c:v>
+                  <c:v>1.062409722222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.1534490740740741E-3</c:v>
+                  <c:v>1.0469768518518517E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.101087962962963E-3</c:v>
+                  <c:v>9.9944907407407404E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.6791319444444431E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.8200694444444442E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.9510416666666671E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0879490740740739E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7195,10 +7309,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$V$2:$V$105</c:f>
+              <c:f>JRP!$V$2:$V$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>8.2766203703703712E-4</c:v>
                 </c:pt>
@@ -7296,22 +7410,22 @@
                   <c:v>9.5362847222222236E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.2494212962962968E-4</c:v>
+                  <c:v>8.1174305555555557E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.427372685185186E-4</c:v>
+                  <c:v>8.2925347222222222E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5908564814814821E-4</c:v>
+                  <c:v>8.4534027777777786E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.4646990740740737E-4</c:v>
+                  <c:v>8.9346759259259251E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6035879629629618E-4</c:v>
+                  <c:v>9.065787037037035E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.730902777777778E-4</c:v>
+                  <c:v>9.1859722222222223E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8.4144097222222216E-4</c:v>
@@ -7494,22 +7608,34 @@
                   <c:v>9.0046875000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.3371527777777773E-4</c:v>
+                  <c:v>7.2469097222222206E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.1927083333333331E-4</c:v>
+                  <c:v>7.1213541666666658E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.7473379629629626E-4</c:v>
+                  <c:v>6.7342245370370364E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.6537037037037034E-4</c:v>
+                  <c:v>8.7625925925925914E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.5378472222222229E-4</c:v>
+                  <c:v>8.6574305555555547E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>9.181250000000001E-4</c:v>
+                  <c:v>8.3337500000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.1174305555555557E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.2925347222222222E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.4534027777777786E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.9346759259259251E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7552,10 +7678,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$W$2:$W$105</c:f>
+              <c:f>JRP!$W$2:$W$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>2.0114583333333334E-3</c:v>
                 </c:pt>
@@ -7653,22 +7779,22 @@
                   <c:v>2.217476851851852E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0394965277777777E-3</c:v>
+                  <c:v>2.0068645833333332E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0636574074074073E-3</c:v>
+                  <c:v>2.0306388888888887E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0860821759259261E-3</c:v>
+                  <c:v>2.052704861111111E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2309027777777774E-3</c:v>
+                  <c:v>2.1059722222222218E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2473958333333335E-3</c:v>
+                  <c:v>2.1215416666666665E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2627314814814815E-3</c:v>
+                  <c:v>2.1360185185185184E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.0802864583333333E-3</c:v>
@@ -7851,22 +7977,34 @@
                   <c:v>2.1965711805555553E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0881250000000001E-3</c:v>
+                  <c:v>1.8150624999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0678125000000002E-3</c:v>
+                  <c:v>1.79740625E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.0049189814814817E-3</c:v>
+                  <c:v>1.7427372685185185E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.2975694444444445E-3</c:v>
+                  <c:v>2.0854861111111109E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.2834259259259262E-3</c:v>
+                  <c:v>2.0726481481481481E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.2396412037037038E-3</c:v>
+                  <c:v>2.0329050925925922E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0068645833333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0306388888888887E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.052704861111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1059722222222218E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,10 +8047,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>JRP!$X$2:$X$105</c:f>
+              <c:f>JRP!$X$2:$X$109</c:f>
               <c:numCache>
                 <c:formatCode>m:ss.00</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>1.8332175925925925E-3</c:v>
                 </c:pt>
@@ -8010,22 +8148,22 @@
                   <c:v>2.0002662037037038E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8660300925925923E-3</c:v>
+                  <c:v>1.8361736111111109E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8880208333333333E-3</c:v>
+                  <c:v>1.8578124999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9082754629629632E-3</c:v>
+                  <c:v>1.8777430555555557E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0263310185185185E-3</c:v>
+                  <c:v>1.9128564814814813E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0339988425925925E-3</c:v>
+                  <c:v>1.9200949074074073E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0410879629629629E-3</c:v>
+                  <c:v>1.9267870370370367E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1.9033506944444441E-3</c:v>
@@ -8208,22 +8346,34 @@
                   <c:v>2.0296701388888886E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.9107291666666667E-3</c:v>
+                  <c:v>1.660864583333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.8922222222222224E-3</c:v>
+                  <c:v>1.6447777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.8350462962962962E-3</c:v>
+                  <c:v>1.5950787037037034E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2.0968518518518523E-3</c:v>
+                  <c:v>1.9032962962962964E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.090231481481482E-3</c:v>
+                  <c:v>1.8972870370370372E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.0694675925925924E-3</c:v>
+                  <c:v>1.8784398148148146E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8361736111111109E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8578124999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8777430555555557E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.9128564814814813E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9014,15 +9164,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1058223</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>95547</xdr:rowOff>
+      <xdr:colOff>1246837</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>744899</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>151946</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>169627</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>161377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9297,8 +9447,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X105" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:X105" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}" name="JRP_konfig" displayName="JRP_konfig" ref="A1:X111" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X111" xr:uid="{D7CDEF11-F813-469D-9DE0-678961AB7005}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -9325,30 +9475,30 @@
     <filterColumn colId="23" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{021DA6E1-2C93-4474-9720-B6F016186D61}" name="Tabellen Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{733C1722-A9C9-4830-A9E2-FE62E96BCD98}" name="Geschlecht" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{80C0BF46-0E43-4947-BF86-B808C324772A}" name="Mindest Alter" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{DBA2A923-EEB7-43F9-A1A3-E78624448FB9}" name="Maximales Alter" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{3FDEE18A-328D-45AE-907D-69A916A93345}" name="Qualizeitraum anfang" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{BE002D7F-575F-4B60-9251-C71D93F59045}" name="Qualizeitraum Ende" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{208ABD57-DE4B-41D6-B9FC-93F2D8966E8D}" name="Letzter Wettkampf am" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{30C9697C-6550-4996-ADDB-7FEE5325B794}" name="Landesverband" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{ED2DAB77-EF46-4D8B-B8E4-90412E32E277}" name="OMS" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{AD534940-A91B-4A6E-9606-E3F3E517D401}" name="Pool-Länge" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{11F9D5D5-72FE-42CA-8624-01D513B4140F}" name="Regelwerk" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{3907872B-5438-4FBF-A045-3EF9EAACFC47}" name="Seiten Anzahl" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{FC821324-3638-40C0-BA1E-069B44E23C7A}" name="PZ1 - 50m Retten" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{70529619-443E-40D3-88C1-3E0F00BB2A50}" name="PZ1 - 100m Retten" dataDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{EFA92FD2-C23F-42B3-83DC-5036513F19AF}" name="PZ1 - 100m Kombi" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{03309E52-8CF3-4E90-9EE6-A818901C3B32}" name="PZ1 - 100m Lifesaver" dataDxfId="26"/>
-    <tableColumn id="17" xr3:uid="{00B22013-AA11-4C17-9250-22060AE4B0A8}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="25"/>
-    <tableColumn id="18" xr3:uid="{7E3508A9-0422-4561-A23E-53E613259B24}" name="PZ1 - 200m Hindernis" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{5CEA435F-F34B-4D8D-88D0-F5EBFF18B713}" name="PZ2 - 50m Retten" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{8585BE62-F7C4-4D5D-B287-052B43B08610}" name="PZ2 - 100m Retten" dataDxfId="22"/>
-    <tableColumn id="21" xr3:uid="{D981758B-ADAD-4E36-B787-0B0FDA808CA2}" name="PZ2 - 100m Kombi" dataDxfId="21"/>
-    <tableColumn id="22" xr3:uid="{1D4970A8-D22F-4962-934C-AEA295ED687A}" name="PZ2 - 100m Lifesaver" dataDxfId="20"/>
-    <tableColumn id="23" xr3:uid="{BE394430-C58F-4690-9615-44475E5AF9F8}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="19"/>
-    <tableColumn id="24" xr3:uid="{A7036B1A-99CE-4F7C-AAB8-12E8B2696202}" name="PZ2 - 200m Hindernis" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{021DA6E1-2C93-4474-9720-B6F016186D61}" name="Tabellen Name" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{733C1722-A9C9-4830-A9E2-FE62E96BCD98}" name="Geschlecht" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{80C0BF46-0E43-4947-BF86-B808C324772A}" name="Mindest Alter" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{DBA2A923-EEB7-43F9-A1A3-E78624448FB9}" name="Maximales Alter" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{3FDEE18A-328D-45AE-907D-69A916A93345}" name="Qualizeitraum anfang" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{BE002D7F-575F-4B60-9251-C71D93F59045}" name="Qualizeitraum Ende" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{208ABD57-DE4B-41D6-B9FC-93F2D8966E8D}" name="Letzter Wettkampf am" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{30C9697C-6550-4996-ADDB-7FEE5325B794}" name="Landesverband" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{ED2DAB77-EF46-4D8B-B8E4-90412E32E277}" name="OMS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{AD534940-A91B-4A6E-9606-E3F3E517D401}" name="Pool-Länge" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{11F9D5D5-72FE-42CA-8624-01D513B4140F}" name="Regelwerk" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{3907872B-5438-4FBF-A045-3EF9EAACFC47}" name="Seiten Anzahl" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{FC821324-3638-40C0-BA1E-069B44E23C7A}" name="PZ1 - 50m Retten" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{70529619-443E-40D3-88C1-3E0F00BB2A50}" name="PZ1 - 100m Retten" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{EFA92FD2-C23F-42B3-83DC-5036513F19AF}" name="PZ1 - 100m Kombi" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{03309E52-8CF3-4E90-9EE6-A818901C3B32}" name="PZ1 - 100m Lifesaver" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{00B22013-AA11-4C17-9250-22060AE4B0A8}" name="PZ1 - 200m Super-Lifesaver" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{7E3508A9-0422-4561-A23E-53E613259B24}" name="PZ1 - 200m Hindernis" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{5CEA435F-F34B-4D8D-88D0-F5EBFF18B713}" name="PZ2 - 50m Retten" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{8585BE62-F7C4-4D5D-B287-052B43B08610}" name="PZ2 - 100m Retten" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{D981758B-ADAD-4E36-B787-0B0FDA808CA2}" name="PZ2 - 100m Kombi" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{1D4970A8-D22F-4962-934C-AEA295ED687A}" name="PZ2 - 100m Lifesaver" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{BE394430-C58F-4690-9615-44475E5AF9F8}" name="PZ2 - 200m Super-Lifesaver" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{A7036B1A-99CE-4F7C-AAB8-12E8B2696202}" name="PZ2 - 200m Hindernis" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13293,52 +13443,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:G31">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="43" priority="15">
       <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:M31">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="42" priority="14">
       <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:S31">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>N5&lt;&gt;N4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:Y31">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>T5&lt;&gt;T4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AE31">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>Z5&lt;&gt;Z4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5:AK31">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>AF5&lt;&gt;AF4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL5:AN31">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="37" priority="6">
       <formula>AL5&lt;&gt;AL4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO5:AQ31">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>AO5&lt;&gt;AO4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:AT31">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AR5&lt;&gt;AR4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU5:AW31">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>AU5&lt;&gt;AU4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15943,22 +16093,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="7" priority="20">
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="5" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17294,22 +17444,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:G6">
-    <cfRule type="expression" dxfId="3" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>B6&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:G32">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>B7&lt;&gt;B6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:M6">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="27" priority="20">
       <formula>H6&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:M32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>H7&lt;&gt;H6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18563,10 +18713,10 @@
   <sheetPr codeName="Tabelle10">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="101" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20946,51 +21096,51 @@
       </c>
       <c r="M34" s="62">
         <f>NK!E14</f>
-        <v>4.5775462962962962E-4</v>
+        <v>4.5043055555555553E-4</v>
       </c>
       <c r="N34" s="62">
         <f>NK!E16</f>
-        <v>7.2410300925925919E-4</v>
+        <v>7.1251736111111103E-4</v>
       </c>
       <c r="O34" s="62">
         <f>NK!E15</f>
-        <v>9.8365162037037019E-4</v>
+        <v>9.6791319444444431E-4</v>
       </c>
       <c r="P34" s="62">
         <f>NK!E17</f>
-        <v>8.2494212962962968E-4</v>
+        <v>8.1174305555555557E-4</v>
       </c>
       <c r="Q34" s="62">
         <f>NK!E19</f>
-        <v>2.0394965277777777E-3</v>
+        <v>2.0068645833333332E-3</v>
       </c>
       <c r="R34" s="62">
         <f>NK!E18</f>
-        <v>1.8660300925925923E-3</v>
+        <v>1.8361736111111109E-3</v>
       </c>
       <c r="S34" s="62">
         <f>M34</f>
-        <v>4.5775462962962962E-4</v>
+        <v>4.5043055555555553E-4</v>
       </c>
       <c r="T34" s="62">
         <f t="shared" ref="T34:T39" si="0">N34</f>
-        <v>7.2410300925925919E-4</v>
+        <v>7.1251736111111103E-4</v>
       </c>
       <c r="U34" s="62">
         <f t="shared" ref="U34:U39" si="1">O34</f>
-        <v>9.8365162037037019E-4</v>
+        <v>9.6791319444444431E-4</v>
       </c>
       <c r="V34" s="62">
         <f t="shared" ref="V34:V39" si="2">P34</f>
-        <v>8.2494212962962968E-4</v>
+        <v>8.1174305555555557E-4</v>
       </c>
       <c r="W34" s="62">
         <f t="shared" ref="W34:W39" si="3">Q34</f>
-        <v>2.0394965277777777E-3</v>
+        <v>2.0068645833333332E-3</v>
       </c>
       <c r="X34" s="62">
         <f t="shared" ref="X34:X39" si="4">R34</f>
-        <v>1.8660300925925923E-3</v>
+        <v>1.8361736111111109E-3</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.45">
@@ -21028,51 +21178,51 @@
       </c>
       <c r="M35" s="62">
         <f>NK!D14</f>
-        <v>4.6281828703703703E-4</v>
+        <v>4.5541319444444443E-4</v>
       </c>
       <c r="N35" s="62">
         <f>NK!D16</f>
-        <v>7.311921296296297E-4</v>
+        <v>7.1949305555555558E-4</v>
       </c>
       <c r="O35" s="62">
         <f>NK!D15</f>
-        <v>9.9797453703703702E-4</v>
+        <v>9.8200694444444442E-4</v>
      